--- a/DataBase_Xiaodan.xlsx
+++ b/DataBase_Xiaodan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="361">
   <si>
     <t>Date</t>
   </si>
@@ -1088,6 +1088,9 @@
   </si>
   <si>
     <t>stim9</t>
+  </si>
+  <si>
+    <t>R8M2498</t>
   </si>
   <si>
     <t>R8M3(weight:22.5 Destrose:0.09ml)</t>
@@ -1882,7 +1885,49 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="973">
+  <dxfs count="979">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -8970,13 +9015,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y315"/>
+  <dimension ref="A1:Y318"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C230" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A234" sqref="A234:XFD234"/>
+      <selection pane="bottomRight" activeCell="D329" sqref="D329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27906,7 +27951,7 @@
         <v>20</v>
       </c>
       <c r="V312" s="48">
-        <v>24080</v>
+        <v>48080</v>
       </c>
     </row>
     <row r="313" spans="1:22" x14ac:dyDescent="0.25">
@@ -27962,7 +28007,7 @@
         <v>20</v>
       </c>
       <c r="V313" s="48">
-        <v>24080</v>
+        <v>48080</v>
       </c>
     </row>
     <row r="314" spans="1:22" x14ac:dyDescent="0.25">
@@ -28018,7 +28063,7 @@
         <v>20</v>
       </c>
       <c r="V314" s="48">
-        <v>24080</v>
+        <v>48080</v>
       </c>
     </row>
     <row r="315" spans="1:22" x14ac:dyDescent="0.25">
@@ -28074,4837 +28119,5015 @@
         <v>20</v>
       </c>
       <c r="V315" s="48">
-        <v>24080</v>
+        <v>48080</v>
+      </c>
+    </row>
+    <row r="316" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="21">
+        <v>200220</v>
+      </c>
+      <c r="B316" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C316" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D316" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="E316" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F316" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G316" s="48">
+        <v>20</v>
+      </c>
+      <c r="H316" s="48">
+        <v>20</v>
+      </c>
+      <c r="I316" s="48"/>
+      <c r="K316" s="48"/>
+      <c r="L316" s="48"/>
+      <c r="M316" s="48"/>
+      <c r="N316" s="48">
+        <v>20</v>
+      </c>
+      <c r="O316" s="48">
+        <v>80</v>
+      </c>
+      <c r="P316" s="48"/>
+      <c r="Q316" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="T316" s="187" t="s">
+        <v>20</v>
+      </c>
+      <c r="V316" s="48">
+        <v>48080</v>
+      </c>
+    </row>
+    <row r="317" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="21">
+        <v>200220</v>
+      </c>
+      <c r="B317" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="C317" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D317" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="E317" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F317" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G317" s="48">
+        <v>20</v>
+      </c>
+      <c r="H317" s="48">
+        <v>20</v>
+      </c>
+      <c r="I317" s="48"/>
+      <c r="K317" s="48"/>
+      <c r="L317" s="48"/>
+      <c r="M317" s="48"/>
+      <c r="N317" s="48">
+        <v>20</v>
+      </c>
+      <c r="O317" s="48">
+        <v>80</v>
+      </c>
+      <c r="P317" s="48"/>
+      <c r="Q317" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="T317" s="187" t="s">
+        <v>20</v>
+      </c>
+      <c r="V317" s="48">
+        <v>48080</v>
+      </c>
+    </row>
+    <row r="318" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="21">
+        <v>200220</v>
+      </c>
+      <c r="B318" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="C318" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D318" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="E318" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F318" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G318" s="48">
+        <v>20</v>
+      </c>
+      <c r="H318" s="48">
+        <v>20</v>
+      </c>
+      <c r="I318" s="48">
+        <v>30</v>
+      </c>
+      <c r="K318" s="48">
+        <v>600</v>
+      </c>
+      <c r="L318" s="48">
+        <v>100</v>
+      </c>
+      <c r="M318" s="48">
+        <v>5</v>
+      </c>
+      <c r="N318" s="48">
+        <v>20</v>
+      </c>
+      <c r="O318" s="48">
+        <v>80</v>
+      </c>
+      <c r="P318" s="48">
+        <v>3</v>
+      </c>
+      <c r="Q318" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="T318" s="187" t="s">
+        <v>20</v>
+      </c>
+      <c r="V318" s="48">
+        <v>48080</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B2 E4 A1:G1 D2:F2 R1:T2 R3:S3 U2 E3:F3 E7 F4:F5 S4:S7 R4:R12 R14:R15 T3:T16 D3:D27 V1:X1 K1:P1">
-    <cfRule type="expression" dxfId="972" priority="1117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="978" priority="1125" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="expression" dxfId="971" priority="1112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="977" priority="1120" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="970" priority="1111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="976" priority="1119" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="969" priority="1108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="975" priority="1116" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="expression" dxfId="968" priority="1106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="974" priority="1114" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="967" priority="1104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="973" priority="1112" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="966" priority="1103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="972" priority="1111" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="965" priority="1101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="971" priority="1109" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="964" priority="1100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="970" priority="1108" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10 F12 F14 F16">
+    <cfRule type="expression" dxfId="969" priority="1106" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="expression" dxfId="968" priority="1105" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11 F13 F15">
+    <cfRule type="expression" dxfId="967" priority="1103" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:E22 E26">
+    <cfRule type="expression" dxfId="966" priority="1102" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
+    <cfRule type="expression" dxfId="965" priority="1100" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U7">
+    <cfRule type="expression" dxfId="964" priority="1099" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9">
     <cfRule type="expression" dxfId="963" priority="1098" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="U11">
     <cfRule type="expression" dxfId="962" priority="1097" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11 F13 F15">
-    <cfRule type="expression" dxfId="961" priority="1095" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E22 E26">
-    <cfRule type="expression" dxfId="960" priority="1094" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4">
-    <cfRule type="expression" dxfId="959" priority="1092" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U7">
-    <cfRule type="expression" dxfId="958" priority="1091" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U9">
-    <cfRule type="expression" dxfId="957" priority="1090" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U11">
-    <cfRule type="expression" dxfId="956" priority="1089" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="955" priority="1082" stopIfTrue="1">
+    <cfRule type="expression" dxfId="961" priority="1090" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15">
-    <cfRule type="expression" dxfId="954" priority="1079" stopIfTrue="1">
+    <cfRule type="expression" dxfId="960" priority="1087" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="953" priority="1083" stopIfTrue="1">
+    <cfRule type="expression" dxfId="959" priority="1091" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="expression" dxfId="952" priority="1081" stopIfTrue="1">
+    <cfRule type="expression" dxfId="958" priority="1089" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13">
-    <cfRule type="expression" dxfId="951" priority="1080" stopIfTrue="1">
+    <cfRule type="expression" dxfId="957" priority="1088" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="950" priority="1078" stopIfTrue="1">
+    <cfRule type="expression" dxfId="956" priority="1086" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F22">
-    <cfRule type="expression" dxfId="949" priority="1077" stopIfTrue="1">
+    <cfRule type="expression" dxfId="955" priority="1085" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T27 T29">
-    <cfRule type="expression" dxfId="948" priority="1074" stopIfTrue="1">
+    <cfRule type="expression" dxfId="954" priority="1082" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17:U27">
-    <cfRule type="expression" dxfId="947" priority="1073" stopIfTrue="1">
+    <cfRule type="expression" dxfId="953" priority="1081" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17 R19 R21">
-    <cfRule type="expression" dxfId="946" priority="1070" stopIfTrue="1">
+    <cfRule type="expression" dxfId="952" priority="1078" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18 R20">
-    <cfRule type="expression" dxfId="945" priority="1069" stopIfTrue="1">
+    <cfRule type="expression" dxfId="951" priority="1077" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23 E27">
+    <cfRule type="expression" dxfId="950" priority="1074" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="expression" dxfId="949" priority="1073" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="expression" dxfId="948" priority="1071" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="947" priority="1070" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="expression" dxfId="946" priority="1068" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:F27">
+    <cfRule type="expression" dxfId="945" priority="1067" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:D29">
     <cfRule type="expression" dxfId="944" priority="1066" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="E28:E29">
     <cfRule type="expression" dxfId="943" priority="1065" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="942" priority="1063" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="941" priority="1062" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="940" priority="1060" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F27">
-    <cfRule type="expression" dxfId="939" priority="1059" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D29">
-    <cfRule type="expression" dxfId="938" priority="1058" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
-    <cfRule type="expression" dxfId="937" priority="1057" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F28:F29">
-    <cfRule type="expression" dxfId="936" priority="1056" stopIfTrue="1">
+    <cfRule type="expression" dxfId="942" priority="1064" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28">
-    <cfRule type="expression" dxfId="935" priority="1055" stopIfTrue="1">
+    <cfRule type="expression" dxfId="941" priority="1063" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="934" priority="1054" stopIfTrue="1">
+    <cfRule type="expression" dxfId="940" priority="1062" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="933" priority="1053" stopIfTrue="1">
+    <cfRule type="expression" dxfId="939" priority="1061" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="932" priority="1052" stopIfTrue="1">
+    <cfRule type="expression" dxfId="938" priority="1060" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30">
-    <cfRule type="expression" dxfId="931" priority="1051" stopIfTrue="1">
+    <cfRule type="expression" dxfId="937" priority="1059" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31">
-    <cfRule type="expression" dxfId="930" priority="1050" stopIfTrue="1">
+    <cfRule type="expression" dxfId="936" priority="1058" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="929" priority="1049" stopIfTrue="1">
+    <cfRule type="expression" dxfId="935" priority="1057" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="928" priority="1048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="934" priority="1056" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="expression" dxfId="927" priority="1047" stopIfTrue="1">
+    <cfRule type="expression" dxfId="933" priority="1055" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="926" priority="1046" stopIfTrue="1">
+    <cfRule type="expression" dxfId="932" priority="1054" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="925" priority="1045" stopIfTrue="1">
+    <cfRule type="expression" dxfId="931" priority="1053" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="924" priority="1044" stopIfTrue="1">
+    <cfRule type="expression" dxfId="930" priority="1052" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32">
-    <cfRule type="expression" dxfId="923" priority="1043" stopIfTrue="1">
+    <cfRule type="expression" dxfId="929" priority="1051" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D41">
-    <cfRule type="expression" dxfId="922" priority="1042" stopIfTrue="1">
+    <cfRule type="expression" dxfId="928" priority="1050" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="921" priority="1041" stopIfTrue="1">
+    <cfRule type="expression" dxfId="927" priority="1049" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38:T41">
-    <cfRule type="expression" dxfId="920" priority="1040" stopIfTrue="1">
+    <cfRule type="expression" dxfId="926" priority="1048" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U38:U41">
-    <cfRule type="expression" dxfId="919" priority="1039" stopIfTrue="1">
+    <cfRule type="expression" dxfId="925" priority="1047" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E41">
-    <cfRule type="expression" dxfId="918" priority="1038" stopIfTrue="1">
+    <cfRule type="expression" dxfId="924" priority="1046" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:F41">
-    <cfRule type="expression" dxfId="917" priority="1037" stopIfTrue="1">
+    <cfRule type="expression" dxfId="923" priority="1045" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T34">
-    <cfRule type="expression" dxfId="916" priority="1036" stopIfTrue="1">
+    <cfRule type="expression" dxfId="922" priority="1044" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="915" priority="1035" stopIfTrue="1">
+    <cfRule type="expression" dxfId="921" priority="1043" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="914" priority="1034" stopIfTrue="1">
+    <cfRule type="expression" dxfId="920" priority="1042" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="913" priority="1033" stopIfTrue="1">
+    <cfRule type="expression" dxfId="919" priority="1041" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T35">
-    <cfRule type="expression" dxfId="912" priority="1032" stopIfTrue="1">
+    <cfRule type="expression" dxfId="918" priority="1040" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="911" priority="1031" stopIfTrue="1">
+    <cfRule type="expression" dxfId="917" priority="1039" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="910" priority="1030" stopIfTrue="1">
+    <cfRule type="expression" dxfId="916" priority="1038" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="expression" dxfId="909" priority="1029" stopIfTrue="1">
+    <cfRule type="expression" dxfId="915" priority="1037" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T36">
-    <cfRule type="expression" dxfId="908" priority="1028" stopIfTrue="1">
+    <cfRule type="expression" dxfId="914" priority="1036" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="907" priority="1027" stopIfTrue="1">
+    <cfRule type="expression" dxfId="913" priority="1035" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="906" priority="1026" stopIfTrue="1">
+    <cfRule type="expression" dxfId="912" priority="1034" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="expression" dxfId="905" priority="1025" stopIfTrue="1">
+    <cfRule type="expression" dxfId="911" priority="1033" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T37">
-    <cfRule type="expression" dxfId="904" priority="1024" stopIfTrue="1">
+    <cfRule type="expression" dxfId="910" priority="1032" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="903" priority="1023" stopIfTrue="1">
+    <cfRule type="expression" dxfId="909" priority="1031" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="902" priority="1022" stopIfTrue="1">
+    <cfRule type="expression" dxfId="908" priority="1030" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="expression" dxfId="901" priority="1021" stopIfTrue="1">
+    <cfRule type="expression" dxfId="907" priority="1029" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="900" priority="1020" stopIfTrue="1">
+    <cfRule type="expression" dxfId="906" priority="1028" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="899" priority="1019" stopIfTrue="1">
+    <cfRule type="expression" dxfId="905" priority="1027" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="expression" dxfId="898" priority="1018" stopIfTrue="1">
+    <cfRule type="expression" dxfId="904" priority="1026" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33">
-    <cfRule type="expression" dxfId="897" priority="1017" stopIfTrue="1">
+    <cfRule type="expression" dxfId="903" priority="1025" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44">
-    <cfRule type="expression" dxfId="896" priority="1016" stopIfTrue="1">
+    <cfRule type="expression" dxfId="902" priority="1024" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="895" priority="1015" stopIfTrue="1">
+    <cfRule type="expression" dxfId="901" priority="1023" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="894" priority="1014" stopIfTrue="1">
+    <cfRule type="expression" dxfId="900" priority="1022" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="expression" dxfId="893" priority="1013" stopIfTrue="1">
+    <cfRule type="expression" dxfId="899" priority="1021" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T45">
-    <cfRule type="expression" dxfId="892" priority="1012" stopIfTrue="1">
+    <cfRule type="expression" dxfId="898" priority="1020" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="891" priority="1011" stopIfTrue="1">
+    <cfRule type="expression" dxfId="897" priority="1019" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" dxfId="890" priority="1010" stopIfTrue="1">
+    <cfRule type="expression" dxfId="896" priority="1018" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="expression" dxfId="889" priority="1009" stopIfTrue="1">
+    <cfRule type="expression" dxfId="895" priority="1017" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R42 T42 D42">
-    <cfRule type="expression" dxfId="888" priority="1008" stopIfTrue="1">
+    <cfRule type="expression" dxfId="894" priority="1016" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="expression" dxfId="887" priority="1007" stopIfTrue="1">
+    <cfRule type="expression" dxfId="893" priority="1015" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="886" priority="1006" stopIfTrue="1">
+    <cfRule type="expression" dxfId="892" priority="1014" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42">
-    <cfRule type="expression" dxfId="885" priority="1005" stopIfTrue="1">
+    <cfRule type="expression" dxfId="891" priority="1013" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R43 T43 D43">
-    <cfRule type="expression" dxfId="884" priority="1004" stopIfTrue="1">
+    <cfRule type="expression" dxfId="890" priority="1012" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="expression" dxfId="883" priority="1003" stopIfTrue="1">
+    <cfRule type="expression" dxfId="889" priority="1011" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="882" priority="1002" stopIfTrue="1">
+    <cfRule type="expression" dxfId="888" priority="1010" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U43">
-    <cfRule type="expression" dxfId="881" priority="1001" stopIfTrue="1">
+    <cfRule type="expression" dxfId="887" priority="1009" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="880" priority="1000" stopIfTrue="1">
+    <cfRule type="expression" dxfId="886" priority="1008" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="879" priority="999" stopIfTrue="1">
+    <cfRule type="expression" dxfId="885" priority="1007" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="878" priority="998" stopIfTrue="1">
+    <cfRule type="expression" dxfId="884" priority="1006" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U46:U47">
-    <cfRule type="expression" dxfId="877" priority="992" stopIfTrue="1">
+    <cfRule type="expression" dxfId="883" priority="1000" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="876" priority="997" stopIfTrue="1">
+    <cfRule type="expression" dxfId="882" priority="1005" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="875" priority="996" stopIfTrue="1">
+    <cfRule type="expression" dxfId="881" priority="1004" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="874" priority="995" stopIfTrue="1">
+    <cfRule type="expression" dxfId="880" priority="1003" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T46">
-    <cfRule type="expression" dxfId="873" priority="994" stopIfTrue="1">
+    <cfRule type="expression" dxfId="879" priority="1002" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T47">
-    <cfRule type="expression" dxfId="872" priority="993" stopIfTrue="1">
+    <cfRule type="expression" dxfId="878" priority="1001" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U59">
-    <cfRule type="expression" dxfId="871" priority="922" stopIfTrue="1">
+    <cfRule type="expression" dxfId="877" priority="930" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="870" priority="991" stopIfTrue="1">
+    <cfRule type="expression" dxfId="876" priority="999" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="869" priority="990" stopIfTrue="1">
+    <cfRule type="expression" dxfId="875" priority="998" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="expression" dxfId="868" priority="989" stopIfTrue="1">
+    <cfRule type="expression" dxfId="874" priority="997" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U48">
-    <cfRule type="expression" dxfId="867" priority="987" stopIfTrue="1">
+    <cfRule type="expression" dxfId="873" priority="995" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T48">
-    <cfRule type="expression" dxfId="866" priority="988" stopIfTrue="1">
+    <cfRule type="expression" dxfId="872" priority="996" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="865" priority="986" stopIfTrue="1">
+    <cfRule type="expression" dxfId="871" priority="994" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="864" priority="985" stopIfTrue="1">
+    <cfRule type="expression" dxfId="870" priority="993" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="expression" dxfId="863" priority="984" stopIfTrue="1">
+    <cfRule type="expression" dxfId="869" priority="992" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U49">
-    <cfRule type="expression" dxfId="862" priority="982" stopIfTrue="1">
+    <cfRule type="expression" dxfId="868" priority="990" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T49">
-    <cfRule type="expression" dxfId="861" priority="983" stopIfTrue="1">
+    <cfRule type="expression" dxfId="867" priority="991" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="860" priority="981" stopIfTrue="1">
+    <cfRule type="expression" dxfId="866" priority="989" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="859" priority="980" stopIfTrue="1">
+    <cfRule type="expression" dxfId="865" priority="988" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="expression" dxfId="858" priority="979" stopIfTrue="1">
+    <cfRule type="expression" dxfId="864" priority="987" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U50">
-    <cfRule type="expression" dxfId="857" priority="977" stopIfTrue="1">
+    <cfRule type="expression" dxfId="863" priority="985" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T50">
-    <cfRule type="expression" dxfId="856" priority="978" stopIfTrue="1">
+    <cfRule type="expression" dxfId="862" priority="986" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="855" priority="976" stopIfTrue="1">
+    <cfRule type="expression" dxfId="861" priority="984" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="854" priority="975" stopIfTrue="1">
+    <cfRule type="expression" dxfId="860" priority="983" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="expression" dxfId="853" priority="974" stopIfTrue="1">
+    <cfRule type="expression" dxfId="859" priority="982" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U51">
-    <cfRule type="expression" dxfId="852" priority="972" stopIfTrue="1">
+    <cfRule type="expression" dxfId="858" priority="980" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T51">
-    <cfRule type="expression" dxfId="851" priority="973" stopIfTrue="1">
+    <cfRule type="expression" dxfId="857" priority="981" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="850" priority="971" stopIfTrue="1">
+    <cfRule type="expression" dxfId="856" priority="979" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="849" priority="970" stopIfTrue="1">
+    <cfRule type="expression" dxfId="855" priority="978" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="expression" dxfId="848" priority="969" stopIfTrue="1">
+    <cfRule type="expression" dxfId="854" priority="977" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U52">
-    <cfRule type="expression" dxfId="847" priority="967" stopIfTrue="1">
+    <cfRule type="expression" dxfId="853" priority="975" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T52">
-    <cfRule type="expression" dxfId="846" priority="968" stopIfTrue="1">
+    <cfRule type="expression" dxfId="852" priority="976" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="845" priority="966" stopIfTrue="1">
+    <cfRule type="expression" dxfId="851" priority="974" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="844" priority="965" stopIfTrue="1">
+    <cfRule type="expression" dxfId="850" priority="973" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="expression" dxfId="843" priority="964" stopIfTrue="1">
+    <cfRule type="expression" dxfId="849" priority="972" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U53">
-    <cfRule type="expression" dxfId="842" priority="962" stopIfTrue="1">
+    <cfRule type="expression" dxfId="848" priority="970" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T53">
-    <cfRule type="expression" dxfId="841" priority="963" stopIfTrue="1">
+    <cfRule type="expression" dxfId="847" priority="971" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="840" priority="951" stopIfTrue="1">
+    <cfRule type="expression" dxfId="846" priority="959" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="839" priority="950" stopIfTrue="1">
+    <cfRule type="expression" dxfId="845" priority="958" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="expression" dxfId="838" priority="949" stopIfTrue="1">
+    <cfRule type="expression" dxfId="844" priority="957" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54">
-    <cfRule type="expression" dxfId="837" priority="947" stopIfTrue="1">
+    <cfRule type="expression" dxfId="843" priority="955" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T54">
-    <cfRule type="expression" dxfId="836" priority="948" stopIfTrue="1">
+    <cfRule type="expression" dxfId="842" priority="956" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="835" priority="946" stopIfTrue="1">
+    <cfRule type="expression" dxfId="841" priority="954" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="834" priority="945" stopIfTrue="1">
+    <cfRule type="expression" dxfId="840" priority="953" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="expression" dxfId="833" priority="944" stopIfTrue="1">
+    <cfRule type="expression" dxfId="839" priority="952" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U55">
-    <cfRule type="expression" dxfId="832" priority="942" stopIfTrue="1">
+    <cfRule type="expression" dxfId="838" priority="950" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55">
-    <cfRule type="expression" dxfId="831" priority="943" stopIfTrue="1">
+    <cfRule type="expression" dxfId="837" priority="951" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="830" priority="941" stopIfTrue="1">
+    <cfRule type="expression" dxfId="836" priority="949" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="829" priority="940" stopIfTrue="1">
+    <cfRule type="expression" dxfId="835" priority="948" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="expression" dxfId="828" priority="939" stopIfTrue="1">
+    <cfRule type="expression" dxfId="834" priority="947" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U56">
-    <cfRule type="expression" dxfId="827" priority="937" stopIfTrue="1">
+    <cfRule type="expression" dxfId="833" priority="945" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T56">
-    <cfRule type="expression" dxfId="826" priority="938" stopIfTrue="1">
+    <cfRule type="expression" dxfId="832" priority="946" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="825" priority="936" stopIfTrue="1">
+    <cfRule type="expression" dxfId="831" priority="944" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="824" priority="935" stopIfTrue="1">
+    <cfRule type="expression" dxfId="830" priority="943" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="expression" dxfId="823" priority="934" stopIfTrue="1">
+    <cfRule type="expression" dxfId="829" priority="942" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U57">
-    <cfRule type="expression" dxfId="822" priority="932" stopIfTrue="1">
+    <cfRule type="expression" dxfId="828" priority="940" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T57">
-    <cfRule type="expression" dxfId="821" priority="933" stopIfTrue="1">
+    <cfRule type="expression" dxfId="827" priority="941" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="820" priority="931" stopIfTrue="1">
+    <cfRule type="expression" dxfId="826" priority="939" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="819" priority="930" stopIfTrue="1">
+    <cfRule type="expression" dxfId="825" priority="938" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="expression" dxfId="818" priority="929" stopIfTrue="1">
+    <cfRule type="expression" dxfId="824" priority="937" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U58">
-    <cfRule type="expression" dxfId="817" priority="927" stopIfTrue="1">
+    <cfRule type="expression" dxfId="823" priority="935" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T58">
-    <cfRule type="expression" dxfId="816" priority="928" stopIfTrue="1">
+    <cfRule type="expression" dxfId="822" priority="936" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="821" priority="934" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="820" priority="933" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="expression" dxfId="819" priority="932" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T59">
+    <cfRule type="expression" dxfId="818" priority="931" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="817" priority="928" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="816" priority="927" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
     <cfRule type="expression" dxfId="815" priority="926" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="814" priority="925" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="813" priority="924" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T59">
+  <conditionalFormatting sqref="U60">
+    <cfRule type="expression" dxfId="814" priority="924" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T60">
+    <cfRule type="expression" dxfId="813" priority="925" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
     <cfRule type="expression" dxfId="812" priority="923" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="811" priority="920" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="810" priority="919" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="expression" dxfId="809" priority="918" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U60">
-    <cfRule type="expression" dxfId="808" priority="916" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T60">
-    <cfRule type="expression" dxfId="807" priority="917" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="806" priority="915" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="805" priority="914" stopIfTrue="1">
+    <cfRule type="expression" dxfId="811" priority="922" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="expression" dxfId="804" priority="913" stopIfTrue="1">
+    <cfRule type="expression" dxfId="810" priority="921" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U61">
-    <cfRule type="expression" dxfId="803" priority="911" stopIfTrue="1">
+    <cfRule type="expression" dxfId="809" priority="919" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T61">
-    <cfRule type="expression" dxfId="802" priority="912" stopIfTrue="1">
+    <cfRule type="expression" dxfId="808" priority="920" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="801" priority="910" stopIfTrue="1">
+    <cfRule type="expression" dxfId="807" priority="918" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="800" priority="909" stopIfTrue="1">
+    <cfRule type="expression" dxfId="806" priority="917" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="expression" dxfId="799" priority="908" stopIfTrue="1">
+    <cfRule type="expression" dxfId="805" priority="916" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U62">
-    <cfRule type="expression" dxfId="798" priority="906" stopIfTrue="1">
+    <cfRule type="expression" dxfId="804" priority="914" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T62">
-    <cfRule type="expression" dxfId="797" priority="907" stopIfTrue="1">
+    <cfRule type="expression" dxfId="803" priority="915" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="796" priority="905" stopIfTrue="1">
+    <cfRule type="expression" dxfId="802" priority="913" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="795" priority="904" stopIfTrue="1">
+    <cfRule type="expression" dxfId="801" priority="912" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="expression" dxfId="794" priority="903" stopIfTrue="1">
+    <cfRule type="expression" dxfId="800" priority="911" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U63">
-    <cfRule type="expression" dxfId="793" priority="901" stopIfTrue="1">
+    <cfRule type="expression" dxfId="799" priority="909" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T63">
-    <cfRule type="expression" dxfId="792" priority="902" stopIfTrue="1">
+    <cfRule type="expression" dxfId="798" priority="910" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U65">
-    <cfRule type="expression" dxfId="791" priority="891" stopIfTrue="1">
+    <cfRule type="expression" dxfId="797" priority="899" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="790" priority="900" stopIfTrue="1">
+    <cfRule type="expression" dxfId="796" priority="908" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="789" priority="899" stopIfTrue="1">
+    <cfRule type="expression" dxfId="795" priority="907" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="expression" dxfId="788" priority="898" stopIfTrue="1">
+    <cfRule type="expression" dxfId="794" priority="906" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U64">
-    <cfRule type="expression" dxfId="787" priority="896" stopIfTrue="1">
+    <cfRule type="expression" dxfId="793" priority="904" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T64">
-    <cfRule type="expression" dxfId="786" priority="897" stopIfTrue="1">
+    <cfRule type="expression" dxfId="792" priority="905" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="785" priority="895" stopIfTrue="1">
+    <cfRule type="expression" dxfId="791" priority="903" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="784" priority="894" stopIfTrue="1">
+    <cfRule type="expression" dxfId="790" priority="902" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="expression" dxfId="783" priority="893" stopIfTrue="1">
+    <cfRule type="expression" dxfId="789" priority="901" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T65">
-    <cfRule type="expression" dxfId="782" priority="892" stopIfTrue="1">
+    <cfRule type="expression" dxfId="788" priority="900" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U67">
-    <cfRule type="expression" dxfId="781" priority="881" stopIfTrue="1">
+    <cfRule type="expression" dxfId="787" priority="889" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="780" priority="890" stopIfTrue="1">
+    <cfRule type="expression" dxfId="786" priority="898" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="779" priority="889" stopIfTrue="1">
+    <cfRule type="expression" dxfId="785" priority="897" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="expression" dxfId="778" priority="888" stopIfTrue="1">
+    <cfRule type="expression" dxfId="784" priority="896" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U66">
-    <cfRule type="expression" dxfId="777" priority="886" stopIfTrue="1">
+    <cfRule type="expression" dxfId="783" priority="894" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T66">
+    <cfRule type="expression" dxfId="782" priority="895" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="781" priority="893" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" dxfId="780" priority="892" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="expression" dxfId="779" priority="891" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T67">
+    <cfRule type="expression" dxfId="778" priority="890" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="777" priority="888" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
     <cfRule type="expression" dxfId="776" priority="887" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="775" priority="885" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
+  <conditionalFormatting sqref="F68">
+    <cfRule type="expression" dxfId="775" priority="886" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U68">
     <cfRule type="expression" dxfId="774" priority="884" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
+  <conditionalFormatting sqref="D69">
     <cfRule type="expression" dxfId="773" priority="883" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T67">
+  <conditionalFormatting sqref="E69">
     <cfRule type="expression" dxfId="772" priority="882" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="771" priority="880" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
+  <conditionalFormatting sqref="F69">
+    <cfRule type="expression" dxfId="771" priority="881" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U69">
     <cfRule type="expression" dxfId="770" priority="879" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
+  <conditionalFormatting sqref="D70">
     <cfRule type="expression" dxfId="769" priority="878" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U68">
-    <cfRule type="expression" dxfId="768" priority="876" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
-    <cfRule type="expression" dxfId="767" priority="875" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="E70">
+    <cfRule type="expression" dxfId="768" priority="877" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70">
+    <cfRule type="expression" dxfId="767" priority="876" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U70">
     <cfRule type="expression" dxfId="766" priority="874" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
+  <conditionalFormatting sqref="D71">
     <cfRule type="expression" dxfId="765" priority="873" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U69">
-    <cfRule type="expression" dxfId="764" priority="871" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="expression" dxfId="763" priority="870" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="762" priority="869" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="expression" dxfId="761" priority="868" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U70">
-    <cfRule type="expression" dxfId="760" priority="866" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="expression" dxfId="759" priority="865" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="758" priority="864" stopIfTrue="1">
+    <cfRule type="expression" dxfId="764" priority="872" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="expression" dxfId="757" priority="863" stopIfTrue="1">
+    <cfRule type="expression" dxfId="763" priority="871" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U71">
-    <cfRule type="expression" dxfId="756" priority="859" stopIfTrue="1">
+    <cfRule type="expression" dxfId="762" priority="867" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="expression" dxfId="755" priority="858" stopIfTrue="1">
+    <cfRule type="expression" dxfId="761" priority="866" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="754" priority="857" stopIfTrue="1">
+    <cfRule type="expression" dxfId="760" priority="865" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72">
-    <cfRule type="expression" dxfId="753" priority="856" stopIfTrue="1">
+    <cfRule type="expression" dxfId="759" priority="864" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U72">
-    <cfRule type="expression" dxfId="752" priority="854" stopIfTrue="1">
+    <cfRule type="expression" dxfId="758" priority="862" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="expression" dxfId="751" priority="848" stopIfTrue="1">
+    <cfRule type="expression" dxfId="757" priority="856" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
+    <cfRule type="expression" dxfId="756" priority="855" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73">
+    <cfRule type="expression" dxfId="755" priority="854" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U73">
+    <cfRule type="expression" dxfId="754" priority="852" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="expression" dxfId="753" priority="851" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" dxfId="752" priority="850" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74">
+    <cfRule type="expression" dxfId="751" priority="849" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U74">
     <cfRule type="expression" dxfId="750" priority="847" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73">
+  <conditionalFormatting sqref="D75">
     <cfRule type="expression" dxfId="749" priority="846" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U73">
-    <cfRule type="expression" dxfId="748" priority="844" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="expression" dxfId="747" priority="843" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="748" priority="845" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75">
+    <cfRule type="expression" dxfId="747" priority="844" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U75">
     <cfRule type="expression" dxfId="746" priority="842" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
+  <conditionalFormatting sqref="D76">
     <cfRule type="expression" dxfId="745" priority="841" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U74">
-    <cfRule type="expression" dxfId="744" priority="839" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="expression" dxfId="743" priority="838" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="744" priority="840" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76">
+    <cfRule type="expression" dxfId="743" priority="839" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U76">
     <cfRule type="expression" dxfId="742" priority="837" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
+  <conditionalFormatting sqref="D77">
     <cfRule type="expression" dxfId="741" priority="836" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U75">
-    <cfRule type="expression" dxfId="740" priority="834" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
-    <cfRule type="expression" dxfId="739" priority="833" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
+  <conditionalFormatting sqref="E77">
+    <cfRule type="expression" dxfId="740" priority="835" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F77">
+    <cfRule type="expression" dxfId="739" priority="834" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U77">
     <cfRule type="expression" dxfId="738" priority="832" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
+  <conditionalFormatting sqref="D78">
     <cfRule type="expression" dxfId="737" priority="831" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U76">
-    <cfRule type="expression" dxfId="736" priority="829" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
-    <cfRule type="expression" dxfId="735" priority="828" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
+  <conditionalFormatting sqref="E78">
+    <cfRule type="expression" dxfId="736" priority="830" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78">
+    <cfRule type="expression" dxfId="735" priority="829" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U78">
     <cfRule type="expression" dxfId="734" priority="827" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77">
+  <conditionalFormatting sqref="D79">
     <cfRule type="expression" dxfId="733" priority="826" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U77">
-    <cfRule type="expression" dxfId="732" priority="824" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
-    <cfRule type="expression" dxfId="731" priority="823" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
+  <conditionalFormatting sqref="E79">
+    <cfRule type="expression" dxfId="732" priority="825" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79">
+    <cfRule type="expression" dxfId="731" priority="824" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U79">
     <cfRule type="expression" dxfId="730" priority="822" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
+  <conditionalFormatting sqref="D80">
     <cfRule type="expression" dxfId="729" priority="821" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U78">
-    <cfRule type="expression" dxfId="728" priority="819" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D79">
-    <cfRule type="expression" dxfId="727" priority="818" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="728" priority="820" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80">
+    <cfRule type="expression" dxfId="727" priority="819" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U80">
     <cfRule type="expression" dxfId="726" priority="817" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
+  <conditionalFormatting sqref="D81">
     <cfRule type="expression" dxfId="725" priority="816" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U79">
-    <cfRule type="expression" dxfId="724" priority="814" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D80">
-    <cfRule type="expression" dxfId="723" priority="813" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="E81">
+    <cfRule type="expression" dxfId="724" priority="815" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F81">
+    <cfRule type="expression" dxfId="723" priority="814" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U81">
     <cfRule type="expression" dxfId="722" priority="812" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F80">
+  <conditionalFormatting sqref="D82">
     <cfRule type="expression" dxfId="721" priority="811" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U80">
-    <cfRule type="expression" dxfId="720" priority="809" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D81">
-    <cfRule type="expression" dxfId="719" priority="808" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
+  <conditionalFormatting sqref="E82">
+    <cfRule type="expression" dxfId="720" priority="810" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F82">
+    <cfRule type="expression" dxfId="719" priority="809" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U82">
     <cfRule type="expression" dxfId="718" priority="807" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81">
+  <conditionalFormatting sqref="D83">
     <cfRule type="expression" dxfId="717" priority="806" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U81">
-    <cfRule type="expression" dxfId="716" priority="804" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D82">
-    <cfRule type="expression" dxfId="715" priority="803" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
+  <conditionalFormatting sqref="E83">
+    <cfRule type="expression" dxfId="716" priority="805" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83">
+    <cfRule type="expression" dxfId="715" priority="804" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U83">
     <cfRule type="expression" dxfId="714" priority="802" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F82">
+  <conditionalFormatting sqref="D84">
     <cfRule type="expression" dxfId="713" priority="801" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U82">
-    <cfRule type="expression" dxfId="712" priority="799" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="expression" dxfId="711" priority="798" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
+  <conditionalFormatting sqref="E84">
+    <cfRule type="expression" dxfId="712" priority="800" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84">
+    <cfRule type="expression" dxfId="711" priority="799" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U84">
     <cfRule type="expression" dxfId="710" priority="797" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83">
-    <cfRule type="expression" dxfId="709" priority="796" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U83">
-    <cfRule type="expression" dxfId="708" priority="794" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="expression" dxfId="707" priority="793" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="expression" dxfId="706" priority="792" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84">
-    <cfRule type="expression" dxfId="705" priority="791" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U84">
-    <cfRule type="expression" dxfId="704" priority="789" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T68:T84">
-    <cfRule type="expression" dxfId="703" priority="790" stopIfTrue="1">
+    <cfRule type="expression" dxfId="709" priority="798" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="expression" dxfId="702" priority="788" stopIfTrue="1">
+    <cfRule type="expression" dxfId="708" priority="796" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="expression" dxfId="701" priority="787" stopIfTrue="1">
+    <cfRule type="expression" dxfId="707" priority="795" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85">
-    <cfRule type="expression" dxfId="700" priority="786" stopIfTrue="1">
+    <cfRule type="expression" dxfId="706" priority="794" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U85">
-    <cfRule type="expression" dxfId="699" priority="784" stopIfTrue="1">
+    <cfRule type="expression" dxfId="705" priority="792" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T85">
-    <cfRule type="expression" dxfId="698" priority="785" stopIfTrue="1">
+    <cfRule type="expression" dxfId="704" priority="793" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="expression" dxfId="697" priority="783" stopIfTrue="1">
+    <cfRule type="expression" dxfId="703" priority="791" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="expression" dxfId="696" priority="782" stopIfTrue="1">
+    <cfRule type="expression" dxfId="702" priority="790" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86">
-    <cfRule type="expression" dxfId="695" priority="781" stopIfTrue="1">
+    <cfRule type="expression" dxfId="701" priority="789" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U86">
-    <cfRule type="expression" dxfId="694" priority="779" stopIfTrue="1">
+    <cfRule type="expression" dxfId="700" priority="787" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T86">
-    <cfRule type="expression" dxfId="693" priority="780" stopIfTrue="1">
+    <cfRule type="expression" dxfId="699" priority="788" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="expression" dxfId="692" priority="778" stopIfTrue="1">
+    <cfRule type="expression" dxfId="698" priority="786" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="691" priority="777" stopIfTrue="1">
+    <cfRule type="expression" dxfId="697" priority="785" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="expression" dxfId="690" priority="776" stopIfTrue="1">
+    <cfRule type="expression" dxfId="696" priority="784" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U87:U88">
-    <cfRule type="expression" dxfId="689" priority="774" stopIfTrue="1">
+    <cfRule type="expression" dxfId="695" priority="782" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T87:T88">
-    <cfRule type="expression" dxfId="688" priority="775" stopIfTrue="1">
+    <cfRule type="expression" dxfId="694" priority="783" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="expression" dxfId="687" priority="773" stopIfTrue="1">
+    <cfRule type="expression" dxfId="693" priority="781" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="expression" dxfId="686" priority="772" stopIfTrue="1">
+    <cfRule type="expression" dxfId="692" priority="780" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:F89">
-    <cfRule type="expression" dxfId="685" priority="771" stopIfTrue="1">
+    <cfRule type="expression" dxfId="691" priority="779" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89">
-    <cfRule type="expression" dxfId="684" priority="770" stopIfTrue="1">
+    <cfRule type="expression" dxfId="690" priority="778" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:F91">
-    <cfRule type="expression" dxfId="683" priority="769" stopIfTrue="1">
+    <cfRule type="expression" dxfId="689" priority="777" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:D91">
-    <cfRule type="expression" dxfId="682" priority="768" stopIfTrue="1">
+    <cfRule type="expression" dxfId="688" priority="776" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92">
-    <cfRule type="expression" dxfId="681" priority="767" stopIfTrue="1">
+    <cfRule type="expression" dxfId="687" priority="775" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92">
-    <cfRule type="expression" dxfId="680" priority="766" stopIfTrue="1">
+    <cfRule type="expression" dxfId="686" priority="774" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93">
-    <cfRule type="expression" dxfId="679" priority="765" stopIfTrue="1">
+    <cfRule type="expression" dxfId="685" priority="773" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="expression" dxfId="678" priority="764" stopIfTrue="1">
+    <cfRule type="expression" dxfId="684" priority="772" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="expression" dxfId="677" priority="763" stopIfTrue="1">
+    <cfRule type="expression" dxfId="683" priority="771" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="expression" dxfId="676" priority="762" stopIfTrue="1">
+    <cfRule type="expression" dxfId="682" priority="770" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F94">
-    <cfRule type="expression" dxfId="675" priority="761" stopIfTrue="1">
+    <cfRule type="expression" dxfId="681" priority="769" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U94">
-    <cfRule type="expression" dxfId="674" priority="759" stopIfTrue="1">
+    <cfRule type="expression" dxfId="680" priority="767" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T94">
-    <cfRule type="expression" dxfId="673" priority="760" stopIfTrue="1">
+    <cfRule type="expression" dxfId="679" priority="768" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95">
-    <cfRule type="expression" dxfId="672" priority="758" stopIfTrue="1">
+    <cfRule type="expression" dxfId="678" priority="766" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="expression" dxfId="671" priority="757" stopIfTrue="1">
+    <cfRule type="expression" dxfId="677" priority="765" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="expression" dxfId="670" priority="756" stopIfTrue="1">
+    <cfRule type="expression" dxfId="676" priority="764" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U95">
-    <cfRule type="expression" dxfId="669" priority="754" stopIfTrue="1">
+    <cfRule type="expression" dxfId="675" priority="762" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T95">
-    <cfRule type="expression" dxfId="668" priority="755" stopIfTrue="1">
+    <cfRule type="expression" dxfId="674" priority="763" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96">
-    <cfRule type="expression" dxfId="667" priority="753" stopIfTrue="1">
+    <cfRule type="expression" dxfId="673" priority="761" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="expression" dxfId="666" priority="752" stopIfTrue="1">
+    <cfRule type="expression" dxfId="672" priority="760" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="expression" dxfId="665" priority="751" stopIfTrue="1">
+    <cfRule type="expression" dxfId="671" priority="759" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U96">
-    <cfRule type="expression" dxfId="664" priority="749" stopIfTrue="1">
+    <cfRule type="expression" dxfId="670" priority="757" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T96">
-    <cfRule type="expression" dxfId="663" priority="750" stopIfTrue="1">
+    <cfRule type="expression" dxfId="669" priority="758" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="expression" dxfId="662" priority="748" stopIfTrue="1">
+    <cfRule type="expression" dxfId="668" priority="756" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" dxfId="661" priority="747" stopIfTrue="1">
+    <cfRule type="expression" dxfId="667" priority="755" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="expression" dxfId="660" priority="746" stopIfTrue="1">
+    <cfRule type="expression" dxfId="666" priority="754" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U97">
-    <cfRule type="expression" dxfId="659" priority="744" stopIfTrue="1">
+    <cfRule type="expression" dxfId="665" priority="752" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T97">
-    <cfRule type="expression" dxfId="658" priority="745" stopIfTrue="1">
+    <cfRule type="expression" dxfId="664" priority="753" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D98">
-    <cfRule type="expression" dxfId="657" priority="743" stopIfTrue="1">
+    <cfRule type="expression" dxfId="663" priority="751" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="656" priority="742" stopIfTrue="1">
+    <cfRule type="expression" dxfId="662" priority="750" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="expression" dxfId="655" priority="741" stopIfTrue="1">
+    <cfRule type="expression" dxfId="661" priority="749" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U98">
-    <cfRule type="expression" dxfId="654" priority="739" stopIfTrue="1">
+    <cfRule type="expression" dxfId="660" priority="747" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T98">
-    <cfRule type="expression" dxfId="653" priority="740" stopIfTrue="1">
+    <cfRule type="expression" dxfId="659" priority="748" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99">
-    <cfRule type="expression" dxfId="652" priority="738" stopIfTrue="1">
+    <cfRule type="expression" dxfId="658" priority="746" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="651" priority="737" stopIfTrue="1">
+    <cfRule type="expression" dxfId="657" priority="745" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99">
-    <cfRule type="expression" dxfId="650" priority="736" stopIfTrue="1">
+    <cfRule type="expression" dxfId="656" priority="744" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U99">
-    <cfRule type="expression" dxfId="649" priority="734" stopIfTrue="1">
+    <cfRule type="expression" dxfId="655" priority="742" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T99">
-    <cfRule type="expression" dxfId="648" priority="735" stopIfTrue="1">
+    <cfRule type="expression" dxfId="654" priority="743" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100">
-    <cfRule type="expression" dxfId="647" priority="733" stopIfTrue="1">
+    <cfRule type="expression" dxfId="653" priority="741" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="expression" dxfId="646" priority="732" stopIfTrue="1">
+    <cfRule type="expression" dxfId="652" priority="740" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100">
+    <cfRule type="expression" dxfId="651" priority="739" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U100">
+    <cfRule type="expression" dxfId="650" priority="737" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T100">
+    <cfRule type="expression" dxfId="649" priority="738" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D101">
+    <cfRule type="expression" dxfId="648" priority="736" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="expression" dxfId="647" priority="735" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F101">
+    <cfRule type="expression" dxfId="646" priority="734" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D102">
     <cfRule type="expression" dxfId="645" priority="731" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U100">
-    <cfRule type="expression" dxfId="644" priority="729" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T100">
-    <cfRule type="expression" dxfId="643" priority="730" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
-    <cfRule type="expression" dxfId="642" priority="728" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="641" priority="727" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F101">
-    <cfRule type="expression" dxfId="640" priority="726" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D102">
-    <cfRule type="expression" dxfId="639" priority="723" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="638" priority="722" stopIfTrue="1">
+    <cfRule type="expression" dxfId="644" priority="730" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102">
-    <cfRule type="expression" dxfId="637" priority="721" stopIfTrue="1">
+    <cfRule type="expression" dxfId="643" priority="729" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
+    <cfRule type="expression" dxfId="642" priority="726" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="expression" dxfId="641" priority="725" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F103">
+    <cfRule type="expression" dxfId="640" priority="724" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U101">
+    <cfRule type="expression" dxfId="639" priority="721" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U102">
+    <cfRule type="expression" dxfId="638" priority="720" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U103">
+    <cfRule type="expression" dxfId="637" priority="719" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104">
     <cfRule type="expression" dxfId="636" priority="718" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
+  <conditionalFormatting sqref="E104">
     <cfRule type="expression" dxfId="635" priority="717" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F103">
+  <conditionalFormatting sqref="F104">
     <cfRule type="expression" dxfId="634" priority="716" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U101">
-    <cfRule type="expression" dxfId="633" priority="713" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U102">
-    <cfRule type="expression" dxfId="632" priority="712" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U103">
-    <cfRule type="expression" dxfId="631" priority="711" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D104">
-    <cfRule type="expression" dxfId="630" priority="710" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="expression" dxfId="629" priority="709" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F104">
-    <cfRule type="expression" dxfId="628" priority="708" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U104">
-    <cfRule type="expression" dxfId="627" priority="706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="633" priority="714" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T104">
-    <cfRule type="expression" dxfId="626" priority="707" stopIfTrue="1">
+    <cfRule type="expression" dxfId="632" priority="715" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D105">
-    <cfRule type="expression" dxfId="625" priority="705" stopIfTrue="1">
+    <cfRule type="expression" dxfId="631" priority="713" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="624" priority="704" stopIfTrue="1">
+    <cfRule type="expression" dxfId="630" priority="712" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105">
-    <cfRule type="expression" dxfId="623" priority="703" stopIfTrue="1">
+    <cfRule type="expression" dxfId="629" priority="711" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U105">
-    <cfRule type="expression" dxfId="622" priority="701" stopIfTrue="1">
+    <cfRule type="expression" dxfId="628" priority="709" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T105">
-    <cfRule type="expression" dxfId="621" priority="702" stopIfTrue="1">
+    <cfRule type="expression" dxfId="627" priority="710" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106">
-    <cfRule type="expression" dxfId="620" priority="700" stopIfTrue="1">
+    <cfRule type="expression" dxfId="626" priority="708" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="619" priority="699" stopIfTrue="1">
+    <cfRule type="expression" dxfId="625" priority="707" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F106">
-    <cfRule type="expression" dxfId="618" priority="698" stopIfTrue="1">
+    <cfRule type="expression" dxfId="624" priority="706" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U106">
-    <cfRule type="expression" dxfId="617" priority="696" stopIfTrue="1">
+    <cfRule type="expression" dxfId="623" priority="704" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T106">
-    <cfRule type="expression" dxfId="616" priority="697" stopIfTrue="1">
+    <cfRule type="expression" dxfId="622" priority="705" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107">
-    <cfRule type="expression" dxfId="615" priority="695" stopIfTrue="1">
+    <cfRule type="expression" dxfId="621" priority="703" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="614" priority="694" stopIfTrue="1">
+    <cfRule type="expression" dxfId="620" priority="702" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="expression" dxfId="613" priority="693" stopIfTrue="1">
+    <cfRule type="expression" dxfId="619" priority="701" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T107">
-    <cfRule type="expression" dxfId="612" priority="692" stopIfTrue="1">
+    <cfRule type="expression" dxfId="618" priority="700" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U107">
-    <cfRule type="expression" dxfId="611" priority="691" stopIfTrue="1">
+    <cfRule type="expression" dxfId="617" priority="699" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108">
-    <cfRule type="expression" dxfId="610" priority="690" stopIfTrue="1">
+    <cfRule type="expression" dxfId="616" priority="698" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="expression" dxfId="609" priority="689" stopIfTrue="1">
+    <cfRule type="expression" dxfId="615" priority="697" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="expression" dxfId="608" priority="688" stopIfTrue="1">
+    <cfRule type="expression" dxfId="614" priority="696" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T108">
-    <cfRule type="expression" dxfId="607" priority="687" stopIfTrue="1">
+    <cfRule type="expression" dxfId="613" priority="695" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U108">
-    <cfRule type="expression" dxfId="606" priority="686" stopIfTrue="1">
+    <cfRule type="expression" dxfId="612" priority="694" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T101">
-    <cfRule type="expression" dxfId="605" priority="685" stopIfTrue="1">
+    <cfRule type="expression" dxfId="611" priority="693" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T102">
-    <cfRule type="expression" dxfId="604" priority="684" stopIfTrue="1">
+    <cfRule type="expression" dxfId="610" priority="692" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T103">
-    <cfRule type="expression" dxfId="603" priority="683" stopIfTrue="1">
+    <cfRule type="expression" dxfId="609" priority="691" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109:D115">
-    <cfRule type="expression" dxfId="602" priority="682" stopIfTrue="1">
+    <cfRule type="expression" dxfId="608" priority="690" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="expression" dxfId="601" priority="681" stopIfTrue="1">
+    <cfRule type="expression" dxfId="607" priority="689" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109">
-    <cfRule type="expression" dxfId="600" priority="680" stopIfTrue="1">
+    <cfRule type="expression" dxfId="606" priority="688" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T109">
+    <cfRule type="expression" dxfId="605" priority="687" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U109">
+    <cfRule type="expression" dxfId="604" priority="686" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="expression" dxfId="603" priority="684" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F110">
+    <cfRule type="expression" dxfId="602" priority="683" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T110">
+    <cfRule type="expression" dxfId="601" priority="682" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U110">
+    <cfRule type="expression" dxfId="600" priority="681" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
     <cfRule type="expression" dxfId="599" priority="679" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U109">
+  <conditionalFormatting sqref="F111">
     <cfRule type="expression" dxfId="598" priority="678" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="expression" dxfId="597" priority="676" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F110">
-    <cfRule type="expression" dxfId="596" priority="675" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T110">
+  <conditionalFormatting sqref="T111">
+    <cfRule type="expression" dxfId="597" priority="677" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U111">
+    <cfRule type="expression" dxfId="596" priority="676" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
     <cfRule type="expression" dxfId="595" priority="674" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U110">
+  <conditionalFormatting sqref="F112">
     <cfRule type="expression" dxfId="594" priority="673" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="expression" dxfId="593" priority="671" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F111">
-    <cfRule type="expression" dxfId="592" priority="670" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T111">
+  <conditionalFormatting sqref="T112">
+    <cfRule type="expression" dxfId="593" priority="672" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U112">
+    <cfRule type="expression" dxfId="592" priority="671" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
     <cfRule type="expression" dxfId="591" priority="669" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U111">
+  <conditionalFormatting sqref="F113">
     <cfRule type="expression" dxfId="590" priority="668" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="expression" dxfId="589" priority="666" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F112">
-    <cfRule type="expression" dxfId="588" priority="665" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T112">
+  <conditionalFormatting sqref="T113">
+    <cfRule type="expression" dxfId="589" priority="667" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U113">
+    <cfRule type="expression" dxfId="588" priority="666" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
     <cfRule type="expression" dxfId="587" priority="664" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U112">
+  <conditionalFormatting sqref="F114">
     <cfRule type="expression" dxfId="586" priority="663" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="expression" dxfId="585" priority="661" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F113">
-    <cfRule type="expression" dxfId="584" priority="660" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T113">
-    <cfRule type="expression" dxfId="583" priority="659" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U113">
-    <cfRule type="expression" dxfId="582" priority="658" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="expression" dxfId="581" priority="656" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F114">
-    <cfRule type="expression" dxfId="580" priority="655" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T114">
-    <cfRule type="expression" dxfId="579" priority="654" stopIfTrue="1">
+    <cfRule type="expression" dxfId="585" priority="662" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U114">
-    <cfRule type="expression" dxfId="578" priority="653" stopIfTrue="1">
+    <cfRule type="expression" dxfId="584" priority="661" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116">
-    <cfRule type="expression" dxfId="577" priority="652" stopIfTrue="1">
+    <cfRule type="expression" dxfId="583" priority="660" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115:E116">
-    <cfRule type="expression" dxfId="576" priority="651" stopIfTrue="1">
+    <cfRule type="expression" dxfId="582" priority="659" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F115">
-    <cfRule type="expression" dxfId="575" priority="650" stopIfTrue="1">
+    <cfRule type="expression" dxfId="581" priority="658" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T115">
-    <cfRule type="expression" dxfId="574" priority="649" stopIfTrue="1">
+    <cfRule type="expression" dxfId="580" priority="657" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U115">
-    <cfRule type="expression" dxfId="573" priority="648" stopIfTrue="1">
+    <cfRule type="expression" dxfId="579" priority="656" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F116">
-    <cfRule type="expression" dxfId="572" priority="647" stopIfTrue="1">
+    <cfRule type="expression" dxfId="578" priority="655" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D117">
-    <cfRule type="expression" dxfId="571" priority="646" stopIfTrue="1">
+    <cfRule type="expression" dxfId="577" priority="654" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="expression" dxfId="570" priority="645" stopIfTrue="1">
+    <cfRule type="expression" dxfId="576" priority="653" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F117">
-    <cfRule type="expression" dxfId="569" priority="644" stopIfTrue="1">
+    <cfRule type="expression" dxfId="575" priority="652" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D118">
-    <cfRule type="expression" dxfId="568" priority="643" stopIfTrue="1">
+    <cfRule type="expression" dxfId="574" priority="651" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="expression" dxfId="567" priority="642" stopIfTrue="1">
+    <cfRule type="expression" dxfId="573" priority="650" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118">
-    <cfRule type="expression" dxfId="566" priority="641" stopIfTrue="1">
+    <cfRule type="expression" dxfId="572" priority="649" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119">
-    <cfRule type="expression" dxfId="565" priority="640" stopIfTrue="1">
+    <cfRule type="expression" dxfId="571" priority="648" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="expression" dxfId="564" priority="639" stopIfTrue="1">
+    <cfRule type="expression" dxfId="570" priority="647" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="expression" dxfId="563" priority="638" stopIfTrue="1">
+    <cfRule type="expression" dxfId="569" priority="646" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D120">
-    <cfRule type="expression" dxfId="562" priority="628" stopIfTrue="1">
+    <cfRule type="expression" dxfId="568" priority="636" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="expression" dxfId="561" priority="627" stopIfTrue="1">
+    <cfRule type="expression" dxfId="567" priority="635" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="expression" dxfId="560" priority="626" stopIfTrue="1">
+    <cfRule type="expression" dxfId="566" priority="634" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T120">
-    <cfRule type="expression" dxfId="559" priority="625" stopIfTrue="1">
+    <cfRule type="expression" dxfId="565" priority="633" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D121">
-    <cfRule type="expression" dxfId="558" priority="624" stopIfTrue="1">
+    <cfRule type="expression" dxfId="564" priority="632" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="expression" dxfId="557" priority="623" stopIfTrue="1">
+    <cfRule type="expression" dxfId="563" priority="631" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F121">
-    <cfRule type="expression" dxfId="556" priority="622" stopIfTrue="1">
+    <cfRule type="expression" dxfId="562" priority="630" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T121">
-    <cfRule type="expression" dxfId="555" priority="621" stopIfTrue="1">
+    <cfRule type="expression" dxfId="561" priority="629" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D122">
-    <cfRule type="expression" dxfId="554" priority="620" stopIfTrue="1">
+    <cfRule type="expression" dxfId="560" priority="628" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="expression" dxfId="553" priority="619" stopIfTrue="1">
+    <cfRule type="expression" dxfId="559" priority="627" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122">
-    <cfRule type="expression" dxfId="552" priority="618" stopIfTrue="1">
+    <cfRule type="expression" dxfId="558" priority="626" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T122">
-    <cfRule type="expression" dxfId="551" priority="617" stopIfTrue="1">
+    <cfRule type="expression" dxfId="557" priority="625" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="expression" dxfId="550" priority="616" stopIfTrue="1">
+    <cfRule type="expression" dxfId="556" priority="624" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="expression" dxfId="549" priority="615" stopIfTrue="1">
+    <cfRule type="expression" dxfId="555" priority="623" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123">
-    <cfRule type="expression" dxfId="548" priority="614" stopIfTrue="1">
+    <cfRule type="expression" dxfId="554" priority="622" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T123">
-    <cfRule type="expression" dxfId="547" priority="613" stopIfTrue="1">
+    <cfRule type="expression" dxfId="553" priority="621" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D124">
-    <cfRule type="expression" dxfId="546" priority="612" stopIfTrue="1">
+    <cfRule type="expression" dxfId="552" priority="620" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="expression" dxfId="545" priority="611" stopIfTrue="1">
+    <cfRule type="expression" dxfId="551" priority="619" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F124:F127">
-    <cfRule type="expression" dxfId="544" priority="610" stopIfTrue="1">
+    <cfRule type="expression" dxfId="550" priority="618" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T124">
+    <cfRule type="expression" dxfId="549" priority="617" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D125">
+    <cfRule type="expression" dxfId="548" priority="616" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="expression" dxfId="547" priority="615" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T125">
+    <cfRule type="expression" dxfId="546" priority="613" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D126">
+    <cfRule type="expression" dxfId="545" priority="612" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
+    <cfRule type="expression" dxfId="544" priority="611" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T126">
     <cfRule type="expression" dxfId="543" priority="609" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D125">
+  <conditionalFormatting sqref="D127">
     <cfRule type="expression" dxfId="542" priority="608" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
+  <conditionalFormatting sqref="E127">
     <cfRule type="expression" dxfId="541" priority="607" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T125">
-    <cfRule type="expression" dxfId="540" priority="605" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D126">
-    <cfRule type="expression" dxfId="539" priority="604" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E126">
-    <cfRule type="expression" dxfId="538" priority="603" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T126">
-    <cfRule type="expression" dxfId="537" priority="601" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D127">
-    <cfRule type="expression" dxfId="536" priority="600" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="expression" dxfId="535" priority="599" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U126">
-    <cfRule type="expression" dxfId="534" priority="594" stopIfTrue="1">
+    <cfRule type="expression" dxfId="540" priority="602" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T127">
-    <cfRule type="expression" dxfId="533" priority="597" stopIfTrue="1">
+    <cfRule type="expression" dxfId="539" priority="605" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U124">
-    <cfRule type="expression" dxfId="532" priority="596" stopIfTrue="1">
+    <cfRule type="expression" dxfId="538" priority="604" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U125">
-    <cfRule type="expression" dxfId="531" priority="595" stopIfTrue="1">
+    <cfRule type="expression" dxfId="537" priority="603" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U127">
-    <cfRule type="expression" dxfId="530" priority="593" stopIfTrue="1">
+    <cfRule type="expression" dxfId="536" priority="601" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F128">
-    <cfRule type="expression" dxfId="529" priority="592" stopIfTrue="1">
+    <cfRule type="expression" dxfId="535" priority="600" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D128">
-    <cfRule type="expression" dxfId="528" priority="591" stopIfTrue="1">
+    <cfRule type="expression" dxfId="534" priority="599" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="expression" dxfId="527" priority="590" stopIfTrue="1">
+    <cfRule type="expression" dxfId="533" priority="598" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T128">
-    <cfRule type="expression" dxfId="526" priority="589" stopIfTrue="1">
+    <cfRule type="expression" dxfId="532" priority="597" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U128">
-    <cfRule type="expression" dxfId="525" priority="588" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="596" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D129">
-    <cfRule type="expression" dxfId="524" priority="587" stopIfTrue="1">
+    <cfRule type="expression" dxfId="530" priority="595" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="expression" dxfId="523" priority="586" stopIfTrue="1">
+    <cfRule type="expression" dxfId="529" priority="594" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F129">
-    <cfRule type="expression" dxfId="522" priority="585" stopIfTrue="1">
+    <cfRule type="expression" dxfId="528" priority="593" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T129">
-    <cfRule type="expression" dxfId="521" priority="584" stopIfTrue="1">
+    <cfRule type="expression" dxfId="527" priority="592" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F130">
-    <cfRule type="expression" dxfId="520" priority="583" stopIfTrue="1">
+    <cfRule type="expression" dxfId="526" priority="591" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D130">
-    <cfRule type="expression" dxfId="519" priority="582" stopIfTrue="1">
+    <cfRule type="expression" dxfId="525" priority="590" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="expression" dxfId="518" priority="581" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="589" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T130">
-    <cfRule type="expression" dxfId="517" priority="580" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="588" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U130">
-    <cfRule type="expression" dxfId="516" priority="579" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="587" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D131">
-    <cfRule type="expression" dxfId="515" priority="578" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="586" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131">
-    <cfRule type="expression" dxfId="514" priority="577" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="585" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131">
-    <cfRule type="expression" dxfId="513" priority="576" stopIfTrue="1">
+    <cfRule type="expression" dxfId="519" priority="584" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T131">
-    <cfRule type="expression" dxfId="512" priority="575" stopIfTrue="1">
+    <cfRule type="expression" dxfId="518" priority="583" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F132">
-    <cfRule type="expression" dxfId="511" priority="574" stopIfTrue="1">
+    <cfRule type="expression" dxfId="517" priority="582" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D132">
-    <cfRule type="expression" dxfId="510" priority="573" stopIfTrue="1">
+    <cfRule type="expression" dxfId="516" priority="581" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132">
-    <cfRule type="expression" dxfId="509" priority="572" stopIfTrue="1">
+    <cfRule type="expression" dxfId="515" priority="580" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T132">
-    <cfRule type="expression" dxfId="508" priority="571" stopIfTrue="1">
+    <cfRule type="expression" dxfId="514" priority="579" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U132">
-    <cfRule type="expression" dxfId="507" priority="570" stopIfTrue="1">
+    <cfRule type="expression" dxfId="513" priority="578" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D133">
-    <cfRule type="expression" dxfId="506" priority="569" stopIfTrue="1">
+    <cfRule type="expression" dxfId="512" priority="577" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="expression" dxfId="505" priority="568" stopIfTrue="1">
+    <cfRule type="expression" dxfId="511" priority="576" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F133">
-    <cfRule type="expression" dxfId="504" priority="567" stopIfTrue="1">
+    <cfRule type="expression" dxfId="510" priority="575" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T133">
-    <cfRule type="expression" dxfId="503" priority="566" stopIfTrue="1">
+    <cfRule type="expression" dxfId="509" priority="574" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134">
-    <cfRule type="expression" dxfId="502" priority="565" stopIfTrue="1">
+    <cfRule type="expression" dxfId="508" priority="573" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134">
-    <cfRule type="expression" dxfId="501" priority="564" stopIfTrue="1">
+    <cfRule type="expression" dxfId="507" priority="572" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" dxfId="500" priority="563" stopIfTrue="1">
+    <cfRule type="expression" dxfId="506" priority="571" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T134">
-    <cfRule type="expression" dxfId="499" priority="562" stopIfTrue="1">
+    <cfRule type="expression" dxfId="505" priority="570" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U134">
-    <cfRule type="expression" dxfId="498" priority="561" stopIfTrue="1">
+    <cfRule type="expression" dxfId="504" priority="569" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D135">
-    <cfRule type="expression" dxfId="497" priority="560" stopIfTrue="1">
+    <cfRule type="expression" dxfId="503" priority="568" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="expression" dxfId="496" priority="559" stopIfTrue="1">
+    <cfRule type="expression" dxfId="502" priority="567" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135">
-    <cfRule type="expression" dxfId="495" priority="558" stopIfTrue="1">
+    <cfRule type="expression" dxfId="501" priority="566" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T135">
-    <cfRule type="expression" dxfId="494" priority="557" stopIfTrue="1">
+    <cfRule type="expression" dxfId="500" priority="565" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F136">
-    <cfRule type="expression" dxfId="493" priority="556" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="564" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136">
-    <cfRule type="expression" dxfId="492" priority="555" stopIfTrue="1">
+    <cfRule type="expression" dxfId="498" priority="563" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="expression" dxfId="491" priority="554" stopIfTrue="1">
+    <cfRule type="expression" dxfId="497" priority="562" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T136">
-    <cfRule type="expression" dxfId="490" priority="553" stopIfTrue="1">
+    <cfRule type="expression" dxfId="496" priority="561" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U136">
-    <cfRule type="expression" dxfId="489" priority="552" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="560" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D137">
-    <cfRule type="expression" dxfId="488" priority="551" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="559" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="expression" dxfId="487" priority="550" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="558" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137">
-    <cfRule type="expression" dxfId="486" priority="549" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="557" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T137">
-    <cfRule type="expression" dxfId="485" priority="548" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="556" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F138">
-    <cfRule type="expression" dxfId="484" priority="547" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="555" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D138">
-    <cfRule type="expression" dxfId="483" priority="546" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="554" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
-    <cfRule type="expression" dxfId="482" priority="545" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="553" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T138">
-    <cfRule type="expression" dxfId="481" priority="544" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="552" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U138">
-    <cfRule type="expression" dxfId="480" priority="543" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="551" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D139">
-    <cfRule type="expression" dxfId="479" priority="542" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="550" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="expression" dxfId="478" priority="541" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="549" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F139">
-    <cfRule type="expression" dxfId="477" priority="540" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="548" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T139">
-    <cfRule type="expression" dxfId="476" priority="539" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="547" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="expression" dxfId="475" priority="538" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="546" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D140">
-    <cfRule type="expression" dxfId="474" priority="537" stopIfTrue="1">
+    <cfRule type="expression" dxfId="480" priority="545" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="expression" dxfId="473" priority="536" stopIfTrue="1">
+    <cfRule type="expression" dxfId="479" priority="544" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T140">
-    <cfRule type="expression" dxfId="472" priority="535" stopIfTrue="1">
+    <cfRule type="expression" dxfId="478" priority="543" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U140">
-    <cfRule type="expression" dxfId="471" priority="534" stopIfTrue="1">
+    <cfRule type="expression" dxfId="477" priority="542" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D141">
-    <cfRule type="expression" dxfId="470" priority="533" stopIfTrue="1">
+    <cfRule type="expression" dxfId="476" priority="541" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="expression" dxfId="469" priority="532" stopIfTrue="1">
+    <cfRule type="expression" dxfId="475" priority="540" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="expression" dxfId="468" priority="531" stopIfTrue="1">
+    <cfRule type="expression" dxfId="474" priority="539" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T141">
-    <cfRule type="expression" dxfId="467" priority="530" stopIfTrue="1">
+    <cfRule type="expression" dxfId="473" priority="538" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="expression" dxfId="466" priority="529" stopIfTrue="1">
+    <cfRule type="expression" dxfId="472" priority="537" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D142">
-    <cfRule type="expression" dxfId="465" priority="528" stopIfTrue="1">
+    <cfRule type="expression" dxfId="471" priority="536" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="expression" dxfId="464" priority="527" stopIfTrue="1">
+    <cfRule type="expression" dxfId="470" priority="535" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T142">
-    <cfRule type="expression" dxfId="463" priority="526" stopIfTrue="1">
+    <cfRule type="expression" dxfId="469" priority="534" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U142">
-    <cfRule type="expression" dxfId="462" priority="525" stopIfTrue="1">
+    <cfRule type="expression" dxfId="468" priority="533" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D143">
-    <cfRule type="expression" dxfId="461" priority="524" stopIfTrue="1">
+    <cfRule type="expression" dxfId="467" priority="532" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="expression" dxfId="460" priority="523" stopIfTrue="1">
+    <cfRule type="expression" dxfId="466" priority="531" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="expression" dxfId="459" priority="522" stopIfTrue="1">
+    <cfRule type="expression" dxfId="465" priority="530" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T143">
-    <cfRule type="expression" dxfId="458" priority="521" stopIfTrue="1">
+    <cfRule type="expression" dxfId="464" priority="529" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144">
-    <cfRule type="expression" dxfId="457" priority="520" stopIfTrue="1">
+    <cfRule type="expression" dxfId="463" priority="528" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D144">
-    <cfRule type="expression" dxfId="456" priority="519" stopIfTrue="1">
+    <cfRule type="expression" dxfId="462" priority="527" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144">
-    <cfRule type="expression" dxfId="455" priority="518" stopIfTrue="1">
+    <cfRule type="expression" dxfId="461" priority="526" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T144">
-    <cfRule type="expression" dxfId="454" priority="517" stopIfTrue="1">
+    <cfRule type="expression" dxfId="460" priority="525" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U144">
-    <cfRule type="expression" dxfId="453" priority="516" stopIfTrue="1">
+    <cfRule type="expression" dxfId="459" priority="524" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D145">
-    <cfRule type="expression" dxfId="452" priority="515" stopIfTrue="1">
+    <cfRule type="expression" dxfId="458" priority="523" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145">
-    <cfRule type="expression" dxfId="451" priority="514" stopIfTrue="1">
+    <cfRule type="expression" dxfId="457" priority="522" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F145">
-    <cfRule type="expression" dxfId="450" priority="513" stopIfTrue="1">
+    <cfRule type="expression" dxfId="456" priority="521" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T145">
-    <cfRule type="expression" dxfId="449" priority="512" stopIfTrue="1">
+    <cfRule type="expression" dxfId="455" priority="520" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F146">
-    <cfRule type="expression" dxfId="448" priority="511" stopIfTrue="1">
+    <cfRule type="expression" dxfId="454" priority="519" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="expression" dxfId="447" priority="510" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="518" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E146">
-    <cfRule type="expression" dxfId="446" priority="509" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="517" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T146">
-    <cfRule type="expression" dxfId="445" priority="508" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="516" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U146">
-    <cfRule type="expression" dxfId="444" priority="507" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="515" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D147">
-    <cfRule type="expression" dxfId="443" priority="506" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="514" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E147">
-    <cfRule type="expression" dxfId="442" priority="505" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="513" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147">
-    <cfRule type="expression" dxfId="441" priority="504" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="512" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T147">
-    <cfRule type="expression" dxfId="440" priority="503" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="511" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="expression" dxfId="439" priority="502" stopIfTrue="1">
+    <cfRule type="expression" dxfId="445" priority="510" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D148">
-    <cfRule type="expression" dxfId="438" priority="501" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="509" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E148">
-    <cfRule type="expression" dxfId="437" priority="500" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="508" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T148">
-    <cfRule type="expression" dxfId="436" priority="499" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="507" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U148">
-    <cfRule type="expression" dxfId="435" priority="498" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="506" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F149">
-    <cfRule type="expression" dxfId="434" priority="493" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="501" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149">
-    <cfRule type="expression" dxfId="433" priority="492" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="500" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149">
-    <cfRule type="expression" dxfId="432" priority="491" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="499" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T149">
-    <cfRule type="expression" dxfId="431" priority="490" stopIfTrue="1">
+    <cfRule type="expression" dxfId="437" priority="498" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U149">
-    <cfRule type="expression" dxfId="430" priority="489" stopIfTrue="1">
+    <cfRule type="expression" dxfId="436" priority="497" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F150">
-    <cfRule type="expression" dxfId="429" priority="484" stopIfTrue="1">
+    <cfRule type="expression" dxfId="435" priority="492" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150">
-    <cfRule type="expression" dxfId="428" priority="483" stopIfTrue="1">
+    <cfRule type="expression" dxfId="434" priority="491" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E150">
-    <cfRule type="expression" dxfId="427" priority="482" stopIfTrue="1">
+    <cfRule type="expression" dxfId="433" priority="490" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T150">
-    <cfRule type="expression" dxfId="426" priority="481" stopIfTrue="1">
+    <cfRule type="expression" dxfId="432" priority="489" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U150">
-    <cfRule type="expression" dxfId="425" priority="480" stopIfTrue="1">
+    <cfRule type="expression" dxfId="431" priority="488" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D151">
-    <cfRule type="expression" dxfId="424" priority="479" stopIfTrue="1">
+    <cfRule type="expression" dxfId="430" priority="487" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="expression" dxfId="423" priority="478" stopIfTrue="1">
+    <cfRule type="expression" dxfId="429" priority="486" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F151">
-    <cfRule type="expression" dxfId="422" priority="477" stopIfTrue="1">
+    <cfRule type="expression" dxfId="428" priority="485" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T151">
-    <cfRule type="expression" dxfId="421" priority="476" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="484" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F152">
-    <cfRule type="expression" dxfId="420" priority="475" stopIfTrue="1">
+    <cfRule type="expression" dxfId="426" priority="483" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D152">
-    <cfRule type="expression" dxfId="419" priority="474" stopIfTrue="1">
+    <cfRule type="expression" dxfId="425" priority="482" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="expression" dxfId="418" priority="473" stopIfTrue="1">
+    <cfRule type="expression" dxfId="424" priority="481" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T152">
-    <cfRule type="expression" dxfId="417" priority="472" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="480" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U152">
-    <cfRule type="expression" dxfId="416" priority="471" stopIfTrue="1">
+    <cfRule type="expression" dxfId="422" priority="479" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153">
-    <cfRule type="expression" dxfId="415" priority="470" stopIfTrue="1">
+    <cfRule type="expression" dxfId="421" priority="478" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E153">
-    <cfRule type="expression" dxfId="414" priority="469" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="477" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F153">
-    <cfRule type="expression" dxfId="413" priority="468" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="476" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T153">
-    <cfRule type="expression" dxfId="412" priority="467" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="475" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F154">
-    <cfRule type="expression" dxfId="411" priority="466" stopIfTrue="1">
+    <cfRule type="expression" dxfId="417" priority="474" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D154">
-    <cfRule type="expression" dxfId="410" priority="465" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="473" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="expression" dxfId="409" priority="464" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="472" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T154">
-    <cfRule type="expression" dxfId="408" priority="463" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="471" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U154">
-    <cfRule type="expression" dxfId="407" priority="462" stopIfTrue="1">
+    <cfRule type="expression" dxfId="413" priority="470" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155">
-    <cfRule type="expression" dxfId="406" priority="461" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="469" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155">
-    <cfRule type="expression" dxfId="405" priority="460" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="468" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155">
-    <cfRule type="expression" dxfId="404" priority="459" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="467" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T155">
-    <cfRule type="expression" dxfId="403" priority="458" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="466" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F156">
-    <cfRule type="expression" dxfId="402" priority="457" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="465" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D156">
-    <cfRule type="expression" dxfId="401" priority="456" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="464" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E156">
-    <cfRule type="expression" dxfId="400" priority="455" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="463" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T156">
-    <cfRule type="expression" dxfId="399" priority="454" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="462" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U156">
-    <cfRule type="expression" dxfId="398" priority="453" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="461" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D157">
-    <cfRule type="expression" dxfId="397" priority="452" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="460" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157">
-    <cfRule type="expression" dxfId="396" priority="451" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="459" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F157">
-    <cfRule type="expression" dxfId="395" priority="450" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="458" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T157">
-    <cfRule type="expression" dxfId="394" priority="449" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="457" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158">
-    <cfRule type="expression" dxfId="393" priority="448" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="456" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158">
-    <cfRule type="expression" dxfId="392" priority="447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="455" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="expression" dxfId="391" priority="446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="454" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T158">
-    <cfRule type="expression" dxfId="390" priority="445" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="453" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U158">
-    <cfRule type="expression" dxfId="389" priority="444" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="452" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D159">
-    <cfRule type="expression" dxfId="388" priority="443" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="451" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="expression" dxfId="387" priority="442" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="450" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F159">
-    <cfRule type="expression" dxfId="386" priority="441" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="449" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T159">
-    <cfRule type="expression" dxfId="385" priority="440" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="448" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F160">
-    <cfRule type="expression" dxfId="384" priority="439" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="447" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D160">
-    <cfRule type="expression" dxfId="383" priority="438" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="446" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="expression" dxfId="382" priority="437" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="445" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T160">
-    <cfRule type="expression" dxfId="381" priority="436" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="444" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U160">
-    <cfRule type="expression" dxfId="380" priority="435" stopIfTrue="1">
+    <cfRule type="expression" dxfId="386" priority="443" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161">
-    <cfRule type="expression" dxfId="379" priority="434" stopIfTrue="1">
+    <cfRule type="expression" dxfId="385" priority="442" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="expression" dxfId="378" priority="433" stopIfTrue="1">
+    <cfRule type="expression" dxfId="384" priority="441" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F161">
-    <cfRule type="expression" dxfId="377" priority="432" stopIfTrue="1">
+    <cfRule type="expression" dxfId="383" priority="440" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T161">
-    <cfRule type="expression" dxfId="376" priority="431" stopIfTrue="1">
+    <cfRule type="expression" dxfId="382" priority="439" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F162">
-    <cfRule type="expression" dxfId="375" priority="430" stopIfTrue="1">
+    <cfRule type="expression" dxfId="381" priority="438" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="expression" dxfId="374" priority="429" stopIfTrue="1">
+    <cfRule type="expression" dxfId="380" priority="437" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F163">
-    <cfRule type="expression" dxfId="373" priority="428" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="436" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F164">
-    <cfRule type="expression" dxfId="372" priority="427" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="435" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="expression" dxfId="371" priority="426" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="434" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T163">
-    <cfRule type="expression" dxfId="370" priority="425" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="433" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T164">
-    <cfRule type="expression" dxfId="369" priority="424" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="432" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U163">
-    <cfRule type="expression" dxfId="368" priority="423" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="431" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165">
-    <cfRule type="expression" dxfId="367" priority="422" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="430" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F165">
-    <cfRule type="expression" dxfId="366" priority="421" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="429" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T165:T166">
-    <cfRule type="expression" dxfId="365" priority="420" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="428" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E166">
-    <cfRule type="expression" dxfId="364" priority="419" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="427" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F166">
-    <cfRule type="expression" dxfId="363" priority="418" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="426" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F167">
-    <cfRule type="expression" dxfId="362" priority="417" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="425" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F170">
-    <cfRule type="expression" dxfId="361" priority="404" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="412" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E167">
-    <cfRule type="expression" dxfId="360" priority="415" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="423" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T167">
-    <cfRule type="expression" dxfId="359" priority="414" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="422" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U167">
-    <cfRule type="expression" dxfId="358" priority="413" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="421" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T168">
-    <cfRule type="expression" dxfId="357" priority="412" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="420" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168">
-    <cfRule type="expression" dxfId="356" priority="411" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="419" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F168">
-    <cfRule type="expression" dxfId="355" priority="410" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="418" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T169">
-    <cfRule type="expression" dxfId="354" priority="409" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="417" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E169">
-    <cfRule type="expression" dxfId="353" priority="408" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="416" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F169">
-    <cfRule type="expression" dxfId="352" priority="407" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="415" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T170">
-    <cfRule type="expression" dxfId="351" priority="406" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="414" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170">
-    <cfRule type="expression" dxfId="350" priority="405" stopIfTrue="1">
+    <cfRule type="expression" dxfId="356" priority="413" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T171">
-    <cfRule type="expression" dxfId="349" priority="403" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="411" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171">
-    <cfRule type="expression" dxfId="348" priority="402" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="410" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176">
-    <cfRule type="expression" dxfId="347" priority="386" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="394" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F171">
-    <cfRule type="expression" dxfId="346" priority="401" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="409" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:J1">
-    <cfRule type="expression" dxfId="345" priority="400" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="408" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U176">
-    <cfRule type="expression" dxfId="344" priority="383" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="391" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173">
-    <cfRule type="expression" dxfId="343" priority="393" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="401" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T172">
-    <cfRule type="expression" dxfId="342" priority="398" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="406" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E172">
-    <cfRule type="expression" dxfId="341" priority="397" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="405" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="expression" dxfId="340" priority="396" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="404" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T173">
-    <cfRule type="expression" dxfId="339" priority="395" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="403" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E173">
-    <cfRule type="expression" dxfId="338" priority="394" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="402" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T174">
-    <cfRule type="expression" dxfId="337" priority="392" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="400" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E174">
-    <cfRule type="expression" dxfId="336" priority="391" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="399" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F174">
+    <cfRule type="expression" dxfId="341" priority="398" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T175">
+    <cfRule type="expression" dxfId="340" priority="397" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E175">
+    <cfRule type="expression" dxfId="339" priority="396" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F175">
+    <cfRule type="expression" dxfId="338" priority="395" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E176">
+    <cfRule type="expression" dxfId="337" priority="393" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T176">
+    <cfRule type="expression" dxfId="336" priority="392" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T177">
     <cfRule type="expression" dxfId="335" priority="390" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T175">
+  <conditionalFormatting sqref="E177">
     <cfRule type="expression" dxfId="334" priority="389" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E175">
+  <conditionalFormatting sqref="F177">
     <cfRule type="expression" dxfId="333" priority="388" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F175">
+  <conditionalFormatting sqref="T178">
     <cfRule type="expression" dxfId="332" priority="387" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E176">
-    <cfRule type="expression" dxfId="331" priority="385" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T176">
-    <cfRule type="expression" dxfId="330" priority="384" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T177">
-    <cfRule type="expression" dxfId="329" priority="382" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E177">
-    <cfRule type="expression" dxfId="328" priority="381" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F177">
-    <cfRule type="expression" dxfId="327" priority="380" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T178">
-    <cfRule type="expression" dxfId="326" priority="379" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E178">
-    <cfRule type="expression" dxfId="325" priority="378" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="386" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F178">
-    <cfRule type="expression" dxfId="324" priority="377" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="385" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T179">
-    <cfRule type="expression" dxfId="323" priority="376" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="384" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E179">
-    <cfRule type="expression" dxfId="322" priority="375" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="383" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F179">
-    <cfRule type="expression" dxfId="321" priority="374" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="382" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T180">
-    <cfRule type="expression" dxfId="320" priority="373" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="381" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E180">
-    <cfRule type="expression" dxfId="319" priority="372" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="380" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F180">
-    <cfRule type="expression" dxfId="318" priority="371" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="379" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U181">
-    <cfRule type="expression" dxfId="317" priority="366" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="374" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E181">
-    <cfRule type="expression" dxfId="316" priority="369" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="377" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F181">
-    <cfRule type="expression" dxfId="315" priority="368" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="376" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T181">
-    <cfRule type="expression" dxfId="314" priority="367" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="375" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U182">
-    <cfRule type="expression" dxfId="313" priority="362" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="370" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E182">
-    <cfRule type="expression" dxfId="312" priority="365" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="373" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F182">
-    <cfRule type="expression" dxfId="311" priority="364" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="372" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T182">
-    <cfRule type="expression" dxfId="310" priority="363" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="371" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U183">
-    <cfRule type="expression" dxfId="309" priority="358" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="366" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E183">
-    <cfRule type="expression" dxfId="308" priority="361" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="369" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F183">
-    <cfRule type="expression" dxfId="307" priority="360" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="368" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T183">
-    <cfRule type="expression" dxfId="306" priority="359" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="367" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U184">
-    <cfRule type="expression" dxfId="305" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="362" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E184">
-    <cfRule type="expression" dxfId="304" priority="357" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="365" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F184">
-    <cfRule type="expression" dxfId="303" priority="356" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="364" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T184">
-    <cfRule type="expression" dxfId="302" priority="355" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="363" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U185">
-    <cfRule type="expression" dxfId="301" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="358" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E185">
-    <cfRule type="expression" dxfId="300" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="361" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F185">
-    <cfRule type="expression" dxfId="299" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="360" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T185">
-    <cfRule type="expression" dxfId="298" priority="351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="359" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U186">
-    <cfRule type="expression" dxfId="297" priority="346" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="354" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E186">
-    <cfRule type="expression" dxfId="296" priority="349" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="357" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F186">
-    <cfRule type="expression" dxfId="295" priority="348" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="356" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T186">
-    <cfRule type="expression" dxfId="294" priority="347" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="355" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U187">
-    <cfRule type="expression" dxfId="293" priority="342" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="350" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E187">
-    <cfRule type="expression" dxfId="292" priority="345" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="353" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F187">
-    <cfRule type="expression" dxfId="291" priority="344" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="352" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T187">
-    <cfRule type="expression" dxfId="290" priority="343" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="351" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U188">
-    <cfRule type="expression" dxfId="289" priority="338" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="346" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E188">
-    <cfRule type="expression" dxfId="288" priority="341" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="349" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F188">
-    <cfRule type="expression" dxfId="287" priority="340" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="348" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T188">
-    <cfRule type="expression" dxfId="286" priority="339" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="347" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F190">
-    <cfRule type="expression" dxfId="285" priority="334" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="342" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U190">
-    <cfRule type="expression" dxfId="284" priority="331" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="339" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T189">
+    <cfRule type="expression" dxfId="289" priority="345" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E189">
+    <cfRule type="expression" dxfId="288" priority="344" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F189">
+    <cfRule type="expression" dxfId="287" priority="343" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E190">
+    <cfRule type="expression" dxfId="286" priority="341" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T190">
+    <cfRule type="expression" dxfId="285" priority="340" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T191">
+    <cfRule type="expression" dxfId="284" priority="338" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E191">
     <cfRule type="expression" dxfId="283" priority="337" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E189">
+  <conditionalFormatting sqref="F191">
     <cfRule type="expression" dxfId="282" priority="336" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F189">
-    <cfRule type="expression" dxfId="281" priority="335" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E190">
-    <cfRule type="expression" dxfId="280" priority="333" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T190">
-    <cfRule type="expression" dxfId="279" priority="332" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T191">
-    <cfRule type="expression" dxfId="278" priority="330" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E191">
-    <cfRule type="expression" dxfId="277" priority="329" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F191">
-    <cfRule type="expression" dxfId="276" priority="328" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T192">
-    <cfRule type="expression" dxfId="275" priority="302" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="310" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E192">
-    <cfRule type="expression" dxfId="274" priority="301" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="309" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192">
-    <cfRule type="expression" dxfId="273" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="308" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T193">
-    <cfRule type="expression" dxfId="272" priority="299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="307" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E193">
-    <cfRule type="expression" dxfId="271" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="306" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F193">
-    <cfRule type="expression" dxfId="270" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="305" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T194">
-    <cfRule type="expression" dxfId="269" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="304" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="expression" dxfId="268" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="303" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194">
-    <cfRule type="expression" dxfId="267" priority="294" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="302" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U195">
-    <cfRule type="expression" dxfId="266" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="298" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="expression" dxfId="265" priority="293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="301" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="expression" dxfId="264" priority="292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="300" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T195">
-    <cfRule type="expression" dxfId="263" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="299" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T196">
-    <cfRule type="expression" dxfId="262" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="297" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196">
-    <cfRule type="expression" dxfId="261" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="296" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196">
-    <cfRule type="expression" dxfId="260" priority="287" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="295" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T197">
-    <cfRule type="expression" dxfId="259" priority="286" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="294" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197">
-    <cfRule type="expression" dxfId="258" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="293" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F197">
-    <cfRule type="expression" dxfId="257" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="292" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T198">
-    <cfRule type="expression" dxfId="256" priority="283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="291" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E198">
-    <cfRule type="expression" dxfId="255" priority="282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="290" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F198">
-    <cfRule type="expression" dxfId="254" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="289" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T199">
-    <cfRule type="expression" dxfId="253" priority="280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="288" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E199">
-    <cfRule type="expression" dxfId="252" priority="279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="287" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F199">
-    <cfRule type="expression" dxfId="251" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="286" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U200">
-    <cfRule type="expression" dxfId="250" priority="270" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="278" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E200">
-    <cfRule type="expression" dxfId="249" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="281" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F200">
-    <cfRule type="expression" dxfId="248" priority="272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="280" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T200">
-    <cfRule type="expression" dxfId="247" priority="271" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="279" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U201">
-    <cfRule type="expression" dxfId="246" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="274" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E201">
-    <cfRule type="expression" dxfId="245" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="277" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F201">
-    <cfRule type="expression" dxfId="244" priority="268" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="276" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T201:T205">
-    <cfRule type="expression" dxfId="243" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="275" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U202">
-    <cfRule type="expression" dxfId="242" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="270" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E202">
-    <cfRule type="expression" dxfId="241" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="273" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F202">
-    <cfRule type="expression" dxfId="240" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="272" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E213">
-    <cfRule type="expression" dxfId="239" priority="227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="235" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U203">
-    <cfRule type="expression" dxfId="238" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="266" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E203">
-    <cfRule type="expression" dxfId="237" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="269" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F203">
-    <cfRule type="expression" dxfId="236" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="268" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T215">
-    <cfRule type="expression" dxfId="235" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="231" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U204">
-    <cfRule type="expression" dxfId="234" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="262" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E204">
+    <cfRule type="expression" dxfId="239" priority="265" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F204">
+    <cfRule type="expression" dxfId="238" priority="264" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E216">
+    <cfRule type="expression" dxfId="237" priority="227" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U205">
+    <cfRule type="expression" dxfId="236" priority="258" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E205">
+    <cfRule type="expression" dxfId="235" priority="261" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F205">
+    <cfRule type="expression" dxfId="234" priority="260" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T206">
     <cfRule type="expression" dxfId="233" priority="257" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F204">
+  <conditionalFormatting sqref="E206">
     <cfRule type="expression" dxfId="232" priority="256" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E216">
-    <cfRule type="expression" dxfId="231" priority="219" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U205">
-    <cfRule type="expression" dxfId="230" priority="250" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E205">
+  <conditionalFormatting sqref="F206">
+    <cfRule type="expression" dxfId="231" priority="255" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T207">
+    <cfRule type="expression" dxfId="230" priority="254" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E207">
     <cfRule type="expression" dxfId="229" priority="253" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F205">
+  <conditionalFormatting sqref="F207">
     <cfRule type="expression" dxfId="228" priority="252" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T206">
-    <cfRule type="expression" dxfId="227" priority="249" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E206">
-    <cfRule type="expression" dxfId="226" priority="248" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F206">
-    <cfRule type="expression" dxfId="225" priority="247" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T207">
-    <cfRule type="expression" dxfId="224" priority="246" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E207">
-    <cfRule type="expression" dxfId="223" priority="245" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F207">
-    <cfRule type="expression" dxfId="222" priority="244" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T208">
-    <cfRule type="expression" dxfId="221" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="251" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E208">
-    <cfRule type="expression" dxfId="220" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="250" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208:F209">
-    <cfRule type="expression" dxfId="219" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="249" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T209">
-    <cfRule type="expression" dxfId="218" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="248" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E209">
-    <cfRule type="expression" dxfId="217" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="247" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T210">
-    <cfRule type="expression" dxfId="216" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="245" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E210">
-    <cfRule type="expression" dxfId="215" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="244" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F210">
-    <cfRule type="expression" dxfId="214" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="243" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T211">
-    <cfRule type="expression" dxfId="213" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="242" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E211">
-    <cfRule type="expression" dxfId="212" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="241" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211">
-    <cfRule type="expression" dxfId="211" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="240" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T212">
-    <cfRule type="expression" dxfId="210" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="239" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E212">
+    <cfRule type="expression" dxfId="215" priority="238" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F212:F213">
+    <cfRule type="expression" dxfId="214" priority="237" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T213">
+    <cfRule type="expression" dxfId="213" priority="236" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T214">
+    <cfRule type="expression" dxfId="212" priority="234" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E214">
+    <cfRule type="expression" dxfId="211" priority="233" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F214">
+    <cfRule type="expression" dxfId="210" priority="232" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E215">
     <cfRule type="expression" dxfId="209" priority="230" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F212:F213">
+  <conditionalFormatting sqref="F215">
     <cfRule type="expression" dxfId="208" priority="229" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T213">
+  <conditionalFormatting sqref="T216">
     <cfRule type="expression" dxfId="207" priority="228" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T214">
+  <conditionalFormatting sqref="F216:F217">
     <cfRule type="expression" dxfId="206" priority="226" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E214">
+  <conditionalFormatting sqref="T217">
     <cfRule type="expression" dxfId="205" priority="225" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F214">
+  <conditionalFormatting sqref="E217">
     <cfRule type="expression" dxfId="204" priority="224" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E215">
-    <cfRule type="expression" dxfId="203" priority="222" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F215">
-    <cfRule type="expression" dxfId="202" priority="221" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T216">
-    <cfRule type="expression" dxfId="201" priority="220" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F216:F217">
+  <conditionalFormatting sqref="E221">
+    <cfRule type="expression" dxfId="203" priority="221" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F221">
+    <cfRule type="expression" dxfId="202" priority="220" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E222">
+    <cfRule type="expression" dxfId="201" priority="219" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F222">
     <cfRule type="expression" dxfId="200" priority="218" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T217">
+  <conditionalFormatting sqref="E223">
     <cfRule type="expression" dxfId="199" priority="217" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E217">
+  <conditionalFormatting sqref="F223">
     <cfRule type="expression" dxfId="198" priority="216" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E221">
-    <cfRule type="expression" dxfId="197" priority="213" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F221">
-    <cfRule type="expression" dxfId="196" priority="212" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E222">
-    <cfRule type="expression" dxfId="195" priority="211" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F222">
-    <cfRule type="expression" dxfId="194" priority="210" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E223">
-    <cfRule type="expression" dxfId="193" priority="209" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F223">
-    <cfRule type="expression" dxfId="192" priority="208" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E220">
-    <cfRule type="expression" dxfId="191" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="215" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F220">
-    <cfRule type="expression" dxfId="190" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="214" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E218">
-    <cfRule type="expression" dxfId="189" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="213" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F218">
-    <cfRule type="expression" dxfId="188" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="212" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E219">
-    <cfRule type="expression" dxfId="187" priority="203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="211" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F219">
-    <cfRule type="expression" dxfId="186" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="210" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E224">
-    <cfRule type="expression" dxfId="185" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="209" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F224">
-    <cfRule type="expression" dxfId="184" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="208" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E225">
+    <cfRule type="expression" dxfId="189" priority="207" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F225">
+    <cfRule type="expression" dxfId="188" priority="206" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E226:E227">
+    <cfRule type="expression" dxfId="187" priority="205" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F226">
+    <cfRule type="expression" dxfId="186" priority="204" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F227">
+    <cfRule type="expression" dxfId="185" priority="203" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U234">
+    <cfRule type="expression" dxfId="184" priority="180" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U228">
     <cfRule type="expression" dxfId="183" priority="199" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F225">
-    <cfRule type="expression" dxfId="182" priority="198" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E226:E227">
-    <cfRule type="expression" dxfId="181" priority="197" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F226">
-    <cfRule type="expression" dxfId="180" priority="196" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F227">
-    <cfRule type="expression" dxfId="179" priority="195" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U234">
-    <cfRule type="expression" dxfId="178" priority="172" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U228">
-    <cfRule type="expression" dxfId="177" priority="191" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E228">
-    <cfRule type="expression" dxfId="176" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="201" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F228">
-    <cfRule type="expression" dxfId="175" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="200" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E237">
-    <cfRule type="expression" dxfId="174" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="174" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E229">
-    <cfRule type="expression" dxfId="173" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="198" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F229">
-    <cfRule type="expression" dxfId="172" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="197" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T230:T231">
-    <cfRule type="expression" dxfId="171" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="195" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U230">
-    <cfRule type="expression" dxfId="170" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="192" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E230">
-    <cfRule type="expression" dxfId="169" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="194" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F230">
-    <cfRule type="expression" dxfId="168" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="193" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F241">
-    <cfRule type="expression" dxfId="167" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="167" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E231">
-    <cfRule type="expression" dxfId="166" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="191" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F231">
-    <cfRule type="expression" dxfId="165" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="190" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U232">
-    <cfRule type="expression" dxfId="164" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="186" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E232">
-    <cfRule type="expression" dxfId="163" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="188" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F232">
+    <cfRule type="expression" dxfId="168" priority="187" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E233">
+    <cfRule type="expression" dxfId="167" priority="185" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F233">
+    <cfRule type="expression" dxfId="166" priority="184" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T234:T235">
+    <cfRule type="expression" dxfId="165" priority="183" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E234">
+    <cfRule type="expression" dxfId="164" priority="182" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F234">
+    <cfRule type="expression" dxfId="163" priority="181" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E235">
     <cfRule type="expression" dxfId="162" priority="179" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E233">
-    <cfRule type="expression" dxfId="161" priority="177" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F233">
-    <cfRule type="expression" dxfId="160" priority="176" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T234:T235">
-    <cfRule type="expression" dxfId="159" priority="175" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E234">
-    <cfRule type="expression" dxfId="158" priority="174" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F234">
+  <conditionalFormatting sqref="F235">
+    <cfRule type="expression" dxfId="161" priority="178" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U236">
+    <cfRule type="expression" dxfId="160" priority="175" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E236">
+    <cfRule type="expression" dxfId="159" priority="177" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F236">
+    <cfRule type="expression" dxfId="158" priority="176" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F237">
     <cfRule type="expression" dxfId="157" priority="173" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E235">
-    <cfRule type="expression" dxfId="156" priority="171" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F235">
-    <cfRule type="expression" dxfId="155" priority="170" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U236">
-    <cfRule type="expression" dxfId="154" priority="167" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E236">
-    <cfRule type="expression" dxfId="153" priority="169" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F236">
+  <conditionalFormatting sqref="T240:T241">
+    <cfRule type="expression" dxfId="156" priority="172" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U240">
+    <cfRule type="expression" dxfId="155" priority="169" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E240">
+    <cfRule type="expression" dxfId="154" priority="171" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F240">
+    <cfRule type="expression" dxfId="153" priority="170" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E241 E243 E245">
     <cfRule type="expression" dxfId="152" priority="168" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F237">
-    <cfRule type="expression" dxfId="151" priority="165" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T240:T241">
-    <cfRule type="expression" dxfId="150" priority="164" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U240">
-    <cfRule type="expression" dxfId="149" priority="161" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E240">
+  <conditionalFormatting sqref="E238">
+    <cfRule type="expression" dxfId="151" priority="166" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F238">
+    <cfRule type="expression" dxfId="150" priority="165" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E239">
+    <cfRule type="expression" dxfId="149" priority="164" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F239">
     <cfRule type="expression" dxfId="148" priority="163" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F240">
-    <cfRule type="expression" dxfId="147" priority="162" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E241 E243 E245">
-    <cfRule type="expression" dxfId="146" priority="160" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E238">
-    <cfRule type="expression" dxfId="145" priority="158" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F238">
+  <conditionalFormatting sqref="F242:F243">
+    <cfRule type="expression" dxfId="147" priority="160" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F245">
+    <cfRule type="expression" dxfId="146" priority="154" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E242 E244 E246">
+    <cfRule type="expression" dxfId="145" priority="161" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F244">
     <cfRule type="expression" dxfId="144" priority="157" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E239">
-    <cfRule type="expression" dxfId="143" priority="156" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F239">
-    <cfRule type="expression" dxfId="142" priority="155" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F242:F243">
-    <cfRule type="expression" dxfId="141" priority="152" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F245">
-    <cfRule type="expression" dxfId="140" priority="146" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E242 E244 E246">
-    <cfRule type="expression" dxfId="139" priority="153" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F244">
-    <cfRule type="expression" dxfId="138" priority="149" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="expression" dxfId="137" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="151" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F251">
-    <cfRule type="expression" dxfId="136" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="135" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E249">
-    <cfRule type="expression" dxfId="135" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="132" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E247">
-    <cfRule type="expression" dxfId="134" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="144" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F247">
-    <cfRule type="expression" dxfId="133" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="142" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E248">
-    <cfRule type="expression" dxfId="132" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="141" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F248">
-    <cfRule type="expression" dxfId="131" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="139" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E250">
-    <cfRule type="expression" dxfId="130" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="134" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E251">
-    <cfRule type="expression" dxfId="129" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="137" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250">
-    <cfRule type="expression" dxfId="128" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="133" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F249">
-    <cfRule type="expression" dxfId="127" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="131" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E252">
-    <cfRule type="expression" dxfId="126" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="130" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F252">
-    <cfRule type="expression" dxfId="125" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="129" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E253">
-    <cfRule type="expression" dxfId="124" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="128" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F253">
-    <cfRule type="expression" dxfId="123" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="127" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E254">
-    <cfRule type="expression" dxfId="122" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="126" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F254">
-    <cfRule type="expression" dxfId="121" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="125" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E255">
-    <cfRule type="expression" dxfId="120" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="124" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F255">
-    <cfRule type="expression" dxfId="119" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="123" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E256">
-    <cfRule type="expression" dxfId="118" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="122" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F256">
-    <cfRule type="expression" dxfId="117" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="121" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E257">
-    <cfRule type="expression" dxfId="116" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="120" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="expression" dxfId="115" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="119" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E258">
-    <cfRule type="expression" dxfId="114" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="118" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F258">
-    <cfRule type="expression" dxfId="113" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="117" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E259">
-    <cfRule type="expression" dxfId="112" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="116" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F259">
-    <cfRule type="expression" dxfId="111" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="115" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E260">
-    <cfRule type="expression" dxfId="110" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="114" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260">
-    <cfRule type="expression" dxfId="109" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="113" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E261">
-    <cfRule type="expression" dxfId="108" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="112" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261">
-    <cfRule type="expression" dxfId="107" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="111" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E262">
-    <cfRule type="expression" dxfId="106" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="110" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="expression" dxfId="105" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="109" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E263">
-    <cfRule type="expression" dxfId="104" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="108" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263">
-    <cfRule type="expression" dxfId="103" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="107" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E264">
-    <cfRule type="expression" dxfId="102" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="106" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="expression" dxfId="101" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="105" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E265">
-    <cfRule type="expression" dxfId="100" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="104" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265">
-    <cfRule type="expression" dxfId="99" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="103" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E266">
-    <cfRule type="expression" dxfId="98" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="102" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F266">
-    <cfRule type="expression" dxfId="97" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="101" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E267">
-    <cfRule type="expression" dxfId="96" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="100" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F267">
-    <cfRule type="expression" dxfId="95" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="99" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E268">
-    <cfRule type="expression" dxfId="94" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="98" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F268">
-    <cfRule type="expression" dxfId="93" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="97" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E269">
-    <cfRule type="expression" dxfId="92" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="96" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F269">
-    <cfRule type="expression" dxfId="91" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="95" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E270">
-    <cfRule type="expression" dxfId="90" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="94" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F270">
-    <cfRule type="expression" dxfId="89" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="93" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E271">
-    <cfRule type="expression" dxfId="88" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="92" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F271">
-    <cfRule type="expression" dxfId="87" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="91" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E272">
-    <cfRule type="expression" dxfId="86" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="90" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272">
-    <cfRule type="expression" dxfId="85" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="89" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E273">
-    <cfRule type="expression" dxfId="84" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="88" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F273">
-    <cfRule type="expression" dxfId="83" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="87" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E274:E276">
-    <cfRule type="expression" dxfId="82" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="86" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F274:F276">
-    <cfRule type="expression" dxfId="81" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="85" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E277">
-    <cfRule type="expression" dxfId="80" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="84" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F277">
-    <cfRule type="expression" dxfId="79" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="83" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E278">
-    <cfRule type="expression" dxfId="78" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="82" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F278">
-    <cfRule type="expression" dxfId="77" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="81" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E279">
-    <cfRule type="expression" dxfId="76" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="80" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F279">
-    <cfRule type="expression" dxfId="75" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="79" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E280">
-    <cfRule type="expression" dxfId="74" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="78" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F280">
-    <cfRule type="expression" dxfId="73" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E281">
-    <cfRule type="expression" dxfId="72" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="76" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F281">
-    <cfRule type="expression" dxfId="71" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="75" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E283">
-    <cfRule type="expression" dxfId="70" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="74" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F283">
-    <cfRule type="expression" dxfId="69" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="73" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E284">
-    <cfRule type="expression" dxfId="68" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="72" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F284">
-    <cfRule type="expression" dxfId="67" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E285">
-    <cfRule type="expression" dxfId="66" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="70" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F285">
-    <cfRule type="expression" dxfId="65" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E286">
-    <cfRule type="expression" dxfId="64" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="68" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F286">
-    <cfRule type="expression" dxfId="63" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="67" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E287">
-    <cfRule type="expression" dxfId="62" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="66" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F287">
-    <cfRule type="expression" dxfId="61" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E288">
-    <cfRule type="expression" dxfId="60" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F288">
-    <cfRule type="expression" dxfId="59" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E289">
-    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F289">
-    <cfRule type="expression" dxfId="57" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E290">
-    <cfRule type="expression" dxfId="56" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F290">
-    <cfRule type="expression" dxfId="55" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E291">
-    <cfRule type="expression" dxfId="54" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F291">
-    <cfRule type="expression" dxfId="53" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E292">
-    <cfRule type="expression" dxfId="52" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F292">
-    <cfRule type="expression" dxfId="51" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E293">
-    <cfRule type="expression" dxfId="50" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F293">
-    <cfRule type="expression" dxfId="49" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E294">
-    <cfRule type="expression" dxfId="48" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F294">
-    <cfRule type="expression" dxfId="47" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E295:E296">
-    <cfRule type="expression" dxfId="46" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F295:F296">
-    <cfRule type="expression" dxfId="45" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E297">
-    <cfRule type="expression" dxfId="44" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F297">
-    <cfRule type="expression" dxfId="43" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E298">
-    <cfRule type="expression" dxfId="42" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F298">
-    <cfRule type="expression" dxfId="41" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E299">
-    <cfRule type="expression" dxfId="40" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F299">
-    <cfRule type="expression" dxfId="39" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E300">
-    <cfRule type="expression" dxfId="38" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F300">
-    <cfRule type="expression" dxfId="37" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E301">
+    <cfRule type="expression" dxfId="42" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F301">
+    <cfRule type="expression" dxfId="41" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E302">
+    <cfRule type="expression" dxfId="40" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F302">
+    <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E303">
+    <cfRule type="expression" dxfId="38" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F303">
+    <cfRule type="expression" dxfId="37" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E304">
     <cfRule type="expression" dxfId="36" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F301">
+  <conditionalFormatting sqref="F304">
     <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E302">
+  <conditionalFormatting sqref="E305">
     <cfRule type="expression" dxfId="34" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F302">
+  <conditionalFormatting sqref="F305">
     <cfRule type="expression" dxfId="33" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E303">
+  <conditionalFormatting sqref="E306">
     <cfRule type="expression" dxfId="32" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F303">
+  <conditionalFormatting sqref="F306">
     <cfRule type="expression" dxfId="31" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E304">
-    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F304">
-    <cfRule type="expression" dxfId="29" priority="23" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E305">
-    <cfRule type="expression" dxfId="28" priority="22" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F305">
-    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E306">
-    <cfRule type="expression" dxfId="26" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F306">
-    <cfRule type="expression" dxfId="25" priority="19" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E307">
-    <cfRule type="expression" dxfId="24" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F307">
-    <cfRule type="expression" dxfId="23" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E308">
-    <cfRule type="expression" dxfId="22" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F308">
-    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E309">
-    <cfRule type="expression" dxfId="20" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F309">
-    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E310">
-    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F310">
-    <cfRule type="expression" dxfId="17" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E311">
-    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F311">
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E312">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F312">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E313">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F313">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E314">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F314">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E315">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F315">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E316">
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F316">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E317">
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F317">
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E318">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F318">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33116,9 +33339,12 @@
     <hyperlink ref="C313" r:id="rId205"/>
     <hyperlink ref="C314" r:id="rId206"/>
     <hyperlink ref="C315" r:id="rId207"/>
+    <hyperlink ref="C316" r:id="rId208"/>
+    <hyperlink ref="C317" r:id="rId209"/>
+    <hyperlink ref="C318" r:id="rId210"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId208"/>
+  <pageSetup orientation="portrait" r:id="rId211"/>
 </worksheet>
 </file>
 
@@ -33272,37 +33498,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:L1 N1:P1 R1">
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34189,7 +34415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -34267,7 +34493,7 @@
       <c r="D16" s="191"/>
       <c r="E16" s="192"/>
       <c r="G16" s="191" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H16" s="191"/>
       <c r="I16" s="191"/>
@@ -34336,7 +34562,7 @@
         <v>355</v>
       </c>
       <c r="N18" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -34615,7 +34841,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="191" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B31" s="191"/>
       <c r="C31" s="191"/>
@@ -34674,7 +34900,7 @@
         <v>339</v>
       </c>
       <c r="B35" s="193" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C35" s="192">
         <v>130</v>

--- a/DataBase_Xiaodan.xlsx
+++ b/DataBase_Xiaodan.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId5"/>
-    <sheet name="website" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
+    <sheet name="website" sheetId="5" r:id="rId5"/>
+    <sheet name="Gluocose-WrongTime-200220" sheetId="7" r:id="rId6"/>
+    <sheet name="Glucose-WrongTime-200226" sheetId="6" r:id="rId7"/>
+    <sheet name="Glucose-RightTime" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="373">
   <si>
     <t>Date</t>
   </si>
@@ -1103,12 +1104,52 @@
   </si>
   <si>
     <t>R8M2498(weight: 24.4g Destrose:0.09ml)</t>
+  </si>
+  <si>
+    <t>R9M2(weight:21.9g   Destrose:0.09ml</t>
+  </si>
+  <si>
+    <t>test #1</t>
+  </si>
+  <si>
+    <t>test #2 time</t>
+  </si>
+  <si>
+    <t>test #2</t>
+  </si>
+  <si>
+    <t>Z4M4</t>
+  </si>
+  <si>
+    <t>K:\data for Xiaodan</t>
+  </si>
+  <si>
+    <t>fc</t>
+  </si>
+  <si>
+    <t>Z3M5</t>
+  </si>
+  <si>
+    <t>R8M2(weight:22.1g   Destrose:0.09ml</t>
+  </si>
+  <si>
+    <t>R9M2912(weight:22.8g   Destrose:0.09ml</t>
+  </si>
+  <si>
+    <t>R9M2911(weight:20.2g   Destrose:0.08ml</t>
+  </si>
+  <si>
+    <t>R9M3(weight:22.4g   Destrose:0.09ml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1363,7 +1404,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1864,6 +1905,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1876,9 +1920,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -9015,13 +9089,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y318"/>
+  <dimension ref="A1:Y320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C299" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C287" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D329" sqref="D329"/>
+      <selection pane="bottomRight" activeCell="B331" sqref="B331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28268,6 +28342,52 @@
       </c>
       <c r="V318" s="48">
         <v>48080</v>
+      </c>
+    </row>
+    <row r="319" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A319" s="21">
+        <v>200117</v>
+      </c>
+      <c r="B319" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="D319" t="s">
+        <v>366</v>
+      </c>
+      <c r="E319" t="s">
+        <v>91</v>
+      </c>
+      <c r="F319" t="s">
+        <v>367</v>
+      </c>
+      <c r="G319" s="48">
+        <v>20</v>
+      </c>
+      <c r="O319" s="48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="320" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A320" s="21">
+        <v>200117</v>
+      </c>
+      <c r="B320" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="D320" t="s">
+        <v>366</v>
+      </c>
+      <c r="E320" t="s">
+        <v>91</v>
+      </c>
+      <c r="F320" t="s">
+        <v>367</v>
+      </c>
+      <c r="G320" s="48">
+        <v>20</v>
+      </c>
+      <c r="O320" s="48">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -33562,7 +33682,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="191" t="s">
         <v>125</v>
       </c>
       <c r="B2" t="s">
@@ -33573,7 +33693,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="188"/>
+      <c r="A3" s="191"/>
       <c r="B3" t="s">
         <v>127</v>
       </c>
@@ -33582,7 +33702,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="188"/>
+      <c r="A4" s="191"/>
       <c r="B4" t="s">
         <v>128</v>
       </c>
@@ -33591,7 +33711,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="188"/>
+      <c r="A5" s="191"/>
       <c r="B5" t="s">
         <v>129</v>
       </c>
@@ -33600,7 +33720,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="189" t="s">
+      <c r="A6" s="192" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -33611,7 +33731,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="189"/>
+      <c r="A7" s="192"/>
       <c r="B7" t="s">
         <v>131</v>
       </c>
@@ -33620,7 +33740,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="189"/>
+      <c r="A8" s="192"/>
       <c r="B8" t="s">
         <v>132</v>
       </c>
@@ -33629,7 +33749,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="190" t="s">
+      <c r="A9" s="193" t="s">
         <v>136</v>
       </c>
       <c r="B9">
@@ -33640,7 +33760,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="190"/>
+      <c r="A10" s="193"/>
       <c r="B10">
         <v>2141</v>
       </c>
@@ -33649,7 +33769,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="190" t="s">
+      <c r="A11" s="193" t="s">
         <v>138</v>
       </c>
       <c r="B11">
@@ -33660,7 +33780,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="190"/>
+      <c r="A12" s="193"/>
       <c r="B12">
         <v>2143</v>
       </c>
@@ -33669,7 +33789,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="190"/>
+      <c r="A13" s="193"/>
       <c r="B13">
         <v>2144</v>
       </c>
@@ -33678,7 +33798,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="190"/>
+      <c r="A14" s="193"/>
       <c r="B14">
         <v>2145</v>
       </c>
@@ -33687,7 +33807,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="190"/>
+      <c r="A15" s="193"/>
       <c r="B15">
         <v>2146</v>
       </c>
@@ -33731,6 +33851,42 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://sites.wustl.edu/bauerlab"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://sites.wustl.edu/bauerlab/wp-admin/"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -33747,618 +33903,618 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="194" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="192"/>
-      <c r="H1" s="191" t="s">
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="188"/>
+      <c r="H1" s="194" t="s">
         <v>327</v>
       </c>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="192"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="188"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="188" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="188" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="191" t="s">
+      <c r="C2" s="194" t="s">
         <v>347</v>
       </c>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="H2" s="192" t="s">
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="H2" s="188" t="s">
         <v>333</v>
       </c>
-      <c r="I2" s="192" t="s">
+      <c r="I2" s="188" t="s">
         <v>334</v>
       </c>
-      <c r="J2" s="191" t="s">
+      <c r="J2" s="194" t="s">
         <v>347</v>
       </c>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="188" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="193">
+      <c r="B3" s="189">
         <v>0.32083333333333336</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="188" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="192" t="s">
+      <c r="D3" s="188" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="192" t="s">
+      <c r="E3" s="188" t="s">
         <v>348</v>
       </c>
-      <c r="H3" s="192" t="s">
+      <c r="H3" s="188" t="s">
         <v>337</v>
       </c>
-      <c r="I3" s="193">
+      <c r="I3" s="189">
         <v>0.39861111111111108</v>
       </c>
-      <c r="J3" s="192" t="s">
+      <c r="J3" s="188" t="s">
         <v>335</v>
       </c>
-      <c r="K3" s="192" t="s">
+      <c r="K3" s="188" t="s">
         <v>336</v>
       </c>
-      <c r="L3" s="192" t="s">
+      <c r="L3" s="188" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="192" t="s">
+      <c r="A4" s="188" t="s">
         <v>338</v>
       </c>
-      <c r="B4" s="193">
+      <c r="B4" s="189">
         <v>0.52916666666666667</v>
       </c>
-      <c r="C4" s="192">
+      <c r="C4" s="188">
         <v>224</v>
       </c>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="H4" s="192" t="s">
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="H4" s="188" t="s">
         <v>338</v>
       </c>
-      <c r="I4" s="193">
+      <c r="I4" s="189">
         <v>0.63402777777777775</v>
       </c>
-      <c r="J4" s="192">
+      <c r="J4" s="188">
         <v>192</v>
       </c>
-      <c r="K4" s="192">
+      <c r="K4" s="188">
         <v>186</v>
       </c>
-      <c r="L4" s="192"/>
+      <c r="L4" s="188"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="192" t="s">
+      <c r="A5" s="188" t="s">
         <v>339</v>
       </c>
-      <c r="B5" s="193">
+      <c r="B5" s="189">
         <v>0.55347222222222225</v>
       </c>
-      <c r="C5" s="192">
+      <c r="C5" s="188">
         <v>163</v>
       </c>
-      <c r="D5" s="192"/>
-      <c r="E5" s="192"/>
-      <c r="H5" s="192" t="s">
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="H5" s="188" t="s">
         <v>339</v>
       </c>
-      <c r="I5" s="193">
+      <c r="I5" s="189">
         <v>0.65902777777777777</v>
       </c>
-      <c r="J5" s="192">
+      <c r="J5" s="188">
         <v>272</v>
       </c>
-      <c r="K5" s="192">
+      <c r="K5" s="188">
         <v>240</v>
       </c>
-      <c r="L5" s="192"/>
+      <c r="L5" s="188"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="188" t="s">
         <v>340</v>
       </c>
-      <c r="B6" s="193">
+      <c r="B6" s="189">
         <v>0.5541666666666667</v>
       </c>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="H6" s="192" t="s">
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="H6" s="188" t="s">
         <v>340</v>
       </c>
-      <c r="I6" s="193">
+      <c r="I6" s="189">
         <v>0.66041666666666665</v>
       </c>
-      <c r="J6" s="192"/>
-      <c r="K6" s="192"/>
-      <c r="L6" s="192"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="192" t="s">
+      <c r="A7" s="188" t="s">
         <v>341</v>
       </c>
-      <c r="B7" s="193">
+      <c r="B7" s="189">
         <v>0.56458333333333333</v>
       </c>
-      <c r="C7" s="192">
+      <c r="C7" s="188">
         <v>358</v>
       </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="H7" s="192" t="s">
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="H7" s="188" t="s">
         <v>341</v>
       </c>
-      <c r="I7" s="193">
+      <c r="I7" s="189">
         <v>0.6694444444444444</v>
       </c>
-      <c r="J7" s="192">
+      <c r="J7" s="188">
         <v>384</v>
       </c>
-      <c r="K7" s="192">
+      <c r="K7" s="188">
         <v>373</v>
       </c>
-      <c r="L7" s="192"/>
+      <c r="L7" s="188"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="192" t="s">
+      <c r="A8" s="188" t="s">
         <v>342</v>
       </c>
-      <c r="B8" s="193">
+      <c r="B8" s="189">
         <v>7.4305555555555555E-2</v>
       </c>
-      <c r="C8" s="192">
+      <c r="C8" s="188">
         <v>428</v>
       </c>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="H8" s="192" t="s">
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="H8" s="188" t="s">
         <v>342</v>
       </c>
-      <c r="I8" s="193">
+      <c r="I8" s="189">
         <v>0.6791666666666667</v>
       </c>
-      <c r="J8" s="192" t="s">
+      <c r="J8" s="188" t="s">
         <v>349</v>
       </c>
-      <c r="K8" s="192"/>
-      <c r="L8" s="192"/>
+      <c r="K8" s="188"/>
+      <c r="L8" s="188"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="188" t="s">
         <v>343</v>
       </c>
-      <c r="B9" s="193">
+      <c r="B9" s="189">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C9" s="192">
+      <c r="C9" s="188">
         <v>417</v>
       </c>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="H9" s="192" t="s">
+      <c r="D9" s="188"/>
+      <c r="E9" s="188"/>
+      <c r="H9" s="188" t="s">
         <v>343</v>
       </c>
-      <c r="I9" s="193">
+      <c r="I9" s="189">
         <v>0.6875</v>
       </c>
-      <c r="J9" s="192">
+      <c r="J9" s="188">
         <v>575</v>
       </c>
-      <c r="K9" s="192"/>
-      <c r="L9" s="192"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="188"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="188" t="s">
         <v>344</v>
       </c>
-      <c r="B10" s="193">
+      <c r="B10" s="189">
         <v>0.59236111111111112</v>
       </c>
-      <c r="C10" s="192">
+      <c r="C10" s="188">
         <v>443</v>
       </c>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="H10" s="192" t="s">
+      <c r="D10" s="188"/>
+      <c r="E10" s="188"/>
+      <c r="H10" s="188" t="s">
         <v>344</v>
       </c>
-      <c r="I10" s="193">
+      <c r="I10" s="189">
         <v>0.6958333333333333</v>
       </c>
-      <c r="J10" s="192" t="s">
+      <c r="J10" s="188" t="s">
         <v>349</v>
       </c>
-      <c r="K10" s="192"/>
-      <c r="L10" s="192"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="188"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="192" t="s">
+      <c r="A11" s="188" t="s">
         <v>345</v>
       </c>
-      <c r="B11" s="193">
+      <c r="B11" s="189">
         <v>0.1013888888888889</v>
       </c>
-      <c r="C11" s="192">
+      <c r="C11" s="188">
         <v>330</v>
       </c>
-      <c r="D11" s="192"/>
-      <c r="E11" s="192"/>
-      <c r="H11" s="192" t="s">
+      <c r="D11" s="188"/>
+      <c r="E11" s="188"/>
+      <c r="H11" s="188" t="s">
         <v>345</v>
       </c>
-      <c r="I11" s="193">
+      <c r="I11" s="189">
         <v>0.20416666666666669</v>
       </c>
-      <c r="J11" s="192" t="s">
+      <c r="J11" s="188" t="s">
         <v>349</v>
       </c>
-      <c r="K11" s="192">
+      <c r="K11" s="188">
         <v>431</v>
       </c>
-      <c r="L11" s="192"/>
+      <c r="L11" s="188"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="188" t="s">
         <v>346</v>
       </c>
-      <c r="B12" s="193">
+      <c r="B12" s="189">
         <v>0.11041666666666666</v>
       </c>
-      <c r="C12" s="192">
+      <c r="C12" s="188">
         <v>514</v>
       </c>
-      <c r="D12" s="192">
+      <c r="D12" s="188">
         <v>373</v>
       </c>
-      <c r="E12" s="192">
+      <c r="E12" s="188">
         <v>344</v>
       </c>
-      <c r="H12" s="192" t="s">
+      <c r="H12" s="188" t="s">
         <v>346</v>
       </c>
-      <c r="I12" s="193">
+      <c r="I12" s="189">
         <v>0.71388888888888891</v>
       </c>
-      <c r="J12" s="192">
+      <c r="J12" s="188">
         <v>569</v>
       </c>
-      <c r="K12" s="192">
+      <c r="K12" s="188">
         <v>590</v>
       </c>
-      <c r="L12" s="192"/>
+      <c r="L12" s="188"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="191" t="s">
+      <c r="A14" s="194" t="s">
         <v>325</v>
       </c>
-      <c r="B14" s="191"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="191"/>
-      <c r="E14" s="192"/>
-      <c r="H14" s="191" t="s">
+      <c r="B14" s="194"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="188"/>
+      <c r="H14" s="194" t="s">
         <v>328</v>
       </c>
-      <c r="I14" s="191"/>
-      <c r="J14" s="191"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="192"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="188"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="192" t="s">
+      <c r="A15" s="188" t="s">
         <v>333</v>
       </c>
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="188" t="s">
         <v>334</v>
       </c>
-      <c r="C15" s="191" t="s">
+      <c r="C15" s="194" t="s">
         <v>347</v>
       </c>
-      <c r="D15" s="191"/>
-      <c r="E15" s="191"/>
-      <c r="H15" s="192" t="s">
+      <c r="D15" s="194"/>
+      <c r="E15" s="194"/>
+      <c r="H15" s="188" t="s">
         <v>333</v>
       </c>
-      <c r="I15" s="192" t="s">
+      <c r="I15" s="188" t="s">
         <v>334</v>
       </c>
-      <c r="J15" s="191" t="s">
+      <c r="J15" s="194" t="s">
         <v>347</v>
       </c>
-      <c r="K15" s="191"/>
-      <c r="L15" s="191"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="194"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="192" t="s">
+      <c r="A16" s="188" t="s">
         <v>337</v>
       </c>
-      <c r="B16" s="193">
+      <c r="B16" s="189">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C16" s="192" t="s">
+      <c r="C16" s="188" t="s">
         <v>335</v>
       </c>
-      <c r="D16" s="192" t="s">
+      <c r="D16" s="188" t="s">
         <v>336</v>
       </c>
-      <c r="E16" s="192" t="s">
+      <c r="E16" s="188" t="s">
         <v>348</v>
       </c>
-      <c r="H16" s="192" t="s">
+      <c r="H16" s="188" t="s">
         <v>337</v>
       </c>
-      <c r="I16" s="193">
+      <c r="I16" s="189">
         <v>0.56736111111111109</v>
       </c>
-      <c r="J16" s="192" t="s">
+      <c r="J16" s="188" t="s">
         <v>335</v>
       </c>
-      <c r="K16" s="192" t="s">
+      <c r="K16" s="188" t="s">
         <v>336</v>
       </c>
-      <c r="L16" s="192" t="s">
+      <c r="L16" s="188" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="192" t="s">
+      <c r="A17" s="188" t="s">
         <v>338</v>
       </c>
-      <c r="B17" s="193">
+      <c r="B17" s="189">
         <v>0.72152777777777777</v>
       </c>
-      <c r="C17" s="192">
+      <c r="C17" s="188">
         <v>184</v>
       </c>
-      <c r="D17" s="192">
+      <c r="D17" s="188">
         <v>137</v>
       </c>
-      <c r="E17" s="192"/>
-      <c r="H17" s="192" t="s">
+      <c r="E17" s="188"/>
+      <c r="H17" s="188" t="s">
         <v>338</v>
       </c>
-      <c r="I17" s="193">
+      <c r="I17" s="189">
         <v>0.81388888888888899</v>
       </c>
-      <c r="J17" s="192">
+      <c r="J17" s="188">
         <v>161</v>
       </c>
-      <c r="K17" s="192">
+      <c r="K17" s="188">
         <v>130</v>
       </c>
-      <c r="L17" s="192"/>
+      <c r="L17" s="188"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="192" t="s">
+      <c r="A18" s="188" t="s">
         <v>339</v>
       </c>
-      <c r="B18" s="193">
+      <c r="B18" s="189">
         <v>0.75416666666666676</v>
       </c>
-      <c r="C18" s="192">
+      <c r="C18" s="188">
         <v>175</v>
       </c>
-      <c r="D18" s="192">
+      <c r="D18" s="188">
         <v>159</v>
       </c>
-      <c r="E18" s="192"/>
-      <c r="H18" s="192" t="s">
+      <c r="E18" s="188"/>
+      <c r="H18" s="188" t="s">
         <v>339</v>
       </c>
-      <c r="I18" s="193">
+      <c r="I18" s="189">
         <v>0.83750000000000002</v>
       </c>
-      <c r="J18" s="192">
+      <c r="J18" s="188">
         <v>199</v>
       </c>
-      <c r="K18" s="192">
+      <c r="K18" s="188">
         <v>322</v>
       </c>
-      <c r="L18" s="192"/>
+      <c r="L18" s="188"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="192" t="s">
+      <c r="A19" s="188" t="s">
         <v>340</v>
       </c>
-      <c r="B19" s="193">
+      <c r="B19" s="189">
         <v>0.75416666666666676</v>
       </c>
-      <c r="C19" s="192"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="H19" s="192" t="s">
+      <c r="C19" s="188"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="H19" s="188" t="s">
         <v>340</v>
       </c>
-      <c r="I19" s="193">
+      <c r="I19" s="189">
         <v>0.83819444444444446</v>
       </c>
-      <c r="J19" s="192"/>
-      <c r="K19" s="192"/>
-      <c r="L19" s="192"/>
+      <c r="J19" s="188"/>
+      <c r="K19" s="188"/>
+      <c r="L19" s="188"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="192" t="s">
+      <c r="A20" s="188" t="s">
         <v>341</v>
       </c>
-      <c r="B20" s="193">
+      <c r="B20" s="189">
         <v>0.77222222222222225</v>
       </c>
-      <c r="C20" s="192">
+      <c r="C20" s="188">
         <v>218</v>
       </c>
-      <c r="D20" s="192">
+      <c r="D20" s="188">
         <v>207</v>
       </c>
-      <c r="E20" s="192"/>
-      <c r="H20" s="192" t="s">
+      <c r="E20" s="188"/>
+      <c r="H20" s="188" t="s">
         <v>341</v>
       </c>
-      <c r="I20" s="193">
+      <c r="I20" s="189">
         <v>0.84652777777777777</v>
       </c>
-      <c r="J20" s="192">
+      <c r="J20" s="188">
         <v>446</v>
       </c>
-      <c r="K20" s="192">
+      <c r="K20" s="188">
         <v>312</v>
       </c>
-      <c r="L20" s="192"/>
+      <c r="L20" s="188"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="192" t="s">
+      <c r="A21" s="188" t="s">
         <v>342</v>
       </c>
-      <c r="B21" s="193">
+      <c r="B21" s="189">
         <v>0.78055555555555556</v>
       </c>
-      <c r="C21" s="192">
+      <c r="C21" s="188">
         <v>248</v>
       </c>
-      <c r="D21" s="192">
+      <c r="D21" s="188">
         <v>225</v>
       </c>
-      <c r="E21" s="192"/>
-      <c r="H21" s="192" t="s">
+      <c r="E21" s="188"/>
+      <c r="H21" s="188" t="s">
         <v>342</v>
       </c>
-      <c r="I21" s="193">
+      <c r="I21" s="189">
         <v>0.85555555555555562</v>
       </c>
-      <c r="J21" s="192">
+      <c r="J21" s="188">
         <v>507</v>
       </c>
-      <c r="K21" s="192">
+      <c r="K21" s="188">
         <v>375</v>
       </c>
-      <c r="L21" s="192"/>
+      <c r="L21" s="188"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="192" t="s">
+      <c r="A22" s="188" t="s">
         <v>343</v>
       </c>
-      <c r="B22" s="193">
+      <c r="B22" s="189">
         <v>0.78819444444444453</v>
       </c>
-      <c r="C22" s="192">
+      <c r="C22" s="188">
         <v>304</v>
       </c>
-      <c r="D22" s="192">
+      <c r="D22" s="188">
         <v>212</v>
       </c>
-      <c r="E22" s="192"/>
-      <c r="H22" s="192" t="s">
+      <c r="E22" s="188"/>
+      <c r="H22" s="188" t="s">
         <v>343</v>
       </c>
-      <c r="I22" s="193">
+      <c r="I22" s="189">
         <v>0.86388888888888893</v>
       </c>
-      <c r="J22" s="192">
+      <c r="J22" s="188">
         <v>514</v>
       </c>
-      <c r="K22" s="192">
+      <c r="K22" s="188">
         <v>483</v>
       </c>
-      <c r="L22" s="192"/>
+      <c r="L22" s="188"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="192" t="s">
+      <c r="A23" s="188" t="s">
         <v>344</v>
       </c>
-      <c r="B23" s="193">
+      <c r="B23" s="189">
         <v>0.78819444444444453</v>
       </c>
-      <c r="C23" s="192">
+      <c r="C23" s="188">
         <v>265</v>
       </c>
-      <c r="D23" s="192">
+      <c r="D23" s="188">
         <v>236</v>
       </c>
-      <c r="E23" s="192"/>
-      <c r="H23" s="192" t="s">
+      <c r="E23" s="188"/>
+      <c r="H23" s="188" t="s">
         <v>344</v>
       </c>
-      <c r="I23" s="193">
+      <c r="I23" s="189">
         <v>0.87291666666666667</v>
       </c>
-      <c r="J23" s="192">
+      <c r="J23" s="188">
         <v>547</v>
       </c>
-      <c r="K23" s="192">
+      <c r="K23" s="188">
         <v>521</v>
       </c>
-      <c r="L23" s="192"/>
+      <c r="L23" s="188"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="192" t="s">
+      <c r="A24" s="188" t="s">
         <v>345</v>
       </c>
-      <c r="B24" s="193">
+      <c r="B24" s="189">
         <v>0.79861111111111116</v>
       </c>
-      <c r="C24" s="192">
+      <c r="C24" s="188">
         <v>224</v>
       </c>
-      <c r="D24" s="192">
+      <c r="D24" s="188">
         <v>214</v>
       </c>
-      <c r="E24" s="192"/>
-      <c r="H24" s="192" t="s">
+      <c r="E24" s="188"/>
+      <c r="H24" s="188" t="s">
         <v>345</v>
       </c>
-      <c r="I24" s="193">
+      <c r="I24" s="189">
         <v>0.88124999999999998</v>
       </c>
-      <c r="J24" s="192" t="s">
+      <c r="J24" s="188" t="s">
         <v>349</v>
       </c>
-      <c r="K24" s="192">
+      <c r="K24" s="188">
         <v>478</v>
       </c>
-      <c r="L24" s="192"/>
+      <c r="L24" s="188"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="192" t="s">
+      <c r="A25" s="188" t="s">
         <v>346</v>
       </c>
-      <c r="B25" s="193">
+      <c r="B25" s="189">
         <v>0.80694444444444446</v>
       </c>
-      <c r="C25" s="192">
+      <c r="C25" s="188">
         <v>228</v>
       </c>
-      <c r="D25" s="192">
+      <c r="D25" s="188">
         <v>311</v>
       </c>
-      <c r="E25" s="192"/>
-      <c r="H25" s="192" t="s">
+      <c r="E25" s="188"/>
+      <c r="H25" s="188" t="s">
         <v>346</v>
       </c>
-      <c r="I25" s="193">
+      <c r="I25" s="189">
         <v>0.89027777777777783</v>
       </c>
-      <c r="J25" s="192">
+      <c r="J25" s="188">
         <v>510</v>
       </c>
-      <c r="K25" s="192">
+      <c r="K25" s="188">
         <v>462</v>
       </c>
-      <c r="L25" s="192"/>
+      <c r="L25" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -34375,48 +34531,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://sites.wustl.edu/bauerlab"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://sites.wustl.edu/bauerlab/wp-admin/"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="A16" sqref="A16:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34485,77 +34605,77 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="191" t="s">
+      <c r="A16" s="194" t="s">
         <v>353</v>
       </c>
-      <c r="B16" s="191"/>
-      <c r="C16" s="191"/>
-      <c r="D16" s="191"/>
-      <c r="E16" s="192"/>
-      <c r="G16" s="191" t="s">
+      <c r="B16" s="194"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="188"/>
+      <c r="G16" s="194" t="s">
         <v>357</v>
       </c>
-      <c r="H16" s="191"/>
-      <c r="I16" s="191"/>
-      <c r="J16" s="191"/>
-      <c r="K16" s="192"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="188"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="192" t="s">
+      <c r="A17" s="188" t="s">
         <v>333</v>
       </c>
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="188" t="s">
         <v>334</v>
       </c>
-      <c r="C17" s="191" t="s">
+      <c r="C17" s="194" t="s">
         <v>347</v>
       </c>
-      <c r="D17" s="191"/>
-      <c r="E17" s="191"/>
-      <c r="G17" s="192" t="s">
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="G17" s="188" t="s">
         <v>333</v>
       </c>
-      <c r="H17" s="192" t="s">
+      <c r="H17" s="188" t="s">
         <v>334</v>
       </c>
-      <c r="I17" s="191" t="s">
+      <c r="I17" s="194" t="s">
         <v>347</v>
       </c>
-      <c r="J17" s="191"/>
-      <c r="K17" s="191"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="194"/>
       <c r="M17" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="192" t="s">
+      <c r="A18" s="188" t="s">
         <v>337</v>
       </c>
-      <c r="B18" s="193">
+      <c r="B18" s="189">
         <v>0.37222222222222223</v>
       </c>
-      <c r="C18" s="192" t="s">
+      <c r="C18" s="188" t="s">
         <v>335</v>
       </c>
-      <c r="D18" s="192" t="s">
+      <c r="D18" s="188" t="s">
         <v>352</v>
       </c>
-      <c r="E18" s="192" t="s">
+      <c r="E18" s="188" t="s">
         <v>336</v>
       </c>
-      <c r="G18" s="192" t="s">
+      <c r="G18" s="188" t="s">
         <v>337</v>
       </c>
-      <c r="H18" s="193">
+      <c r="H18" s="189">
         <v>0.45347222222222222</v>
       </c>
-      <c r="I18" s="192" t="s">
+      <c r="I18" s="188" t="s">
         <v>335</v>
       </c>
-      <c r="J18" s="192" t="s">
+      <c r="J18" s="188" t="s">
         <v>352</v>
       </c>
-      <c r="K18" s="192" t="s">
+      <c r="K18" s="188" t="s">
         <v>336</v>
       </c>
       <c r="M18" t="s">
@@ -34566,471 +34686,1340 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="192" t="s">
+      <c r="A19" s="188" t="s">
         <v>338</v>
       </c>
-      <c r="B19" s="193">
+      <c r="B19" s="189">
         <v>0.59722222222222221</v>
       </c>
-      <c r="C19" s="192">
+      <c r="C19" s="188">
         <v>232</v>
       </c>
-      <c r="D19" s="193">
+      <c r="D19" s="189">
         <v>0.59722222222222221</v>
       </c>
-      <c r="E19" s="192">
+      <c r="E19" s="188">
         <v>189</v>
       </c>
-      <c r="G19" s="192" t="s">
+      <c r="G19" s="188" t="s">
         <v>338</v>
       </c>
-      <c r="H19" s="193">
+      <c r="H19" s="189">
         <v>0.68784722222222217</v>
       </c>
-      <c r="I19" s="192">
+      <c r="I19" s="188">
         <v>185</v>
       </c>
-      <c r="J19" s="194">
+      <c r="J19" s="190">
         <v>0.68804398148148149</v>
       </c>
-      <c r="K19" s="192">
+      <c r="K19" s="188">
         <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="192" t="s">
+      <c r="A20" s="188" t="s">
         <v>339</v>
       </c>
-      <c r="B20" s="193">
+      <c r="B20" s="189">
         <v>0.62152777777777779</v>
       </c>
-      <c r="C20" s="192">
+      <c r="C20" s="188">
         <v>268</v>
       </c>
-      <c r="D20" s="193">
+      <c r="D20" s="189">
         <v>0.62152777777777779</v>
       </c>
-      <c r="E20" s="192">
+      <c r="E20" s="188">
         <v>193</v>
       </c>
-      <c r="G20" s="192" t="s">
+      <c r="G20" s="188" t="s">
         <v>339</v>
       </c>
-      <c r="H20" s="193">
+      <c r="H20" s="189">
         <v>0.71158564814814806</v>
       </c>
-      <c r="I20" s="192">
+      <c r="I20" s="188">
         <v>234</v>
       </c>
-      <c r="J20" s="193">
+      <c r="J20" s="189">
         <v>0.58756944444444448</v>
       </c>
-      <c r="K20" s="192">
+      <c r="K20" s="188">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="192" t="s">
+      <c r="A21" s="188" t="s">
         <v>340</v>
       </c>
-      <c r="B21" s="193">
+      <c r="B21" s="189">
         <v>0.62222222222222223</v>
       </c>
-      <c r="C21" s="192"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="192"/>
-      <c r="G21" s="192" t="s">
+      <c r="C21" s="188"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="188"/>
+      <c r="G21" s="188" t="s">
         <v>340</v>
       </c>
-      <c r="H21" s="193">
+      <c r="H21" s="189">
         <v>0.71250000000000002</v>
       </c>
-      <c r="I21" s="192"/>
-      <c r="J21" s="192"/>
-      <c r="K21" s="192"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="188"/>
+      <c r="K21" s="188"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="192" t="s">
+      <c r="A22" s="188" t="s">
         <v>341</v>
       </c>
-      <c r="B22" s="193">
+      <c r="B22" s="189">
         <v>0.63124999999999998</v>
       </c>
-      <c r="C22" s="192">
+      <c r="C22" s="188">
         <v>370</v>
       </c>
-      <c r="D22" s="192"/>
-      <c r="E22" s="192">
+      <c r="D22" s="188"/>
+      <c r="E22" s="188">
         <v>307</v>
       </c>
-      <c r="G22" s="192" t="s">
+      <c r="G22" s="188" t="s">
         <v>341</v>
       </c>
-      <c r="H22" s="193">
+      <c r="H22" s="189">
         <v>0.72092592592592597</v>
       </c>
-      <c r="I22" s="192">
+      <c r="I22" s="188">
         <v>217</v>
       </c>
-      <c r="J22" s="194">
+      <c r="J22" s="190">
         <v>0.72128472222222229</v>
       </c>
-      <c r="K22" s="192">
+      <c r="K22" s="188">
         <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="192" t="s">
+      <c r="A23" s="188" t="s">
         <v>342</v>
       </c>
-      <c r="B23" s="193">
+      <c r="B23" s="189">
         <v>0.64121527777777776</v>
       </c>
-      <c r="C23" s="192">
+      <c r="C23" s="188">
         <v>443</v>
       </c>
-      <c r="D23" s="194">
+      <c r="D23" s="190">
         <v>0.64149305555555558</v>
       </c>
-      <c r="E23" s="192">
+      <c r="E23" s="188">
         <v>517</v>
       </c>
-      <c r="G23" s="192" t="s">
+      <c r="G23" s="188" t="s">
         <v>342</v>
       </c>
-      <c r="H23" s="193">
+      <c r="H23" s="189">
         <v>0.73238425925925921</v>
       </c>
-      <c r="I23" s="192">
+      <c r="I23" s="188">
         <v>292</v>
       </c>
-      <c r="J23" s="193">
+      <c r="J23" s="189">
         <v>0.73268518518518511</v>
       </c>
-      <c r="K23" s="192">
+      <c r="K23" s="188">
         <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="192" t="s">
+      <c r="A24" s="188" t="s">
         <v>343</v>
       </c>
-      <c r="B24" s="193">
+      <c r="B24" s="189">
         <v>0.65025462962962965</v>
       </c>
-      <c r="C24" s="192">
+      <c r="C24" s="188">
         <v>374</v>
       </c>
-      <c r="D24" s="194">
+      <c r="D24" s="190">
         <v>0.65062500000000001</v>
       </c>
-      <c r="E24" s="192">
+      <c r="E24" s="188">
         <v>434</v>
       </c>
-      <c r="G24" s="192" t="s">
+      <c r="G24" s="188" t="s">
         <v>343</v>
       </c>
-      <c r="H24" s="193">
+      <c r="H24" s="189">
         <v>0.74138888888888888</v>
       </c>
-      <c r="I24" s="192">
+      <c r="I24" s="188">
         <v>362</v>
       </c>
-      <c r="J24" s="194">
+      <c r="J24" s="190">
         <v>0.7416666666666667</v>
       </c>
-      <c r="K24" s="192">
+      <c r="K24" s="188">
         <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="192" t="s">
+      <c r="A25" s="188" t="s">
         <v>344</v>
       </c>
-      <c r="B25" s="193">
+      <c r="B25" s="189">
         <v>0.65902777777777777</v>
       </c>
-      <c r="C25" s="192">
+      <c r="C25" s="188">
         <v>383</v>
       </c>
-      <c r="D25" s="193">
+      <c r="D25" s="189">
         <v>0.65936342592592589</v>
       </c>
-      <c r="E25" s="192">
+      <c r="E25" s="188">
         <v>401</v>
       </c>
-      <c r="G25" s="192" t="s">
+      <c r="G25" s="188" t="s">
         <v>344</v>
       </c>
-      <c r="H25" s="193">
+      <c r="H25" s="189">
         <v>0.75026620370370367</v>
       </c>
-      <c r="I25" s="192">
+      <c r="I25" s="188">
         <v>482</v>
       </c>
-      <c r="J25" s="193">
+      <c r="J25" s="189">
         <v>0.75047453703703704</v>
       </c>
-      <c r="K25" s="192">
+      <c r="K25" s="188">
         <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="192" t="s">
+      <c r="A26" s="188" t="s">
         <v>345</v>
       </c>
-      <c r="B26" s="193">
+      <c r="B26" s="189">
         <v>0.66790509259259256</v>
       </c>
-      <c r="C26" s="192">
+      <c r="C26" s="188">
         <v>538</v>
       </c>
-      <c r="D26" s="193">
+      <c r="D26" s="189">
         <v>0.66821759259259261</v>
       </c>
-      <c r="E26" s="192">
+      <c r="E26" s="188">
         <v>373</v>
       </c>
-      <c r="G26" s="192" t="s">
+      <c r="G26" s="188" t="s">
         <v>345</v>
       </c>
-      <c r="H26" s="193">
+      <c r="H26" s="189">
         <v>0.75843749999999999</v>
       </c>
-      <c r="I26" s="192">
+      <c r="I26" s="188">
         <v>524</v>
       </c>
-      <c r="J26" s="193">
+      <c r="J26" s="189">
         <v>0.75876157407407396</v>
       </c>
-      <c r="K26" s="192">
+      <c r="K26" s="188">
         <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="192" t="s">
+      <c r="A27" s="188" t="s">
         <v>346</v>
       </c>
-      <c r="B27" s="193">
+      <c r="B27" s="189">
         <v>0.67667824074074068</v>
       </c>
-      <c r="C27" s="192">
+      <c r="C27" s="188">
         <v>560</v>
       </c>
-      <c r="D27" s="194">
+      <c r="D27" s="190">
         <v>0.67701388888888892</v>
       </c>
-      <c r="E27" s="192">
+      <c r="E27" s="188">
         <v>535</v>
       </c>
-      <c r="G27" s="192" t="s">
+      <c r="G27" s="188" t="s">
         <v>346</v>
       </c>
-      <c r="H27" s="193">
+      <c r="H27" s="189">
         <v>0.76674768518518521</v>
       </c>
-      <c r="I27" s="192">
+      <c r="I27" s="188">
         <v>355</v>
       </c>
-      <c r="J27" s="194">
+      <c r="J27" s="190">
         <v>0.76702546296296292</v>
       </c>
-      <c r="K27" s="192">
+      <c r="K27" s="188">
         <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="191" t="s">
+      <c r="A31" s="194" t="s">
         <v>360</v>
       </c>
-      <c r="B31" s="191"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="191"/>
-      <c r="E31" s="192"/>
+      <c r="B31" s="194"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="188"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="192" t="s">
+      <c r="A32" s="188" t="s">
         <v>333</v>
       </c>
-      <c r="B32" s="192" t="s">
+      <c r="B32" s="188" t="s">
         <v>334</v>
       </c>
-      <c r="C32" s="191" t="s">
+      <c r="C32" s="194" t="s">
         <v>347</v>
       </c>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="194"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="192" t="s">
+      <c r="A33" s="188" t="s">
         <v>337</v>
       </c>
-      <c r="B33" s="193">
+      <c r="B33" s="189">
         <v>0.55555555555555558</v>
       </c>
-      <c r="C33" s="192" t="s">
+      <c r="C33" s="188" t="s">
         <v>335</v>
       </c>
-      <c r="D33" s="192" t="s">
+      <c r="D33" s="188" t="s">
         <v>352</v>
       </c>
-      <c r="E33" s="192" t="s">
+      <c r="E33" s="188" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="192" t="s">
+      <c r="A34" s="188" t="s">
         <v>338</v>
       </c>
-      <c r="B34" s="193">
+      <c r="B34" s="189">
         <v>0.77530092592592592</v>
       </c>
-      <c r="C34" s="192">
+      <c r="C34" s="188">
         <v>141</v>
       </c>
-      <c r="D34" s="193">
+      <c r="D34" s="189">
         <v>0.7755671296296297</v>
       </c>
-      <c r="E34" s="192">
+      <c r="E34" s="188">
         <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="192" t="s">
+      <c r="A35" s="188" t="s">
         <v>339</v>
       </c>
-      <c r="B35" s="193" t="s">
+      <c r="B35" s="189" t="s">
         <v>359</v>
       </c>
-      <c r="C35" s="192">
+      <c r="C35" s="188">
         <v>130</v>
       </c>
-      <c r="D35" s="193">
+      <c r="D35" s="189">
         <v>0.80159722222222218</v>
       </c>
-      <c r="E35" s="192">
+      <c r="E35" s="188">
         <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="192" t="s">
+      <c r="A36" s="188" t="s">
         <v>340</v>
       </c>
-      <c r="B36" s="193">
+      <c r="B36" s="189">
         <v>0.80208333333333337</v>
       </c>
-      <c r="C36" s="192"/>
-      <c r="D36" s="192"/>
-      <c r="E36" s="192"/>
+      <c r="C36" s="188"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="188"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="192" t="s">
+      <c r="A37" s="188" t="s">
         <v>341</v>
       </c>
-      <c r="B37" s="193">
+      <c r="B37" s="189">
         <v>0.81054398148148143</v>
       </c>
-      <c r="C37" s="192">
+      <c r="C37" s="188">
         <v>182</v>
       </c>
-      <c r="D37" s="194">
+      <c r="D37" s="190">
         <v>0.81081018518518511</v>
       </c>
-      <c r="E37" s="192">
+      <c r="E37" s="188">
         <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="192" t="s">
+      <c r="A38" s="188" t="s">
         <v>342</v>
       </c>
-      <c r="B38" s="193">
+      <c r="B38" s="189">
         <v>0.81925925925925924</v>
       </c>
-      <c r="C38" s="192">
+      <c r="C38" s="188">
         <v>244</v>
       </c>
-      <c r="D38" s="193">
+      <c r="D38" s="189">
         <v>0.81959490740740737</v>
       </c>
-      <c r="E38" s="192">
+      <c r="E38" s="188">
         <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="192" t="s">
+      <c r="A39" s="188" t="s">
         <v>343</v>
       </c>
-      <c r="B39" s="193">
+      <c r="B39" s="189">
         <v>0.82792824074074067</v>
       </c>
-      <c r="C39" s="192">
+      <c r="C39" s="188">
         <v>267</v>
       </c>
-      <c r="D39" s="194">
+      <c r="D39" s="190">
         <v>0.82824074074074072</v>
       </c>
-      <c r="E39" s="192">
+      <c r="E39" s="188">
         <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="192" t="s">
+      <c r="A40" s="188" t="s">
         <v>344</v>
       </c>
-      <c r="B40" s="193">
+      <c r="B40" s="189">
         <v>0.83750000000000002</v>
       </c>
-      <c r="C40" s="192">
+      <c r="C40" s="188">
         <v>407</v>
       </c>
-      <c r="D40" s="192"/>
-      <c r="E40" s="192">
+      <c r="D40" s="188"/>
+      <c r="E40" s="188">
         <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="192" t="s">
+      <c r="A41" s="188" t="s">
         <v>345</v>
       </c>
-      <c r="B41" s="193">
+      <c r="B41" s="189">
         <v>0.84578703703703706</v>
       </c>
-      <c r="C41" s="192">
+      <c r="C41" s="188">
         <v>374</v>
       </c>
-      <c r="D41" s="194">
+      <c r="D41" s="190">
         <v>0.84624999999999995</v>
       </c>
-      <c r="E41" s="192">
+      <c r="E41" s="188">
         <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="192" t="s">
+      <c r="A42" s="188" t="s">
         <v>346</v>
       </c>
-      <c r="B42" s="193">
+      <c r="B42" s="189">
         <v>0.85483796296296299</v>
       </c>
-      <c r="C42" s="192">
+      <c r="C42" s="188">
         <v>275</v>
       </c>
-      <c r="D42" s="194">
+      <c r="D42" s="190">
         <v>0.35511574074074076</v>
       </c>
-      <c r="E42" s="192">
+      <c r="E42" s="188">
         <v>204</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C32:E32"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="C32:E32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="195" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="196">
+        <v>200228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="196" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="196" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="195" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="196" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="197">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C3" s="196" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" s="196" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="196" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="196" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="197">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="196" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="197"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="196" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="197"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="196" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" s="197"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="198"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="196" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" s="197"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
+      <c r="E8" s="198"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="196" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" s="197"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="196" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" s="197"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="196" t="s">
+        <v>345</v>
+      </c>
+      <c r="B11" s="197"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="198"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="196" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" s="197"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="198"/>
+      <c r="E12" s="198"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="195" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="195"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="196">
+        <v>200302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="196" t="s">
+        <v>333</v>
+      </c>
+      <c r="B19" s="196" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" s="195" t="s">
+        <v>347</v>
+      </c>
+      <c r="D19" s="195"/>
+      <c r="E19" s="195"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="196" t="s">
+        <v>337</v>
+      </c>
+      <c r="B20" s="197">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C20" s="196" t="s">
+        <v>362</v>
+      </c>
+      <c r="D20" s="196" t="s">
+        <v>363</v>
+      </c>
+      <c r="E20" s="196" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="196" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" s="197"/>
+      <c r="C21" s="200">
+        <v>214</v>
+      </c>
+      <c r="D21" s="198">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="E21" s="200">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="196" t="s">
+        <v>339</v>
+      </c>
+      <c r="B22" s="197"/>
+      <c r="C22" s="200">
+        <v>222</v>
+      </c>
+      <c r="D22" s="198">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="E22" s="200">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="196" t="s">
+        <v>340</v>
+      </c>
+      <c r="B23" s="197"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="196" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" s="197"/>
+      <c r="C24" s="200">
+        <v>449</v>
+      </c>
+      <c r="D24" s="198">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="E24" s="200">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="196" t="s">
+        <v>342</v>
+      </c>
+      <c r="B25" s="197"/>
+      <c r="C25" s="200" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="198">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="E25" s="200">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="196" t="s">
+        <v>343</v>
+      </c>
+      <c r="B26" s="197"/>
+      <c r="C26" s="200" t="s">
+        <v>349</v>
+      </c>
+      <c r="D26" s="198">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E26" s="200">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="196" t="s">
+        <v>344</v>
+      </c>
+      <c r="B27" s="197"/>
+      <c r="C27" s="200">
+        <v>593</v>
+      </c>
+      <c r="D27" s="198">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="E27" s="200">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="196" t="s">
+        <v>345</v>
+      </c>
+      <c r="B28" s="197"/>
+      <c r="C28" s="200">
+        <v>453</v>
+      </c>
+      <c r="D28" s="198">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="E28" s="200">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="196" t="s">
+        <v>346</v>
+      </c>
+      <c r="B29" s="197"/>
+      <c r="C29" s="200">
+        <v>330</v>
+      </c>
+      <c r="D29" s="198">
+        <v>0.60625000000000007</v>
+      </c>
+      <c r="E29" s="200">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="195" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" s="195"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="196">
+        <v>200303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="196" t="s">
+        <v>333</v>
+      </c>
+      <c r="B33" s="196" t="s">
+        <v>334</v>
+      </c>
+      <c r="C33" s="195" t="s">
+        <v>347</v>
+      </c>
+      <c r="D33" s="195"/>
+      <c r="E33" s="195"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="196" t="s">
+        <v>337</v>
+      </c>
+      <c r="B34" s="197">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="C34" s="196" t="s">
+        <v>362</v>
+      </c>
+      <c r="D34" s="196" t="s">
+        <v>363</v>
+      </c>
+      <c r="E34" s="196" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="196" t="s">
+        <v>338</v>
+      </c>
+      <c r="B35" s="197">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="C35" s="200">
+        <v>222</v>
+      </c>
+      <c r="D35" s="198">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="E35" s="200">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="196" t="s">
+        <v>339</v>
+      </c>
+      <c r="B36" s="197"/>
+      <c r="C36" s="200">
+        <v>149</v>
+      </c>
+      <c r="D36" s="198">
+        <v>0.5625</v>
+      </c>
+      <c r="E36" s="200">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="196" t="s">
+        <v>340</v>
+      </c>
+      <c r="B37" s="197">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="196" t="s">
+        <v>341</v>
+      </c>
+      <c r="B38" s="197"/>
+      <c r="C38" s="200">
+        <v>377</v>
+      </c>
+      <c r="D38" s="198">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="E38" s="200">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="196" t="s">
+        <v>342</v>
+      </c>
+      <c r="B39" s="197"/>
+      <c r="C39" s="200">
+        <v>396</v>
+      </c>
+      <c r="D39" s="198">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="E39" s="200">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="196" t="s">
+        <v>343</v>
+      </c>
+      <c r="B40" s="197"/>
+      <c r="C40" s="200">
+        <v>360</v>
+      </c>
+      <c r="D40" s="198">
+        <v>0.59375</v>
+      </c>
+      <c r="E40" s="200">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="196" t="s">
+        <v>344</v>
+      </c>
+      <c r="B41" s="197"/>
+      <c r="C41" s="200">
+        <v>366</v>
+      </c>
+      <c r="D41" s="198">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E41" s="200">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="196" t="s">
+        <v>345</v>
+      </c>
+      <c r="B42" s="197"/>
+      <c r="C42" s="200">
+        <v>322</v>
+      </c>
+      <c r="D42" s="198">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="E42" s="200">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="196" t="s">
+        <v>346</v>
+      </c>
+      <c r="B43" s="197"/>
+      <c r="C43" s="200">
+        <v>177</v>
+      </c>
+      <c r="D43" s="198">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="E43" s="200">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="195" t="s">
+        <v>370</v>
+      </c>
+      <c r="B46" s="195"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="195"/>
+      <c r="E46" s="196">
+        <v>200305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="196" t="s">
+        <v>333</v>
+      </c>
+      <c r="B47" s="196" t="s">
+        <v>334</v>
+      </c>
+      <c r="C47" s="195" t="s">
+        <v>347</v>
+      </c>
+      <c r="D47" s="195"/>
+      <c r="E47" s="195"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="196" t="s">
+        <v>337</v>
+      </c>
+      <c r="B48" s="197">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="C48" s="196" t="s">
+        <v>362</v>
+      </c>
+      <c r="D48" s="196" t="s">
+        <v>363</v>
+      </c>
+      <c r="E48" s="196" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="196" t="s">
+        <v>338</v>
+      </c>
+      <c r="B49" s="197">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="C49" s="200">
+        <v>234</v>
+      </c>
+      <c r="D49" s="198">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="E49" s="200">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="196" t="s">
+        <v>339</v>
+      </c>
+      <c r="B50" s="197"/>
+      <c r="C50" s="200">
+        <v>235</v>
+      </c>
+      <c r="D50" s="198">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="E50" s="200">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="196" t="s">
+        <v>340</v>
+      </c>
+      <c r="B51" s="197">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E51" s="21"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="196" t="s">
+        <v>341</v>
+      </c>
+      <c r="B52" s="197"/>
+      <c r="C52" s="200">
+        <v>230</v>
+      </c>
+      <c r="D52" s="198">
+        <v>0.58263888888888882</v>
+      </c>
+      <c r="E52" s="200">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="196" t="s">
+        <v>342</v>
+      </c>
+      <c r="B53" s="197">
+        <v>0.59097222222222223</v>
+      </c>
+      <c r="C53" s="200">
+        <v>255</v>
+      </c>
+      <c r="D53" s="198">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="E53" s="200">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="196" t="s">
+        <v>343</v>
+      </c>
+      <c r="B54" s="197"/>
+      <c r="C54" s="200">
+        <v>327</v>
+      </c>
+      <c r="D54" s="198">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="E54" s="200">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="196" t="s">
+        <v>344</v>
+      </c>
+      <c r="B55" s="197">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="C55" s="200">
+        <v>431</v>
+      </c>
+      <c r="D55" s="198">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="E55" s="200">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="196" t="s">
+        <v>345</v>
+      </c>
+      <c r="B56" s="197">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="C56" s="200" t="s">
+        <v>349</v>
+      </c>
+      <c r="D56" s="198">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="E56" s="200">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="196" t="s">
+        <v>346</v>
+      </c>
+      <c r="B57" s="197">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="C57" s="200" t="s">
+        <v>349</v>
+      </c>
+      <c r="D57" s="198">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="E57" s="199" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="201"/>
+      <c r="B58" s="202"/>
+      <c r="C58" s="203"/>
+      <c r="D58" s="204"/>
+      <c r="E58" s="205"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="195" t="s">
+        <v>369</v>
+      </c>
+      <c r="B60" s="195"/>
+      <c r="C60" s="195"/>
+      <c r="D60" s="195"/>
+      <c r="E60" s="196">
+        <v>200306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="196" t="s">
+        <v>333</v>
+      </c>
+      <c r="B61" s="196" t="s">
+        <v>334</v>
+      </c>
+      <c r="C61" s="195" t="s">
+        <v>347</v>
+      </c>
+      <c r="D61" s="195"/>
+      <c r="E61" s="195"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="196" t="s">
+        <v>337</v>
+      </c>
+      <c r="B62" s="197">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C62" s="196" t="s">
+        <v>362</v>
+      </c>
+      <c r="D62" s="196" t="s">
+        <v>363</v>
+      </c>
+      <c r="E62" s="196" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="196" t="s">
+        <v>338</v>
+      </c>
+      <c r="B63" s="197"/>
+      <c r="C63" s="200">
+        <v>208</v>
+      </c>
+      <c r="D63" s="198">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="E63" s="200">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="196" t="s">
+        <v>339</v>
+      </c>
+      <c r="B64" s="197"/>
+      <c r="C64" s="200">
+        <v>190</v>
+      </c>
+      <c r="D64" s="198">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="E64" s="200">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="196" t="s">
+        <v>340</v>
+      </c>
+      <c r="B65" s="197">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="D65" s="198"/>
+      <c r="E65" s="200"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="196" t="s">
+        <v>341</v>
+      </c>
+      <c r="B66" s="197">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="C66" s="200">
+        <v>490</v>
+      </c>
+      <c r="D66" s="198">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="E66" s="200">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="196" t="s">
+        <v>342</v>
+      </c>
+      <c r="B67" s="197">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="C67" s="200">
+        <v>593</v>
+      </c>
+      <c r="D67" s="198">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="E67" s="200" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="196" t="s">
+        <v>343</v>
+      </c>
+      <c r="B68" s="197">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="C68" s="200" t="s">
+        <v>349</v>
+      </c>
+      <c r="D68" s="198">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="E68" s="200" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="196" t="s">
+        <v>344</v>
+      </c>
+      <c r="B69" s="197">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C69" s="200">
+        <v>340</v>
+      </c>
+      <c r="D69" s="198">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="E69" s="200">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="196" t="s">
+        <v>345</v>
+      </c>
+      <c r="B70" s="197">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="C70" s="200">
+        <v>342</v>
+      </c>
+      <c r="D70" s="198">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="E70" s="200">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="196" t="s">
+        <v>346</v>
+      </c>
+      <c r="B71" s="197">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="C71" s="200">
+        <v>356</v>
+      </c>
+      <c r="D71" s="198">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="E71" s="200">
+        <v>427</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="C33:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DataBase_Xiaodan.xlsx
+++ b/DataBase_Xiaodan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Gluocose-WrongTime-200220" sheetId="7" r:id="rId6"/>
     <sheet name="Glucose-WrongTime-200226" sheetId="6" r:id="rId7"/>
     <sheet name="Glucose-RightTime" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="377">
   <si>
     <t>Date</t>
   </si>
@@ -1124,9 +1125,6 @@
     <t>K:\data for Xiaodan</t>
   </si>
   <si>
-    <t>fc</t>
-  </si>
-  <si>
     <t>Z3M5</t>
   </si>
   <si>
@@ -1140,6 +1138,21 @@
   </si>
   <si>
     <t>R9M3(weight:22.4g   Destrose:0.09ml</t>
+  </si>
+  <si>
+    <t>R8M2498(weight:25.3g   Destrose:0.10ml</t>
+  </si>
+  <si>
+    <t>[1,3,8]</t>
+  </si>
+  <si>
+    <t>[1,7]</t>
+  </si>
+  <si>
+    <t>fixable bad run</t>
+  </si>
+  <si>
+    <t>[8]</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1160,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1404,7 +1417,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1909,6 +1922,39 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1923,43 +1969,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="979">
+  <dxfs count="991">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9089,13 +9189,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y320"/>
+  <dimension ref="A1:Y325"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C287" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="O299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B331" sqref="B331"/>
+      <selection pane="bottomRight" activeCell="P328" sqref="P328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9193,7 +9293,9 @@
       <c r="X1" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="33"/>
+      <c r="Y1" s="33" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="2" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
@@ -28357,8 +28459,8 @@
       <c r="E319" t="s">
         <v>91</v>
       </c>
-      <c r="F319" t="s">
-        <v>367</v>
+      <c r="F319" s="47" t="s">
+        <v>11</v>
       </c>
       <c r="G319" s="48">
         <v>20</v>
@@ -28372,7 +28474,7 @@
         <v>200117</v>
       </c>
       <c r="B320" s="48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D320" t="s">
         <v>366</v>
@@ -28380,8 +28482,8 @@
       <c r="E320" t="s">
         <v>91</v>
       </c>
-      <c r="F320" t="s">
-        <v>367</v>
+      <c r="F320" s="47" t="s">
+        <v>11</v>
       </c>
       <c r="G320" s="48">
         <v>20</v>
@@ -28390,4864 +28492,5178 @@
         <v>100</v>
       </c>
     </row>
+    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A321" s="21">
+        <v>200302</v>
+      </c>
+      <c r="B321" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="C321" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D321" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="E321" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F321" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G321" s="48">
+        <v>20</v>
+      </c>
+      <c r="H321" s="48">
+        <v>20</v>
+      </c>
+      <c r="I321" s="48"/>
+      <c r="K321" s="48"/>
+      <c r="L321" s="48"/>
+      <c r="M321" s="48"/>
+      <c r="N321" s="48">
+        <v>20</v>
+      </c>
+      <c r="O321" s="48">
+        <v>80</v>
+      </c>
+      <c r="P321" s="48"/>
+      <c r="Q321" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="S321" t="s">
+        <v>373</v>
+      </c>
+      <c r="T321" s="191" t="s">
+        <v>20</v>
+      </c>
+      <c r="V321" s="48">
+        <v>48080</v>
+      </c>
+      <c r="Y321">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A322" s="21">
+        <v>200303</v>
+      </c>
+      <c r="B322" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="C322" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D322" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="E322" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F322" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G322" s="48">
+        <v>20</v>
+      </c>
+      <c r="H322" s="48">
+        <v>20</v>
+      </c>
+      <c r="I322" s="48"/>
+      <c r="K322" s="48"/>
+      <c r="L322" s="48"/>
+      <c r="M322" s="48"/>
+      <c r="N322" s="48">
+        <v>20</v>
+      </c>
+      <c r="O322" s="48">
+        <v>80</v>
+      </c>
+      <c r="P322" s="48"/>
+      <c r="Q322" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="T322" s="191" t="s">
+        <v>20</v>
+      </c>
+      <c r="V322" s="48">
+        <v>48080</v>
+      </c>
+    </row>
+    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A323" s="21">
+        <v>200305</v>
+      </c>
+      <c r="B323" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="C323" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D323" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="E323" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F323" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G323" s="48">
+        <v>20</v>
+      </c>
+      <c r="H323" s="48">
+        <v>20</v>
+      </c>
+      <c r="I323" s="48"/>
+      <c r="K323" s="48"/>
+      <c r="L323" s="48"/>
+      <c r="M323" s="48"/>
+      <c r="N323" s="48">
+        <v>20</v>
+      </c>
+      <c r="O323" s="48">
+        <v>80</v>
+      </c>
+      <c r="P323" s="48"/>
+      <c r="Q323" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="S323" t="s">
+        <v>374</v>
+      </c>
+      <c r="T323" s="191" t="s">
+        <v>20</v>
+      </c>
+      <c r="V323" s="48">
+        <v>48080</v>
+      </c>
+      <c r="Y323">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A324" s="21">
+        <v>200306</v>
+      </c>
+      <c r="B324" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C324" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D324" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="E324" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F324" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G324" s="48">
+        <v>20</v>
+      </c>
+      <c r="H324" s="48">
+        <v>20</v>
+      </c>
+      <c r="I324" s="48"/>
+      <c r="K324" s="48"/>
+      <c r="L324" s="48"/>
+      <c r="M324" s="48"/>
+      <c r="N324" s="48">
+        <v>20</v>
+      </c>
+      <c r="O324" s="48">
+        <v>80</v>
+      </c>
+      <c r="P324" s="48"/>
+      <c r="Q324" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="S324" t="s">
+        <v>376</v>
+      </c>
+      <c r="T324" s="191" t="s">
+        <v>20</v>
+      </c>
+      <c r="V324" s="48">
+        <v>48080</v>
+      </c>
+      <c r="Y324">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A325" s="21">
+        <v>200309</v>
+      </c>
+      <c r="B325" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="C325" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D325" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="E325" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F325" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G325" s="48">
+        <v>20</v>
+      </c>
+      <c r="H325" s="48">
+        <v>20</v>
+      </c>
+      <c r="I325" s="48"/>
+      <c r="K325" s="48"/>
+      <c r="L325" s="48"/>
+      <c r="M325" s="48"/>
+      <c r="N325" s="48">
+        <v>20</v>
+      </c>
+      <c r="O325" s="48">
+        <v>80</v>
+      </c>
+      <c r="P325" s="48"/>
+      <c r="Q325" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="S325" t="s">
+        <v>376</v>
+      </c>
+      <c r="T325" s="191" t="s">
+        <v>20</v>
+      </c>
+      <c r="V325" s="48">
+        <v>48080</v>
+      </c>
+      <c r="Y325">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B2 E4 A1:G1 D2:F2 R1:T2 R3:S3 U2 E3:F3 E7 F4:F5 S4:S7 R4:R12 R14:R15 T3:T16 D3:D27 V1:X1 K1:P1">
-    <cfRule type="expression" dxfId="978" priority="1125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="990" priority="1137" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="expression" dxfId="977" priority="1120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="989" priority="1132" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="976" priority="1119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="988" priority="1131" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="975" priority="1116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="987" priority="1128" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="expression" dxfId="974" priority="1114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="986" priority="1126" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="973" priority="1112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="985" priority="1124" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="972" priority="1111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="984" priority="1123" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="971" priority="1109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="983" priority="1121" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="970" priority="1108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="982" priority="1120" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10 F12 F14 F16">
-    <cfRule type="expression" dxfId="969" priority="1106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="981" priority="1118" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="968" priority="1105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="980" priority="1117" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11 F13 F15">
-    <cfRule type="expression" dxfId="967" priority="1103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="979" priority="1115" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E22 E26">
-    <cfRule type="expression" dxfId="966" priority="1102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="978" priority="1114" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4">
-    <cfRule type="expression" dxfId="965" priority="1100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="977" priority="1112" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
-    <cfRule type="expression" dxfId="964" priority="1099" stopIfTrue="1">
+    <cfRule type="expression" dxfId="976" priority="1111" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="expression" dxfId="963" priority="1098" stopIfTrue="1">
+    <cfRule type="expression" dxfId="975" priority="1110" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="expression" dxfId="962" priority="1097" stopIfTrue="1">
+    <cfRule type="expression" dxfId="974" priority="1109" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="961" priority="1090" stopIfTrue="1">
+    <cfRule type="expression" dxfId="973" priority="1102" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15">
-    <cfRule type="expression" dxfId="960" priority="1087" stopIfTrue="1">
+    <cfRule type="expression" dxfId="972" priority="1099" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="959" priority="1091" stopIfTrue="1">
+    <cfRule type="expression" dxfId="971" priority="1103" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="expression" dxfId="958" priority="1089" stopIfTrue="1">
+    <cfRule type="expression" dxfId="970" priority="1101" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13">
-    <cfRule type="expression" dxfId="957" priority="1088" stopIfTrue="1">
+    <cfRule type="expression" dxfId="969" priority="1100" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="956" priority="1086" stopIfTrue="1">
+    <cfRule type="expression" dxfId="968" priority="1098" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F22">
-    <cfRule type="expression" dxfId="955" priority="1085" stopIfTrue="1">
+    <cfRule type="expression" dxfId="967" priority="1097" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T27 T29">
-    <cfRule type="expression" dxfId="954" priority="1082" stopIfTrue="1">
+    <cfRule type="expression" dxfId="966" priority="1094" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17:U27">
-    <cfRule type="expression" dxfId="953" priority="1081" stopIfTrue="1">
+    <cfRule type="expression" dxfId="965" priority="1093" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17 R19 R21">
-    <cfRule type="expression" dxfId="952" priority="1078" stopIfTrue="1">
+    <cfRule type="expression" dxfId="964" priority="1090" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18 R20">
-    <cfRule type="expression" dxfId="951" priority="1077" stopIfTrue="1">
+    <cfRule type="expression" dxfId="963" priority="1089" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23 E27">
-    <cfRule type="expression" dxfId="950" priority="1074" stopIfTrue="1">
+    <cfRule type="expression" dxfId="962" priority="1086" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="949" priority="1073" stopIfTrue="1">
+    <cfRule type="expression" dxfId="961" priority="1085" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="948" priority="1071" stopIfTrue="1">
+    <cfRule type="expression" dxfId="960" priority="1083" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="947" priority="1070" stopIfTrue="1">
+    <cfRule type="expression" dxfId="959" priority="1082" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
+    <cfRule type="expression" dxfId="958" priority="1080" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:F27">
+    <cfRule type="expression" dxfId="957" priority="1079" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:D29">
+    <cfRule type="expression" dxfId="956" priority="1078" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E29">
+    <cfRule type="expression" dxfId="955" priority="1077" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:F29">
+    <cfRule type="expression" dxfId="954" priority="1076" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="expression" dxfId="953" priority="1075" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="952" priority="1074" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="951" priority="1073" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="expression" dxfId="950" priority="1072" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T30">
+    <cfRule type="expression" dxfId="949" priority="1071" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T31">
+    <cfRule type="expression" dxfId="948" priority="1070" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="947" priority="1069" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
     <cfRule type="expression" dxfId="946" priority="1068" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F27">
+  <conditionalFormatting sqref="F31">
     <cfRule type="expression" dxfId="945" priority="1067" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D29">
+  <conditionalFormatting sqref="D32">
     <cfRule type="expression" dxfId="944" priority="1066" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
+  <conditionalFormatting sqref="E32">
     <cfRule type="expression" dxfId="943" priority="1065" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F29">
+  <conditionalFormatting sqref="F32">
     <cfRule type="expression" dxfId="942" priority="1064" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T28">
+  <conditionalFormatting sqref="T32">
     <cfRule type="expression" dxfId="941" priority="1063" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D38:D41">
     <cfRule type="expression" dxfId="940" priority="1062" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E38">
     <cfRule type="expression" dxfId="939" priority="1061" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="T38:T41">
     <cfRule type="expression" dxfId="938" priority="1060" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T30">
+  <conditionalFormatting sqref="U38:U41">
     <cfRule type="expression" dxfId="937" priority="1059" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T31">
+  <conditionalFormatting sqref="E39:E41">
     <cfRule type="expression" dxfId="936" priority="1058" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="F38:F41">
     <cfRule type="expression" dxfId="935" priority="1057" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="T34">
     <cfRule type="expression" dxfId="934" priority="1056" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+  <conditionalFormatting sqref="D34">
     <cfRule type="expression" dxfId="933" priority="1055" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="E34">
     <cfRule type="expression" dxfId="932" priority="1054" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="F34">
     <cfRule type="expression" dxfId="931" priority="1053" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+  <conditionalFormatting sqref="T35">
     <cfRule type="expression" dxfId="930" priority="1052" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T32">
+  <conditionalFormatting sqref="D35">
     <cfRule type="expression" dxfId="929" priority="1051" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D41">
+  <conditionalFormatting sqref="E35">
     <cfRule type="expression" dxfId="928" priority="1050" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
+  <conditionalFormatting sqref="F35">
     <cfRule type="expression" dxfId="927" priority="1049" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T38:T41">
+  <conditionalFormatting sqref="T36">
     <cfRule type="expression" dxfId="926" priority="1048" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U38:U41">
+  <conditionalFormatting sqref="D36">
     <cfRule type="expression" dxfId="925" priority="1047" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E41">
+  <conditionalFormatting sqref="E36">
     <cfRule type="expression" dxfId="924" priority="1046" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F41">
+  <conditionalFormatting sqref="F36">
     <cfRule type="expression" dxfId="923" priority="1045" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T34">
+  <conditionalFormatting sqref="T37">
     <cfRule type="expression" dxfId="922" priority="1044" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D37">
     <cfRule type="expression" dxfId="921" priority="1043" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
+  <conditionalFormatting sqref="E37">
     <cfRule type="expression" dxfId="920" priority="1042" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+  <conditionalFormatting sqref="F37">
     <cfRule type="expression" dxfId="919" priority="1041" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T35">
+  <conditionalFormatting sqref="D33">
     <cfRule type="expression" dxfId="918" priority="1040" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="E33">
     <cfRule type="expression" dxfId="917" priority="1039" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
+  <conditionalFormatting sqref="F33">
     <cfRule type="expression" dxfId="916" priority="1038" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+  <conditionalFormatting sqref="T33">
     <cfRule type="expression" dxfId="915" priority="1037" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T36">
+  <conditionalFormatting sqref="T44">
     <cfRule type="expression" dxfId="914" priority="1036" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D44">
     <cfRule type="expression" dxfId="913" priority="1035" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+  <conditionalFormatting sqref="E44">
     <cfRule type="expression" dxfId="912" priority="1034" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+  <conditionalFormatting sqref="F44">
     <cfRule type="expression" dxfId="911" priority="1033" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T37">
+  <conditionalFormatting sqref="T45">
     <cfRule type="expression" dxfId="910" priority="1032" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D45">
     <cfRule type="expression" dxfId="909" priority="1031" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
+  <conditionalFormatting sqref="E45">
     <cfRule type="expression" dxfId="908" priority="1030" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="F45">
     <cfRule type="expression" dxfId="907" priority="1029" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="R42 T42 D42">
     <cfRule type="expression" dxfId="906" priority="1028" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
+  <conditionalFormatting sqref="F42">
     <cfRule type="expression" dxfId="905" priority="1027" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+  <conditionalFormatting sqref="E42">
     <cfRule type="expression" dxfId="904" priority="1026" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T33">
+  <conditionalFormatting sqref="U42">
     <cfRule type="expression" dxfId="903" priority="1025" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T44">
+  <conditionalFormatting sqref="R43 T43 D43">
     <cfRule type="expression" dxfId="902" priority="1024" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="F43">
     <cfRule type="expression" dxfId="901" priority="1023" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E43">
     <cfRule type="expression" dxfId="900" priority="1022" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
+  <conditionalFormatting sqref="U43">
     <cfRule type="expression" dxfId="899" priority="1021" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="expression" dxfId="898" priority="1020" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="E46">
     <cfRule type="expression" dxfId="897" priority="1019" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="F46">
     <cfRule type="expression" dxfId="896" priority="1018" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="expression" dxfId="895" priority="1017" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R42 T42 D42">
-    <cfRule type="expression" dxfId="894" priority="1016" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="expression" dxfId="893" priority="1015" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="892" priority="1014" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U42">
-    <cfRule type="expression" dxfId="891" priority="1013" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R43 T43 D43">
-    <cfRule type="expression" dxfId="890" priority="1012" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="expression" dxfId="889" priority="1011" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="888" priority="1010" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U43">
-    <cfRule type="expression" dxfId="887" priority="1009" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="886" priority="1008" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+  <conditionalFormatting sqref="U46:U47">
+    <cfRule type="expression" dxfId="895" priority="1012" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="expression" dxfId="894" priority="1017" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="893" priority="1016" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="892" priority="1015" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T46">
+    <cfRule type="expression" dxfId="891" priority="1014" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T47">
+    <cfRule type="expression" dxfId="890" priority="1013" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U59">
+    <cfRule type="expression" dxfId="889" priority="942" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="888" priority="1011" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="887" priority="1010" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="expression" dxfId="886" priority="1009" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U48">
     <cfRule type="expression" dxfId="885" priority="1007" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="884" priority="1006" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U46:U47">
-    <cfRule type="expression" dxfId="883" priority="1000" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="T48">
+    <cfRule type="expression" dxfId="884" priority="1008" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="expression" dxfId="883" priority="1006" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
     <cfRule type="expression" dxfId="882" priority="1005" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
+  <conditionalFormatting sqref="F49">
     <cfRule type="expression" dxfId="881" priority="1004" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="880" priority="1003" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T46">
-    <cfRule type="expression" dxfId="879" priority="1002" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T47">
+  <conditionalFormatting sqref="U49">
+    <cfRule type="expression" dxfId="880" priority="1002" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T49">
+    <cfRule type="expression" dxfId="879" priority="1003" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
     <cfRule type="expression" dxfId="878" priority="1001" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U59">
-    <cfRule type="expression" dxfId="877" priority="930" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="877" priority="1000" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
     <cfRule type="expression" dxfId="876" priority="999" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="875" priority="998" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="expression" dxfId="874" priority="997" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U48">
-    <cfRule type="expression" dxfId="873" priority="995" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T48">
-    <cfRule type="expression" dxfId="872" priority="996" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="U50">
+    <cfRule type="expression" dxfId="875" priority="997" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T50">
+    <cfRule type="expression" dxfId="874" priority="998" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="873" priority="996" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" dxfId="872" priority="995" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
     <cfRule type="expression" dxfId="871" priority="994" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="870" priority="993" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="expression" dxfId="869" priority="992" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U49">
-    <cfRule type="expression" dxfId="868" priority="990" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T49">
-    <cfRule type="expression" dxfId="867" priority="991" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="U51">
+    <cfRule type="expression" dxfId="870" priority="992" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T51">
+    <cfRule type="expression" dxfId="869" priority="993" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="868" priority="991" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="867" priority="990" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
     <cfRule type="expression" dxfId="866" priority="989" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="865" priority="988" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="expression" dxfId="864" priority="987" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U50">
-    <cfRule type="expression" dxfId="863" priority="985" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T50">
-    <cfRule type="expression" dxfId="862" priority="986" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="U52">
+    <cfRule type="expression" dxfId="865" priority="987" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T52">
+    <cfRule type="expression" dxfId="864" priority="988" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="863" priority="986" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="862" priority="985" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
     <cfRule type="expression" dxfId="861" priority="984" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="860" priority="983" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
-    <cfRule type="expression" dxfId="859" priority="982" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U51">
-    <cfRule type="expression" dxfId="858" priority="980" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T51">
-    <cfRule type="expression" dxfId="857" priority="981" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="856" priority="979" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="855" priority="978" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="expression" dxfId="854" priority="977" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U52">
-    <cfRule type="expression" dxfId="853" priority="975" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T52">
-    <cfRule type="expression" dxfId="852" priority="976" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="851" priority="974" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="850" priority="973" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="expression" dxfId="849" priority="972" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U53">
-    <cfRule type="expression" dxfId="848" priority="970" stopIfTrue="1">
+    <cfRule type="expression" dxfId="860" priority="982" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T53">
-    <cfRule type="expression" dxfId="847" priority="971" stopIfTrue="1">
+    <cfRule type="expression" dxfId="859" priority="983" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="858" priority="971" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="857" priority="970" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="expression" dxfId="856" priority="969" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U54">
+    <cfRule type="expression" dxfId="855" priority="967" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T54">
+    <cfRule type="expression" dxfId="854" priority="968" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="853" priority="966" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="852" priority="965" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="expression" dxfId="851" priority="964" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U55">
+    <cfRule type="expression" dxfId="850" priority="962" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T55">
+    <cfRule type="expression" dxfId="849" priority="963" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="848" priority="961" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="847" priority="960" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
     <cfRule type="expression" dxfId="846" priority="959" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="845" priority="958" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="expression" dxfId="844" priority="957" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U54">
-    <cfRule type="expression" dxfId="843" priority="955" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T54">
-    <cfRule type="expression" dxfId="842" priority="956" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="U56">
+    <cfRule type="expression" dxfId="845" priority="957" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T56">
+    <cfRule type="expression" dxfId="844" priority="958" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="843" priority="956" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="842" priority="955" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
     <cfRule type="expression" dxfId="841" priority="954" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="840" priority="953" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="expression" dxfId="839" priority="952" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U55">
-    <cfRule type="expression" dxfId="838" priority="950" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T55">
-    <cfRule type="expression" dxfId="837" priority="951" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="U57">
+    <cfRule type="expression" dxfId="840" priority="952" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T57">
+    <cfRule type="expression" dxfId="839" priority="953" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="838" priority="951" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="837" priority="950" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
     <cfRule type="expression" dxfId="836" priority="949" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="835" priority="948" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="expression" dxfId="834" priority="947" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U56">
-    <cfRule type="expression" dxfId="833" priority="945" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T56">
-    <cfRule type="expression" dxfId="832" priority="946" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="U58">
+    <cfRule type="expression" dxfId="835" priority="947" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T58">
+    <cfRule type="expression" dxfId="834" priority="948" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="833" priority="946" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="832" priority="945" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
     <cfRule type="expression" dxfId="831" priority="944" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
+  <conditionalFormatting sqref="T59">
     <cfRule type="expression" dxfId="830" priority="943" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="expression" dxfId="829" priority="942" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U57">
-    <cfRule type="expression" dxfId="828" priority="940" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T57">
-    <cfRule type="expression" dxfId="827" priority="941" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="826" priority="939" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="825" priority="938" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" dxfId="824" priority="937" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U58">
-    <cfRule type="expression" dxfId="823" priority="935" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T58">
-    <cfRule type="expression" dxfId="822" priority="936" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="821" priority="934" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="820" priority="933" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="819" priority="932" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T59">
-    <cfRule type="expression" dxfId="818" priority="931" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="829" priority="940" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="828" priority="939" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="expression" dxfId="827" priority="938" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U60">
+    <cfRule type="expression" dxfId="826" priority="936" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T60">
+    <cfRule type="expression" dxfId="825" priority="937" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="824" priority="935" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="823" priority="934" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="expression" dxfId="822" priority="933" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U61">
+    <cfRule type="expression" dxfId="821" priority="931" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T61">
+    <cfRule type="expression" dxfId="820" priority="932" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="expression" dxfId="819" priority="930" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="818" priority="929" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
     <cfRule type="expression" dxfId="817" priority="928" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="816" priority="927" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="expression" dxfId="815" priority="926" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U60">
-    <cfRule type="expression" dxfId="814" priority="924" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T60">
-    <cfRule type="expression" dxfId="813" priority="925" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
+  <conditionalFormatting sqref="U62">
+    <cfRule type="expression" dxfId="816" priority="926" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T62">
+    <cfRule type="expression" dxfId="815" priority="927" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
+    <cfRule type="expression" dxfId="814" priority="925" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="813" priority="924" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
     <cfRule type="expression" dxfId="812" priority="923" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="811" priority="922" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="expression" dxfId="810" priority="921" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U61">
-    <cfRule type="expression" dxfId="809" priority="919" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T61">
+  <conditionalFormatting sqref="U63">
+    <cfRule type="expression" dxfId="811" priority="921" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T63">
+    <cfRule type="expression" dxfId="810" priority="922" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U65">
+    <cfRule type="expression" dxfId="809" priority="911" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
     <cfRule type="expression" dxfId="808" priority="920" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="807" priority="918" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="806" priority="917" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="807" priority="919" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64">
+    <cfRule type="expression" dxfId="806" priority="918" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U64">
     <cfRule type="expression" dxfId="805" priority="916" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U62">
-    <cfRule type="expression" dxfId="804" priority="914" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T62">
+  <conditionalFormatting sqref="T64">
+    <cfRule type="expression" dxfId="804" priority="917" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
     <cfRule type="expression" dxfId="803" priority="915" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="802" priority="913" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="801" priority="912" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="expression" dxfId="800" priority="911" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U63">
-    <cfRule type="expression" dxfId="799" priority="909" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T63">
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="802" priority="914" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65">
+    <cfRule type="expression" dxfId="801" priority="913" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T65">
+    <cfRule type="expression" dxfId="800" priority="912" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U67">
+    <cfRule type="expression" dxfId="799" priority="901" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
     <cfRule type="expression" dxfId="798" priority="910" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U65">
-    <cfRule type="expression" dxfId="797" priority="899" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="797" priority="909" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
     <cfRule type="expression" dxfId="796" priority="908" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="795" priority="907" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
-    <cfRule type="expression" dxfId="794" priority="906" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U64">
-    <cfRule type="expression" dxfId="793" priority="904" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T64">
-    <cfRule type="expression" dxfId="792" priority="905" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="U66">
+    <cfRule type="expression" dxfId="795" priority="906" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T66">
+    <cfRule type="expression" dxfId="794" priority="907" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="expression" dxfId="793" priority="905" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="expression" dxfId="792" priority="904" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67">
     <cfRule type="expression" dxfId="791" priority="903" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
+  <conditionalFormatting sqref="T67">
     <cfRule type="expression" dxfId="790" priority="902" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F65">
-    <cfRule type="expression" dxfId="789" priority="901" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T65">
-    <cfRule type="expression" dxfId="788" priority="900" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U67">
-    <cfRule type="expression" dxfId="787" priority="889" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="786" priority="898" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="785" priority="897" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="expression" dxfId="784" priority="896" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U66">
-    <cfRule type="expression" dxfId="783" priority="894" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T66">
-    <cfRule type="expression" dxfId="782" priority="895" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="781" priority="893" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" dxfId="780" priority="892" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="expression" dxfId="779" priority="891" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T67">
-    <cfRule type="expression" dxfId="778" priority="890" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="777" priority="888" stopIfTrue="1">
+    <cfRule type="expression" dxfId="789" priority="900" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="expression" dxfId="776" priority="887" stopIfTrue="1">
+    <cfRule type="expression" dxfId="788" priority="899" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="expression" dxfId="775" priority="886" stopIfTrue="1">
+    <cfRule type="expression" dxfId="787" priority="898" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U68">
-    <cfRule type="expression" dxfId="774" priority="884" stopIfTrue="1">
+    <cfRule type="expression" dxfId="786" priority="896" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="expression" dxfId="773" priority="883" stopIfTrue="1">
+    <cfRule type="expression" dxfId="785" priority="895" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="772" priority="882" stopIfTrue="1">
+    <cfRule type="expression" dxfId="784" priority="894" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="expression" dxfId="771" priority="881" stopIfTrue="1">
+    <cfRule type="expression" dxfId="783" priority="893" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U69">
-    <cfRule type="expression" dxfId="770" priority="879" stopIfTrue="1">
+    <cfRule type="expression" dxfId="782" priority="891" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="expression" dxfId="769" priority="878" stopIfTrue="1">
+    <cfRule type="expression" dxfId="781" priority="890" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="768" priority="877" stopIfTrue="1">
+    <cfRule type="expression" dxfId="780" priority="889" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="expression" dxfId="767" priority="876" stopIfTrue="1">
+    <cfRule type="expression" dxfId="779" priority="888" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U70">
-    <cfRule type="expression" dxfId="766" priority="874" stopIfTrue="1">
+    <cfRule type="expression" dxfId="778" priority="886" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="expression" dxfId="765" priority="873" stopIfTrue="1">
+    <cfRule type="expression" dxfId="777" priority="885" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="764" priority="872" stopIfTrue="1">
+    <cfRule type="expression" dxfId="776" priority="884" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="expression" dxfId="763" priority="871" stopIfTrue="1">
+    <cfRule type="expression" dxfId="775" priority="883" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U71">
-    <cfRule type="expression" dxfId="762" priority="867" stopIfTrue="1">
+    <cfRule type="expression" dxfId="774" priority="879" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="expression" dxfId="761" priority="866" stopIfTrue="1">
+    <cfRule type="expression" dxfId="773" priority="878" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="760" priority="865" stopIfTrue="1">
+    <cfRule type="expression" dxfId="772" priority="877" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72">
-    <cfRule type="expression" dxfId="759" priority="864" stopIfTrue="1">
+    <cfRule type="expression" dxfId="771" priority="876" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U72">
-    <cfRule type="expression" dxfId="758" priority="862" stopIfTrue="1">
+    <cfRule type="expression" dxfId="770" priority="874" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="expression" dxfId="757" priority="856" stopIfTrue="1">
+    <cfRule type="expression" dxfId="769" priority="868" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="756" priority="855" stopIfTrue="1">
+    <cfRule type="expression" dxfId="768" priority="867" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="expression" dxfId="755" priority="854" stopIfTrue="1">
+    <cfRule type="expression" dxfId="767" priority="866" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U73">
-    <cfRule type="expression" dxfId="754" priority="852" stopIfTrue="1">
+    <cfRule type="expression" dxfId="766" priority="864" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="expression" dxfId="753" priority="851" stopIfTrue="1">
+    <cfRule type="expression" dxfId="765" priority="863" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="752" priority="850" stopIfTrue="1">
+    <cfRule type="expression" dxfId="764" priority="862" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="expression" dxfId="751" priority="849" stopIfTrue="1">
+    <cfRule type="expression" dxfId="763" priority="861" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U74">
-    <cfRule type="expression" dxfId="750" priority="847" stopIfTrue="1">
+    <cfRule type="expression" dxfId="762" priority="859" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="expression" dxfId="749" priority="846" stopIfTrue="1">
+    <cfRule type="expression" dxfId="761" priority="858" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="748" priority="845" stopIfTrue="1">
+    <cfRule type="expression" dxfId="760" priority="857" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="expression" dxfId="747" priority="844" stopIfTrue="1">
+    <cfRule type="expression" dxfId="759" priority="856" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U75">
-    <cfRule type="expression" dxfId="746" priority="842" stopIfTrue="1">
+    <cfRule type="expression" dxfId="758" priority="854" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="expression" dxfId="745" priority="841" stopIfTrue="1">
+    <cfRule type="expression" dxfId="757" priority="853" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="744" priority="840" stopIfTrue="1">
+    <cfRule type="expression" dxfId="756" priority="852" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="expression" dxfId="743" priority="839" stopIfTrue="1">
+    <cfRule type="expression" dxfId="755" priority="851" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U76">
-    <cfRule type="expression" dxfId="742" priority="837" stopIfTrue="1">
+    <cfRule type="expression" dxfId="754" priority="849" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="expression" dxfId="741" priority="836" stopIfTrue="1">
+    <cfRule type="expression" dxfId="753" priority="848" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="740" priority="835" stopIfTrue="1">
+    <cfRule type="expression" dxfId="752" priority="847" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="expression" dxfId="739" priority="834" stopIfTrue="1">
+    <cfRule type="expression" dxfId="751" priority="846" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U77">
-    <cfRule type="expression" dxfId="738" priority="832" stopIfTrue="1">
+    <cfRule type="expression" dxfId="750" priority="844" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="expression" dxfId="737" priority="831" stopIfTrue="1">
+    <cfRule type="expression" dxfId="749" priority="843" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="736" priority="830" stopIfTrue="1">
+    <cfRule type="expression" dxfId="748" priority="842" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="expression" dxfId="735" priority="829" stopIfTrue="1">
+    <cfRule type="expression" dxfId="747" priority="841" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U78">
-    <cfRule type="expression" dxfId="734" priority="827" stopIfTrue="1">
+    <cfRule type="expression" dxfId="746" priority="839" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="expression" dxfId="733" priority="826" stopIfTrue="1">
+    <cfRule type="expression" dxfId="745" priority="838" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="732" priority="825" stopIfTrue="1">
+    <cfRule type="expression" dxfId="744" priority="837" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="expression" dxfId="731" priority="824" stopIfTrue="1">
+    <cfRule type="expression" dxfId="743" priority="836" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U79">
-    <cfRule type="expression" dxfId="730" priority="822" stopIfTrue="1">
+    <cfRule type="expression" dxfId="742" priority="834" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80">
-    <cfRule type="expression" dxfId="729" priority="821" stopIfTrue="1">
+    <cfRule type="expression" dxfId="741" priority="833" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="728" priority="820" stopIfTrue="1">
+    <cfRule type="expression" dxfId="740" priority="832" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="expression" dxfId="727" priority="819" stopIfTrue="1">
+    <cfRule type="expression" dxfId="739" priority="831" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U80">
-    <cfRule type="expression" dxfId="726" priority="817" stopIfTrue="1">
+    <cfRule type="expression" dxfId="738" priority="829" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="expression" dxfId="725" priority="816" stopIfTrue="1">
+    <cfRule type="expression" dxfId="737" priority="828" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="expression" dxfId="724" priority="815" stopIfTrue="1">
+    <cfRule type="expression" dxfId="736" priority="827" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81">
-    <cfRule type="expression" dxfId="723" priority="814" stopIfTrue="1">
+    <cfRule type="expression" dxfId="735" priority="826" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U81">
-    <cfRule type="expression" dxfId="722" priority="812" stopIfTrue="1">
+    <cfRule type="expression" dxfId="734" priority="824" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82">
-    <cfRule type="expression" dxfId="721" priority="811" stopIfTrue="1">
+    <cfRule type="expression" dxfId="733" priority="823" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="expression" dxfId="720" priority="810" stopIfTrue="1">
+    <cfRule type="expression" dxfId="732" priority="822" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82">
-    <cfRule type="expression" dxfId="719" priority="809" stopIfTrue="1">
+    <cfRule type="expression" dxfId="731" priority="821" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U82">
-    <cfRule type="expression" dxfId="718" priority="807" stopIfTrue="1">
+    <cfRule type="expression" dxfId="730" priority="819" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="expression" dxfId="717" priority="806" stopIfTrue="1">
+    <cfRule type="expression" dxfId="729" priority="818" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
+    <cfRule type="expression" dxfId="728" priority="817" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83">
+    <cfRule type="expression" dxfId="727" priority="816" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U83">
+    <cfRule type="expression" dxfId="726" priority="814" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="expression" dxfId="725" priority="813" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="expression" dxfId="724" priority="812" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84">
+    <cfRule type="expression" dxfId="723" priority="811" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U84">
+    <cfRule type="expression" dxfId="722" priority="809" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T68:T84">
+    <cfRule type="expression" dxfId="721" priority="810" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="expression" dxfId="720" priority="808" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" dxfId="719" priority="807" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="expression" dxfId="718" priority="806" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U85">
+    <cfRule type="expression" dxfId="717" priority="804" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T85">
     <cfRule type="expression" dxfId="716" priority="805" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83">
-    <cfRule type="expression" dxfId="715" priority="804" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U83">
+  <conditionalFormatting sqref="D86">
+    <cfRule type="expression" dxfId="715" priority="803" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
     <cfRule type="expression" dxfId="714" priority="802" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
+  <conditionalFormatting sqref="F86">
     <cfRule type="expression" dxfId="713" priority="801" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="expression" dxfId="712" priority="800" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84">
-    <cfRule type="expression" dxfId="711" priority="799" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U84">
-    <cfRule type="expression" dxfId="710" priority="797" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T68:T84">
-    <cfRule type="expression" dxfId="709" priority="798" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
+  <conditionalFormatting sqref="U86">
+    <cfRule type="expression" dxfId="712" priority="799" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T86">
+    <cfRule type="expression" dxfId="711" priority="800" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="expression" dxfId="710" priority="798" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="709" priority="797" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87">
     <cfRule type="expression" dxfId="708" priority="796" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="expression" dxfId="707" priority="795" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="expression" dxfId="706" priority="794" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U85">
-    <cfRule type="expression" dxfId="705" priority="792" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T85">
-    <cfRule type="expression" dxfId="704" priority="793" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
+  <conditionalFormatting sqref="U87:U88">
+    <cfRule type="expression" dxfId="707" priority="794" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T87:T88">
+    <cfRule type="expression" dxfId="706" priority="795" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="expression" dxfId="705" priority="793" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="expression" dxfId="704" priority="792" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F88:F89">
     <cfRule type="expression" dxfId="703" priority="791" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
+  <conditionalFormatting sqref="D89">
     <cfRule type="expression" dxfId="702" priority="790" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
+  <conditionalFormatting sqref="F90:F91">
     <cfRule type="expression" dxfId="701" priority="789" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U86">
-    <cfRule type="expression" dxfId="700" priority="787" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T86">
-    <cfRule type="expression" dxfId="699" priority="788" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
+  <conditionalFormatting sqref="D90:D91">
+    <cfRule type="expression" dxfId="700" priority="788" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92">
+    <cfRule type="expression" dxfId="699" priority="787" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D92">
     <cfRule type="expression" dxfId="698" priority="786" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="F93">
     <cfRule type="expression" dxfId="697" priority="785" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
+  <conditionalFormatting sqref="D93">
     <cfRule type="expression" dxfId="696" priority="784" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U87:U88">
-    <cfRule type="expression" dxfId="695" priority="782" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T87:T88">
-    <cfRule type="expression" dxfId="694" priority="783" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
+  <conditionalFormatting sqref="D94">
+    <cfRule type="expression" dxfId="695" priority="783" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" dxfId="694" priority="782" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94">
     <cfRule type="expression" dxfId="693" priority="781" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="expression" dxfId="692" priority="780" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F88:F89">
-    <cfRule type="expression" dxfId="691" priority="779" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
+  <conditionalFormatting sqref="U94">
+    <cfRule type="expression" dxfId="692" priority="779" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T94">
+    <cfRule type="expression" dxfId="691" priority="780" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D95">
     <cfRule type="expression" dxfId="690" priority="778" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:F91">
+  <conditionalFormatting sqref="E95">
     <cfRule type="expression" dxfId="689" priority="777" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D90:D91">
+  <conditionalFormatting sqref="F95">
     <cfRule type="expression" dxfId="688" priority="776" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F92">
-    <cfRule type="expression" dxfId="687" priority="775" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D92">
-    <cfRule type="expression" dxfId="686" priority="774" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F93">
+  <conditionalFormatting sqref="U95">
+    <cfRule type="expression" dxfId="687" priority="774" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T95">
+    <cfRule type="expression" dxfId="686" priority="775" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96">
     <cfRule type="expression" dxfId="685" priority="773" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
+  <conditionalFormatting sqref="E96">
     <cfRule type="expression" dxfId="684" priority="772" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
+  <conditionalFormatting sqref="F96">
     <cfRule type="expression" dxfId="683" priority="771" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="expression" dxfId="682" priority="770" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F94">
-    <cfRule type="expression" dxfId="681" priority="769" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U94">
-    <cfRule type="expression" dxfId="680" priority="767" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T94">
-    <cfRule type="expression" dxfId="679" priority="768" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D95">
+  <conditionalFormatting sqref="U96">
+    <cfRule type="expression" dxfId="682" priority="769" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T96">
+    <cfRule type="expression" dxfId="681" priority="770" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="expression" dxfId="680" priority="768" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="expression" dxfId="679" priority="767" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97">
     <cfRule type="expression" dxfId="678" priority="766" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="expression" dxfId="677" priority="765" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
-    <cfRule type="expression" dxfId="676" priority="764" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U95">
-    <cfRule type="expression" dxfId="675" priority="762" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T95">
-    <cfRule type="expression" dxfId="674" priority="763" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96">
+  <conditionalFormatting sqref="U97">
+    <cfRule type="expression" dxfId="677" priority="764" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T97">
+    <cfRule type="expression" dxfId="676" priority="765" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D98">
+    <cfRule type="expression" dxfId="675" priority="763" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" dxfId="674" priority="762" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98">
     <cfRule type="expression" dxfId="673" priority="761" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="expression" dxfId="672" priority="760" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
-    <cfRule type="expression" dxfId="671" priority="759" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U96">
-    <cfRule type="expression" dxfId="670" priority="757" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T96">
-    <cfRule type="expression" dxfId="669" priority="758" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
+  <conditionalFormatting sqref="U98">
+    <cfRule type="expression" dxfId="672" priority="759" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T98">
+    <cfRule type="expression" dxfId="671" priority="760" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99">
+    <cfRule type="expression" dxfId="670" priority="758" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="expression" dxfId="669" priority="757" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F99">
     <cfRule type="expression" dxfId="668" priority="756" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="expression" dxfId="667" priority="755" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
-    <cfRule type="expression" dxfId="666" priority="754" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U97">
-    <cfRule type="expression" dxfId="665" priority="752" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T97">
-    <cfRule type="expression" dxfId="664" priority="753" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D98">
+  <conditionalFormatting sqref="U99">
+    <cfRule type="expression" dxfId="667" priority="754" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T99">
+    <cfRule type="expression" dxfId="666" priority="755" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100">
+    <cfRule type="expression" dxfId="665" priority="753" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="expression" dxfId="664" priority="752" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F100">
     <cfRule type="expression" dxfId="663" priority="751" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="662" priority="750" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
-    <cfRule type="expression" dxfId="661" priority="749" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U98">
-    <cfRule type="expression" dxfId="660" priority="747" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T98">
-    <cfRule type="expression" dxfId="659" priority="748" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99">
+  <conditionalFormatting sqref="U100">
+    <cfRule type="expression" dxfId="662" priority="749" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T100">
+    <cfRule type="expression" dxfId="661" priority="750" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D101">
+    <cfRule type="expression" dxfId="660" priority="748" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="expression" dxfId="659" priority="747" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F101">
     <cfRule type="expression" dxfId="658" priority="746" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="657" priority="745" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F99">
-    <cfRule type="expression" dxfId="656" priority="744" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U99">
-    <cfRule type="expression" dxfId="655" priority="742" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T99">
-    <cfRule type="expression" dxfId="654" priority="743" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D100">
-    <cfRule type="expression" dxfId="653" priority="741" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="expression" dxfId="652" priority="740" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F100">
-    <cfRule type="expression" dxfId="651" priority="739" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U100">
-    <cfRule type="expression" dxfId="650" priority="737" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T100">
-    <cfRule type="expression" dxfId="649" priority="738" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
-    <cfRule type="expression" dxfId="648" priority="736" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="647" priority="735" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F101">
-    <cfRule type="expression" dxfId="646" priority="734" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="expression" dxfId="645" priority="731" stopIfTrue="1">
+    <cfRule type="expression" dxfId="657" priority="743" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="644" priority="730" stopIfTrue="1">
+    <cfRule type="expression" dxfId="656" priority="742" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102">
-    <cfRule type="expression" dxfId="643" priority="729" stopIfTrue="1">
+    <cfRule type="expression" dxfId="655" priority="741" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="expression" dxfId="642" priority="726" stopIfTrue="1">
+    <cfRule type="expression" dxfId="654" priority="738" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="expression" dxfId="641" priority="725" stopIfTrue="1">
+    <cfRule type="expression" dxfId="653" priority="737" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103">
-    <cfRule type="expression" dxfId="640" priority="724" stopIfTrue="1">
+    <cfRule type="expression" dxfId="652" priority="736" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U101">
-    <cfRule type="expression" dxfId="639" priority="721" stopIfTrue="1">
+    <cfRule type="expression" dxfId="651" priority="733" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U102">
+    <cfRule type="expression" dxfId="650" priority="732" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U103">
+    <cfRule type="expression" dxfId="649" priority="731" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104">
+    <cfRule type="expression" dxfId="648" priority="730" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="expression" dxfId="647" priority="729" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F104">
+    <cfRule type="expression" dxfId="646" priority="728" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U104">
+    <cfRule type="expression" dxfId="645" priority="726" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T104">
+    <cfRule type="expression" dxfId="644" priority="727" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D105">
+    <cfRule type="expression" dxfId="643" priority="725" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="expression" dxfId="642" priority="724" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105">
+    <cfRule type="expression" dxfId="641" priority="723" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U105">
+    <cfRule type="expression" dxfId="640" priority="721" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T105">
+    <cfRule type="expression" dxfId="639" priority="722" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106">
     <cfRule type="expression" dxfId="638" priority="720" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U103">
+  <conditionalFormatting sqref="E106">
     <cfRule type="expression" dxfId="637" priority="719" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D104">
+  <conditionalFormatting sqref="F106">
     <cfRule type="expression" dxfId="636" priority="718" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="expression" dxfId="635" priority="717" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F104">
-    <cfRule type="expression" dxfId="634" priority="716" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U104">
-    <cfRule type="expression" dxfId="633" priority="714" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T104">
-    <cfRule type="expression" dxfId="632" priority="715" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D105">
+  <conditionalFormatting sqref="U106">
+    <cfRule type="expression" dxfId="635" priority="716" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T106">
+    <cfRule type="expression" dxfId="634" priority="717" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D107">
+    <cfRule type="expression" dxfId="633" priority="715" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="expression" dxfId="632" priority="714" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
     <cfRule type="expression" dxfId="631" priority="713" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
+  <conditionalFormatting sqref="T107">
     <cfRule type="expression" dxfId="630" priority="712" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105">
+  <conditionalFormatting sqref="U107">
     <cfRule type="expression" dxfId="629" priority="711" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U105">
-    <cfRule type="expression" dxfId="628" priority="709" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T105">
-    <cfRule type="expression" dxfId="627" priority="710" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D106">
+  <conditionalFormatting sqref="D108">
+    <cfRule type="expression" dxfId="628" priority="710" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="expression" dxfId="627" priority="709" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F108">
     <cfRule type="expression" dxfId="626" priority="708" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
+  <conditionalFormatting sqref="T108">
     <cfRule type="expression" dxfId="625" priority="707" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106">
+  <conditionalFormatting sqref="U108">
     <cfRule type="expression" dxfId="624" priority="706" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U106">
-    <cfRule type="expression" dxfId="623" priority="704" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T106">
-    <cfRule type="expression" dxfId="622" priority="705" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D107">
+  <conditionalFormatting sqref="T101">
+    <cfRule type="expression" dxfId="623" priority="705" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T102">
+    <cfRule type="expression" dxfId="622" priority="704" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T103">
     <cfRule type="expression" dxfId="621" priority="703" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
+  <conditionalFormatting sqref="D109:D115">
     <cfRule type="expression" dxfId="620" priority="702" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
+  <conditionalFormatting sqref="E109">
     <cfRule type="expression" dxfId="619" priority="701" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T107">
+  <conditionalFormatting sqref="F109">
     <cfRule type="expression" dxfId="618" priority="700" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U107">
+  <conditionalFormatting sqref="T109">
     <cfRule type="expression" dxfId="617" priority="699" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D108">
+  <conditionalFormatting sqref="U109">
     <cfRule type="expression" dxfId="616" priority="698" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="expression" dxfId="615" priority="697" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F108">
-    <cfRule type="expression" dxfId="614" priority="696" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T108">
-    <cfRule type="expression" dxfId="613" priority="695" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U108">
-    <cfRule type="expression" dxfId="612" priority="694" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T101">
-    <cfRule type="expression" dxfId="611" priority="693" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T102">
-    <cfRule type="expression" dxfId="610" priority="692" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T103">
-    <cfRule type="expression" dxfId="609" priority="691" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D109:D115">
-    <cfRule type="expression" dxfId="608" priority="690" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="expression" dxfId="607" priority="689" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F109">
-    <cfRule type="expression" dxfId="606" priority="688" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T109">
-    <cfRule type="expression" dxfId="605" priority="687" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U109">
-    <cfRule type="expression" dxfId="604" priority="686" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="expression" dxfId="603" priority="684" stopIfTrue="1">
+    <cfRule type="expression" dxfId="615" priority="696" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="expression" dxfId="602" priority="683" stopIfTrue="1">
+    <cfRule type="expression" dxfId="614" priority="695" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T110">
-    <cfRule type="expression" dxfId="601" priority="682" stopIfTrue="1">
+    <cfRule type="expression" dxfId="613" priority="694" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U110">
-    <cfRule type="expression" dxfId="600" priority="681" stopIfTrue="1">
+    <cfRule type="expression" dxfId="612" priority="693" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="expression" dxfId="599" priority="679" stopIfTrue="1">
+    <cfRule type="expression" dxfId="611" priority="691" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111">
-    <cfRule type="expression" dxfId="598" priority="678" stopIfTrue="1">
+    <cfRule type="expression" dxfId="610" priority="690" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T111">
-    <cfRule type="expression" dxfId="597" priority="677" stopIfTrue="1">
+    <cfRule type="expression" dxfId="609" priority="689" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U111">
-    <cfRule type="expression" dxfId="596" priority="676" stopIfTrue="1">
+    <cfRule type="expression" dxfId="608" priority="688" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="expression" dxfId="595" priority="674" stopIfTrue="1">
+    <cfRule type="expression" dxfId="607" priority="686" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="expression" dxfId="594" priority="673" stopIfTrue="1">
+    <cfRule type="expression" dxfId="606" priority="685" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T112">
-    <cfRule type="expression" dxfId="593" priority="672" stopIfTrue="1">
+    <cfRule type="expression" dxfId="605" priority="684" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U112">
-    <cfRule type="expression" dxfId="592" priority="671" stopIfTrue="1">
+    <cfRule type="expression" dxfId="604" priority="683" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="expression" dxfId="591" priority="669" stopIfTrue="1">
+    <cfRule type="expression" dxfId="603" priority="681" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F113">
-    <cfRule type="expression" dxfId="590" priority="668" stopIfTrue="1">
+    <cfRule type="expression" dxfId="602" priority="680" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113">
-    <cfRule type="expression" dxfId="589" priority="667" stopIfTrue="1">
+    <cfRule type="expression" dxfId="601" priority="679" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U113">
-    <cfRule type="expression" dxfId="588" priority="666" stopIfTrue="1">
+    <cfRule type="expression" dxfId="600" priority="678" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
+    <cfRule type="expression" dxfId="599" priority="676" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F114">
+    <cfRule type="expression" dxfId="598" priority="675" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T114">
+    <cfRule type="expression" dxfId="597" priority="674" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U114">
+    <cfRule type="expression" dxfId="596" priority="673" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D116">
+    <cfRule type="expression" dxfId="595" priority="672" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115:E116">
+    <cfRule type="expression" dxfId="594" priority="671" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F115">
+    <cfRule type="expression" dxfId="593" priority="670" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T115">
+    <cfRule type="expression" dxfId="592" priority="669" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U115">
+    <cfRule type="expression" dxfId="591" priority="668" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F116">
+    <cfRule type="expression" dxfId="590" priority="667" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D117">
+    <cfRule type="expression" dxfId="589" priority="666" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117">
+    <cfRule type="expression" dxfId="588" priority="665" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F117">
     <cfRule type="expression" dxfId="587" priority="664" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F114">
+  <conditionalFormatting sqref="D118">
     <cfRule type="expression" dxfId="586" priority="663" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T114">
+  <conditionalFormatting sqref="E118">
     <cfRule type="expression" dxfId="585" priority="662" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U114">
+  <conditionalFormatting sqref="F118">
     <cfRule type="expression" dxfId="584" priority="661" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D116">
+  <conditionalFormatting sqref="D119">
     <cfRule type="expression" dxfId="583" priority="660" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E115:E116">
+  <conditionalFormatting sqref="E119">
     <cfRule type="expression" dxfId="582" priority="659" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F115">
+  <conditionalFormatting sqref="F119">
     <cfRule type="expression" dxfId="581" priority="658" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T115">
-    <cfRule type="expression" dxfId="580" priority="657" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U115">
-    <cfRule type="expression" dxfId="579" priority="656" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F116">
-    <cfRule type="expression" dxfId="578" priority="655" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D117">
-    <cfRule type="expression" dxfId="577" priority="654" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="expression" dxfId="576" priority="653" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F117">
-    <cfRule type="expression" dxfId="575" priority="652" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D118">
-    <cfRule type="expression" dxfId="574" priority="651" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="expression" dxfId="573" priority="650" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F118">
-    <cfRule type="expression" dxfId="572" priority="649" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D119">
-    <cfRule type="expression" dxfId="571" priority="648" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="expression" dxfId="570" priority="647" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F119">
-    <cfRule type="expression" dxfId="569" priority="646" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D120">
+    <cfRule type="expression" dxfId="580" priority="648" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="expression" dxfId="579" priority="647" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F120">
+    <cfRule type="expression" dxfId="578" priority="646" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T120">
+    <cfRule type="expression" dxfId="577" priority="645" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D121">
+    <cfRule type="expression" dxfId="576" priority="644" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="expression" dxfId="575" priority="643" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F121">
+    <cfRule type="expression" dxfId="574" priority="642" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T121">
+    <cfRule type="expression" dxfId="573" priority="641" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="expression" dxfId="572" priority="640" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="expression" dxfId="571" priority="639" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F122">
+    <cfRule type="expression" dxfId="570" priority="638" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T122">
+    <cfRule type="expression" dxfId="569" priority="637" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D123">
     <cfRule type="expression" dxfId="568" priority="636" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
+  <conditionalFormatting sqref="E123">
     <cfRule type="expression" dxfId="567" priority="635" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F120">
+  <conditionalFormatting sqref="F123">
     <cfRule type="expression" dxfId="566" priority="634" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T120">
+  <conditionalFormatting sqref="T123">
     <cfRule type="expression" dxfId="565" priority="633" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D121">
+  <conditionalFormatting sqref="D124">
     <cfRule type="expression" dxfId="564" priority="632" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
+  <conditionalFormatting sqref="E124">
     <cfRule type="expression" dxfId="563" priority="631" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F121">
+  <conditionalFormatting sqref="F124:F127">
     <cfRule type="expression" dxfId="562" priority="630" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T121">
+  <conditionalFormatting sqref="T124">
     <cfRule type="expression" dxfId="561" priority="629" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D122">
+  <conditionalFormatting sqref="D125">
     <cfRule type="expression" dxfId="560" priority="628" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
+  <conditionalFormatting sqref="E125">
     <cfRule type="expression" dxfId="559" priority="627" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F122">
-    <cfRule type="expression" dxfId="558" priority="626" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T122">
-    <cfRule type="expression" dxfId="557" priority="625" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D123">
-    <cfRule type="expression" dxfId="556" priority="624" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="expression" dxfId="555" priority="623" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F123">
-    <cfRule type="expression" dxfId="554" priority="622" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T123">
-    <cfRule type="expression" dxfId="553" priority="621" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D124">
-    <cfRule type="expression" dxfId="552" priority="620" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="expression" dxfId="551" priority="619" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F124:F127">
-    <cfRule type="expression" dxfId="550" priority="618" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T124">
-    <cfRule type="expression" dxfId="549" priority="617" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D125">
-    <cfRule type="expression" dxfId="548" priority="616" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="expression" dxfId="547" priority="615" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T125">
-    <cfRule type="expression" dxfId="546" priority="613" stopIfTrue="1">
+    <cfRule type="expression" dxfId="558" priority="625" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D126">
-    <cfRule type="expression" dxfId="545" priority="612" stopIfTrue="1">
+    <cfRule type="expression" dxfId="557" priority="624" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="expression" dxfId="544" priority="611" stopIfTrue="1">
+    <cfRule type="expression" dxfId="556" priority="623" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T126">
-    <cfRule type="expression" dxfId="543" priority="609" stopIfTrue="1">
+    <cfRule type="expression" dxfId="555" priority="621" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D127">
-    <cfRule type="expression" dxfId="542" priority="608" stopIfTrue="1">
+    <cfRule type="expression" dxfId="554" priority="620" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="expression" dxfId="541" priority="607" stopIfTrue="1">
+    <cfRule type="expression" dxfId="553" priority="619" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U126">
-    <cfRule type="expression" dxfId="540" priority="602" stopIfTrue="1">
+    <cfRule type="expression" dxfId="552" priority="614" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T127">
-    <cfRule type="expression" dxfId="539" priority="605" stopIfTrue="1">
+    <cfRule type="expression" dxfId="551" priority="617" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U124">
-    <cfRule type="expression" dxfId="538" priority="604" stopIfTrue="1">
+    <cfRule type="expression" dxfId="550" priority="616" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U125">
-    <cfRule type="expression" dxfId="537" priority="603" stopIfTrue="1">
+    <cfRule type="expression" dxfId="549" priority="615" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U127">
+    <cfRule type="expression" dxfId="548" priority="613" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F128">
+    <cfRule type="expression" dxfId="547" priority="612" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D128">
+    <cfRule type="expression" dxfId="546" priority="611" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="expression" dxfId="545" priority="610" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T128">
+    <cfRule type="expression" dxfId="544" priority="609" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U128">
+    <cfRule type="expression" dxfId="543" priority="608" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D129">
+    <cfRule type="expression" dxfId="542" priority="607" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="expression" dxfId="541" priority="606" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F129">
+    <cfRule type="expression" dxfId="540" priority="605" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T129">
+    <cfRule type="expression" dxfId="539" priority="604" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F130">
+    <cfRule type="expression" dxfId="538" priority="603" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D130">
+    <cfRule type="expression" dxfId="537" priority="602" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
     <cfRule type="expression" dxfId="536" priority="601" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F128">
+  <conditionalFormatting sqref="T130">
     <cfRule type="expression" dxfId="535" priority="600" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D128">
+  <conditionalFormatting sqref="U130">
     <cfRule type="expression" dxfId="534" priority="599" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
+  <conditionalFormatting sqref="D131">
     <cfRule type="expression" dxfId="533" priority="598" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T128">
+  <conditionalFormatting sqref="E131">
     <cfRule type="expression" dxfId="532" priority="597" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U128">
+  <conditionalFormatting sqref="F131">
     <cfRule type="expression" dxfId="531" priority="596" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D129">
+  <conditionalFormatting sqref="T131">
     <cfRule type="expression" dxfId="530" priority="595" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
+  <conditionalFormatting sqref="F132">
     <cfRule type="expression" dxfId="529" priority="594" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F129">
+  <conditionalFormatting sqref="D132">
     <cfRule type="expression" dxfId="528" priority="593" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T129">
+  <conditionalFormatting sqref="E132">
     <cfRule type="expression" dxfId="527" priority="592" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F130">
+  <conditionalFormatting sqref="T132">
     <cfRule type="expression" dxfId="526" priority="591" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D130">
+  <conditionalFormatting sqref="U132">
     <cfRule type="expression" dxfId="525" priority="590" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
+  <conditionalFormatting sqref="D133">
     <cfRule type="expression" dxfId="524" priority="589" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T130">
+  <conditionalFormatting sqref="E133">
     <cfRule type="expression" dxfId="523" priority="588" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U130">
+  <conditionalFormatting sqref="F133">
     <cfRule type="expression" dxfId="522" priority="587" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D131">
+  <conditionalFormatting sqref="T133">
     <cfRule type="expression" dxfId="521" priority="586" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
+  <conditionalFormatting sqref="F134">
     <cfRule type="expression" dxfId="520" priority="585" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F131">
+  <conditionalFormatting sqref="D134">
     <cfRule type="expression" dxfId="519" priority="584" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T131">
+  <conditionalFormatting sqref="E134">
     <cfRule type="expression" dxfId="518" priority="583" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F132">
+  <conditionalFormatting sqref="T134">
     <cfRule type="expression" dxfId="517" priority="582" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D132">
+  <conditionalFormatting sqref="U134">
     <cfRule type="expression" dxfId="516" priority="581" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
+  <conditionalFormatting sqref="D135">
     <cfRule type="expression" dxfId="515" priority="580" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T132">
+  <conditionalFormatting sqref="E135">
     <cfRule type="expression" dxfId="514" priority="579" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U132">
+  <conditionalFormatting sqref="F135">
     <cfRule type="expression" dxfId="513" priority="578" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D133">
+  <conditionalFormatting sqref="T135">
     <cfRule type="expression" dxfId="512" priority="577" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
+  <conditionalFormatting sqref="F136">
     <cfRule type="expression" dxfId="511" priority="576" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F133">
+  <conditionalFormatting sqref="D136">
     <cfRule type="expression" dxfId="510" priority="575" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T133">
+  <conditionalFormatting sqref="E136">
     <cfRule type="expression" dxfId="509" priority="574" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F134">
+  <conditionalFormatting sqref="T136">
     <cfRule type="expression" dxfId="508" priority="573" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D134">
+  <conditionalFormatting sqref="U136">
     <cfRule type="expression" dxfId="507" priority="572" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
+  <conditionalFormatting sqref="D137">
     <cfRule type="expression" dxfId="506" priority="571" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T134">
+  <conditionalFormatting sqref="E137">
     <cfRule type="expression" dxfId="505" priority="570" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U134">
+  <conditionalFormatting sqref="F137">
     <cfRule type="expression" dxfId="504" priority="569" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D135">
+  <conditionalFormatting sqref="T137">
     <cfRule type="expression" dxfId="503" priority="568" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
+  <conditionalFormatting sqref="F138">
     <cfRule type="expression" dxfId="502" priority="567" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F135">
+  <conditionalFormatting sqref="D138">
     <cfRule type="expression" dxfId="501" priority="566" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T135">
+  <conditionalFormatting sqref="E138">
     <cfRule type="expression" dxfId="500" priority="565" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F136">
+  <conditionalFormatting sqref="T138">
     <cfRule type="expression" dxfId="499" priority="564" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D136">
+  <conditionalFormatting sqref="U138">
     <cfRule type="expression" dxfId="498" priority="563" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
+  <conditionalFormatting sqref="D139">
     <cfRule type="expression" dxfId="497" priority="562" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T136">
+  <conditionalFormatting sqref="E139">
     <cfRule type="expression" dxfId="496" priority="561" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U136">
+  <conditionalFormatting sqref="F139">
     <cfRule type="expression" dxfId="495" priority="560" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D137">
+  <conditionalFormatting sqref="T139">
     <cfRule type="expression" dxfId="494" priority="559" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
+  <conditionalFormatting sqref="F140">
     <cfRule type="expression" dxfId="493" priority="558" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F137">
+  <conditionalFormatting sqref="D140">
     <cfRule type="expression" dxfId="492" priority="557" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T137">
+  <conditionalFormatting sqref="E140">
     <cfRule type="expression" dxfId="491" priority="556" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F138">
+  <conditionalFormatting sqref="T140">
     <cfRule type="expression" dxfId="490" priority="555" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D138">
+  <conditionalFormatting sqref="U140">
     <cfRule type="expression" dxfId="489" priority="554" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
+  <conditionalFormatting sqref="D141">
     <cfRule type="expression" dxfId="488" priority="553" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T138">
+  <conditionalFormatting sqref="E141">
     <cfRule type="expression" dxfId="487" priority="552" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U138">
+  <conditionalFormatting sqref="F141">
     <cfRule type="expression" dxfId="486" priority="551" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D139">
+  <conditionalFormatting sqref="T141">
     <cfRule type="expression" dxfId="485" priority="550" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
+  <conditionalFormatting sqref="F142">
     <cfRule type="expression" dxfId="484" priority="549" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F139">
+  <conditionalFormatting sqref="D142">
     <cfRule type="expression" dxfId="483" priority="548" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T139">
+  <conditionalFormatting sqref="E142">
     <cfRule type="expression" dxfId="482" priority="547" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
+  <conditionalFormatting sqref="T142">
     <cfRule type="expression" dxfId="481" priority="546" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D140">
+  <conditionalFormatting sqref="U142">
     <cfRule type="expression" dxfId="480" priority="545" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
+  <conditionalFormatting sqref="D143">
     <cfRule type="expression" dxfId="479" priority="544" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T140">
+  <conditionalFormatting sqref="E143">
     <cfRule type="expression" dxfId="478" priority="543" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U140">
+  <conditionalFormatting sqref="F143">
     <cfRule type="expression" dxfId="477" priority="542" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D141">
+  <conditionalFormatting sqref="T143">
     <cfRule type="expression" dxfId="476" priority="541" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
+  <conditionalFormatting sqref="F144">
     <cfRule type="expression" dxfId="475" priority="540" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
+  <conditionalFormatting sqref="D144">
     <cfRule type="expression" dxfId="474" priority="539" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T141">
+  <conditionalFormatting sqref="E144">
     <cfRule type="expression" dxfId="473" priority="538" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
+  <conditionalFormatting sqref="T144">
     <cfRule type="expression" dxfId="472" priority="537" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D142">
+  <conditionalFormatting sqref="U144">
     <cfRule type="expression" dxfId="471" priority="536" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
+  <conditionalFormatting sqref="D145">
     <cfRule type="expression" dxfId="470" priority="535" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T142">
+  <conditionalFormatting sqref="E145">
     <cfRule type="expression" dxfId="469" priority="534" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U142">
+  <conditionalFormatting sqref="F145">
     <cfRule type="expression" dxfId="468" priority="533" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D143">
+  <conditionalFormatting sqref="T145">
     <cfRule type="expression" dxfId="467" priority="532" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
+  <conditionalFormatting sqref="F146">
     <cfRule type="expression" dxfId="466" priority="531" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
+  <conditionalFormatting sqref="D146">
     <cfRule type="expression" dxfId="465" priority="530" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T143">
+  <conditionalFormatting sqref="E146">
     <cfRule type="expression" dxfId="464" priority="529" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F144">
+  <conditionalFormatting sqref="T146">
     <cfRule type="expression" dxfId="463" priority="528" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D144">
+  <conditionalFormatting sqref="U146">
     <cfRule type="expression" dxfId="462" priority="527" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
+  <conditionalFormatting sqref="D147">
     <cfRule type="expression" dxfId="461" priority="526" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T144">
+  <conditionalFormatting sqref="E147">
     <cfRule type="expression" dxfId="460" priority="525" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U144">
+  <conditionalFormatting sqref="F147">
     <cfRule type="expression" dxfId="459" priority="524" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D145">
+  <conditionalFormatting sqref="T147">
     <cfRule type="expression" dxfId="458" priority="523" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E145">
+  <conditionalFormatting sqref="F148">
     <cfRule type="expression" dxfId="457" priority="522" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F145">
+  <conditionalFormatting sqref="D148">
     <cfRule type="expression" dxfId="456" priority="521" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T145">
+  <conditionalFormatting sqref="E148">
     <cfRule type="expression" dxfId="455" priority="520" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F146">
+  <conditionalFormatting sqref="T148">
     <cfRule type="expression" dxfId="454" priority="519" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D146">
+  <conditionalFormatting sqref="U148">
     <cfRule type="expression" dxfId="453" priority="518" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E146">
-    <cfRule type="expression" dxfId="452" priority="517" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T146">
-    <cfRule type="expression" dxfId="451" priority="516" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U146">
-    <cfRule type="expression" dxfId="450" priority="515" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D147">
-    <cfRule type="expression" dxfId="449" priority="514" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E147">
-    <cfRule type="expression" dxfId="448" priority="513" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F147">
-    <cfRule type="expression" dxfId="447" priority="512" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T147">
-    <cfRule type="expression" dxfId="446" priority="511" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F148">
-    <cfRule type="expression" dxfId="445" priority="510" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D148">
-    <cfRule type="expression" dxfId="444" priority="509" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E148">
-    <cfRule type="expression" dxfId="443" priority="508" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T148">
-    <cfRule type="expression" dxfId="442" priority="507" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U148">
-    <cfRule type="expression" dxfId="441" priority="506" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F149">
-    <cfRule type="expression" dxfId="440" priority="501" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="513" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149">
-    <cfRule type="expression" dxfId="439" priority="500" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="512" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149">
-    <cfRule type="expression" dxfId="438" priority="499" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="511" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T149">
-    <cfRule type="expression" dxfId="437" priority="498" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="510" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U149">
-    <cfRule type="expression" dxfId="436" priority="497" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="509" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F150">
+    <cfRule type="expression" dxfId="447" priority="504" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D150">
+    <cfRule type="expression" dxfId="446" priority="503" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E150">
+    <cfRule type="expression" dxfId="445" priority="502" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T150">
+    <cfRule type="expression" dxfId="444" priority="501" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U150">
+    <cfRule type="expression" dxfId="443" priority="500" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D151">
+    <cfRule type="expression" dxfId="442" priority="499" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="expression" dxfId="441" priority="498" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F151">
+    <cfRule type="expression" dxfId="440" priority="497" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T151">
+    <cfRule type="expression" dxfId="439" priority="496" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F152">
+    <cfRule type="expression" dxfId="438" priority="495" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D152">
+    <cfRule type="expression" dxfId="437" priority="494" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="expression" dxfId="436" priority="493" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T152">
     <cfRule type="expression" dxfId="435" priority="492" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D150">
+  <conditionalFormatting sqref="U152">
     <cfRule type="expression" dxfId="434" priority="491" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E150">
+  <conditionalFormatting sqref="D153">
     <cfRule type="expression" dxfId="433" priority="490" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T150">
+  <conditionalFormatting sqref="E153">
     <cfRule type="expression" dxfId="432" priority="489" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U150">
+  <conditionalFormatting sqref="F153">
     <cfRule type="expression" dxfId="431" priority="488" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D151">
+  <conditionalFormatting sqref="T153">
     <cfRule type="expression" dxfId="430" priority="487" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
+  <conditionalFormatting sqref="F154">
     <cfRule type="expression" dxfId="429" priority="486" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F151">
+  <conditionalFormatting sqref="D154">
     <cfRule type="expression" dxfId="428" priority="485" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T151">
+  <conditionalFormatting sqref="E154">
     <cfRule type="expression" dxfId="427" priority="484" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F152">
+  <conditionalFormatting sqref="T154">
     <cfRule type="expression" dxfId="426" priority="483" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D152">
+  <conditionalFormatting sqref="U154">
     <cfRule type="expression" dxfId="425" priority="482" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="424" priority="481" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T152">
+  <conditionalFormatting sqref="E155">
     <cfRule type="expression" dxfId="423" priority="480" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U152">
+  <conditionalFormatting sqref="F155">
     <cfRule type="expression" dxfId="422" priority="479" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D153">
+  <conditionalFormatting sqref="T155">
     <cfRule type="expression" dxfId="421" priority="478" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E153">
+  <conditionalFormatting sqref="F156">
     <cfRule type="expression" dxfId="420" priority="477" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F153">
+  <conditionalFormatting sqref="D156">
     <cfRule type="expression" dxfId="419" priority="476" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T153">
+  <conditionalFormatting sqref="E156">
     <cfRule type="expression" dxfId="418" priority="475" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F154">
+  <conditionalFormatting sqref="T156">
     <cfRule type="expression" dxfId="417" priority="474" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D154">
+  <conditionalFormatting sqref="U156">
     <cfRule type="expression" dxfId="416" priority="473" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
+  <conditionalFormatting sqref="D157">
     <cfRule type="expression" dxfId="415" priority="472" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T154">
+  <conditionalFormatting sqref="E157">
     <cfRule type="expression" dxfId="414" priority="471" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U154">
+  <conditionalFormatting sqref="F157">
     <cfRule type="expression" dxfId="413" priority="470" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+  <conditionalFormatting sqref="T157">
     <cfRule type="expression" dxfId="412" priority="469" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
+  <conditionalFormatting sqref="F158">
     <cfRule type="expression" dxfId="411" priority="468" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F155">
+  <conditionalFormatting sqref="D158">
     <cfRule type="expression" dxfId="410" priority="467" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T155">
+  <conditionalFormatting sqref="E158">
     <cfRule type="expression" dxfId="409" priority="466" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F156">
+  <conditionalFormatting sqref="T158">
     <cfRule type="expression" dxfId="408" priority="465" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D156">
+  <conditionalFormatting sqref="U158">
     <cfRule type="expression" dxfId="407" priority="464" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
+  <conditionalFormatting sqref="D159">
     <cfRule type="expression" dxfId="406" priority="463" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T156">
+  <conditionalFormatting sqref="E159">
     <cfRule type="expression" dxfId="405" priority="462" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U156">
+  <conditionalFormatting sqref="F159">
     <cfRule type="expression" dxfId="404" priority="461" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D157">
+  <conditionalFormatting sqref="T159">
     <cfRule type="expression" dxfId="403" priority="460" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E157">
+  <conditionalFormatting sqref="F160">
     <cfRule type="expression" dxfId="402" priority="459" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F157">
+  <conditionalFormatting sqref="D160">
     <cfRule type="expression" dxfId="401" priority="458" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T157">
+  <conditionalFormatting sqref="E160">
     <cfRule type="expression" dxfId="400" priority="457" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F158">
+  <conditionalFormatting sqref="T160">
     <cfRule type="expression" dxfId="399" priority="456" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D158">
+  <conditionalFormatting sqref="U160">
     <cfRule type="expression" dxfId="398" priority="455" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
+  <conditionalFormatting sqref="D161">
     <cfRule type="expression" dxfId="397" priority="454" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T158">
+  <conditionalFormatting sqref="E161">
     <cfRule type="expression" dxfId="396" priority="453" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U158">
+  <conditionalFormatting sqref="F161">
     <cfRule type="expression" dxfId="395" priority="452" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D159">
+  <conditionalFormatting sqref="T161">
     <cfRule type="expression" dxfId="394" priority="451" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
+  <conditionalFormatting sqref="F162">
     <cfRule type="expression" dxfId="393" priority="450" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F159">
+  <conditionalFormatting sqref="E163">
     <cfRule type="expression" dxfId="392" priority="449" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T159">
+  <conditionalFormatting sqref="F163">
     <cfRule type="expression" dxfId="391" priority="448" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F160">
+  <conditionalFormatting sqref="F164">
     <cfRule type="expression" dxfId="390" priority="447" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D160">
+  <conditionalFormatting sqref="E164">
     <cfRule type="expression" dxfId="389" priority="446" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
+  <conditionalFormatting sqref="T163">
     <cfRule type="expression" dxfId="388" priority="445" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T160">
+  <conditionalFormatting sqref="T164">
     <cfRule type="expression" dxfId="387" priority="444" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U160">
+  <conditionalFormatting sqref="U163">
     <cfRule type="expression" dxfId="386" priority="443" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D161">
+  <conditionalFormatting sqref="E165">
     <cfRule type="expression" dxfId="385" priority="442" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E161">
+  <conditionalFormatting sqref="F165">
     <cfRule type="expression" dxfId="384" priority="441" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F161">
+  <conditionalFormatting sqref="T165:T166">
     <cfRule type="expression" dxfId="383" priority="440" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T161">
+  <conditionalFormatting sqref="E166">
     <cfRule type="expression" dxfId="382" priority="439" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F162">
+  <conditionalFormatting sqref="F166">
     <cfRule type="expression" dxfId="381" priority="438" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
+  <conditionalFormatting sqref="F167">
     <cfRule type="expression" dxfId="380" priority="437" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F163">
-    <cfRule type="expression" dxfId="379" priority="436" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F164">
+  <conditionalFormatting sqref="F170">
+    <cfRule type="expression" dxfId="379" priority="424" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E167">
     <cfRule type="expression" dxfId="378" priority="435" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
+  <conditionalFormatting sqref="T167">
     <cfRule type="expression" dxfId="377" priority="434" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T163">
+  <conditionalFormatting sqref="U167">
     <cfRule type="expression" dxfId="376" priority="433" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T164">
+  <conditionalFormatting sqref="T168">
     <cfRule type="expression" dxfId="375" priority="432" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U163">
+  <conditionalFormatting sqref="E168">
     <cfRule type="expression" dxfId="374" priority="431" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E165">
+  <conditionalFormatting sqref="F168">
     <cfRule type="expression" dxfId="373" priority="430" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F165">
+  <conditionalFormatting sqref="T169">
     <cfRule type="expression" dxfId="372" priority="429" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T165:T166">
+  <conditionalFormatting sqref="E169">
     <cfRule type="expression" dxfId="371" priority="428" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E166">
+  <conditionalFormatting sqref="F169">
     <cfRule type="expression" dxfId="370" priority="427" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F166">
+  <conditionalFormatting sqref="T170">
     <cfRule type="expression" dxfId="369" priority="426" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F167">
+  <conditionalFormatting sqref="E170">
     <cfRule type="expression" dxfId="368" priority="425" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F170">
-    <cfRule type="expression" dxfId="367" priority="412" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E167">
-    <cfRule type="expression" dxfId="366" priority="423" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T167">
-    <cfRule type="expression" dxfId="365" priority="422" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U167">
+  <conditionalFormatting sqref="T171">
+    <cfRule type="expression" dxfId="367" priority="423" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E171">
+    <cfRule type="expression" dxfId="366" priority="422" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F176">
+    <cfRule type="expression" dxfId="365" priority="406" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F171">
     <cfRule type="expression" dxfId="364" priority="421" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T168">
+  <conditionalFormatting sqref="H1:J1">
     <cfRule type="expression" dxfId="363" priority="420" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
-    <cfRule type="expression" dxfId="362" priority="419" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F168">
-    <cfRule type="expression" dxfId="361" priority="418" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T169">
-    <cfRule type="expression" dxfId="360" priority="417" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E169">
-    <cfRule type="expression" dxfId="359" priority="416" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F169">
-    <cfRule type="expression" dxfId="358" priority="415" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T170">
-    <cfRule type="expression" dxfId="357" priority="414" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E170">
-    <cfRule type="expression" dxfId="356" priority="413" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T171">
-    <cfRule type="expression" dxfId="355" priority="411" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E171">
-    <cfRule type="expression" dxfId="354" priority="410" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F176">
-    <cfRule type="expression" dxfId="353" priority="394" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F171">
+  <conditionalFormatting sqref="U176">
+    <cfRule type="expression" dxfId="362" priority="403" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F173">
+    <cfRule type="expression" dxfId="361" priority="413" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T172">
+    <cfRule type="expression" dxfId="360" priority="418" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172">
+    <cfRule type="expression" dxfId="359" priority="417" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="expression" dxfId="358" priority="416" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T173">
+    <cfRule type="expression" dxfId="357" priority="415" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E173">
+    <cfRule type="expression" dxfId="356" priority="414" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T174">
+    <cfRule type="expression" dxfId="355" priority="412" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E174">
+    <cfRule type="expression" dxfId="354" priority="411" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F174">
+    <cfRule type="expression" dxfId="353" priority="410" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T175">
     <cfRule type="expression" dxfId="352" priority="409" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:J1">
+  <conditionalFormatting sqref="E175">
     <cfRule type="expression" dxfId="351" priority="408" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U176">
-    <cfRule type="expression" dxfId="350" priority="391" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F173">
-    <cfRule type="expression" dxfId="349" priority="401" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T172">
-    <cfRule type="expression" dxfId="348" priority="406" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172">
-    <cfRule type="expression" dxfId="347" priority="405" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="expression" dxfId="346" priority="404" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T173">
-    <cfRule type="expression" dxfId="345" priority="403" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E173">
-    <cfRule type="expression" dxfId="344" priority="402" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T174">
-    <cfRule type="expression" dxfId="343" priority="400" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E174">
-    <cfRule type="expression" dxfId="342" priority="399" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F174">
-    <cfRule type="expression" dxfId="341" priority="398" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T175">
-    <cfRule type="expression" dxfId="340" priority="397" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E175">
-    <cfRule type="expression" dxfId="339" priority="396" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F175">
-    <cfRule type="expression" dxfId="338" priority="395" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="407" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="expression" dxfId="337" priority="393" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="405" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T176">
-    <cfRule type="expression" dxfId="336" priority="392" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="404" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T177">
-    <cfRule type="expression" dxfId="335" priority="390" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="402" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E177">
+    <cfRule type="expression" dxfId="346" priority="401" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F177">
+    <cfRule type="expression" dxfId="345" priority="400" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T178">
+    <cfRule type="expression" dxfId="344" priority="399" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E178">
+    <cfRule type="expression" dxfId="343" priority="398" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F178">
+    <cfRule type="expression" dxfId="342" priority="397" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T179">
+    <cfRule type="expression" dxfId="341" priority="396" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E179">
+    <cfRule type="expression" dxfId="340" priority="395" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F179">
+    <cfRule type="expression" dxfId="339" priority="394" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T180">
+    <cfRule type="expression" dxfId="338" priority="393" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E180">
+    <cfRule type="expression" dxfId="337" priority="392" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F180">
+    <cfRule type="expression" dxfId="336" priority="391" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U181">
+    <cfRule type="expression" dxfId="335" priority="386" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E181">
     <cfRule type="expression" dxfId="334" priority="389" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F177">
+  <conditionalFormatting sqref="F181">
     <cfRule type="expression" dxfId="333" priority="388" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T178">
+  <conditionalFormatting sqref="T181">
     <cfRule type="expression" dxfId="332" priority="387" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E178">
-    <cfRule type="expression" dxfId="331" priority="386" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F178">
+  <conditionalFormatting sqref="U182">
+    <cfRule type="expression" dxfId="331" priority="382" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E182">
     <cfRule type="expression" dxfId="330" priority="385" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T179">
+  <conditionalFormatting sqref="F182">
     <cfRule type="expression" dxfId="329" priority="384" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E179">
+  <conditionalFormatting sqref="T182">
     <cfRule type="expression" dxfId="328" priority="383" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F179">
-    <cfRule type="expression" dxfId="327" priority="382" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T180">
+  <conditionalFormatting sqref="U183">
+    <cfRule type="expression" dxfId="327" priority="378" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E183">
     <cfRule type="expression" dxfId="326" priority="381" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E180">
+  <conditionalFormatting sqref="F183">
     <cfRule type="expression" dxfId="325" priority="380" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F180">
+  <conditionalFormatting sqref="T183">
     <cfRule type="expression" dxfId="324" priority="379" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U181">
+  <conditionalFormatting sqref="U184">
     <cfRule type="expression" dxfId="323" priority="374" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E181">
+  <conditionalFormatting sqref="E184">
     <cfRule type="expression" dxfId="322" priority="377" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F181">
+  <conditionalFormatting sqref="F184">
     <cfRule type="expression" dxfId="321" priority="376" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T181">
+  <conditionalFormatting sqref="T184">
     <cfRule type="expression" dxfId="320" priority="375" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U182">
+  <conditionalFormatting sqref="U185">
     <cfRule type="expression" dxfId="319" priority="370" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E182">
+  <conditionalFormatting sqref="E185">
     <cfRule type="expression" dxfId="318" priority="373" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F182">
+  <conditionalFormatting sqref="F185">
     <cfRule type="expression" dxfId="317" priority="372" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T182">
+  <conditionalFormatting sqref="T185">
     <cfRule type="expression" dxfId="316" priority="371" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U183">
+  <conditionalFormatting sqref="U186">
     <cfRule type="expression" dxfId="315" priority="366" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E183">
+  <conditionalFormatting sqref="E186">
     <cfRule type="expression" dxfId="314" priority="369" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F183">
+  <conditionalFormatting sqref="F186">
     <cfRule type="expression" dxfId="313" priority="368" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T183">
+  <conditionalFormatting sqref="T186">
     <cfRule type="expression" dxfId="312" priority="367" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U184">
+  <conditionalFormatting sqref="U187">
     <cfRule type="expression" dxfId="311" priority="362" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E184">
+  <conditionalFormatting sqref="E187">
     <cfRule type="expression" dxfId="310" priority="365" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F184">
+  <conditionalFormatting sqref="F187">
     <cfRule type="expression" dxfId="309" priority="364" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T184">
+  <conditionalFormatting sqref="T187">
     <cfRule type="expression" dxfId="308" priority="363" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U185">
+  <conditionalFormatting sqref="U188">
     <cfRule type="expression" dxfId="307" priority="358" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E185">
+  <conditionalFormatting sqref="E188">
     <cfRule type="expression" dxfId="306" priority="361" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F185">
+  <conditionalFormatting sqref="F188">
     <cfRule type="expression" dxfId="305" priority="360" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T185">
+  <conditionalFormatting sqref="T188">
     <cfRule type="expression" dxfId="304" priority="359" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U186">
+  <conditionalFormatting sqref="F190">
     <cfRule type="expression" dxfId="303" priority="354" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E186">
-    <cfRule type="expression" dxfId="302" priority="357" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F186">
-    <cfRule type="expression" dxfId="301" priority="356" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T186">
-    <cfRule type="expression" dxfId="300" priority="355" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U187">
-    <cfRule type="expression" dxfId="299" priority="350" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E187">
+  <conditionalFormatting sqref="U190">
+    <cfRule type="expression" dxfId="302" priority="351" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T189">
+    <cfRule type="expression" dxfId="301" priority="357" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E189">
+    <cfRule type="expression" dxfId="300" priority="356" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F189">
+    <cfRule type="expression" dxfId="299" priority="355" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E190">
     <cfRule type="expression" dxfId="298" priority="353" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F187">
+  <conditionalFormatting sqref="T190">
     <cfRule type="expression" dxfId="297" priority="352" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T187">
-    <cfRule type="expression" dxfId="296" priority="351" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U188">
-    <cfRule type="expression" dxfId="295" priority="346" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E188">
-    <cfRule type="expression" dxfId="294" priority="349" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F188">
-    <cfRule type="expression" dxfId="293" priority="348" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T188">
-    <cfRule type="expression" dxfId="292" priority="347" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F190">
-    <cfRule type="expression" dxfId="291" priority="342" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U190">
-    <cfRule type="expression" dxfId="290" priority="339" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T189">
-    <cfRule type="expression" dxfId="289" priority="345" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E189">
-    <cfRule type="expression" dxfId="288" priority="344" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F189">
-    <cfRule type="expression" dxfId="287" priority="343" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E190">
-    <cfRule type="expression" dxfId="286" priority="341" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T190">
-    <cfRule type="expression" dxfId="285" priority="340" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T191">
-    <cfRule type="expression" dxfId="284" priority="338" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="350" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E191">
-    <cfRule type="expression" dxfId="283" priority="337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="349" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191">
-    <cfRule type="expression" dxfId="282" priority="336" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="348" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T192">
-    <cfRule type="expression" dxfId="281" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="322" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E192">
+    <cfRule type="expression" dxfId="292" priority="321" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F192">
+    <cfRule type="expression" dxfId="291" priority="320" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T193">
+    <cfRule type="expression" dxfId="290" priority="319" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E193">
+    <cfRule type="expression" dxfId="289" priority="318" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F193">
+    <cfRule type="expression" dxfId="288" priority="317" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T194">
+    <cfRule type="expression" dxfId="287" priority="316" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E194">
+    <cfRule type="expression" dxfId="286" priority="315" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194">
+    <cfRule type="expression" dxfId="285" priority="314" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U195">
+    <cfRule type="expression" dxfId="284" priority="310" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E195">
+    <cfRule type="expression" dxfId="283" priority="313" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195">
+    <cfRule type="expression" dxfId="282" priority="312" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T195">
+    <cfRule type="expression" dxfId="281" priority="311" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T196">
     <cfRule type="expression" dxfId="280" priority="309" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F192">
+  <conditionalFormatting sqref="E196">
     <cfRule type="expression" dxfId="279" priority="308" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T193">
+  <conditionalFormatting sqref="F196">
     <cfRule type="expression" dxfId="278" priority="307" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E193">
+  <conditionalFormatting sqref="T197">
     <cfRule type="expression" dxfId="277" priority="306" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F193">
+  <conditionalFormatting sqref="E197">
     <cfRule type="expression" dxfId="276" priority="305" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T194">
+  <conditionalFormatting sqref="F197">
     <cfRule type="expression" dxfId="275" priority="304" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E194">
+  <conditionalFormatting sqref="T198">
     <cfRule type="expression" dxfId="274" priority="303" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
+  <conditionalFormatting sqref="E198">
     <cfRule type="expression" dxfId="273" priority="302" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U195">
-    <cfRule type="expression" dxfId="272" priority="298" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E195">
-    <cfRule type="expression" dxfId="271" priority="301" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195">
-    <cfRule type="expression" dxfId="270" priority="300" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T195">
-    <cfRule type="expression" dxfId="269" priority="299" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T196">
-    <cfRule type="expression" dxfId="268" priority="297" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E196">
-    <cfRule type="expression" dxfId="267" priority="296" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F196">
-    <cfRule type="expression" dxfId="266" priority="295" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T197">
-    <cfRule type="expression" dxfId="265" priority="294" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E197">
-    <cfRule type="expression" dxfId="264" priority="293" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F197">
-    <cfRule type="expression" dxfId="263" priority="292" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T198">
-    <cfRule type="expression" dxfId="262" priority="291" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E198">
-    <cfRule type="expression" dxfId="261" priority="290" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F198">
-    <cfRule type="expression" dxfId="260" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="301" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T199">
-    <cfRule type="expression" dxfId="259" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="300" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E199">
-    <cfRule type="expression" dxfId="258" priority="287" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="299" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F199">
-    <cfRule type="expression" dxfId="257" priority="286" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="298" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U200">
+    <cfRule type="expression" dxfId="268" priority="290" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E200">
+    <cfRule type="expression" dxfId="267" priority="293" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F200">
+    <cfRule type="expression" dxfId="266" priority="292" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T200">
+    <cfRule type="expression" dxfId="265" priority="291" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U201">
+    <cfRule type="expression" dxfId="264" priority="286" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E201">
+    <cfRule type="expression" dxfId="263" priority="289" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F201">
+    <cfRule type="expression" dxfId="262" priority="288" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T201:T205">
+    <cfRule type="expression" dxfId="261" priority="287" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U202">
+    <cfRule type="expression" dxfId="260" priority="282" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E202">
+    <cfRule type="expression" dxfId="259" priority="285" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F202">
+    <cfRule type="expression" dxfId="258" priority="284" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E213">
+    <cfRule type="expression" dxfId="257" priority="247" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U203">
     <cfRule type="expression" dxfId="256" priority="278" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E200">
+  <conditionalFormatting sqref="E203">
     <cfRule type="expression" dxfId="255" priority="281" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F200">
+  <conditionalFormatting sqref="F203">
     <cfRule type="expression" dxfId="254" priority="280" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T200">
-    <cfRule type="expression" dxfId="253" priority="279" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U201">
+  <conditionalFormatting sqref="T215">
+    <cfRule type="expression" dxfId="253" priority="243" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U204">
     <cfRule type="expression" dxfId="252" priority="274" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E201">
+  <conditionalFormatting sqref="E204">
     <cfRule type="expression" dxfId="251" priority="277" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F201">
+  <conditionalFormatting sqref="F204">
     <cfRule type="expression" dxfId="250" priority="276" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T201:T205">
-    <cfRule type="expression" dxfId="249" priority="275" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U202">
+  <conditionalFormatting sqref="E216">
+    <cfRule type="expression" dxfId="249" priority="239" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U205">
     <cfRule type="expression" dxfId="248" priority="270" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E202">
+  <conditionalFormatting sqref="E205">
     <cfRule type="expression" dxfId="247" priority="273" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F202">
+  <conditionalFormatting sqref="F205">
     <cfRule type="expression" dxfId="246" priority="272" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E213">
-    <cfRule type="expression" dxfId="245" priority="235" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U203">
-    <cfRule type="expression" dxfId="244" priority="266" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E203">
-    <cfRule type="expression" dxfId="243" priority="269" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F203">
-    <cfRule type="expression" dxfId="242" priority="268" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T215">
-    <cfRule type="expression" dxfId="241" priority="231" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U204">
-    <cfRule type="expression" dxfId="240" priority="262" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E204">
-    <cfRule type="expression" dxfId="239" priority="265" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F204">
-    <cfRule type="expression" dxfId="238" priority="264" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E216">
-    <cfRule type="expression" dxfId="237" priority="227" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U205">
-    <cfRule type="expression" dxfId="236" priority="258" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E205">
-    <cfRule type="expression" dxfId="235" priority="261" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F205">
-    <cfRule type="expression" dxfId="234" priority="260" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T206">
-    <cfRule type="expression" dxfId="233" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="269" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E206">
-    <cfRule type="expression" dxfId="232" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="268" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F206">
-    <cfRule type="expression" dxfId="231" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="267" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T207">
-    <cfRule type="expression" dxfId="230" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="266" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E207">
-    <cfRule type="expression" dxfId="229" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="265" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F207">
-    <cfRule type="expression" dxfId="228" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="264" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T208">
-    <cfRule type="expression" dxfId="227" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="263" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E208">
-    <cfRule type="expression" dxfId="226" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="262" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F208:F209">
-    <cfRule type="expression" dxfId="225" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="261" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T209">
-    <cfRule type="expression" dxfId="224" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="260" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E209">
-    <cfRule type="expression" dxfId="223" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="259" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T210">
-    <cfRule type="expression" dxfId="222" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="257" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E210">
-    <cfRule type="expression" dxfId="221" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="256" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F210">
-    <cfRule type="expression" dxfId="220" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="255" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T211">
-    <cfRule type="expression" dxfId="219" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="254" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E211">
-    <cfRule type="expression" dxfId="218" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="253" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211">
-    <cfRule type="expression" dxfId="217" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="252" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T212">
-    <cfRule type="expression" dxfId="216" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="251" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E212">
-    <cfRule type="expression" dxfId="215" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="250" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F212:F213">
-    <cfRule type="expression" dxfId="214" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="249" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T213">
-    <cfRule type="expression" dxfId="213" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="248" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T214">
-    <cfRule type="expression" dxfId="212" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="246" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E214">
-    <cfRule type="expression" dxfId="211" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="245" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F214">
-    <cfRule type="expression" dxfId="210" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="244" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E215">
-    <cfRule type="expression" dxfId="209" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="242" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F215">
-    <cfRule type="expression" dxfId="208" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="241" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T216">
-    <cfRule type="expression" dxfId="207" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="240" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F216:F217">
-    <cfRule type="expression" dxfId="206" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="238" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T217">
-    <cfRule type="expression" dxfId="205" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="237" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E217">
-    <cfRule type="expression" dxfId="204" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="236" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E221">
+    <cfRule type="expression" dxfId="215" priority="233" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F221">
+    <cfRule type="expression" dxfId="214" priority="232" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E222">
+    <cfRule type="expression" dxfId="213" priority="231" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F222">
+    <cfRule type="expression" dxfId="212" priority="230" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E223">
+    <cfRule type="expression" dxfId="211" priority="229" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F223">
+    <cfRule type="expression" dxfId="210" priority="228" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E220">
+    <cfRule type="expression" dxfId="209" priority="227" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F220">
+    <cfRule type="expression" dxfId="208" priority="226" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E218">
+    <cfRule type="expression" dxfId="207" priority="225" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F218">
+    <cfRule type="expression" dxfId="206" priority="224" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E219">
+    <cfRule type="expression" dxfId="205" priority="223" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F219">
+    <cfRule type="expression" dxfId="204" priority="222" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E224">
     <cfRule type="expression" dxfId="203" priority="221" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F221">
+  <conditionalFormatting sqref="F224">
     <cfRule type="expression" dxfId="202" priority="220" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E222">
+  <conditionalFormatting sqref="E225">
     <cfRule type="expression" dxfId="201" priority="219" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F222">
+  <conditionalFormatting sqref="F225">
     <cfRule type="expression" dxfId="200" priority="218" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E223">
+  <conditionalFormatting sqref="E226:E227">
     <cfRule type="expression" dxfId="199" priority="217" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F223">
+  <conditionalFormatting sqref="F226">
     <cfRule type="expression" dxfId="198" priority="216" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E220">
+  <conditionalFormatting sqref="F227">
     <cfRule type="expression" dxfId="197" priority="215" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F220">
-    <cfRule type="expression" dxfId="196" priority="214" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E218">
-    <cfRule type="expression" dxfId="195" priority="213" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F218">
-    <cfRule type="expression" dxfId="194" priority="212" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E219">
-    <cfRule type="expression" dxfId="193" priority="211" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F219">
-    <cfRule type="expression" dxfId="192" priority="210" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E224">
-    <cfRule type="expression" dxfId="191" priority="209" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F224">
-    <cfRule type="expression" dxfId="190" priority="208" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E225">
+  <conditionalFormatting sqref="U234">
+    <cfRule type="expression" dxfId="196" priority="192" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U228">
+    <cfRule type="expression" dxfId="195" priority="211" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E228">
+    <cfRule type="expression" dxfId="194" priority="213" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F228">
+    <cfRule type="expression" dxfId="193" priority="212" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E237">
+    <cfRule type="expression" dxfId="192" priority="186" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E229">
+    <cfRule type="expression" dxfId="191" priority="210" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F229">
+    <cfRule type="expression" dxfId="190" priority="209" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T230:T231">
     <cfRule type="expression" dxfId="189" priority="207" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F225">
-    <cfRule type="expression" dxfId="188" priority="206" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E226:E227">
-    <cfRule type="expression" dxfId="187" priority="205" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F226">
-    <cfRule type="expression" dxfId="186" priority="204" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F227">
-    <cfRule type="expression" dxfId="185" priority="203" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U234">
-    <cfRule type="expression" dxfId="184" priority="180" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U228">
-    <cfRule type="expression" dxfId="183" priority="199" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E228">
-    <cfRule type="expression" dxfId="182" priority="201" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F228">
+  <conditionalFormatting sqref="U230">
+    <cfRule type="expression" dxfId="188" priority="204" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E230">
+    <cfRule type="expression" dxfId="187" priority="206" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F230">
+    <cfRule type="expression" dxfId="186" priority="205" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F241">
+    <cfRule type="expression" dxfId="185" priority="179" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E231">
+    <cfRule type="expression" dxfId="184" priority="203" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F231">
+    <cfRule type="expression" dxfId="183" priority="202" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U232">
+    <cfRule type="expression" dxfId="182" priority="198" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E232">
     <cfRule type="expression" dxfId="181" priority="200" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E237">
-    <cfRule type="expression" dxfId="180" priority="174" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E229">
-    <cfRule type="expression" dxfId="179" priority="198" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F229">
-    <cfRule type="expression" dxfId="178" priority="197" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T230:T231">
+  <conditionalFormatting sqref="F232">
+    <cfRule type="expression" dxfId="180" priority="199" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E233">
+    <cfRule type="expression" dxfId="179" priority="197" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F233">
+    <cfRule type="expression" dxfId="178" priority="196" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T234:T235">
     <cfRule type="expression" dxfId="177" priority="195" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U230">
-    <cfRule type="expression" dxfId="176" priority="192" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E230">
-    <cfRule type="expression" dxfId="175" priority="194" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F230">
-    <cfRule type="expression" dxfId="174" priority="193" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F241">
-    <cfRule type="expression" dxfId="173" priority="167" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E231">
-    <cfRule type="expression" dxfId="172" priority="191" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F231">
-    <cfRule type="expression" dxfId="171" priority="190" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U232">
-    <cfRule type="expression" dxfId="170" priority="186" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E232">
-    <cfRule type="expression" dxfId="169" priority="188" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F232">
-    <cfRule type="expression" dxfId="168" priority="187" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E233">
-    <cfRule type="expression" dxfId="167" priority="185" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F233">
-    <cfRule type="expression" dxfId="166" priority="184" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T234:T235">
-    <cfRule type="expression" dxfId="165" priority="183" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E234">
-    <cfRule type="expression" dxfId="164" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="194" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F234">
-    <cfRule type="expression" dxfId="163" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="193" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E235">
-    <cfRule type="expression" dxfId="162" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="191" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="expression" dxfId="161" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="190" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U236">
+    <cfRule type="expression" dxfId="172" priority="187" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E236">
+    <cfRule type="expression" dxfId="171" priority="189" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F236">
+    <cfRule type="expression" dxfId="170" priority="188" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F237">
+    <cfRule type="expression" dxfId="169" priority="185" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T240:T241">
+    <cfRule type="expression" dxfId="168" priority="184" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U240">
+    <cfRule type="expression" dxfId="167" priority="181" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E240">
+    <cfRule type="expression" dxfId="166" priority="183" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F240">
+    <cfRule type="expression" dxfId="165" priority="182" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E241 E243 E245">
+    <cfRule type="expression" dxfId="164" priority="180" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E238">
+    <cfRule type="expression" dxfId="163" priority="178" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F238">
+    <cfRule type="expression" dxfId="162" priority="177" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E239">
+    <cfRule type="expression" dxfId="161" priority="176" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F239">
     <cfRule type="expression" dxfId="160" priority="175" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E236">
-    <cfRule type="expression" dxfId="159" priority="177" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F236">
-    <cfRule type="expression" dxfId="158" priority="176" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F237">
+  <conditionalFormatting sqref="F242:F243">
+    <cfRule type="expression" dxfId="159" priority="172" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F245">
+    <cfRule type="expression" dxfId="158" priority="166" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E242 E244 E246">
     <cfRule type="expression" dxfId="157" priority="173" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T240:T241">
-    <cfRule type="expression" dxfId="156" priority="172" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U240">
-    <cfRule type="expression" dxfId="155" priority="169" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E240">
-    <cfRule type="expression" dxfId="154" priority="171" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F240">
-    <cfRule type="expression" dxfId="153" priority="170" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E241 E243 E245">
-    <cfRule type="expression" dxfId="152" priority="168" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E238">
-    <cfRule type="expression" dxfId="151" priority="166" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F238">
-    <cfRule type="expression" dxfId="150" priority="165" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E239">
-    <cfRule type="expression" dxfId="149" priority="164" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F239">
-    <cfRule type="expression" dxfId="148" priority="163" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F242:F243">
-    <cfRule type="expression" dxfId="147" priority="160" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F245">
-    <cfRule type="expression" dxfId="146" priority="154" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E242 E244 E246">
-    <cfRule type="expression" dxfId="145" priority="161" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F244">
-    <cfRule type="expression" dxfId="144" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="169" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="expression" dxfId="143" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="163" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F251">
-    <cfRule type="expression" dxfId="142" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="147" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E249">
-    <cfRule type="expression" dxfId="141" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="144" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E247">
-    <cfRule type="expression" dxfId="140" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="156" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F247">
-    <cfRule type="expression" dxfId="139" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="154" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E248">
-    <cfRule type="expression" dxfId="138" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="153" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F248">
-    <cfRule type="expression" dxfId="137" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="151" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E250">
+    <cfRule type="expression" dxfId="148" priority="146" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E251">
+    <cfRule type="expression" dxfId="147" priority="149" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F250">
+    <cfRule type="expression" dxfId="146" priority="145" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F249">
+    <cfRule type="expression" dxfId="145" priority="143" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E252">
+    <cfRule type="expression" dxfId="144" priority="142" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F252">
+    <cfRule type="expression" dxfId="143" priority="141" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E253">
+    <cfRule type="expression" dxfId="142" priority="140" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F253">
+    <cfRule type="expression" dxfId="141" priority="139" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E254">
+    <cfRule type="expression" dxfId="140" priority="138" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F254">
+    <cfRule type="expression" dxfId="139" priority="137" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E255">
+    <cfRule type="expression" dxfId="138" priority="136" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F255">
+    <cfRule type="expression" dxfId="137" priority="135" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E256">
     <cfRule type="expression" dxfId="136" priority="134" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E251">
-    <cfRule type="expression" dxfId="135" priority="137" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F250">
-    <cfRule type="expression" dxfId="134" priority="133" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F249">
+  <conditionalFormatting sqref="F256">
+    <cfRule type="expression" dxfId="135" priority="133" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E257">
+    <cfRule type="expression" dxfId="134" priority="132" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F257">
     <cfRule type="expression" dxfId="133" priority="131" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E252">
+  <conditionalFormatting sqref="E258">
     <cfRule type="expression" dxfId="132" priority="130" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F252">
+  <conditionalFormatting sqref="F258">
     <cfRule type="expression" dxfId="131" priority="129" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E253">
+  <conditionalFormatting sqref="E259">
     <cfRule type="expression" dxfId="130" priority="128" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F253">
+  <conditionalFormatting sqref="F259">
     <cfRule type="expression" dxfId="129" priority="127" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E254">
+  <conditionalFormatting sqref="E260">
     <cfRule type="expression" dxfId="128" priority="126" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F254">
+  <conditionalFormatting sqref="F260">
     <cfRule type="expression" dxfId="127" priority="125" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E255">
+  <conditionalFormatting sqref="E261">
     <cfRule type="expression" dxfId="126" priority="124" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F255">
+  <conditionalFormatting sqref="F261">
     <cfRule type="expression" dxfId="125" priority="123" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E256">
+  <conditionalFormatting sqref="E262">
     <cfRule type="expression" dxfId="124" priority="122" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F256">
+  <conditionalFormatting sqref="F262">
     <cfRule type="expression" dxfId="123" priority="121" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E257">
+  <conditionalFormatting sqref="E263">
     <cfRule type="expression" dxfId="122" priority="120" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F257">
+  <conditionalFormatting sqref="F263">
     <cfRule type="expression" dxfId="121" priority="119" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E258">
+  <conditionalFormatting sqref="E264">
     <cfRule type="expression" dxfId="120" priority="118" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F258">
+  <conditionalFormatting sqref="F264">
     <cfRule type="expression" dxfId="119" priority="117" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E259">
+  <conditionalFormatting sqref="E265">
     <cfRule type="expression" dxfId="118" priority="116" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F259">
+  <conditionalFormatting sqref="F265">
     <cfRule type="expression" dxfId="117" priority="115" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E260">
+  <conditionalFormatting sqref="E266">
     <cfRule type="expression" dxfId="116" priority="114" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F260">
+  <conditionalFormatting sqref="F266">
     <cfRule type="expression" dxfId="115" priority="113" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E261">
+  <conditionalFormatting sqref="E267">
     <cfRule type="expression" dxfId="114" priority="112" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F261">
+  <conditionalFormatting sqref="F267">
     <cfRule type="expression" dxfId="113" priority="111" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E262">
+  <conditionalFormatting sqref="E268">
     <cfRule type="expression" dxfId="112" priority="110" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F262">
+  <conditionalFormatting sqref="F268">
     <cfRule type="expression" dxfId="111" priority="109" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E263">
+  <conditionalFormatting sqref="E269">
     <cfRule type="expression" dxfId="110" priority="108" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263">
+  <conditionalFormatting sqref="F269">
     <cfRule type="expression" dxfId="109" priority="107" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E264">
+  <conditionalFormatting sqref="E270">
     <cfRule type="expression" dxfId="108" priority="106" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F264">
+  <conditionalFormatting sqref="F270">
     <cfRule type="expression" dxfId="107" priority="105" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E265">
+  <conditionalFormatting sqref="E271">
     <cfRule type="expression" dxfId="106" priority="104" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265">
+  <conditionalFormatting sqref="F271">
     <cfRule type="expression" dxfId="105" priority="103" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E266">
+  <conditionalFormatting sqref="E272">
     <cfRule type="expression" dxfId="104" priority="102" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F266">
+  <conditionalFormatting sqref="F272">
     <cfRule type="expression" dxfId="103" priority="101" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E267">
+  <conditionalFormatting sqref="E273">
     <cfRule type="expression" dxfId="102" priority="100" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F267">
+  <conditionalFormatting sqref="F273">
     <cfRule type="expression" dxfId="101" priority="99" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E268">
+  <conditionalFormatting sqref="E274:E276">
     <cfRule type="expression" dxfId="100" priority="98" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F268">
+  <conditionalFormatting sqref="F274:F276">
     <cfRule type="expression" dxfId="99" priority="97" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E269">
+  <conditionalFormatting sqref="E277">
     <cfRule type="expression" dxfId="98" priority="96" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F269">
+  <conditionalFormatting sqref="F277">
     <cfRule type="expression" dxfId="97" priority="95" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E270">
+  <conditionalFormatting sqref="E278">
     <cfRule type="expression" dxfId="96" priority="94" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F270">
+  <conditionalFormatting sqref="F278">
     <cfRule type="expression" dxfId="95" priority="93" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E271">
+  <conditionalFormatting sqref="E279">
     <cfRule type="expression" dxfId="94" priority="92" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F271">
+  <conditionalFormatting sqref="F279">
     <cfRule type="expression" dxfId="93" priority="91" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E272">
+  <conditionalFormatting sqref="E280">
     <cfRule type="expression" dxfId="92" priority="90" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F272">
+  <conditionalFormatting sqref="F280">
     <cfRule type="expression" dxfId="91" priority="89" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E273">
+  <conditionalFormatting sqref="E281">
     <cfRule type="expression" dxfId="90" priority="88" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F273">
+  <conditionalFormatting sqref="F281">
     <cfRule type="expression" dxfId="89" priority="87" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E274:E276">
+  <conditionalFormatting sqref="E283">
     <cfRule type="expression" dxfId="88" priority="86" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F274:F276">
+  <conditionalFormatting sqref="F283">
     <cfRule type="expression" dxfId="87" priority="85" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E277">
+  <conditionalFormatting sqref="E284">
     <cfRule type="expression" dxfId="86" priority="84" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F277">
+  <conditionalFormatting sqref="F284">
     <cfRule type="expression" dxfId="85" priority="83" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E278">
+  <conditionalFormatting sqref="E285">
     <cfRule type="expression" dxfId="84" priority="82" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F278">
+  <conditionalFormatting sqref="F285">
     <cfRule type="expression" dxfId="83" priority="81" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E279">
+  <conditionalFormatting sqref="E286">
     <cfRule type="expression" dxfId="82" priority="80" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F279">
+  <conditionalFormatting sqref="F286">
     <cfRule type="expression" dxfId="81" priority="79" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E280">
+  <conditionalFormatting sqref="E287">
     <cfRule type="expression" dxfId="80" priority="78" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F280">
+  <conditionalFormatting sqref="F287">
     <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E281">
+  <conditionalFormatting sqref="E288">
     <cfRule type="expression" dxfId="78" priority="76" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F281">
+  <conditionalFormatting sqref="F288">
     <cfRule type="expression" dxfId="77" priority="75" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E283">
+  <conditionalFormatting sqref="E289">
     <cfRule type="expression" dxfId="76" priority="74" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F283">
+  <conditionalFormatting sqref="F289">
     <cfRule type="expression" dxfId="75" priority="73" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E284">
+  <conditionalFormatting sqref="E290">
     <cfRule type="expression" dxfId="74" priority="72" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F284">
+  <conditionalFormatting sqref="F290">
     <cfRule type="expression" dxfId="73" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E285">
+  <conditionalFormatting sqref="E291">
     <cfRule type="expression" dxfId="72" priority="70" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F285">
+  <conditionalFormatting sqref="F291">
     <cfRule type="expression" dxfId="71" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E286">
+  <conditionalFormatting sqref="E292">
     <cfRule type="expression" dxfId="70" priority="68" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F286">
+  <conditionalFormatting sqref="F292">
     <cfRule type="expression" dxfId="69" priority="67" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E287">
+  <conditionalFormatting sqref="E293">
     <cfRule type="expression" dxfId="68" priority="66" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F287">
+  <conditionalFormatting sqref="F293">
     <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E288">
+  <conditionalFormatting sqref="E294">
     <cfRule type="expression" dxfId="66" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F288">
+  <conditionalFormatting sqref="F294">
     <cfRule type="expression" dxfId="65" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E289">
+  <conditionalFormatting sqref="E295:E296">
     <cfRule type="expression" dxfId="64" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F289">
+  <conditionalFormatting sqref="F295:F296">
     <cfRule type="expression" dxfId="63" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E290">
+  <conditionalFormatting sqref="E297">
     <cfRule type="expression" dxfId="62" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F290">
+  <conditionalFormatting sqref="F297">
     <cfRule type="expression" dxfId="61" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E291">
+  <conditionalFormatting sqref="E298">
     <cfRule type="expression" dxfId="60" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F291">
+  <conditionalFormatting sqref="F298">
     <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E292">
+  <conditionalFormatting sqref="E299">
     <cfRule type="expression" dxfId="58" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F292">
+  <conditionalFormatting sqref="F299">
     <cfRule type="expression" dxfId="57" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E293">
+  <conditionalFormatting sqref="E300">
     <cfRule type="expression" dxfId="56" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F293">
+  <conditionalFormatting sqref="F300">
     <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E294">
+  <conditionalFormatting sqref="E301">
     <cfRule type="expression" dxfId="54" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F294">
+  <conditionalFormatting sqref="F301">
     <cfRule type="expression" dxfId="53" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E295:E296">
+  <conditionalFormatting sqref="E302">
     <cfRule type="expression" dxfId="52" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F295:F296">
+  <conditionalFormatting sqref="F302">
     <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E297">
+  <conditionalFormatting sqref="E303">
     <cfRule type="expression" dxfId="50" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F297">
+  <conditionalFormatting sqref="F303">
     <cfRule type="expression" dxfId="49" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E298">
-    <cfRule type="expression" dxfId="48" priority="46" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F298">
-    <cfRule type="expression" dxfId="47" priority="45" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E299">
-    <cfRule type="expression" dxfId="46" priority="44" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F299">
-    <cfRule type="expression" dxfId="45" priority="43" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E300">
-    <cfRule type="expression" dxfId="44" priority="42" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F300">
-    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E301">
-    <cfRule type="expression" dxfId="42" priority="40" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F301">
-    <cfRule type="expression" dxfId="41" priority="39" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E302">
-    <cfRule type="expression" dxfId="40" priority="38" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F302">
-    <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E303">
-    <cfRule type="expression" dxfId="38" priority="36" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F303">
-    <cfRule type="expression" dxfId="37" priority="35" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E304">
+    <cfRule type="expression" dxfId="48" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F304">
+    <cfRule type="expression" dxfId="47" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E305">
+    <cfRule type="expression" dxfId="46" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F305">
+    <cfRule type="expression" dxfId="45" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E306">
+    <cfRule type="expression" dxfId="44" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F306">
+    <cfRule type="expression" dxfId="43" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E307">
+    <cfRule type="expression" dxfId="42" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F307">
+    <cfRule type="expression" dxfId="41" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E308">
+    <cfRule type="expression" dxfId="40" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F308">
+    <cfRule type="expression" dxfId="39" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E309">
+    <cfRule type="expression" dxfId="38" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F309">
+    <cfRule type="expression" dxfId="37" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E310">
     <cfRule type="expression" dxfId="36" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F304">
+  <conditionalFormatting sqref="F310">
     <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E305">
+  <conditionalFormatting sqref="E311">
     <cfRule type="expression" dxfId="34" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F305">
+  <conditionalFormatting sqref="F311">
     <cfRule type="expression" dxfId="33" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E306">
+  <conditionalFormatting sqref="E312">
     <cfRule type="expression" dxfId="32" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F306">
+  <conditionalFormatting sqref="F312">
     <cfRule type="expression" dxfId="31" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E307">
+  <conditionalFormatting sqref="E313">
     <cfRule type="expression" dxfId="30" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F307">
+  <conditionalFormatting sqref="F313">
     <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E308">
+  <conditionalFormatting sqref="E314">
     <cfRule type="expression" dxfId="28" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F308">
+  <conditionalFormatting sqref="F314">
     <cfRule type="expression" dxfId="27" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E309">
+  <conditionalFormatting sqref="E315">
     <cfRule type="expression" dxfId="26" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F309">
+  <conditionalFormatting sqref="F315">
     <cfRule type="expression" dxfId="25" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E310">
+  <conditionalFormatting sqref="E316">
     <cfRule type="expression" dxfId="24" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F310">
+  <conditionalFormatting sqref="F316">
     <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E311">
+  <conditionalFormatting sqref="E317">
     <cfRule type="expression" dxfId="22" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F311">
+  <conditionalFormatting sqref="F317">
     <cfRule type="expression" dxfId="21" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E312">
+  <conditionalFormatting sqref="E318">
     <cfRule type="expression" dxfId="20" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F312">
+  <conditionalFormatting sqref="F318">
     <cfRule type="expression" dxfId="19" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E313">
-    <cfRule type="expression" dxfId="18" priority="14" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F313">
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E314">
-    <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F314">
-    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E315">
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F315">
-    <cfRule type="expression" dxfId="13" priority="9" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E316">
-    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F316">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E317">
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F317">
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E318">
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F318">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="F319">
+    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F320">
+    <cfRule type="expression" dxfId="17" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E321">
+    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F321">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E322">
+    <cfRule type="expression" dxfId="14" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F322">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E323">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F323">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E324">
+    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F324">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E325">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F325">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33462,9 +33878,14 @@
     <hyperlink ref="C316" r:id="rId208"/>
     <hyperlink ref="C317" r:id="rId209"/>
     <hyperlink ref="C318" r:id="rId210"/>
+    <hyperlink ref="C321" r:id="rId211"/>
+    <hyperlink ref="C322" r:id="rId212"/>
+    <hyperlink ref="C323" r:id="rId213"/>
+    <hyperlink ref="C324" r:id="rId214"/>
+    <hyperlink ref="C325" r:id="rId215"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId211"/>
+  <pageSetup orientation="portrait" r:id="rId216"/>
 </worksheet>
 </file>
 
@@ -33509,6 +33930,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -33682,7 +34106,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="202" t="s">
         <v>125</v>
       </c>
       <c r="B2" t="s">
@@ -33693,7 +34117,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="191"/>
+      <c r="A3" s="202"/>
       <c r="B3" t="s">
         <v>127</v>
       </c>
@@ -33702,7 +34126,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="191"/>
+      <c r="A4" s="202"/>
       <c r="B4" t="s">
         <v>128</v>
       </c>
@@ -33711,7 +34135,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="191"/>
+      <c r="A5" s="202"/>
       <c r="B5" t="s">
         <v>129</v>
       </c>
@@ -33720,7 +34144,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="203" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -33731,7 +34155,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="192"/>
+      <c r="A7" s="203"/>
       <c r="B7" t="s">
         <v>131</v>
       </c>
@@ -33740,7 +34164,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="192"/>
+      <c r="A8" s="203"/>
       <c r="B8" t="s">
         <v>132</v>
       </c>
@@ -33749,7 +34173,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="193" t="s">
+      <c r="A9" s="204" t="s">
         <v>136</v>
       </c>
       <c r="B9">
@@ -33760,7 +34184,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="193"/>
+      <c r="A10" s="204"/>
       <c r="B10">
         <v>2141</v>
       </c>
@@ -33769,7 +34193,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="193" t="s">
+      <c r="A11" s="204" t="s">
         <v>138</v>
       </c>
       <c r="B11">
@@ -33780,7 +34204,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="193"/>
+      <c r="A12" s="204"/>
       <c r="B12">
         <v>2143</v>
       </c>
@@ -33789,7 +34213,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="193"/>
+      <c r="A13" s="204"/>
       <c r="B13">
         <v>2144</v>
       </c>
@@ -33798,7 +34222,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="193"/>
+      <c r="A14" s="204"/>
       <c r="B14">
         <v>2145</v>
       </c>
@@ -33807,7 +34231,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="193"/>
+      <c r="A15" s="204"/>
       <c r="B15">
         <v>2146</v>
       </c>
@@ -33903,19 +34327,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="205" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
       <c r="E1" s="188"/>
-      <c r="H1" s="194" t="s">
+      <c r="H1" s="205" t="s">
         <v>327</v>
       </c>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="205"/>
       <c r="L1" s="188"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -33925,22 +34349,22 @@
       <c r="B2" s="188" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="194" t="s">
+      <c r="C2" s="205" t="s">
         <v>347</v>
       </c>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
       <c r="H2" s="188" t="s">
         <v>333</v>
       </c>
       <c r="I2" s="188" t="s">
         <v>334</v>
       </c>
-      <c r="J2" s="194" t="s">
+      <c r="J2" s="205" t="s">
         <v>347</v>
       </c>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="188" t="s">
@@ -34201,19 +34625,19 @@
       <c r="L12" s="188"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="194" t="s">
+      <c r="A14" s="205" t="s">
         <v>325</v>
       </c>
-      <c r="B14" s="194"/>
-      <c r="C14" s="194"/>
-      <c r="D14" s="194"/>
+      <c r="B14" s="205"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="205"/>
       <c r="E14" s="188"/>
-      <c r="H14" s="194" t="s">
+      <c r="H14" s="205" t="s">
         <v>328</v>
       </c>
-      <c r="I14" s="194"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="194"/>
+      <c r="I14" s="205"/>
+      <c r="J14" s="205"/>
+      <c r="K14" s="205"/>
       <c r="L14" s="188"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -34223,22 +34647,22 @@
       <c r="B15" s="188" t="s">
         <v>334</v>
       </c>
-      <c r="C15" s="194" t="s">
+      <c r="C15" s="205" t="s">
         <v>347</v>
       </c>
-      <c r="D15" s="194"/>
-      <c r="E15" s="194"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="205"/>
       <c r="H15" s="188" t="s">
         <v>333</v>
       </c>
       <c r="I15" s="188" t="s">
         <v>334</v>
       </c>
-      <c r="J15" s="194" t="s">
+      <c r="J15" s="205" t="s">
         <v>347</v>
       </c>
-      <c r="K15" s="194"/>
-      <c r="L15" s="194"/>
+      <c r="K15" s="205"/>
+      <c r="L15" s="205"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="188" t="s">
@@ -34535,7 +34959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:E27"/>
     </sheetView>
   </sheetViews>
@@ -34605,19 +35029,19 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="194" t="s">
+      <c r="A16" s="205" t="s">
         <v>353</v>
       </c>
-      <c r="B16" s="194"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
+      <c r="B16" s="205"/>
+      <c r="C16" s="205"/>
+      <c r="D16" s="205"/>
       <c r="E16" s="188"/>
-      <c r="G16" s="194" t="s">
+      <c r="G16" s="205" t="s">
         <v>357</v>
       </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="205"/>
       <c r="K16" s="188"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -34627,22 +35051,22 @@
       <c r="B17" s="188" t="s">
         <v>334</v>
       </c>
-      <c r="C17" s="194" t="s">
+      <c r="C17" s="205" t="s">
         <v>347</v>
       </c>
-      <c r="D17" s="194"/>
-      <c r="E17" s="194"/>
+      <c r="D17" s="205"/>
+      <c r="E17" s="205"/>
       <c r="G17" s="188" t="s">
         <v>333</v>
       </c>
       <c r="H17" s="188" t="s">
         <v>334</v>
       </c>
-      <c r="I17" s="194" t="s">
+      <c r="I17" s="205" t="s">
         <v>347</v>
       </c>
-      <c r="J17" s="194"/>
-      <c r="K17" s="194"/>
+      <c r="J17" s="205"/>
+      <c r="K17" s="205"/>
       <c r="M17" t="s">
         <v>354</v>
       </c>
@@ -34960,12 +35384,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="194" t="s">
+      <c r="A31" s="205" t="s">
         <v>360</v>
       </c>
-      <c r="B31" s="194"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="194"/>
+      <c r="B31" s="205"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="205"/>
       <c r="E31" s="188"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -34975,11 +35399,11 @@
       <c r="B32" s="188" t="s">
         <v>334</v>
       </c>
-      <c r="C32" s="194" t="s">
+      <c r="C32" s="205" t="s">
         <v>347</v>
       </c>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="205"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="188" t="s">
@@ -35159,10 +35583,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35175,853 +35599,1058 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="206" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="192">
+        <v>200302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="192" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="192" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="206" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="192" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="193">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C3" s="192" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" s="192" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="192" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="192" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="193"/>
+      <c r="C4" s="196">
+        <v>214</v>
+      </c>
+      <c r="D4" s="194">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="E4" s="196">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="192" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="193"/>
+      <c r="C5" s="196">
+        <v>222</v>
+      </c>
+      <c r="D5" s="194">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="E5" s="196">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="192" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="193"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="192" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" s="193"/>
+      <c r="C7" s="196">
+        <v>449</v>
+      </c>
+      <c r="D7" s="194">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="E7" s="196">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="192" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" s="193"/>
+      <c r="C8" s="196" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="194">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="E8" s="196">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="192" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" s="193"/>
+      <c r="C9" s="196" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="194">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E9" s="196">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="192" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" s="193"/>
+      <c r="C10" s="196">
+        <v>593</v>
+      </c>
+      <c r="D10" s="194">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="E10" s="196">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="192" t="s">
+        <v>345</v>
+      </c>
+      <c r="B11" s="193"/>
+      <c r="C11" s="196">
+        <v>453</v>
+      </c>
+      <c r="D11" s="194">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="E11" s="196">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="192" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" s="193"/>
+      <c r="C12" s="196">
+        <v>330</v>
+      </c>
+      <c r="D12" s="194">
+        <v>0.60625000000000007</v>
+      </c>
+      <c r="E12" s="196">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="206" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" s="206"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="192">
+        <v>200303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="192" t="s">
+        <v>333</v>
+      </c>
+      <c r="B16" s="192" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" s="206" t="s">
+        <v>347</v>
+      </c>
+      <c r="D16" s="206"/>
+      <c r="E16" s="206"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="192" t="s">
+        <v>337</v>
+      </c>
+      <c r="B17" s="193">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="C17" s="192" t="s">
+        <v>362</v>
+      </c>
+      <c r="D17" s="192" t="s">
+        <v>363</v>
+      </c>
+      <c r="E17" s="192" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="192" t="s">
+        <v>338</v>
+      </c>
+      <c r="B18" s="193">
+        <v>0.51874999999999993</v>
+      </c>
+      <c r="C18" s="196">
+        <v>222</v>
+      </c>
+      <c r="D18" s="194">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="E18" s="196">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="192" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="193"/>
+      <c r="C19" s="196">
+        <v>149</v>
+      </c>
+      <c r="D19" s="194">
+        <v>0.5625</v>
+      </c>
+      <c r="E19" s="196">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="192" t="s">
+        <v>340</v>
+      </c>
+      <c r="B20" s="193">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="192" t="s">
+        <v>341</v>
+      </c>
+      <c r="B21" s="193"/>
+      <c r="C21" s="196">
+        <v>377</v>
+      </c>
+      <c r="D21" s="194">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="E21" s="196">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="192" t="s">
+        <v>342</v>
+      </c>
+      <c r="B22" s="193"/>
+      <c r="C22" s="196">
+        <v>396</v>
+      </c>
+      <c r="D22" s="194">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="E22" s="196">
         <v>361</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="196">
-        <v>200228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="196" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="192" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23" s="193"/>
+      <c r="C23" s="196">
+        <v>360</v>
+      </c>
+      <c r="D23" s="194">
+        <v>0.59375</v>
+      </c>
+      <c r="E23" s="196">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="192" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="193"/>
+      <c r="C24" s="196">
+        <v>366</v>
+      </c>
+      <c r="D24" s="194">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E24" s="196">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="192" t="s">
+        <v>345</v>
+      </c>
+      <c r="B25" s="193"/>
+      <c r="C25" s="196">
+        <v>322</v>
+      </c>
+      <c r="D25" s="194">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="E25" s="196">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="192" t="s">
+        <v>346</v>
+      </c>
+      <c r="B26" s="193"/>
+      <c r="C26" s="196">
+        <v>177</v>
+      </c>
+      <c r="D26" s="194">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="E26" s="196">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="206" t="s">
+        <v>369</v>
+      </c>
+      <c r="B29" s="206"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="192">
+        <v>200305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="192" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="196" t="s">
+      <c r="B30" s="192" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="195" t="s">
+      <c r="C30" s="206" t="s">
         <v>347</v>
       </c>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="196" t="s">
+      <c r="D30" s="206"/>
+      <c r="E30" s="206"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="192" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="197">
+      <c r="B31" s="193">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="C31" s="192" t="s">
+        <v>362</v>
+      </c>
+      <c r="D31" s="192" t="s">
+        <v>363</v>
+      </c>
+      <c r="E31" s="192" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="192" t="s">
+        <v>338</v>
+      </c>
+      <c r="B32" s="193">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="C32" s="196">
+        <v>234</v>
+      </c>
+      <c r="D32" s="194">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="E32" s="196">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="192" t="s">
+        <v>339</v>
+      </c>
+      <c r="B33" s="193"/>
+      <c r="C33" s="196">
+        <v>235</v>
+      </c>
+      <c r="D33" s="194">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="E33" s="196">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="192" t="s">
+        <v>340</v>
+      </c>
+      <c r="B34" s="193">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="192" t="s">
+        <v>341</v>
+      </c>
+      <c r="B35" s="193"/>
+      <c r="C35" s="196">
+        <v>230</v>
+      </c>
+      <c r="D35" s="194">
+        <v>0.58263888888888882</v>
+      </c>
+      <c r="E35" s="196">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="192" t="s">
+        <v>342</v>
+      </c>
+      <c r="B36" s="193">
+        <v>0.59097222222222223</v>
+      </c>
+      <c r="C36" s="196">
+        <v>255</v>
+      </c>
+      <c r="D36" s="194">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="E36" s="196">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="192" t="s">
+        <v>343</v>
+      </c>
+      <c r="B37" s="193"/>
+      <c r="C37" s="196">
+        <v>327</v>
+      </c>
+      <c r="D37" s="194">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="E37" s="196">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="192" t="s">
+        <v>344</v>
+      </c>
+      <c r="B38" s="193">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="C38" s="196">
+        <v>431</v>
+      </c>
+      <c r="D38" s="194">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="E38" s="196">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="192" t="s">
+        <v>345</v>
+      </c>
+      <c r="B39" s="193">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="C39" s="196" t="s">
+        <v>349</v>
+      </c>
+      <c r="D39" s="194">
+        <v>0.61944444444444446</v>
+      </c>
+      <c r="E39" s="196">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="192" t="s">
+        <v>346</v>
+      </c>
+      <c r="B40" s="193">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="C40" s="196" t="s">
+        <v>349</v>
+      </c>
+      <c r="D40" s="194">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="E40" s="195" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="197"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="199"/>
+      <c r="D41" s="200"/>
+      <c r="E41" s="201"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="206" t="s">
+        <v>368</v>
+      </c>
+      <c r="B43" s="206"/>
+      <c r="C43" s="206"/>
+      <c r="D43" s="206"/>
+      <c r="E43" s="192">
+        <v>200306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="192" t="s">
+        <v>333</v>
+      </c>
+      <c r="B44" s="192" t="s">
+        <v>334</v>
+      </c>
+      <c r="C44" s="206" t="s">
+        <v>347</v>
+      </c>
+      <c r="D44" s="206"/>
+      <c r="E44" s="206"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="192" t="s">
+        <v>337</v>
+      </c>
+      <c r="B45" s="193">
         <v>0.34027777777777773</v>
       </c>
-      <c r="C3" s="196" t="s">
+      <c r="C45" s="192" t="s">
         <v>362</v>
       </c>
-      <c r="D3" s="196" t="s">
+      <c r="D45" s="192" t="s">
         <v>363</v>
       </c>
-      <c r="E3" s="196" t="s">
+      <c r="E45" s="192" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="196" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="192" t="s">
         <v>338</v>
       </c>
-      <c r="B4" s="197">
-        <v>0.50624999999999998</v>
-      </c>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="196" t="s">
+      <c r="B46" s="193"/>
+      <c r="C46" s="196">
+        <v>208</v>
+      </c>
+      <c r="D46" s="194">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="E46" s="196">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="192" t="s">
         <v>339</v>
       </c>
-      <c r="B5" s="197"/>
-      <c r="C5" s="198"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="196" t="s">
+      <c r="B47" s="193"/>
+      <c r="C47" s="196">
+        <v>190</v>
+      </c>
+      <c r="D47" s="194">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="E47" s="196">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="192" t="s">
         <v>340</v>
       </c>
-      <c r="B6" s="197"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="196" t="s">
+      <c r="B48" s="193">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="D48" s="194"/>
+      <c r="E48" s="196"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="192" t="s">
         <v>341</v>
       </c>
-      <c r="B7" s="197"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="196" t="s">
+      <c r="B49" s="193">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="C49" s="196">
+        <v>490</v>
+      </c>
+      <c r="D49" s="194">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="E49" s="196">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="192" t="s">
         <v>342</v>
       </c>
-      <c r="B8" s="197"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="196" t="s">
+      <c r="B50" s="193">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="C50" s="196">
+        <v>593</v>
+      </c>
+      <c r="D50" s="194">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="E50" s="196" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="192" t="s">
         <v>343</v>
       </c>
-      <c r="B9" s="197"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="198"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="196" t="s">
+      <c r="B51" s="193">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="C51" s="196" t="s">
+        <v>349</v>
+      </c>
+      <c r="D51" s="194">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="E51" s="196" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="192" t="s">
         <v>344</v>
       </c>
-      <c r="B10" s="197"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="196" t="s">
+      <c r="B52" s="193">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C52" s="196">
+        <v>340</v>
+      </c>
+      <c r="D52" s="194">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="E52" s="196">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="192" t="s">
         <v>345</v>
       </c>
-      <c r="B11" s="197"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="198"/>
-      <c r="E11" s="198"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="196" t="s">
+      <c r="B53" s="193">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="C53" s="196">
+        <v>342</v>
+      </c>
+      <c r="D53" s="194">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="E53" s="196">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="192" t="s">
         <v>346</v>
       </c>
-      <c r="B12" s="197"/>
-      <c r="C12" s="198"/>
-      <c r="D12" s="198"/>
-      <c r="E12" s="198"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="195" t="s">
+      <c r="B54" s="193">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="C54" s="196">
+        <v>356</v>
+      </c>
+      <c r="D54" s="194">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="E54" s="196">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="206" t="s">
         <v>372</v>
       </c>
-      <c r="B18" s="195"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="196">
-        <v>200302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="196" t="s">
+      <c r="B56" s="206"/>
+      <c r="C56" s="206"/>
+      <c r="D56" s="206"/>
+      <c r="E56" s="192">
+        <v>200309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="192" t="s">
         <v>333</v>
       </c>
-      <c r="B19" s="196" t="s">
+      <c r="B57" s="192" t="s">
         <v>334</v>
       </c>
-      <c r="C19" s="195" t="s">
+      <c r="C57" s="206" t="s">
         <v>347</v>
       </c>
-      <c r="D19" s="195"/>
-      <c r="E19" s="195"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="196" t="s">
+      <c r="D57" s="206"/>
+      <c r="E57" s="206"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="192" t="s">
         <v>337</v>
       </c>
-      <c r="B20" s="197">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C20" s="196" t="s">
+      <c r="B58" s="193">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C58" s="192" t="s">
         <v>362</v>
       </c>
-      <c r="D20" s="196" t="s">
+      <c r="D58" s="192" t="s">
         <v>363</v>
       </c>
-      <c r="E20" s="196" t="s">
+      <c r="E58" s="192" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="196" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="192" t="s">
         <v>338</v>
       </c>
-      <c r="B21" s="197"/>
-      <c r="C21" s="200">
-        <v>214</v>
-      </c>
-      <c r="D21" s="198">
-        <v>0.51527777777777783</v>
-      </c>
-      <c r="E21" s="200">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="196" t="s">
+      <c r="B59" s="193">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="C59" s="196">
+        <v>276</v>
+      </c>
+      <c r="D59" s="194">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="E59" s="196">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="192" t="s">
         <v>339</v>
       </c>
-      <c r="B22" s="197"/>
-      <c r="C22" s="200">
-        <v>222</v>
-      </c>
-      <c r="D22" s="198">
+      <c r="B60" s="193">
         <v>0.54722222222222217</v>
       </c>
-      <c r="E22" s="200">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="196" t="s">
+      <c r="C60" s="196">
+        <v>238</v>
+      </c>
+      <c r="D60" s="194">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E60" s="196">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="192" t="s">
         <v>340</v>
       </c>
-      <c r="B23" s="197"/>
-      <c r="E23" s="21"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="196" t="s">
+      <c r="B61" s="193">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="E61" s="196"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="192" t="s">
         <v>341</v>
       </c>
-      <c r="B24" s="197"/>
-      <c r="C24" s="200">
-        <v>449</v>
-      </c>
-      <c r="D24" s="198">
+      <c r="B62" s="193">
         <v>0.55763888888888891</v>
       </c>
-      <c r="E24" s="200">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="196" t="s">
+      <c r="C62">
+        <v>554</v>
+      </c>
+      <c r="D62" s="194">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="E62" s="196">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="192" t="s">
         <v>342</v>
       </c>
-      <c r="B25" s="197"/>
-      <c r="C25" s="200" t="s">
+      <c r="B63" s="193">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="C63" s="196" t="s">
         <v>349</v>
       </c>
-      <c r="D25" s="198">
-        <v>0.56736111111111109</v>
-      </c>
-      <c r="E25" s="200">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="196" t="s">
+      <c r="D63" s="194">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="E63" s="196" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="192" t="s">
         <v>343</v>
       </c>
-      <c r="B26" s="197"/>
-      <c r="C26" s="200" t="s">
+      <c r="B64" s="193">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="C64" s="196" t="s">
         <v>349</v>
       </c>
-      <c r="D26" s="198">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="E26" s="200">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="196" t="s">
+      <c r="D64" s="194">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="E64" s="196">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="192" t="s">
         <v>344</v>
       </c>
-      <c r="B27" s="197"/>
-      <c r="C27" s="200">
-        <v>593</v>
-      </c>
-      <c r="D27" s="198">
-        <v>0.5854166666666667</v>
-      </c>
-      <c r="E27" s="200">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="196" t="s">
+      <c r="B65" s="193">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="C65" s="196" t="s">
+        <v>349</v>
+      </c>
+      <c r="D65" s="194">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="E65" s="196" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="192" t="s">
         <v>345</v>
       </c>
-      <c r="B28" s="197"/>
-      <c r="C28" s="200">
-        <v>453</v>
-      </c>
-      <c r="D28" s="198">
+      <c r="B66" s="193">
         <v>0.59583333333333333</v>
       </c>
-      <c r="E28" s="200">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="196" t="s">
+      <c r="C66" s="196" t="s">
+        <v>349</v>
+      </c>
+      <c r="D66" s="194">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="E66" s="196">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="192" t="s">
         <v>346</v>
       </c>
-      <c r="B29" s="197"/>
-      <c r="C29" s="200">
-        <v>330</v>
-      </c>
-      <c r="D29" s="198">
+      <c r="B67" s="193">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="C67" s="196" t="s">
+        <v>349</v>
+      </c>
+      <c r="D67" s="194">
         <v>0.60625000000000007</v>
       </c>
-      <c r="E29" s="200">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="195" t="s">
-        <v>371</v>
-      </c>
-      <c r="B32" s="195"/>
-      <c r="C32" s="195"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="196">
-        <v>200303</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="196" t="s">
-        <v>333</v>
-      </c>
-      <c r="B33" s="196" t="s">
-        <v>334</v>
-      </c>
-      <c r="C33" s="195" t="s">
-        <v>347</v>
-      </c>
-      <c r="D33" s="195"/>
-      <c r="E33" s="195"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="196" t="s">
-        <v>337</v>
-      </c>
-      <c r="B34" s="197">
-        <v>0.3354166666666667</v>
-      </c>
-      <c r="C34" s="196" t="s">
-        <v>362</v>
-      </c>
-      <c r="D34" s="196" t="s">
-        <v>363</v>
-      </c>
-      <c r="E34" s="196" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="196" t="s">
-        <v>338</v>
-      </c>
-      <c r="B35" s="197">
-        <v>0.51874999999999993</v>
-      </c>
-      <c r="C35" s="200">
-        <v>222</v>
-      </c>
-      <c r="D35" s="198">
-        <v>0.51944444444444449</v>
-      </c>
-      <c r="E35" s="200">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="196" t="s">
-        <v>339</v>
-      </c>
-      <c r="B36" s="197"/>
-      <c r="C36" s="200">
-        <v>149</v>
-      </c>
-      <c r="D36" s="198">
-        <v>0.5625</v>
-      </c>
-      <c r="E36" s="200">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="196" t="s">
-        <v>340</v>
-      </c>
-      <c r="B37" s="197">
-        <v>0.56527777777777777</v>
-      </c>
-      <c r="E37" s="21"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="196" t="s">
-        <v>341</v>
-      </c>
-      <c r="B38" s="197"/>
-      <c r="C38" s="200">
-        <v>377</v>
-      </c>
-      <c r="D38" s="198">
-        <v>0.57500000000000007</v>
-      </c>
-      <c r="E38" s="200">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="196" t="s">
-        <v>342</v>
-      </c>
-      <c r="B39" s="197"/>
-      <c r="C39" s="200">
-        <v>396</v>
-      </c>
-      <c r="D39" s="198">
-        <v>0.58472222222222225</v>
-      </c>
-      <c r="E39" s="200">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="196" t="s">
-        <v>343</v>
-      </c>
-      <c r="B40" s="197"/>
-      <c r="C40" s="200">
-        <v>360</v>
-      </c>
-      <c r="D40" s="198">
-        <v>0.59375</v>
-      </c>
-      <c r="E40" s="200">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="196" t="s">
-        <v>344</v>
-      </c>
-      <c r="B41" s="197"/>
-      <c r="C41" s="200">
-        <v>366</v>
-      </c>
-      <c r="D41" s="198">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="E41" s="200">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="196" t="s">
-        <v>345</v>
-      </c>
-      <c r="B42" s="197"/>
-      <c r="C42" s="200">
-        <v>322</v>
-      </c>
-      <c r="D42" s="198">
-        <v>0.61388888888888882</v>
-      </c>
-      <c r="E42" s="200">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="196" t="s">
-        <v>346</v>
-      </c>
-      <c r="B43" s="197"/>
-      <c r="C43" s="200">
-        <v>177</v>
-      </c>
-      <c r="D43" s="198">
-        <v>0.62361111111111112</v>
-      </c>
-      <c r="E43" s="200">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="195" t="s">
-        <v>370</v>
-      </c>
-      <c r="B46" s="195"/>
-      <c r="C46" s="195"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="196">
-        <v>200305</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="196" t="s">
-        <v>333</v>
-      </c>
-      <c r="B47" s="196" t="s">
-        <v>334</v>
-      </c>
-      <c r="C47" s="195" t="s">
-        <v>347</v>
-      </c>
-      <c r="D47" s="195"/>
-      <c r="E47" s="195"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="196" t="s">
-        <v>337</v>
-      </c>
-      <c r="B48" s="197">
-        <v>0.35902777777777778</v>
-      </c>
-      <c r="C48" s="196" t="s">
-        <v>362</v>
-      </c>
-      <c r="D48" s="196" t="s">
-        <v>363</v>
-      </c>
-      <c r="E48" s="196" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="196" t="s">
-        <v>338</v>
-      </c>
-      <c r="B49" s="197">
-        <v>0.54305555555555551</v>
-      </c>
-      <c r="C49" s="200">
-        <v>234</v>
-      </c>
-      <c r="D49" s="198">
-        <v>0.54305555555555551</v>
-      </c>
-      <c r="E49" s="200">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="196" t="s">
-        <v>339</v>
-      </c>
-      <c r="B50" s="197"/>
-      <c r="C50" s="200">
-        <v>235</v>
-      </c>
-      <c r="D50" s="198">
-        <v>0.5708333333333333</v>
-      </c>
-      <c r="E50" s="200">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="196" t="s">
-        <v>340</v>
-      </c>
-      <c r="B51" s="197">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="E51" s="21"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="196" t="s">
-        <v>341</v>
-      </c>
-      <c r="B52" s="197"/>
-      <c r="C52" s="200">
-        <v>230</v>
-      </c>
-      <c r="D52" s="198">
-        <v>0.58263888888888882</v>
-      </c>
-      <c r="E52" s="200">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="196" t="s">
-        <v>342</v>
-      </c>
-      <c r="B53" s="197">
-        <v>0.59097222222222223</v>
-      </c>
-      <c r="C53" s="200">
-        <v>255</v>
-      </c>
-      <c r="D53" s="198">
-        <v>0.59166666666666667</v>
-      </c>
-      <c r="E53" s="200">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="196" t="s">
-        <v>343</v>
-      </c>
-      <c r="B54" s="197"/>
-      <c r="C54" s="200">
-        <v>327</v>
-      </c>
-      <c r="D54" s="198">
-        <v>0.60069444444444442</v>
-      </c>
-      <c r="E54" s="200">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="196" t="s">
-        <v>344</v>
-      </c>
-      <c r="B55" s="197">
-        <v>0.61041666666666672</v>
-      </c>
-      <c r="C55" s="200">
-        <v>431</v>
-      </c>
-      <c r="D55" s="198">
-        <v>0.61041666666666672</v>
-      </c>
-      <c r="E55" s="200">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="196" t="s">
-        <v>345</v>
-      </c>
-      <c r="B56" s="197">
-        <v>0.61944444444444446</v>
-      </c>
-      <c r="C56" s="200" t="s">
+      <c r="E67" s="196" t="s">
         <v>349</v>
-      </c>
-      <c r="D56" s="198">
-        <v>0.61944444444444446</v>
-      </c>
-      <c r="E56" s="200">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="196" t="s">
-        <v>346</v>
-      </c>
-      <c r="B57" s="197">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="C57" s="200" t="s">
-        <v>349</v>
-      </c>
-      <c r="D57" s="198">
-        <v>0.62916666666666665</v>
-      </c>
-      <c r="E57" s="199" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="201"/>
-      <c r="B58" s="202"/>
-      <c r="C58" s="203"/>
-      <c r="D58" s="204"/>
-      <c r="E58" s="205"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="195" t="s">
-        <v>369</v>
-      </c>
-      <c r="B60" s="195"/>
-      <c r="C60" s="195"/>
-      <c r="D60" s="195"/>
-      <c r="E60" s="196">
-        <v>200306</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="196" t="s">
-        <v>333</v>
-      </c>
-      <c r="B61" s="196" t="s">
-        <v>334</v>
-      </c>
-      <c r="C61" s="195" t="s">
-        <v>347</v>
-      </c>
-      <c r="D61" s="195"/>
-      <c r="E61" s="195"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="196" t="s">
-        <v>337</v>
-      </c>
-      <c r="B62" s="197">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="C62" s="196" t="s">
-        <v>362</v>
-      </c>
-      <c r="D62" s="196" t="s">
-        <v>363</v>
-      </c>
-      <c r="E62" s="196" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="196" t="s">
-        <v>338</v>
-      </c>
-      <c r="B63" s="197"/>
-      <c r="C63" s="200">
-        <v>208</v>
-      </c>
-      <c r="D63" s="198">
-        <v>0.5180555555555556</v>
-      </c>
-      <c r="E63" s="200">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="196" t="s">
-        <v>339</v>
-      </c>
-      <c r="B64" s="197"/>
-      <c r="C64" s="200">
-        <v>190</v>
-      </c>
-      <c r="D64" s="198">
-        <v>0.54375000000000007</v>
-      </c>
-      <c r="E64" s="200">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="196" t="s">
-        <v>340</v>
-      </c>
-      <c r="B65" s="197">
-        <v>0.54513888888888895</v>
-      </c>
-      <c r="D65" s="198"/>
-      <c r="E65" s="200"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="196" t="s">
-        <v>341</v>
-      </c>
-      <c r="B66" s="197">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="C66" s="200">
-        <v>490</v>
-      </c>
-      <c r="D66" s="198">
-        <v>0.55486111111111114</v>
-      </c>
-      <c r="E66" s="200">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="196" t="s">
-        <v>342</v>
-      </c>
-      <c r="B67" s="197">
-        <v>0.56388888888888888</v>
-      </c>
-      <c r="C67" s="200">
-        <v>593</v>
-      </c>
-      <c r="D67" s="198">
-        <v>0.56458333333333333</v>
-      </c>
-      <c r="E67" s="200" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="196" t="s">
-        <v>343</v>
-      </c>
-      <c r="B68" s="197">
-        <v>0.57361111111111118</v>
-      </c>
-      <c r="C68" s="200" t="s">
-        <v>349</v>
-      </c>
-      <c r="D68" s="198">
-        <v>0.57430555555555551</v>
-      </c>
-      <c r="E68" s="200" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="196" t="s">
-        <v>344</v>
-      </c>
-      <c r="B69" s="197">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C69" s="200">
-        <v>340</v>
-      </c>
-      <c r="D69" s="198">
-        <v>0.58402777777777781</v>
-      </c>
-      <c r="E69" s="200">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="196" t="s">
-        <v>345</v>
-      </c>
-      <c r="B70" s="197">
-        <v>0.59236111111111112</v>
-      </c>
-      <c r="C70" s="200">
-        <v>342</v>
-      </c>
-      <c r="D70" s="198">
-        <v>0.59236111111111112</v>
-      </c>
-      <c r="E70" s="200">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="196" t="s">
-        <v>346</v>
-      </c>
-      <c r="B71" s="197">
-        <v>0.60138888888888886</v>
-      </c>
-      <c r="C71" s="200">
-        <v>356</v>
-      </c>
-      <c r="D71" s="198">
-        <v>0.60138888888888886</v>
-      </c>
-      <c r="E71" s="200">
-        <v>427</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A43:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="206" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="192">
+        <v>200228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="192" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="192" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="206" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="192" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="193">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="C3" s="192" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" s="192" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="192" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="192" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="193">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="192" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="193"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="192" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="193"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="192" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" s="193"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="192" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" s="193"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="192" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" s="193"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="192" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" s="193"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="192" t="s">
+        <v>345</v>
+      </c>
+      <c r="B11" s="193"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="194"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="192" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" s="193"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="194"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataBase_Xiaodan.xlsx
+++ b/DataBase_Xiaodan.xlsx
@@ -18,11 +18,12 @@
     <sheet name="Sheet5" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="423">
   <si>
     <t>Date</t>
   </si>
@@ -1225,6 +1226,72 @@
   </si>
   <si>
     <t>D:\RGECO</t>
+  </si>
+  <si>
+    <t>-0:49</t>
+  </si>
+  <si>
+    <t>-0:03</t>
+  </si>
+  <si>
+    <t>-1:06</t>
+  </si>
+  <si>
+    <t>-0:04</t>
+  </si>
+  <si>
+    <t>-0:43</t>
+  </si>
+  <si>
+    <t>-0:02</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>-0:01</t>
+  </si>
+  <si>
+    <t>-0:38</t>
+  </si>
+  <si>
+    <t>-0:39</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Window date</t>
+  </si>
+  <si>
+    <t>R5: 11/12/2018</t>
+  </si>
+  <si>
+    <t>R6: 3/24/2019</t>
+  </si>
+  <si>
+    <t>L1: 10/20/2019</t>
+  </si>
+  <si>
+    <t>L2: 10/30/2019</t>
+  </si>
+  <si>
+    <t>R8: 4/13/2019</t>
+  </si>
+  <si>
+    <t>R9: 8/15/2019</t>
+  </si>
+  <si>
+    <t>K:\IR</t>
+  </si>
+  <si>
+    <t>[1</t>
+  </si>
+  <si>
+    <t>mouse1</t>
+  </si>
+  <si>
+    <t>mouse2</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1302,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1338,6 +1405,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1495,7 +1568,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2064,6 +2137,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2085,7 +2173,77 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1031">
+  <dxfs count="1041">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9579,13 +9737,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y346"/>
+  <dimension ref="A1:AA351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J332" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
+      <selection pane="bottomRight" activeCell="B371" sqref="B371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9608,9 +9766,10 @@
     <col min="21" max="21" width="25.7109375" customWidth="1"/>
     <col min="22" max="22" width="11.7109375" customWidth="1"/>
     <col min="24" max="24" width="13" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -9686,8 +9845,14 @@
       <c r="Y1" s="33" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z1" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA1" s="42" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>6</v>
       </c>
@@ -9751,7 +9916,7 @@
       <c r="X2" s="48"/>
       <c r="Y2" s="48"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>6</v>
       </c>
@@ -9813,7 +9978,7 @@
       <c r="X3" s="33"/>
       <c r="Y3" s="33"/>
     </row>
-    <row r="4" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="56">
         <v>181101</v>
       </c>
@@ -9877,7 +10042,7 @@
       <c r="X4" s="48"/>
       <c r="Y4" s="48"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="57">
         <v>181101</v>
       </c>
@@ -9939,7 +10104,7 @@
       <c r="X5" s="33"/>
       <c r="Y5" s="33"/>
     </row>
-    <row r="6" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
         <v>181126</v>
       </c>
@@ -10001,7 +10166,7 @@
       <c r="X6" s="55"/>
       <c r="Y6" s="55"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="57">
         <v>181127</v>
       </c>
@@ -10065,7 +10230,7 @@
       <c r="X7" s="33"/>
       <c r="Y7" s="33"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="57">
         <v>181127</v>
       </c>
@@ -10127,7 +10292,7 @@
       <c r="X8" s="33"/>
       <c r="Y8" s="33"/>
     </row>
-    <row r="9" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58">
         <v>181127</v>
       </c>
@@ -10191,7 +10356,7 @@
       <c r="X9" s="55"/>
       <c r="Y9" s="55"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="57">
         <v>181127</v>
       </c>
@@ -10255,7 +10420,7 @@
       <c r="X10" s="33"/>
       <c r="Y10" s="33"/>
     </row>
-    <row r="11" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58">
         <v>181127</v>
       </c>
@@ -10321,7 +10486,7 @@
       <c r="X11" s="55"/>
       <c r="Y11" s="55"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="57">
         <v>181203</v>
       </c>
@@ -10383,7 +10548,7 @@
       <c r="X12" s="33"/>
       <c r="Y12" s="33"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="57">
         <v>181203</v>
       </c>
@@ -10447,7 +10612,7 @@
       <c r="X13" s="33"/>
       <c r="Y13" s="33"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="57">
         <v>181203</v>
       </c>
@@ -10509,7 +10674,7 @@
       <c r="X14" s="33"/>
       <c r="Y14" s="33"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="57">
         <v>181203</v>
       </c>
@@ -10573,7 +10738,7 @@
       <c r="X15" s="33"/>
       <c r="Y15" s="33"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="57">
         <v>181203</v>
       </c>
@@ -10961,7 +11126,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D22" s="54" t="s">
         <v>49</v>
@@ -11025,7 +11190,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D23" s="54" t="s">
         <v>49</v>
@@ -11089,7 +11254,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D24" s="68" t="s">
         <v>49</v>
@@ -11155,7 +11320,7 @@
         <v>48</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D25" s="54" t="s">
         <v>49</v>
@@ -11219,7 +11384,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D26" s="75" t="s">
         <v>49</v>
@@ -11277,7 +11442,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="74" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D27" s="75" t="s">
         <v>49</v>
@@ -11863,7 +12028,7 @@
         <v>59</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D38" s="54" t="s">
         <v>49</v>
@@ -11927,7 +12092,7 @@
         <v>58</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D39" s="54" t="s">
         <v>49</v>
@@ -11991,7 +12156,7 @@
         <v>51</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D40" s="54" t="s">
         <v>49</v>
@@ -12055,7 +12220,7 @@
         <v>52</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D41" s="54" t="s">
         <v>49</v>
@@ -12347,7 +12512,7 @@
         <v>66</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D46" s="54" t="s">
         <v>49</v>
@@ -12405,7 +12570,7 @@
         <v>66</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D47" s="54" t="s">
         <v>49</v>
@@ -12469,7 +12634,7 @@
         <v>67</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D48" s="54" t="s">
         <v>49</v>
@@ -12533,7 +12698,7 @@
         <v>67</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D49" s="54" t="s">
         <v>49</v>
@@ -12655,7 +12820,7 @@
         <v>68</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D51" s="54" t="s">
         <v>49</v>
@@ -12713,7 +12878,7 @@
         <v>69</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D52" s="54" t="s">
         <v>49</v>
@@ -12777,7 +12942,7 @@
         <v>69</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D53" s="54" t="s">
         <v>49</v>
@@ -12835,7 +13000,7 @@
         <v>70</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D54" s="54" t="s">
         <v>49</v>
@@ -12899,7 +13064,7 @@
         <v>70</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D55" s="54" t="s">
         <v>49</v>
@@ -12957,7 +13122,7 @@
         <v>71</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D56" s="54" t="s">
         <v>49</v>
@@ -13021,7 +13186,7 @@
         <v>71</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D57" s="54" t="s">
         <v>49</v>
@@ -13079,7 +13244,7 @@
         <v>72</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D58" s="54" t="s">
         <v>49</v>
@@ -13143,7 +13308,7 @@
         <v>72</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D59" s="54" t="s">
         <v>49</v>
@@ -13201,7 +13366,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D60" s="54" t="s">
         <v>49</v>
@@ -13265,7 +13430,7 @@
         <v>70</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D61" s="54" t="s">
         <v>49</v>
@@ -13323,7 +13488,7 @@
         <v>71</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D62" s="54" t="s">
         <v>49</v>
@@ -13387,7 +13552,7 @@
         <v>71</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D63" s="54" t="s">
         <v>49</v>
@@ -13445,7 +13610,7 @@
         <v>72</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D64" s="54" t="s">
         <v>49</v>
@@ -13509,7 +13674,7 @@
         <v>72</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D65" s="54" t="s">
         <v>49</v>
@@ -13567,7 +13732,7 @@
         <v>74</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D66" s="54" t="s">
         <v>49</v>
@@ -13631,7 +13796,7 @@
         <v>74</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D67" s="54" t="s">
         <v>49</v>
@@ -13689,7 +13854,7 @@
         <v>76</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D68" s="54" t="s">
         <v>49</v>
@@ -13753,7 +13918,7 @@
         <v>77</v>
       </c>
       <c r="C69" s="67" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D69" s="68" t="s">
         <v>49</v>
@@ -13819,7 +13984,7 @@
         <v>78</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D70" s="54" t="s">
         <v>49</v>
@@ -13883,7 +14048,7 @@
         <v>77</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D71" s="54" t="s">
         <v>49</v>
@@ -13941,7 +14106,7 @@
         <v>79</v>
       </c>
       <c r="C72" s="67" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D72" s="68" t="s">
         <v>49</v>
@@ -14007,7 +14172,7 @@
         <v>79</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D73" s="54" t="s">
         <v>49</v>
@@ -14065,7 +14230,7 @@
         <v>80</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D74" s="54" t="s">
         <v>49</v>
@@ -14129,7 +14294,7 @@
         <v>80</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D75" s="54" t="s">
         <v>49</v>
@@ -14187,7 +14352,7 @@
         <v>81</v>
       </c>
       <c r="C76" s="67" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D76" s="68" t="s">
         <v>49</v>
@@ -14253,7 +14418,7 @@
         <v>81</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D77" s="54" t="s">
         <v>49</v>
@@ -14311,7 +14476,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="67" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D78" s="68" t="s">
         <v>49</v>
@@ -14377,7 +14542,7 @@
         <v>82</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D79" s="54" t="s">
         <v>49</v>
@@ -14435,7 +14600,7 @@
         <v>78</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D80" s="54" t="s">
         <v>49</v>
@@ -14499,7 +14664,7 @@
         <v>78</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D81" s="54" t="s">
         <v>49</v>
@@ -14557,7 +14722,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="81" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D82" s="82" t="s">
         <v>49</v>
@@ -14623,7 +14788,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="88" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D83" s="89" t="s">
         <v>49</v>
@@ -14689,7 +14854,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D84" s="54" t="s">
         <v>49</v>
@@ -14753,7 +14918,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D85" s="54" t="s">
         <v>49</v>
@@ -14817,7 +14982,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D86" s="54" t="s">
         <v>49</v>
@@ -14881,7 +15046,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D87" s="54" t="s">
         <v>49</v>
@@ -14945,7 +15110,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="53" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D88" s="54" t="s">
         <v>49</v>
@@ -15299,7 +15464,7 @@
         <v>96</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D94" s="54" t="s">
         <v>49</v>
@@ -15365,7 +15530,7 @@
         <v>97</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D95" s="54" t="s">
         <v>49</v>
@@ -15429,7 +15594,7 @@
         <v>98</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D96" s="54" t="s">
         <v>49</v>
@@ -15495,7 +15660,7 @@
         <v>99</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D97" s="54" t="s">
         <v>49</v>
@@ -15559,7 +15724,7 @@
         <v>100</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D98" s="54" t="s">
         <v>49</v>
@@ -15625,7 +15790,7 @@
         <v>101</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D99" s="54" t="s">
         <v>49</v>
@@ -15689,7 +15854,7 @@
         <v>102</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D100" s="54" t="s">
         <v>49</v>
@@ -15753,7 +15918,7 @@
         <v>105</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D101" s="54" t="s">
         <v>49</v>
@@ -15817,7 +15982,7 @@
         <v>106</v>
       </c>
       <c r="C102" s="94" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D102" s="95" t="s">
         <v>49</v>
@@ -15881,7 +16046,7 @@
         <v>107</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D103" s="54" t="s">
         <v>49</v>
@@ -15945,7 +16110,7 @@
         <v>108</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D104" s="54" t="s">
         <v>49</v>
@@ -16009,7 +16174,7 @@
         <v>109</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D105" s="54" t="s">
         <v>49</v>
@@ -16073,7 +16238,7 @@
         <v>110</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D106" s="54" t="s">
         <v>49</v>
@@ -16137,7 +16302,7 @@
         <v>107</v>
       </c>
       <c r="C107" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D107" s="54" t="s">
         <v>49</v>
@@ -16201,7 +16366,7 @@
         <v>106</v>
       </c>
       <c r="C108" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D108" s="54" t="s">
         <v>49</v>
@@ -16395,7 +16560,7 @@
         <v>113</v>
       </c>
       <c r="C111" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D111" s="54" t="s">
         <v>219</v>
@@ -16725,7 +16890,7 @@
         <v>119</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D116" s="54" t="s">
         <v>49</v>
@@ -16779,7 +16944,7 @@
         <v>120</v>
       </c>
       <c r="C117" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D117" s="54" t="s">
         <v>49</v>
@@ -16833,7 +16998,7 @@
         <v>121</v>
       </c>
       <c r="C118" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D118" s="54" t="s">
         <v>49</v>
@@ -16887,7 +17052,7 @@
         <v>119</v>
       </c>
       <c r="C119" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D119" s="54" t="s">
         <v>49</v>
@@ -19519,7 +19684,7 @@
         <v>172</v>
       </c>
       <c r="C163" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D163" s="33" t="s">
         <v>204</v>
@@ -19583,7 +19748,7 @@
         <v>172</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D164" s="33" t="s">
         <v>204</v>
@@ -19637,7 +19802,7 @@
         <v>174</v>
       </c>
       <c r="C165" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D165" s="33" t="s">
         <v>205</v>
@@ -20530,8 +20695,8 @@
       <c r="B181" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="C181" s="121" t="s">
-        <v>44</v>
+      <c r="C181" s="219" t="s">
+        <v>230</v>
       </c>
       <c r="D181" s="121" t="s">
         <v>240</v>
@@ -20589,7 +20754,7 @@
         <v>194</v>
       </c>
       <c r="C182" s="88" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D182" s="33" t="s">
         <v>204</v>
@@ -20655,7 +20820,7 @@
         <v>172</v>
       </c>
       <c r="C183" s="121" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D183" s="121" t="s">
         <v>204</v>
@@ -20713,7 +20878,7 @@
         <v>172</v>
       </c>
       <c r="C184" s="88" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D184" s="33" t="s">
         <v>204</v>
@@ -20779,7 +20944,7 @@
         <v>195</v>
       </c>
       <c r="C185" s="121" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D185" s="121" t="s">
         <v>204</v>
@@ -20837,7 +21002,7 @@
         <v>195</v>
       </c>
       <c r="C186" s="88" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D186" s="33" t="s">
         <v>204</v>
@@ -20903,7 +21068,7 @@
         <v>196</v>
       </c>
       <c r="C187" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D187" s="33" t="s">
         <v>204</v>
@@ -20957,7 +21122,7 @@
         <v>196</v>
       </c>
       <c r="C188" s="33" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D188" s="33" t="s">
         <v>204</v>
@@ -21363,7 +21528,7 @@
         <v>197</v>
       </c>
       <c r="C195" s="121" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D195" s="121" t="s">
         <v>204</v>
@@ -21639,7 +21804,7 @@
         <v>196</v>
       </c>
       <c r="C200" s="67" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D200" s="67" t="s">
         <v>204</v>
@@ -21693,7 +21858,7 @@
         <v>196</v>
       </c>
       <c r="C201" s="67" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D201" s="67" t="s">
         <v>204</v>
@@ -21759,7 +21924,7 @@
         <v>196</v>
       </c>
       <c r="C202" s="121" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D202" s="121" t="s">
         <v>204</v>
@@ -21817,7 +21982,7 @@
         <v>196</v>
       </c>
       <c r="C203" s="48" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D203" s="48" t="s">
         <v>204</v>
@@ -21883,7 +22048,7 @@
         <v>202</v>
       </c>
       <c r="C204" s="121" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D204" s="121" t="s">
         <v>204</v>
@@ -21941,7 +22106,7 @@
         <v>202</v>
       </c>
       <c r="C205" s="55" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D205" s="55" t="s">
         <v>204</v>
@@ -29225,49 +29390,50 @@
         <v>48080</v>
       </c>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A328" s="21">
+    <row r="328" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="216">
         <v>200313</v>
       </c>
-      <c r="B328" s="48" t="s">
+      <c r="B328" s="94" t="s">
         <v>315</v>
       </c>
-      <c r="C328" s="45" t="s">
+      <c r="C328" s="217" t="s">
         <v>230</v>
       </c>
-      <c r="D328" s="48" t="s">
+      <c r="D328" s="94" t="s">
         <v>349</v>
       </c>
-      <c r="E328" s="65" t="s">
+      <c r="E328" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="F328" s="47" t="s">
+      <c r="F328" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="G328" s="48">
-        <v>20</v>
-      </c>
-      <c r="H328" s="48">
-        <v>20</v>
-      </c>
-      <c r="I328" s="48"/>
-      <c r="K328" s="48"/>
-      <c r="L328" s="48"/>
-      <c r="M328" s="48"/>
-      <c r="N328" s="48">
-        <v>20</v>
-      </c>
-      <c r="O328" s="48">
+      <c r="G328" s="94">
+        <v>20</v>
+      </c>
+      <c r="H328" s="94">
+        <v>20</v>
+      </c>
+      <c r="I328" s="94"/>
+      <c r="K328" s="94"/>
+      <c r="L328" s="94"/>
+      <c r="M328" s="94"/>
+      <c r="N328" s="94">
+        <v>20</v>
+      </c>
+      <c r="O328" s="94">
         <v>80</v>
       </c>
-      <c r="P328" s="48"/>
-      <c r="Q328" s="48" t="s">
+      <c r="P328" s="94"/>
+      <c r="Q328" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="T328" s="200" t="s">
-        <v>20</v>
-      </c>
-      <c r="V328" s="48">
+      <c r="R328" s="218"/>
+      <c r="T328" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="V328" s="94">
         <v>24080</v>
       </c>
     </row>
@@ -30224,5124 +30390,5430 @@
         <v>24080</v>
       </c>
     </row>
+    <row r="347" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A347" s="21">
+        <v>200529</v>
+      </c>
+      <c r="B347" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="C347" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D347" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="E347" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F347" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G347" s="48">
+        <v>20</v>
+      </c>
+      <c r="H347" s="48">
+        <v>20</v>
+      </c>
+      <c r="I347" s="48"/>
+      <c r="K347" s="48"/>
+      <c r="L347" s="48"/>
+      <c r="M347" s="48"/>
+      <c r="N347" s="48">
+        <v>20</v>
+      </c>
+      <c r="O347" s="48">
+        <v>80</v>
+      </c>
+      <c r="P347" s="48"/>
+      <c r="Q347" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="S347" t="s">
+        <v>420</v>
+      </c>
+      <c r="T347" s="220" t="s">
+        <v>20</v>
+      </c>
+      <c r="V347" s="48">
+        <v>24080</v>
+      </c>
+    </row>
+    <row r="348" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A348" s="21">
+        <v>200612</v>
+      </c>
+      <c r="B348" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="C348" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D348" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="E348" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F348" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G348" s="48">
+        <v>20</v>
+      </c>
+      <c r="H348" s="48">
+        <v>20</v>
+      </c>
+      <c r="I348" s="48"/>
+      <c r="K348" s="48"/>
+      <c r="L348" s="48"/>
+      <c r="M348" s="48"/>
+      <c r="N348" s="48">
+        <v>20</v>
+      </c>
+      <c r="O348" s="48">
+        <v>80</v>
+      </c>
+      <c r="P348" s="48"/>
+      <c r="Q348" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="S348" t="s">
+        <v>420</v>
+      </c>
+      <c r="T348" s="221" t="s">
+        <v>20</v>
+      </c>
+      <c r="V348" s="48">
+        <v>24080</v>
+      </c>
+    </row>
+    <row r="349" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A349" s="21">
+        <v>200612</v>
+      </c>
+      <c r="B349" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="C349" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D349" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="E349" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F349" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G349" s="48">
+        <v>20</v>
+      </c>
+      <c r="H349" s="48">
+        <v>20</v>
+      </c>
+      <c r="I349" s="48"/>
+      <c r="K349" s="48"/>
+      <c r="L349" s="48"/>
+      <c r="M349" s="48"/>
+      <c r="N349" s="48">
+        <v>20</v>
+      </c>
+      <c r="O349" s="48">
+        <v>80</v>
+      </c>
+      <c r="P349" s="48"/>
+      <c r="Q349" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="T349" s="221" t="s">
+        <v>20</v>
+      </c>
+      <c r="V349" s="48">
+        <v>24080</v>
+      </c>
+    </row>
+    <row r="350" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A350" s="21">
+        <v>200612</v>
+      </c>
+      <c r="B350" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="C350" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D350" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="E350" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F350" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G350" s="48">
+        <v>20</v>
+      </c>
+      <c r="H350" s="48">
+        <v>20</v>
+      </c>
+      <c r="I350" s="48">
+        <v>30</v>
+      </c>
+      <c r="K350" s="48">
+        <v>600</v>
+      </c>
+      <c r="L350" s="48">
+        <v>100</v>
+      </c>
+      <c r="M350" s="48">
+        <v>10</v>
+      </c>
+      <c r="N350" s="48">
+        <v>20</v>
+      </c>
+      <c r="O350" s="48">
+        <v>80</v>
+      </c>
+      <c r="P350" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="Q350" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="T350" s="221" t="s">
+        <v>20</v>
+      </c>
+      <c r="V350" s="48">
+        <v>24080</v>
+      </c>
+    </row>
+    <row r="351" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A351" s="21">
+        <v>200612</v>
+      </c>
+      <c r="B351" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="C351" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D351" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="E351" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F351" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G351" s="48">
+        <v>20</v>
+      </c>
+      <c r="H351" s="48">
+        <v>20</v>
+      </c>
+      <c r="I351" s="48">
+        <v>30</v>
+      </c>
+      <c r="K351" s="48">
+        <v>600</v>
+      </c>
+      <c r="L351" s="48">
+        <v>100</v>
+      </c>
+      <c r="M351" s="48">
+        <v>10</v>
+      </c>
+      <c r="N351" s="48">
+        <v>20</v>
+      </c>
+      <c r="O351" s="48">
+        <v>80</v>
+      </c>
+      <c r="P351" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="Q351" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="T351" s="221" t="s">
+        <v>20</v>
+      </c>
+      <c r="V351" s="48">
+        <v>24080</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:B2 E4 A1:G1 D2:F2 R1:T2 R3:S3 U2 E3:F3 E7 F4:F5 S4:S7 R4:R12 R14:R15 T3:T16 D3:D27 V1:X1 K1:P1">
-    <cfRule type="expression" dxfId="1030" priority="1181" stopIfTrue="1">
+  <conditionalFormatting sqref="A2:B2 E4 A1:G1 D2:F2 R1:T2 R3:S3 U2 E3:F3 E7 F4:F5 S4:S7 R4:R12 R14:R15 T3:T16 D3:D27 V1:X1 K1:P1 Z1:AA1">
+    <cfRule type="expression" dxfId="1040" priority="1191" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="expression" dxfId="1029" priority="1176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1039" priority="1186" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="1028" priority="1175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1038" priority="1185" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="1027" priority="1172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1037" priority="1182" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="expression" dxfId="1026" priority="1170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1036" priority="1180" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="1025" priority="1168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1035" priority="1178" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="1024" priority="1167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1034" priority="1177" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="1023" priority="1165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1033" priority="1175" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="1022" priority="1164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1032" priority="1174" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10 F12 F14 F16">
-    <cfRule type="expression" dxfId="1021" priority="1162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1031" priority="1172" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="1020" priority="1161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1030" priority="1171" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11 F13 F15">
-    <cfRule type="expression" dxfId="1019" priority="1159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1029" priority="1169" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E22 E26">
-    <cfRule type="expression" dxfId="1018" priority="1158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1028" priority="1168" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4">
-    <cfRule type="expression" dxfId="1017" priority="1156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1027" priority="1166" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
-    <cfRule type="expression" dxfId="1016" priority="1155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1026" priority="1165" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="expression" dxfId="1015" priority="1154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1025" priority="1164" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="expression" dxfId="1014" priority="1153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1024" priority="1163" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="1013" priority="1146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1023" priority="1156" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15">
-    <cfRule type="expression" dxfId="1012" priority="1143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1022" priority="1153" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="1011" priority="1147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1021" priority="1157" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="expression" dxfId="1010" priority="1145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1020" priority="1155" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13">
-    <cfRule type="expression" dxfId="1009" priority="1144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1019" priority="1154" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="1008" priority="1142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1018" priority="1152" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F22">
-    <cfRule type="expression" dxfId="1007" priority="1141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1017" priority="1151" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T27 T29">
-    <cfRule type="expression" dxfId="1006" priority="1138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1016" priority="1148" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17:U27">
-    <cfRule type="expression" dxfId="1005" priority="1137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1015" priority="1147" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17 R19 R21">
-    <cfRule type="expression" dxfId="1004" priority="1134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1014" priority="1144" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18 R20">
-    <cfRule type="expression" dxfId="1003" priority="1133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1013" priority="1143" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23 E27">
-    <cfRule type="expression" dxfId="1002" priority="1130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1012" priority="1140" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="1001" priority="1129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1011" priority="1139" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="1000" priority="1127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1010" priority="1137" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="999" priority="1126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1009" priority="1136" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
+    <cfRule type="expression" dxfId="1008" priority="1134" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:F27">
+    <cfRule type="expression" dxfId="1007" priority="1133" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:D29">
+    <cfRule type="expression" dxfId="1006" priority="1132" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E29">
+    <cfRule type="expression" dxfId="1005" priority="1131" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:F29">
+    <cfRule type="expression" dxfId="1004" priority="1130" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="expression" dxfId="1003" priority="1129" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="1002" priority="1128" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="1001" priority="1127" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="expression" dxfId="1000" priority="1126" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T30">
+    <cfRule type="expression" dxfId="999" priority="1125" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T31">
     <cfRule type="expression" dxfId="998" priority="1124" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F27">
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="997" priority="1123" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D29">
+  <conditionalFormatting sqref="E31">
     <cfRule type="expression" dxfId="996" priority="1122" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
+  <conditionalFormatting sqref="F31">
     <cfRule type="expression" dxfId="995" priority="1121" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F29">
+  <conditionalFormatting sqref="D32">
     <cfRule type="expression" dxfId="994" priority="1120" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T28">
+  <conditionalFormatting sqref="E32">
     <cfRule type="expression" dxfId="993" priority="1119" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="F32">
     <cfRule type="expression" dxfId="992" priority="1118" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="T32">
     <cfRule type="expression" dxfId="991" priority="1117" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="D38:D41">
     <cfRule type="expression" dxfId="990" priority="1116" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T30">
+  <conditionalFormatting sqref="E38">
     <cfRule type="expression" dxfId="989" priority="1115" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T31">
+  <conditionalFormatting sqref="T38:T41">
     <cfRule type="expression" dxfId="988" priority="1114" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="U38:U41">
     <cfRule type="expression" dxfId="987" priority="1113" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E39:E41">
     <cfRule type="expression" dxfId="986" priority="1112" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+  <conditionalFormatting sqref="F38:F41">
     <cfRule type="expression" dxfId="985" priority="1111" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="T34">
     <cfRule type="expression" dxfId="984" priority="1110" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="D34">
     <cfRule type="expression" dxfId="983" priority="1109" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+  <conditionalFormatting sqref="E34">
     <cfRule type="expression" dxfId="982" priority="1108" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T32">
+  <conditionalFormatting sqref="F34">
     <cfRule type="expression" dxfId="981" priority="1107" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D41">
+  <conditionalFormatting sqref="T35">
     <cfRule type="expression" dxfId="980" priority="1106" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
+  <conditionalFormatting sqref="D35">
     <cfRule type="expression" dxfId="979" priority="1105" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T38:T41">
+  <conditionalFormatting sqref="E35">
     <cfRule type="expression" dxfId="978" priority="1104" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U38:U41">
+  <conditionalFormatting sqref="F35">
     <cfRule type="expression" dxfId="977" priority="1103" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E41">
+  <conditionalFormatting sqref="T36">
     <cfRule type="expression" dxfId="976" priority="1102" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F41">
+  <conditionalFormatting sqref="D36">
     <cfRule type="expression" dxfId="975" priority="1101" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T34">
+  <conditionalFormatting sqref="E36">
     <cfRule type="expression" dxfId="974" priority="1100" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="F36">
     <cfRule type="expression" dxfId="973" priority="1099" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
+  <conditionalFormatting sqref="T37">
     <cfRule type="expression" dxfId="972" priority="1098" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+  <conditionalFormatting sqref="D37">
     <cfRule type="expression" dxfId="971" priority="1097" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T35">
+  <conditionalFormatting sqref="E37">
     <cfRule type="expression" dxfId="970" priority="1096" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="F37">
     <cfRule type="expression" dxfId="969" priority="1095" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
+  <conditionalFormatting sqref="D33">
     <cfRule type="expression" dxfId="968" priority="1094" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+  <conditionalFormatting sqref="E33">
     <cfRule type="expression" dxfId="967" priority="1093" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T36">
+  <conditionalFormatting sqref="F33">
     <cfRule type="expression" dxfId="966" priority="1092" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="T33">
     <cfRule type="expression" dxfId="965" priority="1091" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+  <conditionalFormatting sqref="T44">
     <cfRule type="expression" dxfId="964" priority="1090" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+  <conditionalFormatting sqref="D44">
     <cfRule type="expression" dxfId="963" priority="1089" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T37">
+  <conditionalFormatting sqref="E44">
     <cfRule type="expression" dxfId="962" priority="1088" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="F44">
     <cfRule type="expression" dxfId="961" priority="1087" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
+  <conditionalFormatting sqref="T45">
     <cfRule type="expression" dxfId="960" priority="1086" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="D45">
     <cfRule type="expression" dxfId="959" priority="1085" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="E45">
     <cfRule type="expression" dxfId="958" priority="1084" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
+  <conditionalFormatting sqref="F45">
     <cfRule type="expression" dxfId="957" priority="1083" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+  <conditionalFormatting sqref="R42 T42 D42">
     <cfRule type="expression" dxfId="956" priority="1082" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T33">
+  <conditionalFormatting sqref="F42">
     <cfRule type="expression" dxfId="955" priority="1081" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T44">
+  <conditionalFormatting sqref="E42">
     <cfRule type="expression" dxfId="954" priority="1080" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="U42">
     <cfRule type="expression" dxfId="953" priority="1079" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="R43 T43 D43">
     <cfRule type="expression" dxfId="952" priority="1078" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
+  <conditionalFormatting sqref="F43">
     <cfRule type="expression" dxfId="951" priority="1077" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T45">
+  <conditionalFormatting sqref="E43">
     <cfRule type="expression" dxfId="950" priority="1076" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="U43">
     <cfRule type="expression" dxfId="949" priority="1075" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="D46">
     <cfRule type="expression" dxfId="948" priority="1074" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+  <conditionalFormatting sqref="E46">
     <cfRule type="expression" dxfId="947" priority="1073" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R42 T42 D42">
+  <conditionalFormatting sqref="F46">
     <cfRule type="expression" dxfId="946" priority="1072" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="expression" dxfId="945" priority="1071" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="944" priority="1070" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U42">
-    <cfRule type="expression" dxfId="943" priority="1069" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R43 T43 D43">
-    <cfRule type="expression" dxfId="942" priority="1068" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="expression" dxfId="941" priority="1067" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="940" priority="1066" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U43">
-    <cfRule type="expression" dxfId="939" priority="1065" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="938" priority="1064" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="937" priority="1063" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="936" priority="1062" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U46:U47">
-    <cfRule type="expression" dxfId="935" priority="1056" stopIfTrue="1">
+    <cfRule type="expression" dxfId="945" priority="1066" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="934" priority="1061" stopIfTrue="1">
+    <cfRule type="expression" dxfId="944" priority="1071" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="943" priority="1070" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="942" priority="1069" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T46">
+    <cfRule type="expression" dxfId="941" priority="1068" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T47">
+    <cfRule type="expression" dxfId="940" priority="1067" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U59">
+    <cfRule type="expression" dxfId="939" priority="996" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="938" priority="1065" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="937" priority="1064" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="expression" dxfId="936" priority="1063" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U48">
+    <cfRule type="expression" dxfId="935" priority="1061" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T48">
+    <cfRule type="expression" dxfId="934" priority="1062" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="expression" dxfId="933" priority="1060" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
+  <conditionalFormatting sqref="E49">
     <cfRule type="expression" dxfId="932" priority="1059" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T46">
+  <conditionalFormatting sqref="F49">
     <cfRule type="expression" dxfId="931" priority="1058" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T47">
-    <cfRule type="expression" dxfId="930" priority="1057" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U59">
-    <cfRule type="expression" dxfId="929" priority="986" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
+  <conditionalFormatting sqref="U49">
+    <cfRule type="expression" dxfId="930" priority="1056" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T49">
+    <cfRule type="expression" dxfId="929" priority="1057" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
     <cfRule type="expression" dxfId="928" priority="1055" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
+  <conditionalFormatting sqref="E50">
     <cfRule type="expression" dxfId="927" priority="1054" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
+  <conditionalFormatting sqref="F50">
     <cfRule type="expression" dxfId="926" priority="1053" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U48">
+  <conditionalFormatting sqref="U50">
     <cfRule type="expression" dxfId="925" priority="1051" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T48">
+  <conditionalFormatting sqref="T50">
     <cfRule type="expression" dxfId="924" priority="1052" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
+  <conditionalFormatting sqref="D51">
     <cfRule type="expression" dxfId="923" priority="1050" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
+  <conditionalFormatting sqref="E51">
     <cfRule type="expression" dxfId="922" priority="1049" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="F51">
     <cfRule type="expression" dxfId="921" priority="1048" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U49">
+  <conditionalFormatting sqref="U51">
     <cfRule type="expression" dxfId="920" priority="1046" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T49">
+  <conditionalFormatting sqref="T51">
     <cfRule type="expression" dxfId="919" priority="1047" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
+  <conditionalFormatting sqref="D52">
     <cfRule type="expression" dxfId="918" priority="1045" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
+  <conditionalFormatting sqref="E52">
     <cfRule type="expression" dxfId="917" priority="1044" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
+  <conditionalFormatting sqref="F52">
     <cfRule type="expression" dxfId="916" priority="1043" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U50">
+  <conditionalFormatting sqref="U52">
     <cfRule type="expression" dxfId="915" priority="1041" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T50">
+  <conditionalFormatting sqref="T52">
     <cfRule type="expression" dxfId="914" priority="1042" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
+  <conditionalFormatting sqref="D53">
     <cfRule type="expression" dxfId="913" priority="1040" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E53">
     <cfRule type="expression" dxfId="912" priority="1039" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
+  <conditionalFormatting sqref="F53">
     <cfRule type="expression" dxfId="911" priority="1038" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U51">
+  <conditionalFormatting sqref="U53">
     <cfRule type="expression" dxfId="910" priority="1036" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T51">
+  <conditionalFormatting sqref="T53">
     <cfRule type="expression" dxfId="909" priority="1037" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="908" priority="1035" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="907" priority="1034" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="expression" dxfId="906" priority="1033" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U52">
-    <cfRule type="expression" dxfId="905" priority="1031" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T52">
-    <cfRule type="expression" dxfId="904" priority="1032" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="903" priority="1030" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="902" priority="1029" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="expression" dxfId="901" priority="1028" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U53">
-    <cfRule type="expression" dxfId="900" priority="1026" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T53">
-    <cfRule type="expression" dxfId="899" priority="1027" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D54">
+    <cfRule type="expression" dxfId="908" priority="1025" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="907" priority="1024" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="expression" dxfId="906" priority="1023" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U54">
+    <cfRule type="expression" dxfId="905" priority="1021" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T54">
+    <cfRule type="expression" dxfId="904" priority="1022" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="903" priority="1020" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="902" priority="1019" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="expression" dxfId="901" priority="1018" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U55">
+    <cfRule type="expression" dxfId="900" priority="1016" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T55">
+    <cfRule type="expression" dxfId="899" priority="1017" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
     <cfRule type="expression" dxfId="898" priority="1015" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+  <conditionalFormatting sqref="E56">
     <cfRule type="expression" dxfId="897" priority="1014" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
+  <conditionalFormatting sqref="F56">
     <cfRule type="expression" dxfId="896" priority="1013" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U54">
+  <conditionalFormatting sqref="U56">
     <cfRule type="expression" dxfId="895" priority="1011" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T54">
+  <conditionalFormatting sqref="T56">
     <cfRule type="expression" dxfId="894" priority="1012" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D57">
     <cfRule type="expression" dxfId="893" priority="1010" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
+  <conditionalFormatting sqref="E57">
     <cfRule type="expression" dxfId="892" priority="1009" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
+  <conditionalFormatting sqref="F57">
     <cfRule type="expression" dxfId="891" priority="1008" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U55">
+  <conditionalFormatting sqref="U57">
     <cfRule type="expression" dxfId="890" priority="1006" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T55">
+  <conditionalFormatting sqref="T57">
     <cfRule type="expression" dxfId="889" priority="1007" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
+  <conditionalFormatting sqref="D58">
     <cfRule type="expression" dxfId="888" priority="1005" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
+  <conditionalFormatting sqref="E58">
     <cfRule type="expression" dxfId="887" priority="1004" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
+  <conditionalFormatting sqref="F58">
     <cfRule type="expression" dxfId="886" priority="1003" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U56">
+  <conditionalFormatting sqref="U58">
     <cfRule type="expression" dxfId="885" priority="1001" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T56">
+  <conditionalFormatting sqref="T58">
     <cfRule type="expression" dxfId="884" priority="1002" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D59">
     <cfRule type="expression" dxfId="883" priority="1000" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
+  <conditionalFormatting sqref="E59">
     <cfRule type="expression" dxfId="882" priority="999" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
+  <conditionalFormatting sqref="F59">
     <cfRule type="expression" dxfId="881" priority="998" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U57">
-    <cfRule type="expression" dxfId="880" priority="996" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T57">
-    <cfRule type="expression" dxfId="879" priority="997" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="878" priority="995" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="877" priority="994" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" dxfId="876" priority="993" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U58">
+  <conditionalFormatting sqref="T59">
+    <cfRule type="expression" dxfId="880" priority="997" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="expression" dxfId="879" priority="994" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="878" priority="993" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="expression" dxfId="877" priority="992" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U60">
+    <cfRule type="expression" dxfId="876" priority="990" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T60">
     <cfRule type="expression" dxfId="875" priority="991" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T58">
-    <cfRule type="expression" dxfId="874" priority="992" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="873" priority="990" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="872" priority="989" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="871" priority="988" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T59">
-    <cfRule type="expression" dxfId="870" priority="987" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="874" priority="989" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="873" priority="988" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="expression" dxfId="872" priority="987" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U61">
+    <cfRule type="expression" dxfId="871" priority="985" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T61">
+    <cfRule type="expression" dxfId="870" priority="986" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="expression" dxfId="869" priority="984" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
+  <conditionalFormatting sqref="E62">
     <cfRule type="expression" dxfId="868" priority="983" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
+  <conditionalFormatting sqref="F62">
     <cfRule type="expression" dxfId="867" priority="982" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U60">
+  <conditionalFormatting sqref="U62">
     <cfRule type="expression" dxfId="866" priority="980" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T60">
+  <conditionalFormatting sqref="T62">
     <cfRule type="expression" dxfId="865" priority="981" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
+  <conditionalFormatting sqref="D63">
     <cfRule type="expression" dxfId="864" priority="979" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
+  <conditionalFormatting sqref="E63">
     <cfRule type="expression" dxfId="863" priority="978" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
+  <conditionalFormatting sqref="F63">
     <cfRule type="expression" dxfId="862" priority="977" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U61">
+  <conditionalFormatting sqref="U63">
     <cfRule type="expression" dxfId="861" priority="975" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T61">
+  <conditionalFormatting sqref="T63">
     <cfRule type="expression" dxfId="860" priority="976" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="859" priority="974" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="858" priority="973" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="expression" dxfId="857" priority="972" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U62">
-    <cfRule type="expression" dxfId="856" priority="970" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T62">
-    <cfRule type="expression" dxfId="855" priority="971" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="854" priority="969" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="853" priority="968" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="expression" dxfId="852" priority="967" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U63">
-    <cfRule type="expression" dxfId="851" priority="965" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T63">
+  <conditionalFormatting sqref="U65">
+    <cfRule type="expression" dxfId="859" priority="965" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="858" priority="974" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="857" priority="973" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64">
+    <cfRule type="expression" dxfId="856" priority="972" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U64">
+    <cfRule type="expression" dxfId="855" priority="970" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T64">
+    <cfRule type="expression" dxfId="854" priority="971" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="853" priority="969" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="852" priority="968" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65">
+    <cfRule type="expression" dxfId="851" priority="967" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T65">
     <cfRule type="expression" dxfId="850" priority="966" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U65">
+  <conditionalFormatting sqref="U67">
     <cfRule type="expression" dxfId="849" priority="955" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="D66">
     <cfRule type="expression" dxfId="848" priority="964" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
+  <conditionalFormatting sqref="E66">
     <cfRule type="expression" dxfId="847" priority="963" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
+  <conditionalFormatting sqref="F66">
     <cfRule type="expression" dxfId="846" priority="962" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U64">
+  <conditionalFormatting sqref="U66">
     <cfRule type="expression" dxfId="845" priority="960" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T64">
+  <conditionalFormatting sqref="T66">
     <cfRule type="expression" dxfId="844" priority="961" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D67">
     <cfRule type="expression" dxfId="843" priority="959" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
+  <conditionalFormatting sqref="E67">
     <cfRule type="expression" dxfId="842" priority="958" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F65">
+  <conditionalFormatting sqref="F67">
     <cfRule type="expression" dxfId="841" priority="957" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T65">
+  <conditionalFormatting sqref="T67">
     <cfRule type="expression" dxfId="840" priority="956" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U67">
-    <cfRule type="expression" dxfId="839" priority="945" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="838" priority="954" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="837" priority="953" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="expression" dxfId="836" priority="952" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U66">
-    <cfRule type="expression" dxfId="835" priority="950" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T66">
-    <cfRule type="expression" dxfId="834" priority="951" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="833" priority="949" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" dxfId="832" priority="948" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="expression" dxfId="831" priority="947" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T67">
-    <cfRule type="expression" dxfId="830" priority="946" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="829" priority="944" stopIfTrue="1">
+    <cfRule type="expression" dxfId="839" priority="954" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="expression" dxfId="828" priority="943" stopIfTrue="1">
+    <cfRule type="expression" dxfId="838" priority="953" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="expression" dxfId="827" priority="942" stopIfTrue="1">
+    <cfRule type="expression" dxfId="837" priority="952" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U68">
-    <cfRule type="expression" dxfId="826" priority="940" stopIfTrue="1">
+    <cfRule type="expression" dxfId="836" priority="950" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="expression" dxfId="825" priority="939" stopIfTrue="1">
+    <cfRule type="expression" dxfId="835" priority="949" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="824" priority="938" stopIfTrue="1">
+    <cfRule type="expression" dxfId="834" priority="948" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="expression" dxfId="823" priority="937" stopIfTrue="1">
+    <cfRule type="expression" dxfId="833" priority="947" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U69">
-    <cfRule type="expression" dxfId="822" priority="935" stopIfTrue="1">
+    <cfRule type="expression" dxfId="832" priority="945" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="expression" dxfId="821" priority="934" stopIfTrue="1">
+    <cfRule type="expression" dxfId="831" priority="944" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="820" priority="933" stopIfTrue="1">
+    <cfRule type="expression" dxfId="830" priority="943" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="expression" dxfId="819" priority="932" stopIfTrue="1">
+    <cfRule type="expression" dxfId="829" priority="942" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U70">
-    <cfRule type="expression" dxfId="818" priority="930" stopIfTrue="1">
+    <cfRule type="expression" dxfId="828" priority="940" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="expression" dxfId="817" priority="929" stopIfTrue="1">
+    <cfRule type="expression" dxfId="827" priority="939" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="816" priority="928" stopIfTrue="1">
+    <cfRule type="expression" dxfId="826" priority="938" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="expression" dxfId="815" priority="927" stopIfTrue="1">
+    <cfRule type="expression" dxfId="825" priority="937" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U71">
-    <cfRule type="expression" dxfId="814" priority="923" stopIfTrue="1">
+    <cfRule type="expression" dxfId="824" priority="933" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="expression" dxfId="813" priority="922" stopIfTrue="1">
+    <cfRule type="expression" dxfId="823" priority="932" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="812" priority="921" stopIfTrue="1">
+    <cfRule type="expression" dxfId="822" priority="931" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72">
-    <cfRule type="expression" dxfId="811" priority="920" stopIfTrue="1">
+    <cfRule type="expression" dxfId="821" priority="930" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U72">
-    <cfRule type="expression" dxfId="810" priority="918" stopIfTrue="1">
+    <cfRule type="expression" dxfId="820" priority="928" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="expression" dxfId="809" priority="912" stopIfTrue="1">
+    <cfRule type="expression" dxfId="819" priority="922" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="808" priority="911" stopIfTrue="1">
+    <cfRule type="expression" dxfId="818" priority="921" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="expression" dxfId="807" priority="910" stopIfTrue="1">
+    <cfRule type="expression" dxfId="817" priority="920" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U73">
-    <cfRule type="expression" dxfId="806" priority="908" stopIfTrue="1">
+    <cfRule type="expression" dxfId="816" priority="918" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="expression" dxfId="805" priority="907" stopIfTrue="1">
+    <cfRule type="expression" dxfId="815" priority="917" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="804" priority="906" stopIfTrue="1">
+    <cfRule type="expression" dxfId="814" priority="916" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="expression" dxfId="803" priority="905" stopIfTrue="1">
+    <cfRule type="expression" dxfId="813" priority="915" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U74">
-    <cfRule type="expression" dxfId="802" priority="903" stopIfTrue="1">
+    <cfRule type="expression" dxfId="812" priority="913" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="expression" dxfId="801" priority="902" stopIfTrue="1">
+    <cfRule type="expression" dxfId="811" priority="912" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="800" priority="901" stopIfTrue="1">
+    <cfRule type="expression" dxfId="810" priority="911" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="expression" dxfId="799" priority="900" stopIfTrue="1">
+    <cfRule type="expression" dxfId="809" priority="910" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U75">
-    <cfRule type="expression" dxfId="798" priority="898" stopIfTrue="1">
+    <cfRule type="expression" dxfId="808" priority="908" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="expression" dxfId="797" priority="897" stopIfTrue="1">
+    <cfRule type="expression" dxfId="807" priority="907" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="796" priority="896" stopIfTrue="1">
+    <cfRule type="expression" dxfId="806" priority="906" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="expression" dxfId="795" priority="895" stopIfTrue="1">
+    <cfRule type="expression" dxfId="805" priority="905" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U76">
-    <cfRule type="expression" dxfId="794" priority="893" stopIfTrue="1">
+    <cfRule type="expression" dxfId="804" priority="903" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="expression" dxfId="793" priority="892" stopIfTrue="1">
+    <cfRule type="expression" dxfId="803" priority="902" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="792" priority="891" stopIfTrue="1">
+    <cfRule type="expression" dxfId="802" priority="901" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="expression" dxfId="791" priority="890" stopIfTrue="1">
+    <cfRule type="expression" dxfId="801" priority="900" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U77">
-    <cfRule type="expression" dxfId="790" priority="888" stopIfTrue="1">
+    <cfRule type="expression" dxfId="800" priority="898" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="expression" dxfId="789" priority="887" stopIfTrue="1">
+    <cfRule type="expression" dxfId="799" priority="897" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="788" priority="886" stopIfTrue="1">
+    <cfRule type="expression" dxfId="798" priority="896" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="expression" dxfId="787" priority="885" stopIfTrue="1">
+    <cfRule type="expression" dxfId="797" priority="895" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U78">
-    <cfRule type="expression" dxfId="786" priority="883" stopIfTrue="1">
+    <cfRule type="expression" dxfId="796" priority="893" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="expression" dxfId="785" priority="882" stopIfTrue="1">
+    <cfRule type="expression" dxfId="795" priority="892" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="784" priority="881" stopIfTrue="1">
+    <cfRule type="expression" dxfId="794" priority="891" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="expression" dxfId="783" priority="880" stopIfTrue="1">
+    <cfRule type="expression" dxfId="793" priority="890" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U79">
-    <cfRule type="expression" dxfId="782" priority="878" stopIfTrue="1">
+    <cfRule type="expression" dxfId="792" priority="888" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80">
-    <cfRule type="expression" dxfId="781" priority="877" stopIfTrue="1">
+    <cfRule type="expression" dxfId="791" priority="887" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="780" priority="876" stopIfTrue="1">
+    <cfRule type="expression" dxfId="790" priority="886" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="expression" dxfId="779" priority="875" stopIfTrue="1">
+    <cfRule type="expression" dxfId="789" priority="885" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U80">
-    <cfRule type="expression" dxfId="778" priority="873" stopIfTrue="1">
+    <cfRule type="expression" dxfId="788" priority="883" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="expression" dxfId="777" priority="872" stopIfTrue="1">
+    <cfRule type="expression" dxfId="787" priority="882" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="expression" dxfId="776" priority="871" stopIfTrue="1">
+    <cfRule type="expression" dxfId="786" priority="881" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81">
-    <cfRule type="expression" dxfId="775" priority="870" stopIfTrue="1">
+    <cfRule type="expression" dxfId="785" priority="880" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U81">
-    <cfRule type="expression" dxfId="774" priority="868" stopIfTrue="1">
+    <cfRule type="expression" dxfId="784" priority="878" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82">
-    <cfRule type="expression" dxfId="773" priority="867" stopIfTrue="1">
+    <cfRule type="expression" dxfId="783" priority="877" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="expression" dxfId="772" priority="866" stopIfTrue="1">
+    <cfRule type="expression" dxfId="782" priority="876" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82">
-    <cfRule type="expression" dxfId="771" priority="865" stopIfTrue="1">
+    <cfRule type="expression" dxfId="781" priority="875" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U82">
-    <cfRule type="expression" dxfId="770" priority="863" stopIfTrue="1">
+    <cfRule type="expression" dxfId="780" priority="873" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="expression" dxfId="769" priority="862" stopIfTrue="1">
+    <cfRule type="expression" dxfId="779" priority="872" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="expression" dxfId="768" priority="861" stopIfTrue="1">
+    <cfRule type="expression" dxfId="778" priority="871" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="expression" dxfId="767" priority="860" stopIfTrue="1">
+    <cfRule type="expression" dxfId="777" priority="870" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U83">
-    <cfRule type="expression" dxfId="766" priority="858" stopIfTrue="1">
+    <cfRule type="expression" dxfId="776" priority="868" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
+    <cfRule type="expression" dxfId="775" priority="867" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="expression" dxfId="774" priority="866" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84">
+    <cfRule type="expression" dxfId="773" priority="865" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U84">
+    <cfRule type="expression" dxfId="772" priority="863" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T68:T84">
+    <cfRule type="expression" dxfId="771" priority="864" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="expression" dxfId="770" priority="862" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" dxfId="769" priority="861" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="expression" dxfId="768" priority="860" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U85">
+    <cfRule type="expression" dxfId="767" priority="858" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T85">
+    <cfRule type="expression" dxfId="766" priority="859" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86">
     <cfRule type="expression" dxfId="765" priority="857" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E86">
     <cfRule type="expression" dxfId="764" priority="856" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84">
+  <conditionalFormatting sqref="F86">
     <cfRule type="expression" dxfId="763" priority="855" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U84">
+  <conditionalFormatting sqref="U86">
     <cfRule type="expression" dxfId="762" priority="853" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T68:T84">
+  <conditionalFormatting sqref="T86">
     <cfRule type="expression" dxfId="761" priority="854" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
+  <conditionalFormatting sqref="D87">
     <cfRule type="expression" dxfId="760" priority="852" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E87">
     <cfRule type="expression" dxfId="759" priority="851" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
+  <conditionalFormatting sqref="F87">
     <cfRule type="expression" dxfId="758" priority="850" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U85">
+  <conditionalFormatting sqref="U87:U88">
     <cfRule type="expression" dxfId="757" priority="848" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T85">
+  <conditionalFormatting sqref="T87:T88">
     <cfRule type="expression" dxfId="756" priority="849" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
+  <conditionalFormatting sqref="D88">
     <cfRule type="expression" dxfId="755" priority="847" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
+  <conditionalFormatting sqref="E88">
     <cfRule type="expression" dxfId="754" priority="846" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
+  <conditionalFormatting sqref="F88:F89">
     <cfRule type="expression" dxfId="753" priority="845" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U86">
-    <cfRule type="expression" dxfId="752" priority="843" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T86">
-    <cfRule type="expression" dxfId="751" priority="844" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
+  <conditionalFormatting sqref="D89">
+    <cfRule type="expression" dxfId="752" priority="844" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90:F91">
+    <cfRule type="expression" dxfId="751" priority="843" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90:D91">
     <cfRule type="expression" dxfId="750" priority="842" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="F92">
     <cfRule type="expression" dxfId="749" priority="841" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
+  <conditionalFormatting sqref="D92">
     <cfRule type="expression" dxfId="748" priority="840" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U87:U88">
-    <cfRule type="expression" dxfId="747" priority="838" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T87:T88">
-    <cfRule type="expression" dxfId="746" priority="839" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
+  <conditionalFormatting sqref="F93">
+    <cfRule type="expression" dxfId="747" priority="839" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93">
+    <cfRule type="expression" dxfId="746" priority="838" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94">
     <cfRule type="expression" dxfId="745" priority="837" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
+  <conditionalFormatting sqref="E94">
     <cfRule type="expression" dxfId="744" priority="836" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:F89">
+  <conditionalFormatting sqref="F94">
     <cfRule type="expression" dxfId="743" priority="835" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
-    <cfRule type="expression" dxfId="742" priority="834" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90:F91">
-    <cfRule type="expression" dxfId="741" priority="833" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90:D91">
+  <conditionalFormatting sqref="U94">
+    <cfRule type="expression" dxfId="742" priority="833" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T94">
+    <cfRule type="expression" dxfId="741" priority="834" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D95">
     <cfRule type="expression" dxfId="740" priority="832" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F92">
+  <conditionalFormatting sqref="E95">
     <cfRule type="expression" dxfId="739" priority="831" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D92">
+  <conditionalFormatting sqref="F95">
     <cfRule type="expression" dxfId="738" priority="830" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F93">
-    <cfRule type="expression" dxfId="737" priority="829" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="expression" dxfId="736" priority="828" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
+  <conditionalFormatting sqref="U95">
+    <cfRule type="expression" dxfId="737" priority="828" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T95">
+    <cfRule type="expression" dxfId="736" priority="829" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96">
     <cfRule type="expression" dxfId="735" priority="827" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
+  <conditionalFormatting sqref="E96">
     <cfRule type="expression" dxfId="734" priority="826" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94">
+  <conditionalFormatting sqref="F96">
     <cfRule type="expression" dxfId="733" priority="825" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U94">
+  <conditionalFormatting sqref="U96">
     <cfRule type="expression" dxfId="732" priority="823" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T94">
+  <conditionalFormatting sqref="T96">
     <cfRule type="expression" dxfId="731" priority="824" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D95">
+  <conditionalFormatting sqref="D97">
     <cfRule type="expression" dxfId="730" priority="822" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
+  <conditionalFormatting sqref="E97">
     <cfRule type="expression" dxfId="729" priority="821" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
+  <conditionalFormatting sqref="F97">
     <cfRule type="expression" dxfId="728" priority="820" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U95">
+  <conditionalFormatting sqref="U97">
     <cfRule type="expression" dxfId="727" priority="818" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T95">
+  <conditionalFormatting sqref="T97">
     <cfRule type="expression" dxfId="726" priority="819" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D96">
+  <conditionalFormatting sqref="D98">
     <cfRule type="expression" dxfId="725" priority="817" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
+  <conditionalFormatting sqref="E98">
     <cfRule type="expression" dxfId="724" priority="816" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
+  <conditionalFormatting sqref="F98">
     <cfRule type="expression" dxfId="723" priority="815" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U96">
+  <conditionalFormatting sqref="U98">
     <cfRule type="expression" dxfId="722" priority="813" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T96">
+  <conditionalFormatting sqref="T98">
     <cfRule type="expression" dxfId="721" priority="814" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
+  <conditionalFormatting sqref="D99">
     <cfRule type="expression" dxfId="720" priority="812" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
+  <conditionalFormatting sqref="E99">
     <cfRule type="expression" dxfId="719" priority="811" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="F99">
     <cfRule type="expression" dxfId="718" priority="810" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U97">
+  <conditionalFormatting sqref="U99">
     <cfRule type="expression" dxfId="717" priority="808" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T97">
+  <conditionalFormatting sqref="T99">
     <cfRule type="expression" dxfId="716" priority="809" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D98">
+  <conditionalFormatting sqref="D100">
     <cfRule type="expression" dxfId="715" priority="807" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
+  <conditionalFormatting sqref="E100">
     <cfRule type="expression" dxfId="714" priority="806" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
+  <conditionalFormatting sqref="F100">
     <cfRule type="expression" dxfId="713" priority="805" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U98">
+  <conditionalFormatting sqref="U100">
     <cfRule type="expression" dxfId="712" priority="803" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T98">
+  <conditionalFormatting sqref="T100">
     <cfRule type="expression" dxfId="711" priority="804" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D99">
+  <conditionalFormatting sqref="D101">
     <cfRule type="expression" dxfId="710" priority="802" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
+  <conditionalFormatting sqref="E101">
     <cfRule type="expression" dxfId="709" priority="801" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F99">
+  <conditionalFormatting sqref="F101">
     <cfRule type="expression" dxfId="708" priority="800" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U99">
-    <cfRule type="expression" dxfId="707" priority="798" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T99">
-    <cfRule type="expression" dxfId="706" priority="799" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D100">
-    <cfRule type="expression" dxfId="705" priority="797" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="expression" dxfId="704" priority="796" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F100">
-    <cfRule type="expression" dxfId="703" priority="795" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U100">
-    <cfRule type="expression" dxfId="702" priority="793" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T100">
-    <cfRule type="expression" dxfId="701" priority="794" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
-    <cfRule type="expression" dxfId="700" priority="792" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="699" priority="791" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F101">
-    <cfRule type="expression" dxfId="698" priority="790" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="expression" dxfId="697" priority="787" stopIfTrue="1">
+    <cfRule type="expression" dxfId="707" priority="797" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="696" priority="786" stopIfTrue="1">
+    <cfRule type="expression" dxfId="706" priority="796" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102">
-    <cfRule type="expression" dxfId="695" priority="785" stopIfTrue="1">
+    <cfRule type="expression" dxfId="705" priority="795" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="expression" dxfId="694" priority="782" stopIfTrue="1">
+    <cfRule type="expression" dxfId="704" priority="792" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="expression" dxfId="693" priority="781" stopIfTrue="1">
+    <cfRule type="expression" dxfId="703" priority="791" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103">
-    <cfRule type="expression" dxfId="692" priority="780" stopIfTrue="1">
+    <cfRule type="expression" dxfId="702" priority="790" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U101">
+    <cfRule type="expression" dxfId="701" priority="787" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U102">
+    <cfRule type="expression" dxfId="700" priority="786" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U103">
+    <cfRule type="expression" dxfId="699" priority="785" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104">
+    <cfRule type="expression" dxfId="698" priority="784" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="expression" dxfId="697" priority="783" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F104">
+    <cfRule type="expression" dxfId="696" priority="782" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U104">
+    <cfRule type="expression" dxfId="695" priority="780" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T104">
+    <cfRule type="expression" dxfId="694" priority="781" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D105">
+    <cfRule type="expression" dxfId="693" priority="779" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="expression" dxfId="692" priority="778" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105">
     <cfRule type="expression" dxfId="691" priority="777" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U102">
-    <cfRule type="expression" dxfId="690" priority="776" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U103">
-    <cfRule type="expression" dxfId="689" priority="775" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D104">
+  <conditionalFormatting sqref="U105">
+    <cfRule type="expression" dxfId="690" priority="775" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T105">
+    <cfRule type="expression" dxfId="689" priority="776" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106">
     <cfRule type="expression" dxfId="688" priority="774" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
+  <conditionalFormatting sqref="E106">
     <cfRule type="expression" dxfId="687" priority="773" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F104">
+  <conditionalFormatting sqref="F106">
     <cfRule type="expression" dxfId="686" priority="772" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U104">
+  <conditionalFormatting sqref="U106">
     <cfRule type="expression" dxfId="685" priority="770" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T104">
+  <conditionalFormatting sqref="T106">
     <cfRule type="expression" dxfId="684" priority="771" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D105">
+  <conditionalFormatting sqref="D107">
     <cfRule type="expression" dxfId="683" priority="769" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
+  <conditionalFormatting sqref="E107">
     <cfRule type="expression" dxfId="682" priority="768" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105">
+  <conditionalFormatting sqref="F107">
     <cfRule type="expression" dxfId="681" priority="767" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U105">
-    <cfRule type="expression" dxfId="680" priority="765" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T105">
-    <cfRule type="expression" dxfId="679" priority="766" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D106">
+  <conditionalFormatting sqref="T107">
+    <cfRule type="expression" dxfId="680" priority="766" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U107">
+    <cfRule type="expression" dxfId="679" priority="765" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108">
     <cfRule type="expression" dxfId="678" priority="764" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
+  <conditionalFormatting sqref="E108">
     <cfRule type="expression" dxfId="677" priority="763" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106">
+  <conditionalFormatting sqref="F108">
     <cfRule type="expression" dxfId="676" priority="762" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U106">
-    <cfRule type="expression" dxfId="675" priority="760" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T106">
-    <cfRule type="expression" dxfId="674" priority="761" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D107">
+  <conditionalFormatting sqref="T108">
+    <cfRule type="expression" dxfId="675" priority="761" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U108">
+    <cfRule type="expression" dxfId="674" priority="760" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T101">
     <cfRule type="expression" dxfId="673" priority="759" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
+  <conditionalFormatting sqref="T102">
     <cfRule type="expression" dxfId="672" priority="758" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
+  <conditionalFormatting sqref="T103">
     <cfRule type="expression" dxfId="671" priority="757" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T107">
+  <conditionalFormatting sqref="D109:D115">
     <cfRule type="expression" dxfId="670" priority="756" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U107">
+  <conditionalFormatting sqref="E109">
     <cfRule type="expression" dxfId="669" priority="755" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D108">
+  <conditionalFormatting sqref="F109">
     <cfRule type="expression" dxfId="668" priority="754" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
+  <conditionalFormatting sqref="T109">
     <cfRule type="expression" dxfId="667" priority="753" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108">
+  <conditionalFormatting sqref="U109">
     <cfRule type="expression" dxfId="666" priority="752" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T108">
-    <cfRule type="expression" dxfId="665" priority="751" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U108">
-    <cfRule type="expression" dxfId="664" priority="750" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T101">
-    <cfRule type="expression" dxfId="663" priority="749" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T102">
-    <cfRule type="expression" dxfId="662" priority="748" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T103">
-    <cfRule type="expression" dxfId="661" priority="747" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D109:D115">
-    <cfRule type="expression" dxfId="660" priority="746" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="expression" dxfId="659" priority="745" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F109">
-    <cfRule type="expression" dxfId="658" priority="744" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T109">
-    <cfRule type="expression" dxfId="657" priority="743" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U109">
-    <cfRule type="expression" dxfId="656" priority="742" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="expression" dxfId="655" priority="740" stopIfTrue="1">
+    <cfRule type="expression" dxfId="665" priority="750" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="expression" dxfId="654" priority="739" stopIfTrue="1">
+    <cfRule type="expression" dxfId="664" priority="749" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T110">
-    <cfRule type="expression" dxfId="653" priority="738" stopIfTrue="1">
+    <cfRule type="expression" dxfId="663" priority="748" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U110">
-    <cfRule type="expression" dxfId="652" priority="737" stopIfTrue="1">
+    <cfRule type="expression" dxfId="662" priority="747" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="expression" dxfId="651" priority="735" stopIfTrue="1">
+    <cfRule type="expression" dxfId="661" priority="745" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111">
-    <cfRule type="expression" dxfId="650" priority="734" stopIfTrue="1">
+    <cfRule type="expression" dxfId="660" priority="744" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T111">
-    <cfRule type="expression" dxfId="649" priority="733" stopIfTrue="1">
+    <cfRule type="expression" dxfId="659" priority="743" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U111">
-    <cfRule type="expression" dxfId="648" priority="732" stopIfTrue="1">
+    <cfRule type="expression" dxfId="658" priority="742" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="expression" dxfId="647" priority="730" stopIfTrue="1">
+    <cfRule type="expression" dxfId="657" priority="740" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="expression" dxfId="646" priority="729" stopIfTrue="1">
+    <cfRule type="expression" dxfId="656" priority="739" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T112">
-    <cfRule type="expression" dxfId="645" priority="728" stopIfTrue="1">
+    <cfRule type="expression" dxfId="655" priority="738" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U112">
-    <cfRule type="expression" dxfId="644" priority="727" stopIfTrue="1">
+    <cfRule type="expression" dxfId="654" priority="737" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="expression" dxfId="643" priority="725" stopIfTrue="1">
+    <cfRule type="expression" dxfId="653" priority="735" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F113">
-    <cfRule type="expression" dxfId="642" priority="724" stopIfTrue="1">
+    <cfRule type="expression" dxfId="652" priority="734" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113">
-    <cfRule type="expression" dxfId="641" priority="723" stopIfTrue="1">
+    <cfRule type="expression" dxfId="651" priority="733" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U113">
-    <cfRule type="expression" dxfId="640" priority="722" stopIfTrue="1">
+    <cfRule type="expression" dxfId="650" priority="732" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
+    <cfRule type="expression" dxfId="649" priority="730" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F114">
+    <cfRule type="expression" dxfId="648" priority="729" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T114">
+    <cfRule type="expression" dxfId="647" priority="728" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U114">
+    <cfRule type="expression" dxfId="646" priority="727" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D116">
+    <cfRule type="expression" dxfId="645" priority="726" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115:E116">
+    <cfRule type="expression" dxfId="644" priority="725" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F115">
+    <cfRule type="expression" dxfId="643" priority="724" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T115">
+    <cfRule type="expression" dxfId="642" priority="723" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U115">
+    <cfRule type="expression" dxfId="641" priority="722" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F116">
+    <cfRule type="expression" dxfId="640" priority="721" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D117">
     <cfRule type="expression" dxfId="639" priority="720" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F114">
+  <conditionalFormatting sqref="E117">
     <cfRule type="expression" dxfId="638" priority="719" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T114">
+  <conditionalFormatting sqref="F117">
     <cfRule type="expression" dxfId="637" priority="718" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U114">
+  <conditionalFormatting sqref="D118">
     <cfRule type="expression" dxfId="636" priority="717" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D116">
+  <conditionalFormatting sqref="E118">
     <cfRule type="expression" dxfId="635" priority="716" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E115:E116">
+  <conditionalFormatting sqref="F118">
     <cfRule type="expression" dxfId="634" priority="715" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F115">
+  <conditionalFormatting sqref="D119">
     <cfRule type="expression" dxfId="633" priority="714" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T115">
+  <conditionalFormatting sqref="E119">
     <cfRule type="expression" dxfId="632" priority="713" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U115">
+  <conditionalFormatting sqref="F119">
     <cfRule type="expression" dxfId="631" priority="712" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F116">
-    <cfRule type="expression" dxfId="630" priority="711" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D117">
-    <cfRule type="expression" dxfId="629" priority="710" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E117">
-    <cfRule type="expression" dxfId="628" priority="709" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F117">
-    <cfRule type="expression" dxfId="627" priority="708" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D118">
-    <cfRule type="expression" dxfId="626" priority="707" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="expression" dxfId="625" priority="706" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F118">
-    <cfRule type="expression" dxfId="624" priority="705" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D119">
-    <cfRule type="expression" dxfId="623" priority="704" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="expression" dxfId="622" priority="703" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F119">
-    <cfRule type="expression" dxfId="621" priority="702" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D120">
+    <cfRule type="expression" dxfId="630" priority="702" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="expression" dxfId="629" priority="701" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F120">
+    <cfRule type="expression" dxfId="628" priority="700" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T120">
+    <cfRule type="expression" dxfId="627" priority="699" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D121">
+    <cfRule type="expression" dxfId="626" priority="698" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="expression" dxfId="625" priority="697" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F121">
+    <cfRule type="expression" dxfId="624" priority="696" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T121">
+    <cfRule type="expression" dxfId="623" priority="695" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="expression" dxfId="622" priority="694" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="expression" dxfId="621" priority="693" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F122">
     <cfRule type="expression" dxfId="620" priority="692" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
+  <conditionalFormatting sqref="T122">
     <cfRule type="expression" dxfId="619" priority="691" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F120">
+  <conditionalFormatting sqref="D123">
     <cfRule type="expression" dxfId="618" priority="690" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T120">
+  <conditionalFormatting sqref="E123">
     <cfRule type="expression" dxfId="617" priority="689" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D121">
+  <conditionalFormatting sqref="F123">
     <cfRule type="expression" dxfId="616" priority="688" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
+  <conditionalFormatting sqref="T123">
     <cfRule type="expression" dxfId="615" priority="687" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F121">
+  <conditionalFormatting sqref="D124">
     <cfRule type="expression" dxfId="614" priority="686" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T121">
+  <conditionalFormatting sqref="E124">
     <cfRule type="expression" dxfId="613" priority="685" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D122">
+  <conditionalFormatting sqref="F124:F127">
     <cfRule type="expression" dxfId="612" priority="684" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
+  <conditionalFormatting sqref="T124">
     <cfRule type="expression" dxfId="611" priority="683" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F122">
+  <conditionalFormatting sqref="D125">
     <cfRule type="expression" dxfId="610" priority="682" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T122">
+  <conditionalFormatting sqref="E125">
     <cfRule type="expression" dxfId="609" priority="681" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D123">
-    <cfRule type="expression" dxfId="608" priority="680" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="expression" dxfId="607" priority="679" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F123">
-    <cfRule type="expression" dxfId="606" priority="678" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T123">
-    <cfRule type="expression" dxfId="605" priority="677" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D124">
-    <cfRule type="expression" dxfId="604" priority="676" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="expression" dxfId="603" priority="675" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F124:F127">
-    <cfRule type="expression" dxfId="602" priority="674" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T124">
-    <cfRule type="expression" dxfId="601" priority="673" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D125">
-    <cfRule type="expression" dxfId="600" priority="672" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="expression" dxfId="599" priority="671" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T125">
-    <cfRule type="expression" dxfId="598" priority="669" stopIfTrue="1">
+    <cfRule type="expression" dxfId="608" priority="679" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D126">
-    <cfRule type="expression" dxfId="597" priority="668" stopIfTrue="1">
+    <cfRule type="expression" dxfId="607" priority="678" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="expression" dxfId="596" priority="667" stopIfTrue="1">
+    <cfRule type="expression" dxfId="606" priority="677" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T126">
-    <cfRule type="expression" dxfId="595" priority="665" stopIfTrue="1">
+    <cfRule type="expression" dxfId="605" priority="675" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D127">
-    <cfRule type="expression" dxfId="594" priority="664" stopIfTrue="1">
+    <cfRule type="expression" dxfId="604" priority="674" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="expression" dxfId="593" priority="663" stopIfTrue="1">
+    <cfRule type="expression" dxfId="603" priority="673" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U126">
-    <cfRule type="expression" dxfId="592" priority="658" stopIfTrue="1">
+    <cfRule type="expression" dxfId="602" priority="668" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T127">
-    <cfRule type="expression" dxfId="591" priority="661" stopIfTrue="1">
+    <cfRule type="expression" dxfId="601" priority="671" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U124">
-    <cfRule type="expression" dxfId="590" priority="660" stopIfTrue="1">
+    <cfRule type="expression" dxfId="600" priority="670" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U125">
-    <cfRule type="expression" dxfId="589" priority="659" stopIfTrue="1">
+    <cfRule type="expression" dxfId="599" priority="669" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U127">
+    <cfRule type="expression" dxfId="598" priority="667" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F128">
+    <cfRule type="expression" dxfId="597" priority="666" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D128">
+    <cfRule type="expression" dxfId="596" priority="665" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="expression" dxfId="595" priority="664" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T128">
+    <cfRule type="expression" dxfId="594" priority="663" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U128">
+    <cfRule type="expression" dxfId="593" priority="662" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D129">
+    <cfRule type="expression" dxfId="592" priority="661" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129">
+    <cfRule type="expression" dxfId="591" priority="660" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F129">
+    <cfRule type="expression" dxfId="590" priority="659" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T129">
+    <cfRule type="expression" dxfId="589" priority="658" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F130">
     <cfRule type="expression" dxfId="588" priority="657" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F128">
+  <conditionalFormatting sqref="D130">
     <cfRule type="expression" dxfId="587" priority="656" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D128">
+  <conditionalFormatting sqref="E130">
     <cfRule type="expression" dxfId="586" priority="655" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
+  <conditionalFormatting sqref="T130">
     <cfRule type="expression" dxfId="585" priority="654" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T128">
+  <conditionalFormatting sqref="U130">
     <cfRule type="expression" dxfId="584" priority="653" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U128">
+  <conditionalFormatting sqref="D131">
     <cfRule type="expression" dxfId="583" priority="652" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D129">
+  <conditionalFormatting sqref="E131">
     <cfRule type="expression" dxfId="582" priority="651" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
+  <conditionalFormatting sqref="F131">
     <cfRule type="expression" dxfId="581" priority="650" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F129">
+  <conditionalFormatting sqref="T131">
     <cfRule type="expression" dxfId="580" priority="649" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T129">
+  <conditionalFormatting sqref="F132">
     <cfRule type="expression" dxfId="579" priority="648" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F130">
+  <conditionalFormatting sqref="D132">
     <cfRule type="expression" dxfId="578" priority="647" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D130">
+  <conditionalFormatting sqref="E132">
     <cfRule type="expression" dxfId="577" priority="646" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
+  <conditionalFormatting sqref="T132">
     <cfRule type="expression" dxfId="576" priority="645" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T130">
+  <conditionalFormatting sqref="U132">
     <cfRule type="expression" dxfId="575" priority="644" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U130">
+  <conditionalFormatting sqref="D133">
     <cfRule type="expression" dxfId="574" priority="643" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D131">
+  <conditionalFormatting sqref="E133">
     <cfRule type="expression" dxfId="573" priority="642" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
+  <conditionalFormatting sqref="F133">
     <cfRule type="expression" dxfId="572" priority="641" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F131">
+  <conditionalFormatting sqref="T133">
     <cfRule type="expression" dxfId="571" priority="640" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T131">
+  <conditionalFormatting sqref="F134">
     <cfRule type="expression" dxfId="570" priority="639" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F132">
+  <conditionalFormatting sqref="D134">
     <cfRule type="expression" dxfId="569" priority="638" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D132">
+  <conditionalFormatting sqref="E134">
     <cfRule type="expression" dxfId="568" priority="637" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E132">
+  <conditionalFormatting sqref="T134">
     <cfRule type="expression" dxfId="567" priority="636" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T132">
+  <conditionalFormatting sqref="U134">
     <cfRule type="expression" dxfId="566" priority="635" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U132">
+  <conditionalFormatting sqref="D135">
     <cfRule type="expression" dxfId="565" priority="634" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D133">
+  <conditionalFormatting sqref="E135">
     <cfRule type="expression" dxfId="564" priority="633" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
+  <conditionalFormatting sqref="F135">
     <cfRule type="expression" dxfId="563" priority="632" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F133">
+  <conditionalFormatting sqref="T135">
     <cfRule type="expression" dxfId="562" priority="631" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T133">
+  <conditionalFormatting sqref="F136">
     <cfRule type="expression" dxfId="561" priority="630" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F134">
+  <conditionalFormatting sqref="D136">
     <cfRule type="expression" dxfId="560" priority="629" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D134">
+  <conditionalFormatting sqref="E136">
     <cfRule type="expression" dxfId="559" priority="628" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
+  <conditionalFormatting sqref="T136">
     <cfRule type="expression" dxfId="558" priority="627" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T134">
+  <conditionalFormatting sqref="U136">
     <cfRule type="expression" dxfId="557" priority="626" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U134">
+  <conditionalFormatting sqref="D137">
     <cfRule type="expression" dxfId="556" priority="625" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D135">
+  <conditionalFormatting sqref="E137">
     <cfRule type="expression" dxfId="555" priority="624" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
+  <conditionalFormatting sqref="F137">
     <cfRule type="expression" dxfId="554" priority="623" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F135">
+  <conditionalFormatting sqref="T137">
     <cfRule type="expression" dxfId="553" priority="622" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T135">
+  <conditionalFormatting sqref="F138">
     <cfRule type="expression" dxfId="552" priority="621" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F136">
+  <conditionalFormatting sqref="D138">
     <cfRule type="expression" dxfId="551" priority="620" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D136">
+  <conditionalFormatting sqref="E138">
     <cfRule type="expression" dxfId="550" priority="619" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
+  <conditionalFormatting sqref="T138">
     <cfRule type="expression" dxfId="549" priority="618" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T136">
+  <conditionalFormatting sqref="U138">
     <cfRule type="expression" dxfId="548" priority="617" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U136">
+  <conditionalFormatting sqref="D139">
     <cfRule type="expression" dxfId="547" priority="616" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D137">
+  <conditionalFormatting sqref="E139">
     <cfRule type="expression" dxfId="546" priority="615" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
+  <conditionalFormatting sqref="F139">
     <cfRule type="expression" dxfId="545" priority="614" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F137">
+  <conditionalFormatting sqref="T139">
     <cfRule type="expression" dxfId="544" priority="613" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T137">
+  <conditionalFormatting sqref="F140">
     <cfRule type="expression" dxfId="543" priority="612" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F138">
+  <conditionalFormatting sqref="D140">
     <cfRule type="expression" dxfId="542" priority="611" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D138">
+  <conditionalFormatting sqref="E140">
     <cfRule type="expression" dxfId="541" priority="610" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
+  <conditionalFormatting sqref="T140">
     <cfRule type="expression" dxfId="540" priority="609" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T138">
+  <conditionalFormatting sqref="U140">
     <cfRule type="expression" dxfId="539" priority="608" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U138">
+  <conditionalFormatting sqref="D141">
     <cfRule type="expression" dxfId="538" priority="607" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D139">
+  <conditionalFormatting sqref="E141">
     <cfRule type="expression" dxfId="537" priority="606" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E139">
+  <conditionalFormatting sqref="F141">
     <cfRule type="expression" dxfId="536" priority="605" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F139">
+  <conditionalFormatting sqref="T141">
     <cfRule type="expression" dxfId="535" priority="604" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T139">
+  <conditionalFormatting sqref="F142">
     <cfRule type="expression" dxfId="534" priority="603" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F140">
+  <conditionalFormatting sqref="D142">
     <cfRule type="expression" dxfId="533" priority="602" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D140">
+  <conditionalFormatting sqref="E142">
     <cfRule type="expression" dxfId="532" priority="601" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E140">
+  <conditionalFormatting sqref="T142">
     <cfRule type="expression" dxfId="531" priority="600" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T140">
+  <conditionalFormatting sqref="U142">
     <cfRule type="expression" dxfId="530" priority="599" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U140">
+  <conditionalFormatting sqref="D143">
     <cfRule type="expression" dxfId="529" priority="598" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D141">
+  <conditionalFormatting sqref="E143">
     <cfRule type="expression" dxfId="528" priority="597" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
+  <conditionalFormatting sqref="F143">
     <cfRule type="expression" dxfId="527" priority="596" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
+  <conditionalFormatting sqref="T143">
     <cfRule type="expression" dxfId="526" priority="595" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T141">
+  <conditionalFormatting sqref="F144">
     <cfRule type="expression" dxfId="525" priority="594" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
+  <conditionalFormatting sqref="D144">
     <cfRule type="expression" dxfId="524" priority="593" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D142">
+  <conditionalFormatting sqref="E144">
     <cfRule type="expression" dxfId="523" priority="592" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E142">
+  <conditionalFormatting sqref="T144">
     <cfRule type="expression" dxfId="522" priority="591" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T142">
+  <conditionalFormatting sqref="U144">
     <cfRule type="expression" dxfId="521" priority="590" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U142">
+  <conditionalFormatting sqref="D145">
     <cfRule type="expression" dxfId="520" priority="589" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D143">
+  <conditionalFormatting sqref="E145">
     <cfRule type="expression" dxfId="519" priority="588" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E143">
+  <conditionalFormatting sqref="F145">
     <cfRule type="expression" dxfId="518" priority="587" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
+  <conditionalFormatting sqref="T145">
     <cfRule type="expression" dxfId="517" priority="586" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T143">
+  <conditionalFormatting sqref="F146">
     <cfRule type="expression" dxfId="516" priority="585" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F144">
+  <conditionalFormatting sqref="D146">
     <cfRule type="expression" dxfId="515" priority="584" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D144">
+  <conditionalFormatting sqref="E146">
     <cfRule type="expression" dxfId="514" priority="583" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
+  <conditionalFormatting sqref="T146">
     <cfRule type="expression" dxfId="513" priority="582" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T144">
+  <conditionalFormatting sqref="U146">
     <cfRule type="expression" dxfId="512" priority="581" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U144">
+  <conditionalFormatting sqref="D147">
     <cfRule type="expression" dxfId="511" priority="580" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D145">
+  <conditionalFormatting sqref="E147">
     <cfRule type="expression" dxfId="510" priority="579" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E145">
+  <conditionalFormatting sqref="F147">
     <cfRule type="expression" dxfId="509" priority="578" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F145">
+  <conditionalFormatting sqref="T147">
     <cfRule type="expression" dxfId="508" priority="577" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T145">
+  <conditionalFormatting sqref="F148">
     <cfRule type="expression" dxfId="507" priority="576" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F146">
+  <conditionalFormatting sqref="D148">
     <cfRule type="expression" dxfId="506" priority="575" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D146">
+  <conditionalFormatting sqref="E148">
     <cfRule type="expression" dxfId="505" priority="574" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E146">
+  <conditionalFormatting sqref="T148">
     <cfRule type="expression" dxfId="504" priority="573" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T146">
+  <conditionalFormatting sqref="U148">
     <cfRule type="expression" dxfId="503" priority="572" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U146">
-    <cfRule type="expression" dxfId="502" priority="571" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D147">
-    <cfRule type="expression" dxfId="501" priority="570" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E147">
-    <cfRule type="expression" dxfId="500" priority="569" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F147">
-    <cfRule type="expression" dxfId="499" priority="568" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T147">
-    <cfRule type="expression" dxfId="498" priority="567" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F148">
-    <cfRule type="expression" dxfId="497" priority="566" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D148">
-    <cfRule type="expression" dxfId="496" priority="565" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E148">
-    <cfRule type="expression" dxfId="495" priority="564" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T148">
-    <cfRule type="expression" dxfId="494" priority="563" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U148">
-    <cfRule type="expression" dxfId="493" priority="562" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F149">
-    <cfRule type="expression" dxfId="492" priority="557" stopIfTrue="1">
+    <cfRule type="expression" dxfId="502" priority="567" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149">
-    <cfRule type="expression" dxfId="491" priority="556" stopIfTrue="1">
+    <cfRule type="expression" dxfId="501" priority="566" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149">
-    <cfRule type="expression" dxfId="490" priority="555" stopIfTrue="1">
+    <cfRule type="expression" dxfId="500" priority="565" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T149">
-    <cfRule type="expression" dxfId="489" priority="554" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="564" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U149">
-    <cfRule type="expression" dxfId="488" priority="553" stopIfTrue="1">
+    <cfRule type="expression" dxfId="498" priority="563" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F150">
+    <cfRule type="expression" dxfId="497" priority="558" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D150">
+    <cfRule type="expression" dxfId="496" priority="557" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E150">
+    <cfRule type="expression" dxfId="495" priority="556" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T150">
+    <cfRule type="expression" dxfId="494" priority="555" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U150">
+    <cfRule type="expression" dxfId="493" priority="554" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D151">
+    <cfRule type="expression" dxfId="492" priority="553" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151">
+    <cfRule type="expression" dxfId="491" priority="552" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F151">
+    <cfRule type="expression" dxfId="490" priority="551" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T151">
+    <cfRule type="expression" dxfId="489" priority="550" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F152">
+    <cfRule type="expression" dxfId="488" priority="549" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D152">
     <cfRule type="expression" dxfId="487" priority="548" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D150">
+  <conditionalFormatting sqref="E152">
     <cfRule type="expression" dxfId="486" priority="547" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E150">
+  <conditionalFormatting sqref="T152">
     <cfRule type="expression" dxfId="485" priority="546" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T150">
+  <conditionalFormatting sqref="U152">
     <cfRule type="expression" dxfId="484" priority="545" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U150">
+  <conditionalFormatting sqref="D153">
     <cfRule type="expression" dxfId="483" priority="544" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D151">
+  <conditionalFormatting sqref="E153">
     <cfRule type="expression" dxfId="482" priority="543" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E151">
+  <conditionalFormatting sqref="F153">
     <cfRule type="expression" dxfId="481" priority="542" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F151">
+  <conditionalFormatting sqref="T153">
     <cfRule type="expression" dxfId="480" priority="541" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T151">
+  <conditionalFormatting sqref="F154">
     <cfRule type="expression" dxfId="479" priority="540" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F152">
+  <conditionalFormatting sqref="D154">
     <cfRule type="expression" dxfId="478" priority="539" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D152">
+  <conditionalFormatting sqref="E154">
     <cfRule type="expression" dxfId="477" priority="538" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
+  <conditionalFormatting sqref="T154">
     <cfRule type="expression" dxfId="476" priority="537" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T152">
+  <conditionalFormatting sqref="U154">
     <cfRule type="expression" dxfId="475" priority="536" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U152">
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="474" priority="535" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D153">
+  <conditionalFormatting sqref="E155">
     <cfRule type="expression" dxfId="473" priority="534" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E153">
+  <conditionalFormatting sqref="F155">
     <cfRule type="expression" dxfId="472" priority="533" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F153">
+  <conditionalFormatting sqref="T155">
     <cfRule type="expression" dxfId="471" priority="532" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T153">
+  <conditionalFormatting sqref="F156">
     <cfRule type="expression" dxfId="470" priority="531" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F154">
+  <conditionalFormatting sqref="D156">
     <cfRule type="expression" dxfId="469" priority="530" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D154">
+  <conditionalFormatting sqref="E156">
     <cfRule type="expression" dxfId="468" priority="529" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
+  <conditionalFormatting sqref="T156">
     <cfRule type="expression" dxfId="467" priority="528" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T154">
+  <conditionalFormatting sqref="U156">
     <cfRule type="expression" dxfId="466" priority="527" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U154">
+  <conditionalFormatting sqref="D157">
     <cfRule type="expression" dxfId="465" priority="526" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+  <conditionalFormatting sqref="E157">
     <cfRule type="expression" dxfId="464" priority="525" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
+  <conditionalFormatting sqref="F157">
     <cfRule type="expression" dxfId="463" priority="524" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F155">
+  <conditionalFormatting sqref="T157">
     <cfRule type="expression" dxfId="462" priority="523" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T155">
+  <conditionalFormatting sqref="F158">
     <cfRule type="expression" dxfId="461" priority="522" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F156">
+  <conditionalFormatting sqref="D158">
     <cfRule type="expression" dxfId="460" priority="521" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D156">
+  <conditionalFormatting sqref="E158">
     <cfRule type="expression" dxfId="459" priority="520" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
+  <conditionalFormatting sqref="T158">
     <cfRule type="expression" dxfId="458" priority="519" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T156">
+  <conditionalFormatting sqref="U158">
     <cfRule type="expression" dxfId="457" priority="518" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U156">
+  <conditionalFormatting sqref="D159">
     <cfRule type="expression" dxfId="456" priority="517" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D157">
+  <conditionalFormatting sqref="E159">
     <cfRule type="expression" dxfId="455" priority="516" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E157">
+  <conditionalFormatting sqref="F159">
     <cfRule type="expression" dxfId="454" priority="515" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F157">
+  <conditionalFormatting sqref="T159">
     <cfRule type="expression" dxfId="453" priority="514" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T157">
+  <conditionalFormatting sqref="F160">
     <cfRule type="expression" dxfId="452" priority="513" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F158">
+  <conditionalFormatting sqref="D160">
     <cfRule type="expression" dxfId="451" priority="512" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D158">
+  <conditionalFormatting sqref="E160">
     <cfRule type="expression" dxfId="450" priority="511" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
+  <conditionalFormatting sqref="T160">
     <cfRule type="expression" dxfId="449" priority="510" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T158">
+  <conditionalFormatting sqref="U160">
     <cfRule type="expression" dxfId="448" priority="509" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U158">
+  <conditionalFormatting sqref="D161">
     <cfRule type="expression" dxfId="447" priority="508" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D159">
+  <conditionalFormatting sqref="E161">
     <cfRule type="expression" dxfId="446" priority="507" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
+  <conditionalFormatting sqref="F161">
     <cfRule type="expression" dxfId="445" priority="506" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F159">
+  <conditionalFormatting sqref="T161">
     <cfRule type="expression" dxfId="444" priority="505" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T159">
+  <conditionalFormatting sqref="F162">
     <cfRule type="expression" dxfId="443" priority="504" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F160">
+  <conditionalFormatting sqref="E163">
     <cfRule type="expression" dxfId="442" priority="503" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D160">
+  <conditionalFormatting sqref="F163">
     <cfRule type="expression" dxfId="441" priority="502" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
+  <conditionalFormatting sqref="F164">
     <cfRule type="expression" dxfId="440" priority="501" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T160">
+  <conditionalFormatting sqref="E164">
     <cfRule type="expression" dxfId="439" priority="500" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U160">
+  <conditionalFormatting sqref="T163">
     <cfRule type="expression" dxfId="438" priority="499" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D161">
+  <conditionalFormatting sqref="T164">
     <cfRule type="expression" dxfId="437" priority="498" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E161">
+  <conditionalFormatting sqref="U163">
     <cfRule type="expression" dxfId="436" priority="497" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F161">
+  <conditionalFormatting sqref="E165">
     <cfRule type="expression" dxfId="435" priority="496" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T161">
+  <conditionalFormatting sqref="F165">
     <cfRule type="expression" dxfId="434" priority="495" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F162">
+  <conditionalFormatting sqref="T165:T166">
     <cfRule type="expression" dxfId="433" priority="494" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
+  <conditionalFormatting sqref="E166">
     <cfRule type="expression" dxfId="432" priority="493" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F163">
+  <conditionalFormatting sqref="F166">
     <cfRule type="expression" dxfId="431" priority="492" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F164">
+  <conditionalFormatting sqref="F167">
     <cfRule type="expression" dxfId="430" priority="491" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
-    <cfRule type="expression" dxfId="429" priority="490" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T163">
+  <conditionalFormatting sqref="F170">
+    <cfRule type="expression" dxfId="429" priority="478" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E167">
     <cfRule type="expression" dxfId="428" priority="489" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T164">
+  <conditionalFormatting sqref="T167">
     <cfRule type="expression" dxfId="427" priority="488" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U163">
+  <conditionalFormatting sqref="U167">
     <cfRule type="expression" dxfId="426" priority="487" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E165">
+  <conditionalFormatting sqref="T168">
     <cfRule type="expression" dxfId="425" priority="486" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F165">
+  <conditionalFormatting sqref="E168">
     <cfRule type="expression" dxfId="424" priority="485" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T165:T166">
+  <conditionalFormatting sqref="F168">
     <cfRule type="expression" dxfId="423" priority="484" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E166">
+  <conditionalFormatting sqref="T169">
     <cfRule type="expression" dxfId="422" priority="483" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F166">
+  <conditionalFormatting sqref="E169">
     <cfRule type="expression" dxfId="421" priority="482" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F167">
+  <conditionalFormatting sqref="F169">
     <cfRule type="expression" dxfId="420" priority="481" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F170">
-    <cfRule type="expression" dxfId="419" priority="468" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E167">
+  <conditionalFormatting sqref="T170">
+    <cfRule type="expression" dxfId="419" priority="480" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E170">
     <cfRule type="expression" dxfId="418" priority="479" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T167">
-    <cfRule type="expression" dxfId="417" priority="478" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U167">
-    <cfRule type="expression" dxfId="416" priority="477" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T168">
-    <cfRule type="expression" dxfId="415" priority="476" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
+  <conditionalFormatting sqref="T171">
+    <cfRule type="expression" dxfId="417" priority="477" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E171">
+    <cfRule type="expression" dxfId="416" priority="476" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F176">
+    <cfRule type="expression" dxfId="415" priority="460" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F171">
     <cfRule type="expression" dxfId="414" priority="475" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F168">
+  <conditionalFormatting sqref="H1:J1">
     <cfRule type="expression" dxfId="413" priority="474" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T169">
-    <cfRule type="expression" dxfId="412" priority="473" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E169">
-    <cfRule type="expression" dxfId="411" priority="472" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F169">
-    <cfRule type="expression" dxfId="410" priority="471" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T170">
-    <cfRule type="expression" dxfId="409" priority="470" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E170">
-    <cfRule type="expression" dxfId="408" priority="469" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T171">
-    <cfRule type="expression" dxfId="407" priority="467" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E171">
-    <cfRule type="expression" dxfId="406" priority="466" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F176">
-    <cfRule type="expression" dxfId="405" priority="450" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F171">
+  <conditionalFormatting sqref="U176">
+    <cfRule type="expression" dxfId="412" priority="457" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F173">
+    <cfRule type="expression" dxfId="411" priority="467" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T172">
+    <cfRule type="expression" dxfId="410" priority="472" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172">
+    <cfRule type="expression" dxfId="409" priority="471" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="expression" dxfId="408" priority="470" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T173">
+    <cfRule type="expression" dxfId="407" priority="469" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E173">
+    <cfRule type="expression" dxfId="406" priority="468" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T174">
+    <cfRule type="expression" dxfId="405" priority="466" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E174">
     <cfRule type="expression" dxfId="404" priority="465" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:J1">
+  <conditionalFormatting sqref="F174">
     <cfRule type="expression" dxfId="403" priority="464" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U176">
-    <cfRule type="expression" dxfId="402" priority="447" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F173">
-    <cfRule type="expression" dxfId="401" priority="457" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T172">
-    <cfRule type="expression" dxfId="400" priority="462" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172">
-    <cfRule type="expression" dxfId="399" priority="461" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="expression" dxfId="398" priority="460" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T173">
-    <cfRule type="expression" dxfId="397" priority="459" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E173">
-    <cfRule type="expression" dxfId="396" priority="458" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T174">
-    <cfRule type="expression" dxfId="395" priority="456" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E174">
-    <cfRule type="expression" dxfId="394" priority="455" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F174">
-    <cfRule type="expression" dxfId="393" priority="454" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T175">
-    <cfRule type="expression" dxfId="392" priority="453" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="463" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E175">
-    <cfRule type="expression" dxfId="391" priority="452" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="462" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F175">
-    <cfRule type="expression" dxfId="390" priority="451" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="461" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="expression" dxfId="389" priority="449" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="459" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T176">
-    <cfRule type="expression" dxfId="388" priority="448" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="458" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T177">
+    <cfRule type="expression" dxfId="397" priority="456" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E177">
+    <cfRule type="expression" dxfId="396" priority="455" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F177">
+    <cfRule type="expression" dxfId="395" priority="454" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T178">
+    <cfRule type="expression" dxfId="394" priority="453" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E178">
+    <cfRule type="expression" dxfId="393" priority="452" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F178">
+    <cfRule type="expression" dxfId="392" priority="451" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T179">
+    <cfRule type="expression" dxfId="391" priority="450" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E179">
+    <cfRule type="expression" dxfId="390" priority="449" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F179">
+    <cfRule type="expression" dxfId="389" priority="448" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T180">
+    <cfRule type="expression" dxfId="388" priority="447" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E180">
     <cfRule type="expression" dxfId="387" priority="446" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E177">
+  <conditionalFormatting sqref="F180">
     <cfRule type="expression" dxfId="386" priority="445" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F177">
-    <cfRule type="expression" dxfId="385" priority="444" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T178">
+  <conditionalFormatting sqref="U181">
+    <cfRule type="expression" dxfId="385" priority="440" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E181">
     <cfRule type="expression" dxfId="384" priority="443" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E178">
+  <conditionalFormatting sqref="F181">
     <cfRule type="expression" dxfId="383" priority="442" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F178">
+  <conditionalFormatting sqref="T181">
     <cfRule type="expression" dxfId="382" priority="441" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T179">
-    <cfRule type="expression" dxfId="381" priority="440" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E179">
+  <conditionalFormatting sqref="U182">
+    <cfRule type="expression" dxfId="381" priority="436" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E182">
     <cfRule type="expression" dxfId="380" priority="439" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F179">
+  <conditionalFormatting sqref="F182">
     <cfRule type="expression" dxfId="379" priority="438" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T180">
+  <conditionalFormatting sqref="T182">
     <cfRule type="expression" dxfId="378" priority="437" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E180">
-    <cfRule type="expression" dxfId="377" priority="436" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F180">
+  <conditionalFormatting sqref="U183">
+    <cfRule type="expression" dxfId="377" priority="432" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E183">
     <cfRule type="expression" dxfId="376" priority="435" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U181">
-    <cfRule type="expression" dxfId="375" priority="430" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E181">
+  <conditionalFormatting sqref="F183">
+    <cfRule type="expression" dxfId="375" priority="434" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T183">
     <cfRule type="expression" dxfId="374" priority="433" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F181">
-    <cfRule type="expression" dxfId="373" priority="432" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T181">
+  <conditionalFormatting sqref="U184">
+    <cfRule type="expression" dxfId="373" priority="428" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E184">
     <cfRule type="expression" dxfId="372" priority="431" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U182">
-    <cfRule type="expression" dxfId="371" priority="426" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E182">
+  <conditionalFormatting sqref="F184">
+    <cfRule type="expression" dxfId="371" priority="430" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T184">
     <cfRule type="expression" dxfId="370" priority="429" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F182">
-    <cfRule type="expression" dxfId="369" priority="428" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T182">
+  <conditionalFormatting sqref="U185">
+    <cfRule type="expression" dxfId="369" priority="424" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E185">
     <cfRule type="expression" dxfId="368" priority="427" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U183">
-    <cfRule type="expression" dxfId="367" priority="422" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E183">
+  <conditionalFormatting sqref="F185">
+    <cfRule type="expression" dxfId="367" priority="426" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T185">
     <cfRule type="expression" dxfId="366" priority="425" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F183">
-    <cfRule type="expression" dxfId="365" priority="424" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T183">
+  <conditionalFormatting sqref="U186">
+    <cfRule type="expression" dxfId="365" priority="420" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E186">
     <cfRule type="expression" dxfId="364" priority="423" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U184">
-    <cfRule type="expression" dxfId="363" priority="418" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E184">
+  <conditionalFormatting sqref="F186">
+    <cfRule type="expression" dxfId="363" priority="422" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T186">
     <cfRule type="expression" dxfId="362" priority="421" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F184">
-    <cfRule type="expression" dxfId="361" priority="420" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T184">
+  <conditionalFormatting sqref="U187">
+    <cfRule type="expression" dxfId="361" priority="416" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E187">
     <cfRule type="expression" dxfId="360" priority="419" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U185">
-    <cfRule type="expression" dxfId="359" priority="414" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E185">
+  <conditionalFormatting sqref="F187">
+    <cfRule type="expression" dxfId="359" priority="418" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T187">
     <cfRule type="expression" dxfId="358" priority="417" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F185">
-    <cfRule type="expression" dxfId="357" priority="416" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T185">
+  <conditionalFormatting sqref="U188">
+    <cfRule type="expression" dxfId="357" priority="412" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E188">
     <cfRule type="expression" dxfId="356" priority="415" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U186">
-    <cfRule type="expression" dxfId="355" priority="410" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E186">
+  <conditionalFormatting sqref="F188">
+    <cfRule type="expression" dxfId="355" priority="414" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T188">
     <cfRule type="expression" dxfId="354" priority="413" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F186">
-    <cfRule type="expression" dxfId="353" priority="412" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T186">
-    <cfRule type="expression" dxfId="352" priority="411" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U187">
-    <cfRule type="expression" dxfId="351" priority="406" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E187">
-    <cfRule type="expression" dxfId="350" priority="409" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F187">
-    <cfRule type="expression" dxfId="349" priority="408" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T187">
+  <conditionalFormatting sqref="F190">
+    <cfRule type="expression" dxfId="353" priority="408" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U190">
+    <cfRule type="expression" dxfId="352" priority="405" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T189">
+    <cfRule type="expression" dxfId="351" priority="411" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E189">
+    <cfRule type="expression" dxfId="350" priority="410" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F189">
+    <cfRule type="expression" dxfId="349" priority="409" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E190">
     <cfRule type="expression" dxfId="348" priority="407" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U188">
-    <cfRule type="expression" dxfId="347" priority="402" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E188">
-    <cfRule type="expression" dxfId="346" priority="405" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F188">
-    <cfRule type="expression" dxfId="345" priority="404" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T188">
-    <cfRule type="expression" dxfId="344" priority="403" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F190">
-    <cfRule type="expression" dxfId="343" priority="398" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U190">
-    <cfRule type="expression" dxfId="342" priority="395" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T189">
-    <cfRule type="expression" dxfId="341" priority="401" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E189">
-    <cfRule type="expression" dxfId="340" priority="400" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F189">
-    <cfRule type="expression" dxfId="339" priority="399" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E190">
-    <cfRule type="expression" dxfId="338" priority="397" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T190">
-    <cfRule type="expression" dxfId="337" priority="396" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="406" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T191">
-    <cfRule type="expression" dxfId="336" priority="394" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="404" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E191">
-    <cfRule type="expression" dxfId="335" priority="393" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="403" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191">
-    <cfRule type="expression" dxfId="334" priority="392" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="402" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T192">
-    <cfRule type="expression" dxfId="333" priority="366" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="376" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E192">
-    <cfRule type="expression" dxfId="332" priority="365" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="375" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192">
-    <cfRule type="expression" dxfId="331" priority="364" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="374" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T193">
+    <cfRule type="expression" dxfId="340" priority="373" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E193">
+    <cfRule type="expression" dxfId="339" priority="372" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F193">
+    <cfRule type="expression" dxfId="338" priority="371" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T194">
+    <cfRule type="expression" dxfId="337" priority="370" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E194">
+    <cfRule type="expression" dxfId="336" priority="369" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194">
+    <cfRule type="expression" dxfId="335" priority="368" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U195">
+    <cfRule type="expression" dxfId="334" priority="364" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E195">
+    <cfRule type="expression" dxfId="333" priority="367" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195">
+    <cfRule type="expression" dxfId="332" priority="366" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T195">
+    <cfRule type="expression" dxfId="331" priority="365" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T196">
     <cfRule type="expression" dxfId="330" priority="363" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E193">
+  <conditionalFormatting sqref="E196">
     <cfRule type="expression" dxfId="329" priority="362" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F193">
+  <conditionalFormatting sqref="F196">
     <cfRule type="expression" dxfId="328" priority="361" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T194">
+  <conditionalFormatting sqref="T197">
     <cfRule type="expression" dxfId="327" priority="360" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E194">
+  <conditionalFormatting sqref="E197">
     <cfRule type="expression" dxfId="326" priority="359" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
+  <conditionalFormatting sqref="F197">
     <cfRule type="expression" dxfId="325" priority="358" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U195">
-    <cfRule type="expression" dxfId="324" priority="354" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E195">
-    <cfRule type="expression" dxfId="323" priority="357" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195">
-    <cfRule type="expression" dxfId="322" priority="356" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T195">
-    <cfRule type="expression" dxfId="321" priority="355" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T196">
+  <conditionalFormatting sqref="T198">
+    <cfRule type="expression" dxfId="324" priority="357" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E198">
+    <cfRule type="expression" dxfId="323" priority="356" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F198">
+    <cfRule type="expression" dxfId="322" priority="355" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T199">
+    <cfRule type="expression" dxfId="321" priority="354" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E199">
     <cfRule type="expression" dxfId="320" priority="353" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E196">
+  <conditionalFormatting sqref="F199">
     <cfRule type="expression" dxfId="319" priority="352" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F196">
-    <cfRule type="expression" dxfId="318" priority="351" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T197">
-    <cfRule type="expression" dxfId="317" priority="350" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E197">
-    <cfRule type="expression" dxfId="316" priority="349" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F197">
-    <cfRule type="expression" dxfId="315" priority="348" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T198">
-    <cfRule type="expression" dxfId="314" priority="347" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E198">
-    <cfRule type="expression" dxfId="313" priority="346" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F198">
-    <cfRule type="expression" dxfId="312" priority="345" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T199">
-    <cfRule type="expression" dxfId="311" priority="344" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E199">
-    <cfRule type="expression" dxfId="310" priority="343" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F199">
-    <cfRule type="expression" dxfId="309" priority="342" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U200">
-    <cfRule type="expression" dxfId="308" priority="334" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="344" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E200">
-    <cfRule type="expression" dxfId="307" priority="337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="347" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F200">
-    <cfRule type="expression" dxfId="306" priority="336" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="346" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T200">
+    <cfRule type="expression" dxfId="315" priority="345" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U201">
+    <cfRule type="expression" dxfId="314" priority="340" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E201">
+    <cfRule type="expression" dxfId="313" priority="343" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F201">
+    <cfRule type="expression" dxfId="312" priority="342" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T201:T205">
+    <cfRule type="expression" dxfId="311" priority="341" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U202">
+    <cfRule type="expression" dxfId="310" priority="336" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E202">
+    <cfRule type="expression" dxfId="309" priority="339" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F202">
+    <cfRule type="expression" dxfId="308" priority="338" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E213">
+    <cfRule type="expression" dxfId="307" priority="301" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U203">
+    <cfRule type="expression" dxfId="306" priority="332" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E203">
     <cfRule type="expression" dxfId="305" priority="335" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U201">
-    <cfRule type="expression" dxfId="304" priority="330" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E201">
-    <cfRule type="expression" dxfId="303" priority="333" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F201">
-    <cfRule type="expression" dxfId="302" priority="332" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T201:T205">
+  <conditionalFormatting sqref="F203">
+    <cfRule type="expression" dxfId="304" priority="334" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T215">
+    <cfRule type="expression" dxfId="303" priority="297" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U204">
+    <cfRule type="expression" dxfId="302" priority="328" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E204">
     <cfRule type="expression" dxfId="301" priority="331" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U202">
-    <cfRule type="expression" dxfId="300" priority="326" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E202">
-    <cfRule type="expression" dxfId="299" priority="329" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F202">
-    <cfRule type="expression" dxfId="298" priority="328" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E213">
-    <cfRule type="expression" dxfId="297" priority="291" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U203">
-    <cfRule type="expression" dxfId="296" priority="322" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E203">
-    <cfRule type="expression" dxfId="295" priority="325" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F203">
-    <cfRule type="expression" dxfId="294" priority="324" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T215">
-    <cfRule type="expression" dxfId="293" priority="287" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U204">
-    <cfRule type="expression" dxfId="292" priority="318" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E204">
-    <cfRule type="expression" dxfId="291" priority="321" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F204">
-    <cfRule type="expression" dxfId="290" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="330" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E216">
-    <cfRule type="expression" dxfId="289" priority="283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="293" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U205">
-    <cfRule type="expression" dxfId="288" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="324" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E205">
-    <cfRule type="expression" dxfId="287" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="327" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F205">
-    <cfRule type="expression" dxfId="286" priority="316" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="326" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T206">
+    <cfRule type="expression" dxfId="295" priority="323" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E206">
+    <cfRule type="expression" dxfId="294" priority="322" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F206">
+    <cfRule type="expression" dxfId="293" priority="321" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T207">
+    <cfRule type="expression" dxfId="292" priority="320" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E207">
+    <cfRule type="expression" dxfId="291" priority="319" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F207">
+    <cfRule type="expression" dxfId="290" priority="318" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T208">
+    <cfRule type="expression" dxfId="289" priority="317" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E208">
+    <cfRule type="expression" dxfId="288" priority="316" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F208:F209">
+    <cfRule type="expression" dxfId="287" priority="315" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T209">
+    <cfRule type="expression" dxfId="286" priority="314" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E209">
     <cfRule type="expression" dxfId="285" priority="313" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E206">
-    <cfRule type="expression" dxfId="284" priority="312" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F206">
-    <cfRule type="expression" dxfId="283" priority="311" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T207">
-    <cfRule type="expression" dxfId="282" priority="310" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E207">
-    <cfRule type="expression" dxfId="281" priority="309" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F207">
-    <cfRule type="expression" dxfId="280" priority="308" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T208">
-    <cfRule type="expression" dxfId="279" priority="307" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E208">
-    <cfRule type="expression" dxfId="278" priority="306" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F208:F209">
-    <cfRule type="expression" dxfId="277" priority="305" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T209">
-    <cfRule type="expression" dxfId="276" priority="304" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E209">
-    <cfRule type="expression" dxfId="275" priority="303" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T210">
-    <cfRule type="expression" dxfId="274" priority="301" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="311" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E210">
-    <cfRule type="expression" dxfId="273" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="310" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F210">
-    <cfRule type="expression" dxfId="272" priority="299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="309" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T211">
-    <cfRule type="expression" dxfId="271" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="308" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E211">
-    <cfRule type="expression" dxfId="270" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="307" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F211">
-    <cfRule type="expression" dxfId="269" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="306" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T212">
-    <cfRule type="expression" dxfId="268" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="305" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E212">
-    <cfRule type="expression" dxfId="267" priority="294" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="304" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F212:F213">
-    <cfRule type="expression" dxfId="266" priority="293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="303" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T213">
-    <cfRule type="expression" dxfId="265" priority="292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="302" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T214">
-    <cfRule type="expression" dxfId="264" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="300" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E214">
-    <cfRule type="expression" dxfId="263" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="299" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F214">
-    <cfRule type="expression" dxfId="262" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="298" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E215">
-    <cfRule type="expression" dxfId="261" priority="286" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="296" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F215">
-    <cfRule type="expression" dxfId="260" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="295" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T216">
-    <cfRule type="expression" dxfId="259" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="294" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F216:F217">
-    <cfRule type="expression" dxfId="258" priority="282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="292" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T217">
-    <cfRule type="expression" dxfId="257" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="291" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E217">
-    <cfRule type="expression" dxfId="256" priority="280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="290" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E221">
+    <cfRule type="expression" dxfId="265" priority="287" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F221">
+    <cfRule type="expression" dxfId="264" priority="286" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E222">
+    <cfRule type="expression" dxfId="263" priority="285" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F222">
+    <cfRule type="expression" dxfId="262" priority="284" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E223">
+    <cfRule type="expression" dxfId="261" priority="283" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F223">
+    <cfRule type="expression" dxfId="260" priority="282" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E220">
+    <cfRule type="expression" dxfId="259" priority="281" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F220">
+    <cfRule type="expression" dxfId="258" priority="280" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E218">
+    <cfRule type="expression" dxfId="257" priority="279" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F218">
+    <cfRule type="expression" dxfId="256" priority="278" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E219">
     <cfRule type="expression" dxfId="255" priority="277" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F221">
+  <conditionalFormatting sqref="F219">
     <cfRule type="expression" dxfId="254" priority="276" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E222">
+  <conditionalFormatting sqref="E224">
     <cfRule type="expression" dxfId="253" priority="275" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F222">
+  <conditionalFormatting sqref="F224">
     <cfRule type="expression" dxfId="252" priority="274" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E223">
+  <conditionalFormatting sqref="E225">
     <cfRule type="expression" dxfId="251" priority="273" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F223">
+  <conditionalFormatting sqref="F225">
     <cfRule type="expression" dxfId="250" priority="272" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E220">
+  <conditionalFormatting sqref="E226:E227">
     <cfRule type="expression" dxfId="249" priority="271" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F220">
+  <conditionalFormatting sqref="F226">
     <cfRule type="expression" dxfId="248" priority="270" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E218">
+  <conditionalFormatting sqref="F227">
     <cfRule type="expression" dxfId="247" priority="269" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F218">
-    <cfRule type="expression" dxfId="246" priority="268" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E219">
-    <cfRule type="expression" dxfId="245" priority="267" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F219">
-    <cfRule type="expression" dxfId="244" priority="266" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E224">
-    <cfRule type="expression" dxfId="243" priority="265" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F224">
-    <cfRule type="expression" dxfId="242" priority="264" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E225">
-    <cfRule type="expression" dxfId="241" priority="263" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F225">
-    <cfRule type="expression" dxfId="240" priority="262" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E226:E227">
+  <conditionalFormatting sqref="U234">
+    <cfRule type="expression" dxfId="246" priority="246" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U228">
+    <cfRule type="expression" dxfId="245" priority="265" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E228">
+    <cfRule type="expression" dxfId="244" priority="267" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F228">
+    <cfRule type="expression" dxfId="243" priority="266" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E237">
+    <cfRule type="expression" dxfId="242" priority="240" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E229">
+    <cfRule type="expression" dxfId="241" priority="264" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F229">
+    <cfRule type="expression" dxfId="240" priority="263" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T230:T231">
     <cfRule type="expression" dxfId="239" priority="261" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F226">
-    <cfRule type="expression" dxfId="238" priority="260" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F227">
-    <cfRule type="expression" dxfId="237" priority="259" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U234">
-    <cfRule type="expression" dxfId="236" priority="236" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U228">
-    <cfRule type="expression" dxfId="235" priority="255" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E228">
+  <conditionalFormatting sqref="U230">
+    <cfRule type="expression" dxfId="238" priority="258" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E230">
+    <cfRule type="expression" dxfId="237" priority="260" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F230">
+    <cfRule type="expression" dxfId="236" priority="259" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F241">
+    <cfRule type="expression" dxfId="235" priority="233" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E231">
     <cfRule type="expression" dxfId="234" priority="257" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F228">
+  <conditionalFormatting sqref="F231">
     <cfRule type="expression" dxfId="233" priority="256" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E237">
-    <cfRule type="expression" dxfId="232" priority="230" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E229">
+  <conditionalFormatting sqref="U232">
+    <cfRule type="expression" dxfId="232" priority="252" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E232">
     <cfRule type="expression" dxfId="231" priority="254" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F229">
+  <conditionalFormatting sqref="F232">
     <cfRule type="expression" dxfId="230" priority="253" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T230:T231">
+  <conditionalFormatting sqref="E233">
     <cfRule type="expression" dxfId="229" priority="251" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U230">
-    <cfRule type="expression" dxfId="228" priority="248" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E230">
-    <cfRule type="expression" dxfId="227" priority="250" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F230">
-    <cfRule type="expression" dxfId="226" priority="249" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F241">
-    <cfRule type="expression" dxfId="225" priority="223" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E231">
-    <cfRule type="expression" dxfId="224" priority="247" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F231">
-    <cfRule type="expression" dxfId="223" priority="246" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U232">
-    <cfRule type="expression" dxfId="222" priority="242" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E232">
-    <cfRule type="expression" dxfId="221" priority="244" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F232">
-    <cfRule type="expression" dxfId="220" priority="243" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E233">
-    <cfRule type="expression" dxfId="219" priority="241" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F233">
-    <cfRule type="expression" dxfId="218" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="250" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T234:T235">
-    <cfRule type="expression" dxfId="217" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="249" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E234">
-    <cfRule type="expression" dxfId="216" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="248" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F234">
-    <cfRule type="expression" dxfId="215" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="247" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E235">
-    <cfRule type="expression" dxfId="214" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="245" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="expression" dxfId="213" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="244" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U236">
+    <cfRule type="expression" dxfId="222" priority="241" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E236">
+    <cfRule type="expression" dxfId="221" priority="243" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F236">
+    <cfRule type="expression" dxfId="220" priority="242" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F237">
+    <cfRule type="expression" dxfId="219" priority="239" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T240:T241">
+    <cfRule type="expression" dxfId="218" priority="238" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U240">
+    <cfRule type="expression" dxfId="217" priority="235" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E240">
+    <cfRule type="expression" dxfId="216" priority="237" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F240">
+    <cfRule type="expression" dxfId="215" priority="236" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E241 E243 E245">
+    <cfRule type="expression" dxfId="214" priority="234" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E238">
+    <cfRule type="expression" dxfId="213" priority="232" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F238">
     <cfRule type="expression" dxfId="212" priority="231" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E236">
-    <cfRule type="expression" dxfId="211" priority="233" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F236">
-    <cfRule type="expression" dxfId="210" priority="232" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F237">
-    <cfRule type="expression" dxfId="209" priority="229" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T240:T241">
-    <cfRule type="expression" dxfId="208" priority="228" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U240">
-    <cfRule type="expression" dxfId="207" priority="225" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E240">
-    <cfRule type="expression" dxfId="206" priority="227" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F240">
-    <cfRule type="expression" dxfId="205" priority="226" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E241 E243 E245">
-    <cfRule type="expression" dxfId="204" priority="224" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E238">
-    <cfRule type="expression" dxfId="203" priority="222" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F238">
-    <cfRule type="expression" dxfId="202" priority="221" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E239">
-    <cfRule type="expression" dxfId="201" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="230" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F239">
-    <cfRule type="expression" dxfId="200" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="229" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F242:F243">
-    <cfRule type="expression" dxfId="199" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="226" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F245">
-    <cfRule type="expression" dxfId="198" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="220" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E242 E244 E246">
-    <cfRule type="expression" dxfId="197" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="227" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F244">
-    <cfRule type="expression" dxfId="196" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="223" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="expression" dxfId="195" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="217" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F251">
-    <cfRule type="expression" dxfId="194" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="201" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E249">
-    <cfRule type="expression" dxfId="193" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="198" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E247">
-    <cfRule type="expression" dxfId="192" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="210" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F247">
-    <cfRule type="expression" dxfId="191" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="208" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E248">
-    <cfRule type="expression" dxfId="190" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="207" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F248">
-    <cfRule type="expression" dxfId="189" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="205" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E250">
+    <cfRule type="expression" dxfId="198" priority="200" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E251">
+    <cfRule type="expression" dxfId="197" priority="203" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F250">
+    <cfRule type="expression" dxfId="196" priority="199" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F249">
+    <cfRule type="expression" dxfId="195" priority="197" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E252">
+    <cfRule type="expression" dxfId="194" priority="196" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F252">
+    <cfRule type="expression" dxfId="193" priority="195" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E253">
+    <cfRule type="expression" dxfId="192" priority="194" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F253">
+    <cfRule type="expression" dxfId="191" priority="193" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E254">
+    <cfRule type="expression" dxfId="190" priority="192" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F254">
+    <cfRule type="expression" dxfId="189" priority="191" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E255">
     <cfRule type="expression" dxfId="188" priority="190" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E251">
-    <cfRule type="expression" dxfId="187" priority="193" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F250">
-    <cfRule type="expression" dxfId="186" priority="189" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F249">
+  <conditionalFormatting sqref="F255">
+    <cfRule type="expression" dxfId="187" priority="189" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E256">
+    <cfRule type="expression" dxfId="186" priority="188" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F256">
     <cfRule type="expression" dxfId="185" priority="187" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E252">
+  <conditionalFormatting sqref="E257">
     <cfRule type="expression" dxfId="184" priority="186" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F252">
+  <conditionalFormatting sqref="F257">
     <cfRule type="expression" dxfId="183" priority="185" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E253">
+  <conditionalFormatting sqref="E258">
     <cfRule type="expression" dxfId="182" priority="184" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F253">
+  <conditionalFormatting sqref="F258">
     <cfRule type="expression" dxfId="181" priority="183" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E254">
+  <conditionalFormatting sqref="E259">
     <cfRule type="expression" dxfId="180" priority="182" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F254">
+  <conditionalFormatting sqref="F259">
     <cfRule type="expression" dxfId="179" priority="181" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E255">
+  <conditionalFormatting sqref="E260">
     <cfRule type="expression" dxfId="178" priority="180" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F255">
+  <conditionalFormatting sqref="F260">
     <cfRule type="expression" dxfId="177" priority="179" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E256">
+  <conditionalFormatting sqref="E261">
     <cfRule type="expression" dxfId="176" priority="178" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F256">
+  <conditionalFormatting sqref="F261">
     <cfRule type="expression" dxfId="175" priority="177" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E257">
+  <conditionalFormatting sqref="E262">
     <cfRule type="expression" dxfId="174" priority="176" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F257">
+  <conditionalFormatting sqref="F262">
     <cfRule type="expression" dxfId="173" priority="175" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E258">
+  <conditionalFormatting sqref="E263">
     <cfRule type="expression" dxfId="172" priority="174" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F258">
+  <conditionalFormatting sqref="F263">
     <cfRule type="expression" dxfId="171" priority="173" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E259">
+  <conditionalFormatting sqref="E264">
     <cfRule type="expression" dxfId="170" priority="172" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F259">
+  <conditionalFormatting sqref="F264">
     <cfRule type="expression" dxfId="169" priority="171" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E260">
+  <conditionalFormatting sqref="E265">
     <cfRule type="expression" dxfId="168" priority="170" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F260">
+  <conditionalFormatting sqref="F265">
     <cfRule type="expression" dxfId="167" priority="169" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E261">
+  <conditionalFormatting sqref="E266">
     <cfRule type="expression" dxfId="166" priority="168" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F261">
+  <conditionalFormatting sqref="F266">
     <cfRule type="expression" dxfId="165" priority="167" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E262">
+  <conditionalFormatting sqref="E267">
     <cfRule type="expression" dxfId="164" priority="166" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F262">
+  <conditionalFormatting sqref="F267">
     <cfRule type="expression" dxfId="163" priority="165" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E263">
+  <conditionalFormatting sqref="E268">
     <cfRule type="expression" dxfId="162" priority="164" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263">
+  <conditionalFormatting sqref="F268">
     <cfRule type="expression" dxfId="161" priority="163" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E264">
+  <conditionalFormatting sqref="E269">
     <cfRule type="expression" dxfId="160" priority="162" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F264">
+  <conditionalFormatting sqref="F269">
     <cfRule type="expression" dxfId="159" priority="161" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E265">
+  <conditionalFormatting sqref="E270">
     <cfRule type="expression" dxfId="158" priority="160" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265">
+  <conditionalFormatting sqref="F270">
     <cfRule type="expression" dxfId="157" priority="159" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E266">
+  <conditionalFormatting sqref="E271">
     <cfRule type="expression" dxfId="156" priority="158" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F266">
+  <conditionalFormatting sqref="F271">
     <cfRule type="expression" dxfId="155" priority="157" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E267">
+  <conditionalFormatting sqref="E272">
     <cfRule type="expression" dxfId="154" priority="156" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F267">
+  <conditionalFormatting sqref="F272">
     <cfRule type="expression" dxfId="153" priority="155" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E268">
+  <conditionalFormatting sqref="E273">
     <cfRule type="expression" dxfId="152" priority="154" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F268">
+  <conditionalFormatting sqref="F273">
     <cfRule type="expression" dxfId="151" priority="153" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E269">
+  <conditionalFormatting sqref="E274:E276">
     <cfRule type="expression" dxfId="150" priority="152" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F269">
+  <conditionalFormatting sqref="F274:F276">
     <cfRule type="expression" dxfId="149" priority="151" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E270">
+  <conditionalFormatting sqref="E277">
     <cfRule type="expression" dxfId="148" priority="150" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F270">
+  <conditionalFormatting sqref="F277">
     <cfRule type="expression" dxfId="147" priority="149" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E271">
+  <conditionalFormatting sqref="E278">
     <cfRule type="expression" dxfId="146" priority="148" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F271">
+  <conditionalFormatting sqref="F278">
     <cfRule type="expression" dxfId="145" priority="147" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E272">
+  <conditionalFormatting sqref="E279">
     <cfRule type="expression" dxfId="144" priority="146" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F272">
+  <conditionalFormatting sqref="F279">
     <cfRule type="expression" dxfId="143" priority="145" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E273">
+  <conditionalFormatting sqref="E280">
     <cfRule type="expression" dxfId="142" priority="144" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F273">
+  <conditionalFormatting sqref="F280">
     <cfRule type="expression" dxfId="141" priority="143" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E274:E276">
+  <conditionalFormatting sqref="E281">
     <cfRule type="expression" dxfId="140" priority="142" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F274:F276">
+  <conditionalFormatting sqref="F281">
     <cfRule type="expression" dxfId="139" priority="141" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E277">
+  <conditionalFormatting sqref="E283">
     <cfRule type="expression" dxfId="138" priority="140" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F277">
+  <conditionalFormatting sqref="F283">
     <cfRule type="expression" dxfId="137" priority="139" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E278">
+  <conditionalFormatting sqref="E284">
     <cfRule type="expression" dxfId="136" priority="138" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F278">
+  <conditionalFormatting sqref="F284">
     <cfRule type="expression" dxfId="135" priority="137" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E279">
+  <conditionalFormatting sqref="E285">
     <cfRule type="expression" dxfId="134" priority="136" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F279">
+  <conditionalFormatting sqref="F285">
     <cfRule type="expression" dxfId="133" priority="135" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E280">
+  <conditionalFormatting sqref="E286">
     <cfRule type="expression" dxfId="132" priority="134" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F280">
+  <conditionalFormatting sqref="F286">
     <cfRule type="expression" dxfId="131" priority="133" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E281">
+  <conditionalFormatting sqref="E287">
     <cfRule type="expression" dxfId="130" priority="132" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F281">
+  <conditionalFormatting sqref="F287">
     <cfRule type="expression" dxfId="129" priority="131" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E283">
+  <conditionalFormatting sqref="E288">
     <cfRule type="expression" dxfId="128" priority="130" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F283">
+  <conditionalFormatting sqref="F288">
     <cfRule type="expression" dxfId="127" priority="129" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E284">
+  <conditionalFormatting sqref="E289">
     <cfRule type="expression" dxfId="126" priority="128" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F284">
+  <conditionalFormatting sqref="F289">
     <cfRule type="expression" dxfId="125" priority="127" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E285">
+  <conditionalFormatting sqref="E290">
     <cfRule type="expression" dxfId="124" priority="126" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F285">
+  <conditionalFormatting sqref="F290">
     <cfRule type="expression" dxfId="123" priority="125" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E286">
+  <conditionalFormatting sqref="E291">
     <cfRule type="expression" dxfId="122" priority="124" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F286">
+  <conditionalFormatting sqref="F291">
     <cfRule type="expression" dxfId="121" priority="123" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E287">
+  <conditionalFormatting sqref="E292">
     <cfRule type="expression" dxfId="120" priority="122" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F287">
+  <conditionalFormatting sqref="F292">
     <cfRule type="expression" dxfId="119" priority="121" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E288">
+  <conditionalFormatting sqref="E293">
     <cfRule type="expression" dxfId="118" priority="120" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F288">
+  <conditionalFormatting sqref="F293">
     <cfRule type="expression" dxfId="117" priority="119" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E289">
+  <conditionalFormatting sqref="E294">
     <cfRule type="expression" dxfId="116" priority="118" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F289">
+  <conditionalFormatting sqref="F294">
     <cfRule type="expression" dxfId="115" priority="117" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E290">
+  <conditionalFormatting sqref="E295:E296">
     <cfRule type="expression" dxfId="114" priority="116" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F290">
+  <conditionalFormatting sqref="F295:F296">
     <cfRule type="expression" dxfId="113" priority="115" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E291">
+  <conditionalFormatting sqref="E297">
     <cfRule type="expression" dxfId="112" priority="114" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F291">
+  <conditionalFormatting sqref="F297">
     <cfRule type="expression" dxfId="111" priority="113" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E292">
+  <conditionalFormatting sqref="E298">
     <cfRule type="expression" dxfId="110" priority="112" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F292">
+  <conditionalFormatting sqref="F298">
     <cfRule type="expression" dxfId="109" priority="111" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E293">
+  <conditionalFormatting sqref="E299">
     <cfRule type="expression" dxfId="108" priority="110" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F293">
+  <conditionalFormatting sqref="F299">
     <cfRule type="expression" dxfId="107" priority="109" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E294">
+  <conditionalFormatting sqref="E300">
     <cfRule type="expression" dxfId="106" priority="108" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F294">
+  <conditionalFormatting sqref="F300">
     <cfRule type="expression" dxfId="105" priority="107" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E295:E296">
+  <conditionalFormatting sqref="E301">
     <cfRule type="expression" dxfId="104" priority="106" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F295:F296">
+  <conditionalFormatting sqref="F301">
     <cfRule type="expression" dxfId="103" priority="105" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E297">
+  <conditionalFormatting sqref="E302">
     <cfRule type="expression" dxfId="102" priority="104" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F297">
+  <conditionalFormatting sqref="F302">
     <cfRule type="expression" dxfId="101" priority="103" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E298">
+  <conditionalFormatting sqref="E303">
     <cfRule type="expression" dxfId="100" priority="102" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F298">
+  <conditionalFormatting sqref="F303">
     <cfRule type="expression" dxfId="99" priority="101" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E299">
-    <cfRule type="expression" dxfId="98" priority="100" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F299">
-    <cfRule type="expression" dxfId="97" priority="99" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E300">
-    <cfRule type="expression" dxfId="96" priority="98" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F300">
-    <cfRule type="expression" dxfId="95" priority="97" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E301">
-    <cfRule type="expression" dxfId="94" priority="96" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F301">
-    <cfRule type="expression" dxfId="93" priority="95" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E302">
-    <cfRule type="expression" dxfId="92" priority="94" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F302">
-    <cfRule type="expression" dxfId="91" priority="93" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E303">
-    <cfRule type="expression" dxfId="90" priority="92" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F303">
-    <cfRule type="expression" dxfId="89" priority="91" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E304">
+    <cfRule type="expression" dxfId="98" priority="98" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F304">
+    <cfRule type="expression" dxfId="97" priority="97" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E305">
+    <cfRule type="expression" dxfId="96" priority="96" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F305">
+    <cfRule type="expression" dxfId="95" priority="95" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E306">
+    <cfRule type="expression" dxfId="94" priority="94" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F306">
+    <cfRule type="expression" dxfId="93" priority="93" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E307">
+    <cfRule type="expression" dxfId="92" priority="92" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F307">
+    <cfRule type="expression" dxfId="91" priority="91" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E308">
+    <cfRule type="expression" dxfId="90" priority="90" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F308">
+    <cfRule type="expression" dxfId="89" priority="89" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E309">
     <cfRule type="expression" dxfId="88" priority="88" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F304">
+  <conditionalFormatting sqref="F309">
     <cfRule type="expression" dxfId="87" priority="87" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E305">
+  <conditionalFormatting sqref="E310">
     <cfRule type="expression" dxfId="86" priority="86" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F305">
+  <conditionalFormatting sqref="F310">
     <cfRule type="expression" dxfId="85" priority="85" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E306">
+  <conditionalFormatting sqref="E311">
     <cfRule type="expression" dxfId="84" priority="84" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F306">
+  <conditionalFormatting sqref="F311">
     <cfRule type="expression" dxfId="83" priority="83" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E307">
+  <conditionalFormatting sqref="E312">
     <cfRule type="expression" dxfId="82" priority="82" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F307">
+  <conditionalFormatting sqref="F312">
     <cfRule type="expression" dxfId="81" priority="81" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E308">
+  <conditionalFormatting sqref="E313">
     <cfRule type="expression" dxfId="80" priority="80" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F308">
+  <conditionalFormatting sqref="F313">
     <cfRule type="expression" dxfId="79" priority="79" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E309">
+  <conditionalFormatting sqref="E314">
     <cfRule type="expression" dxfId="78" priority="78" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F309">
+  <conditionalFormatting sqref="F314">
     <cfRule type="expression" dxfId="77" priority="77" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E310">
+  <conditionalFormatting sqref="E315">
     <cfRule type="expression" dxfId="76" priority="76" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F310">
+  <conditionalFormatting sqref="F315">
     <cfRule type="expression" dxfId="75" priority="75" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E311">
+  <conditionalFormatting sqref="E316">
     <cfRule type="expression" dxfId="74" priority="74" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F311">
+  <conditionalFormatting sqref="F316">
     <cfRule type="expression" dxfId="73" priority="73" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E312">
+  <conditionalFormatting sqref="E317">
     <cfRule type="expression" dxfId="72" priority="72" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F312">
+  <conditionalFormatting sqref="F317">
     <cfRule type="expression" dxfId="71" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E313">
+  <conditionalFormatting sqref="E318">
     <cfRule type="expression" dxfId="70" priority="70" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F313">
+  <conditionalFormatting sqref="F318">
     <cfRule type="expression" dxfId="69" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E314">
-    <cfRule type="expression" dxfId="68" priority="68" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F314">
-    <cfRule type="expression" dxfId="67" priority="67" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E315">
-    <cfRule type="expression" dxfId="66" priority="66" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F315">
-    <cfRule type="expression" dxfId="65" priority="65" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E316">
-    <cfRule type="expression" dxfId="64" priority="64" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F316">
-    <cfRule type="expression" dxfId="63" priority="63" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E317">
-    <cfRule type="expression" dxfId="62" priority="62" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F317">
-    <cfRule type="expression" dxfId="61" priority="61" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E318">
-    <cfRule type="expression" dxfId="60" priority="60" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F318">
-    <cfRule type="expression" dxfId="59" priority="59" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F319">
+    <cfRule type="expression" dxfId="68" priority="66" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F320">
+    <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E321">
+    <cfRule type="expression" dxfId="66" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F321">
+    <cfRule type="expression" dxfId="65" priority="63" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E322">
+    <cfRule type="expression" dxfId="64" priority="62" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F322">
+    <cfRule type="expression" dxfId="63" priority="61" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E323">
+    <cfRule type="expression" dxfId="62" priority="60" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F323">
+    <cfRule type="expression" dxfId="61" priority="59" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E324">
+    <cfRule type="expression" dxfId="60" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F324">
+    <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E325">
     <cfRule type="expression" dxfId="58" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F320">
+  <conditionalFormatting sqref="F325">
     <cfRule type="expression" dxfId="57" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E321">
+  <conditionalFormatting sqref="E326">
     <cfRule type="expression" dxfId="56" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F321">
+  <conditionalFormatting sqref="F326">
     <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E322">
+  <conditionalFormatting sqref="E327">
     <cfRule type="expression" dxfId="54" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F322">
+  <conditionalFormatting sqref="F327">
     <cfRule type="expression" dxfId="53" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E323">
+  <conditionalFormatting sqref="E328">
     <cfRule type="expression" dxfId="52" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F323">
+  <conditionalFormatting sqref="F328">
     <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E324">
+  <conditionalFormatting sqref="E329">
     <cfRule type="expression" dxfId="50" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F324">
+  <conditionalFormatting sqref="F329">
     <cfRule type="expression" dxfId="49" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E325">
+  <conditionalFormatting sqref="E330">
     <cfRule type="expression" dxfId="48" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F325">
+  <conditionalFormatting sqref="F330">
     <cfRule type="expression" dxfId="47" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E326">
+  <conditionalFormatting sqref="E331">
     <cfRule type="expression" dxfId="46" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F326">
+  <conditionalFormatting sqref="F331">
     <cfRule type="expression" dxfId="45" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E327">
+  <conditionalFormatting sqref="E332">
     <cfRule type="expression" dxfId="44" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F327">
+  <conditionalFormatting sqref="F332">
     <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E328">
+  <conditionalFormatting sqref="E333">
     <cfRule type="expression" dxfId="42" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F328">
+  <conditionalFormatting sqref="F333">
     <cfRule type="expression" dxfId="41" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E329">
+  <conditionalFormatting sqref="E334">
     <cfRule type="expression" dxfId="40" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F329">
+  <conditionalFormatting sqref="F334">
     <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E330">
+  <conditionalFormatting sqref="E336">
     <cfRule type="expression" dxfId="38" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F330">
+  <conditionalFormatting sqref="F336">
     <cfRule type="expression" dxfId="37" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E331">
+  <conditionalFormatting sqref="E337">
     <cfRule type="expression" dxfId="36" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F331">
+  <conditionalFormatting sqref="F337">
     <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E332">
+  <conditionalFormatting sqref="E338">
     <cfRule type="expression" dxfId="34" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F332">
+  <conditionalFormatting sqref="F338">
     <cfRule type="expression" dxfId="33" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E333">
+  <conditionalFormatting sqref="E339">
     <cfRule type="expression" dxfId="32" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F333">
+  <conditionalFormatting sqref="F339">
     <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E334">
+  <conditionalFormatting sqref="E340">
     <cfRule type="expression" dxfId="30" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F334">
+  <conditionalFormatting sqref="F340">
     <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E336">
+  <conditionalFormatting sqref="E341">
     <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F336">
+  <conditionalFormatting sqref="F341">
     <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E337">
+  <conditionalFormatting sqref="E342">
     <cfRule type="expression" dxfId="26" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F337">
+  <conditionalFormatting sqref="F342">
     <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E338">
+  <conditionalFormatting sqref="E343">
     <cfRule type="expression" dxfId="24" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F338">
+  <conditionalFormatting sqref="F343">
     <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E339">
+  <conditionalFormatting sqref="E335">
     <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F339">
+  <conditionalFormatting sqref="F335">
     <cfRule type="expression" dxfId="21" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E340">
-    <cfRule type="expression" dxfId="20" priority="18" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F340">
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E341">
-    <cfRule type="expression" dxfId="18" priority="16" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F341">
-    <cfRule type="expression" dxfId="17" priority="15" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E342">
-    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F342">
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E343">
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F343">
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E335">
-    <cfRule type="expression" dxfId="12" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F335">
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E345">
-    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F345">
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E346">
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F346">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E347">
+    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F347">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E348">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F348">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E349">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F349">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E350">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F350">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E351">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F351">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35358,7 +35830,7 @@
     <hyperlink ref="C12:C16" r:id="rId10" display="\\10.39.168.176\RawData_East3410\"/>
     <hyperlink ref="C17:C18" r:id="rId11" display="\\10.39.168.176\RawData_East3410\"/>
     <hyperlink ref="C19:C21" r:id="rId12" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C22" r:id="rId13"/>
+    <hyperlink ref="C22" r:id="rId13" display="\\10.39.168.33\RawData_EastOIS2\"/>
     <hyperlink ref="C28" r:id="rId14" display="\\10.39.168.176\RawData_East3410\"/>
     <hyperlink ref="C29" r:id="rId15" display="\\10.39.168.176\RawData_East3410\"/>
     <hyperlink ref="C30" r:id="rId16" display="\\10.39.168.176\RawData_East3410\"/>
@@ -35373,8 +35845,8 @@
     <hyperlink ref="C45" r:id="rId25" display="\\10.39.168.176\RawData_East3410\"/>
     <hyperlink ref="C42" r:id="rId26" display="\\10.39.168.176\RawData_East3410\"/>
     <hyperlink ref="C43" r:id="rId27" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C62" r:id="rId28"/>
-    <hyperlink ref="C88" r:id="rId29"/>
+    <hyperlink ref="C62" r:id="rId28" display="\\10.39.168.33\RawData_EastOIS2\"/>
+    <hyperlink ref="C88" r:id="rId29" display="\\10.39.168.33\RawData_EastOIS2\"/>
     <hyperlink ref="C89" r:id="rId30" display="\\10.39.168.176\RawData_East3410\"/>
     <hyperlink ref="C90" r:id="rId31" display="\\10.39.168.176\RawData_East3410\"/>
     <hyperlink ref="C91" r:id="rId32" display="\\10.39.168.176\RawData_East3410\"/>
@@ -35581,18 +36053,24 @@
     <hyperlink ref="C335" r:id="rId233"/>
     <hyperlink ref="C345" r:id="rId234"/>
     <hyperlink ref="C346" r:id="rId235"/>
+    <hyperlink ref="C181" r:id="rId236" display="\\10.39.168.33\RawData_EastOIS2\"/>
+    <hyperlink ref="C347" r:id="rId237"/>
+    <hyperlink ref="C348" r:id="rId238"/>
+    <hyperlink ref="C349" r:id="rId239"/>
+    <hyperlink ref="C350" r:id="rId240"/>
+    <hyperlink ref="C351" r:id="rId241"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId236"/>
+  <pageSetup orientation="portrait" r:id="rId242"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:IV1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35614,8 +36092,39 @@
         <v>152</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="222" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="222" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="222" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="222" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="222" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="222" t="s">
+        <v>418</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -35740,37 +36249,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:L1 N1:P1 R1">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35804,7 +36313,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="223" t="s">
         <v>125</v>
       </c>
       <c r="B2" t="s">
@@ -35815,7 +36324,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="216"/>
+      <c r="A3" s="223"/>
       <c r="B3" t="s">
         <v>127</v>
       </c>
@@ -35824,7 +36333,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="216"/>
+      <c r="A4" s="223"/>
       <c r="B4" t="s">
         <v>128</v>
       </c>
@@ -35833,7 +36342,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="216"/>
+      <c r="A5" s="223"/>
       <c r="B5" t="s">
         <v>129</v>
       </c>
@@ -35842,7 +36351,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="224" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -35853,7 +36362,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="217"/>
+      <c r="A7" s="224"/>
       <c r="B7" t="s">
         <v>131</v>
       </c>
@@ -35862,7 +36371,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="217"/>
+      <c r="A8" s="224"/>
       <c r="B8" t="s">
         <v>132</v>
       </c>
@@ -35871,7 +36380,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="225" t="s">
         <v>136</v>
       </c>
       <c r="B9">
@@ -35882,7 +36391,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="218"/>
+      <c r="A10" s="225"/>
       <c r="B10">
         <v>2141</v>
       </c>
@@ -35891,7 +36400,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="218" t="s">
+      <c r="A11" s="225" t="s">
         <v>138</v>
       </c>
       <c r="B11">
@@ -35902,7 +36411,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="218"/>
+      <c r="A12" s="225"/>
       <c r="B12">
         <v>2143</v>
       </c>
@@ -35911,7 +36420,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="218"/>
+      <c r="A13" s="225"/>
       <c r="B13">
         <v>2144</v>
       </c>
@@ -35920,7 +36429,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="218"/>
+      <c r="A14" s="225"/>
       <c r="B14">
         <v>2145</v>
       </c>
@@ -35929,7 +36438,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="218"/>
+      <c r="A15" s="225"/>
       <c r="B15">
         <v>2146</v>
       </c>
@@ -36013,7 +36522,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36025,19 +36534,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="226" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
       <c r="E1" s="187"/>
-      <c r="H1" s="219" t="s">
+      <c r="H1" s="226" t="s">
         <v>326</v>
       </c>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
       <c r="L1" s="187"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -36047,22 +36556,22 @@
       <c r="B2" s="187" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="219" t="s">
+      <c r="C2" s="226" t="s">
         <v>346</v>
       </c>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
       <c r="H2" s="187" t="s">
         <v>332</v>
       </c>
       <c r="I2" s="187" t="s">
         <v>333</v>
       </c>
-      <c r="J2" s="219" t="s">
+      <c r="J2" s="226" t="s">
         <v>346</v>
       </c>
-      <c r="K2" s="219"/>
-      <c r="L2" s="219"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="226"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="187" t="s">
@@ -36323,19 +36832,19 @@
       <c r="L12" s="187"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="219" t="s">
+      <c r="A14" s="226" t="s">
         <v>324</v>
       </c>
-      <c r="B14" s="219"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="219"/>
+      <c r="B14" s="226"/>
+      <c r="C14" s="226"/>
+      <c r="D14" s="226"/>
       <c r="E14" s="187"/>
-      <c r="H14" s="219" t="s">
+      <c r="H14" s="226" t="s">
         <v>327</v>
       </c>
-      <c r="I14" s="219"/>
-      <c r="J14" s="219"/>
-      <c r="K14" s="219"/>
+      <c r="I14" s="226"/>
+      <c r="J14" s="226"/>
+      <c r="K14" s="226"/>
       <c r="L14" s="187"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -36345,22 +36854,22 @@
       <c r="B15" s="187" t="s">
         <v>333</v>
       </c>
-      <c r="C15" s="219" t="s">
+      <c r="C15" s="226" t="s">
         <v>346</v>
       </c>
-      <c r="D15" s="219"/>
-      <c r="E15" s="219"/>
+      <c r="D15" s="226"/>
+      <c r="E15" s="226"/>
       <c r="H15" s="187" t="s">
         <v>332</v>
       </c>
       <c r="I15" s="187" t="s">
         <v>333</v>
       </c>
-      <c r="J15" s="219" t="s">
+      <c r="J15" s="226" t="s">
         <v>346</v>
       </c>
-      <c r="K15" s="219"/>
-      <c r="L15" s="219"/>
+      <c r="K15" s="226"/>
+      <c r="L15" s="226"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="187" t="s">
@@ -36727,19 +37236,19 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="219" t="s">
+      <c r="A16" s="226" t="s">
         <v>352</v>
       </c>
-      <c r="B16" s="219"/>
-      <c r="C16" s="219"/>
-      <c r="D16" s="219"/>
+      <c r="B16" s="226"/>
+      <c r="C16" s="226"/>
+      <c r="D16" s="226"/>
       <c r="E16" s="187"/>
-      <c r="G16" s="219" t="s">
+      <c r="G16" s="226" t="s">
         <v>356</v>
       </c>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="219"/>
+      <c r="H16" s="226"/>
+      <c r="I16" s="226"/>
+      <c r="J16" s="226"/>
       <c r="K16" s="187"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -36749,22 +37258,22 @@
       <c r="B17" s="187" t="s">
         <v>333</v>
       </c>
-      <c r="C17" s="219" t="s">
+      <c r="C17" s="226" t="s">
         <v>346</v>
       </c>
-      <c r="D17" s="219"/>
-      <c r="E17" s="219"/>
+      <c r="D17" s="226"/>
+      <c r="E17" s="226"/>
       <c r="G17" s="187" t="s">
         <v>332</v>
       </c>
       <c r="H17" s="187" t="s">
         <v>333</v>
       </c>
-      <c r="I17" s="219" t="s">
+      <c r="I17" s="226" t="s">
         <v>346</v>
       </c>
-      <c r="J17" s="219"/>
-      <c r="K17" s="219"/>
+      <c r="J17" s="226"/>
+      <c r="K17" s="226"/>
       <c r="M17" t="s">
         <v>353</v>
       </c>
@@ -37082,12 +37591,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="219" t="s">
+      <c r="A31" s="226" t="s">
         <v>359</v>
       </c>
-      <c r="B31" s="219"/>
-      <c r="C31" s="219"/>
-      <c r="D31" s="219"/>
+      <c r="B31" s="226"/>
+      <c r="C31" s="226"/>
+      <c r="D31" s="226"/>
       <c r="E31" s="187"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -37097,11 +37606,11 @@
       <c r="B32" s="187" t="s">
         <v>333</v>
       </c>
-      <c r="C32" s="219" t="s">
+      <c r="C32" s="226" t="s">
         <v>346</v>
       </c>
-      <c r="D32" s="219"/>
-      <c r="E32" s="219"/>
+      <c r="D32" s="226"/>
+      <c r="E32" s="226"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="187" t="s">
@@ -37281,10 +37790,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37293,19 +37802,19 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" style="32" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" style="32" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="227" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
       <c r="F1" s="205"/>
       <c r="G1" s="191">
         <v>200302</v>
@@ -37319,12 +37828,12 @@
         <v>333</v>
       </c>
       <c r="C2" s="203"/>
-      <c r="D2" s="220" t="s">
+      <c r="D2" s="227" t="s">
         <v>346</v>
       </c>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="191" t="s">
@@ -37351,7 +37860,7 @@
       </c>
       <c r="B4" s="192"/>
       <c r="C4" s="203" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="D4" s="194">
         <v>214</v>
@@ -37372,7 +37881,7 @@
       </c>
       <c r="B5" s="192"/>
       <c r="C5" s="203" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D5" s="194">
         <v>222</v>
@@ -37533,13 +38042,13 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="227" t="s">
         <v>368</v>
       </c>
-      <c r="B15" s="220"/>
-      <c r="C15" s="220"/>
-      <c r="D15" s="220"/>
-      <c r="E15" s="220"/>
+      <c r="B15" s="227"/>
+      <c r="C15" s="227"/>
+      <c r="D15" s="227"/>
+      <c r="E15" s="227"/>
       <c r="F15" s="205"/>
       <c r="G15" s="191">
         <v>200303</v>
@@ -37553,12 +38062,12 @@
         <v>333</v>
       </c>
       <c r="C16" s="203"/>
-      <c r="D16" s="220" t="s">
+      <c r="D16" s="227" t="s">
         <v>346</v>
       </c>
-      <c r="E16" s="220"/>
-      <c r="F16" s="220"/>
-      <c r="G16" s="220"/>
+      <c r="E16" s="227"/>
+      <c r="F16" s="227"/>
+      <c r="G16" s="227"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="191" t="s">
@@ -37587,7 +38096,7 @@
         <v>0.51874999999999993</v>
       </c>
       <c r="C18" s="203" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="D18" s="194">
         <v>222</v>
@@ -37608,7 +38117,7 @@
       </c>
       <c r="B19" s="192"/>
       <c r="C19" s="203" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="D19" s="194">
         <v>149</v>
@@ -37766,13 +38275,13 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="220" t="s">
+      <c r="A29" s="227" t="s">
         <v>367</v>
       </c>
-      <c r="B29" s="220"/>
-      <c r="C29" s="220"/>
-      <c r="D29" s="220"/>
-      <c r="E29" s="220"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="227"/>
+      <c r="E29" s="227"/>
       <c r="F29" s="205"/>
       <c r="G29" s="191">
         <v>200305</v>
@@ -37786,12 +38295,12 @@
         <v>333</v>
       </c>
       <c r="C30" s="203"/>
-      <c r="D30" s="220" t="s">
+      <c r="D30" s="227" t="s">
         <v>346</v>
       </c>
-      <c r="E30" s="220"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="220"/>
+      <c r="E30" s="227"/>
+      <c r="F30" s="227"/>
+      <c r="G30" s="227"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="191" t="s">
@@ -37820,7 +38329,7 @@
         <v>0.54305555555555551</v>
       </c>
       <c r="C32" s="203" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="D32" s="194">
         <v>234</v>
@@ -37841,7 +38350,7 @@
       </c>
       <c r="B33" s="192"/>
       <c r="C33" s="203" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D33" s="194">
         <v>235</v>
@@ -38020,13 +38529,13 @@
       <c r="G41" s="199"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="220" t="s">
+      <c r="A43" s="227" t="s">
         <v>366</v>
       </c>
-      <c r="B43" s="220"/>
-      <c r="C43" s="220"/>
-      <c r="D43" s="220"/>
-      <c r="E43" s="220"/>
+      <c r="B43" s="227"/>
+      <c r="C43" s="227"/>
+      <c r="D43" s="227"/>
+      <c r="E43" s="227"/>
       <c r="F43" s="205"/>
       <c r="G43" s="191">
         <v>200306</v>
@@ -38040,12 +38549,12 @@
         <v>333</v>
       </c>
       <c r="C44" s="203"/>
-      <c r="D44" s="220" t="s">
+      <c r="D44" s="227" t="s">
         <v>346</v>
       </c>
-      <c r="E44" s="220"/>
-      <c r="F44" s="220"/>
-      <c r="G44" s="220"/>
+      <c r="E44" s="227"/>
+      <c r="F44" s="227"/>
+      <c r="G44" s="227"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="191" t="s">
@@ -38072,7 +38581,7 @@
       </c>
       <c r="B46" s="192"/>
       <c r="C46" s="203" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="D46" s="194">
         <v>208</v>
@@ -38093,7 +38602,7 @@
       </c>
       <c r="B47" s="192"/>
       <c r="C47" s="203" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="D47" s="194">
         <v>190</v>
@@ -38280,13 +38789,13 @@
       <c r="G55" s="197"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="220" t="s">
+      <c r="A57" s="227" t="s">
         <v>370</v>
       </c>
-      <c r="B57" s="220"/>
-      <c r="C57" s="220"/>
-      <c r="D57" s="220"/>
-      <c r="E57" s="220"/>
+      <c r="B57" s="227"/>
+      <c r="C57" s="227"/>
+      <c r="D57" s="227"/>
+      <c r="E57" s="227"/>
       <c r="F57" s="205"/>
       <c r="G57" s="191">
         <v>200309</v>
@@ -38300,12 +38809,12 @@
         <v>333</v>
       </c>
       <c r="C58" s="203"/>
-      <c r="D58" s="220" t="s">
+      <c r="D58" s="227" t="s">
         <v>346</v>
       </c>
-      <c r="E58" s="220"/>
-      <c r="F58" s="220"/>
-      <c r="G58" s="220"/>
+      <c r="E58" s="227"/>
+      <c r="F58" s="227"/>
+      <c r="G58" s="227"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="191" t="s">
@@ -38334,7 +38843,7 @@
         <v>0.52222222222222225</v>
       </c>
       <c r="C60" s="203" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D60" s="194">
         <v>276</v>
@@ -38357,7 +38866,7 @@
         <v>0.54722222222222217</v>
       </c>
       <c r="C61" s="203" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="D61" s="194">
         <v>238</v>
@@ -38542,13 +39051,13 @@
       <c r="G69" s="197"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="220" t="s">
+      <c r="A71" s="227" t="s">
         <v>375</v>
       </c>
-      <c r="B71" s="220"/>
-      <c r="C71" s="220"/>
-      <c r="D71" s="220"/>
-      <c r="E71" s="220"/>
+      <c r="B71" s="227"/>
+      <c r="C71" s="227"/>
+      <c r="D71" s="227"/>
+      <c r="E71" s="227"/>
       <c r="F71" s="205"/>
       <c r="G71" s="191">
         <v>200312</v>
@@ -38562,12 +39071,12 @@
         <v>333</v>
       </c>
       <c r="C72" s="203"/>
-      <c r="D72" s="220" t="s">
+      <c r="D72" s="227" t="s">
         <v>346</v>
       </c>
-      <c r="E72" s="220"/>
-      <c r="F72" s="220"/>
-      <c r="G72" s="220"/>
+      <c r="E72" s="227"/>
+      <c r="F72" s="227"/>
+      <c r="G72" s="227"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="191" t="s">
@@ -38596,7 +39105,7 @@
         <v>0.53888888888888886</v>
       </c>
       <c r="C74" s="203" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D74" s="194">
         <v>332</v>
@@ -38619,7 +39128,7 @@
         <v>0.56388888888888888</v>
       </c>
       <c r="C75" s="203" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="D75" s="194">
         <v>225</v>
@@ -38792,6 +39301,9 @@
       <c r="G82" s="194">
         <v>278</v>
       </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E85" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/DataBase_Xiaodan.xlsx
+++ b/DataBase_Xiaodan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3642" uniqueCount="515">
   <si>
     <t>Date</t>
   </si>
@@ -1558,6 +1558,18 @@
   </si>
   <si>
     <t>N8M865-V-opto3</t>
+  </si>
+  <si>
+    <t>A48M343-SS-opto3</t>
+  </si>
+  <si>
+    <t>A48M343-M-opto3</t>
+  </si>
+  <si>
+    <t>A48M343-P-opto3</t>
+  </si>
+  <si>
+    <t>A48M343-V-opto3</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1691,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1787,6 +1799,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1852,7 +1870,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2508,6 +2526,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="13" fillId="19" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="19" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2529,7 +2590,56 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1121">
+  <dxfs count="1128">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -13758,13 +13868,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE408"/>
+  <dimension ref="A1:AE412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C382" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C193" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B404" sqref="B404"/>
+      <selection pane="bottomRight" activeCell="A237" sqref="A237:XFD237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21671,59 +21781,59 @@
       </c>
       <c r="Y128" s="33"/>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A129" s="57">
+    <row r="129" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="93">
         <v>190513</v>
       </c>
-      <c r="B129" s="33" t="s">
+      <c r="B129" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="C129" s="53" t="s">
+      <c r="C129" s="216" t="s">
         <v>484</v>
       </c>
-      <c r="D129" s="54" t="s">
+      <c r="D129" s="95" t="s">
         <v>486</v>
       </c>
-      <c r="E129" s="47" t="s">
+      <c r="E129" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="F129" s="47" t="s">
+      <c r="F129" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="G129" s="33">
-        <v>20</v>
-      </c>
-      <c r="H129" s="33">
-        <v>20</v>
-      </c>
-      <c r="I129" s="33"/>
-      <c r="J129" s="33"/>
-      <c r="K129" s="33"/>
-      <c r="L129" s="33"/>
-      <c r="M129" s="33"/>
-      <c r="N129" s="48">
+      <c r="G129" s="94">
+        <v>20</v>
+      </c>
+      <c r="H129" s="94">
+        <v>20</v>
+      </c>
+      <c r="I129" s="94"/>
+      <c r="J129" s="94"/>
+      <c r="K129" s="94"/>
+      <c r="L129" s="94"/>
+      <c r="M129" s="94"/>
+      <c r="N129" s="94">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="O129" s="33">
+      <c r="O129" s="94">
         <v>400</v>
       </c>
-      <c r="P129" s="33"/>
-      <c r="Q129" s="55" t="s">
+      <c r="P129" s="94"/>
+      <c r="Q129" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="R129" s="63"/>
-      <c r="S129" s="33"/>
-      <c r="T129" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="U129" s="33"/>
-      <c r="V129" s="33"/>
-      <c r="W129" s="55" t="s">
+      <c r="R129" s="98"/>
+      <c r="S129" s="94"/>
+      <c r="T129" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="U129" s="94"/>
+      <c r="V129" s="94"/>
+      <c r="W129" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="X129" s="33"/>
-      <c r="Y129" s="33"/>
+      <c r="X129" s="94"/>
+      <c r="Y129" s="94"/>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" s="57">
@@ -21911,59 +22021,59 @@
       </c>
       <c r="Y132" s="33"/>
     </row>
-    <row r="133" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="119">
+    <row r="133" spans="1:25" s="264" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="259">
         <v>190513</v>
       </c>
-      <c r="B133" s="120" t="s">
+      <c r="B133" s="260" t="s">
         <v>157</v>
       </c>
-      <c r="C133" s="120" t="s">
+      <c r="C133" s="260" t="s">
         <v>484</v>
       </c>
-      <c r="D133" s="122" t="s">
+      <c r="D133" s="261" t="s">
         <v>486</v>
       </c>
-      <c r="E133" s="122" t="s">
+      <c r="E133" s="261" t="s">
         <v>8</v>
       </c>
-      <c r="F133" s="122" t="s">
+      <c r="F133" s="261" t="s">
         <v>11</v>
       </c>
-      <c r="G133" s="120">
-        <v>20</v>
-      </c>
-      <c r="H133" s="120">
-        <v>20</v>
-      </c>
-      <c r="I133" s="120"/>
-      <c r="J133" s="120"/>
-      <c r="K133" s="120"/>
-      <c r="L133" s="120"/>
-      <c r="M133" s="120"/>
-      <c r="N133" s="120">
+      <c r="G133" s="260">
+        <v>20</v>
+      </c>
+      <c r="H133" s="260">
+        <v>20</v>
+      </c>
+      <c r="I133" s="260"/>
+      <c r="J133" s="260"/>
+      <c r="K133" s="260"/>
+      <c r="L133" s="260"/>
+      <c r="M133" s="260"/>
+      <c r="N133" s="260">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="O133" s="120">
+      <c r="O133" s="260">
         <v>400</v>
       </c>
-      <c r="P133" s="120"/>
-      <c r="Q133" s="120" t="s">
+      <c r="P133" s="260"/>
+      <c r="Q133" s="260" t="s">
         <v>41</v>
       </c>
-      <c r="R133" s="123"/>
-      <c r="S133" s="120"/>
-      <c r="T133" s="125" t="s">
-        <v>20</v>
-      </c>
-      <c r="U133" s="120"/>
-      <c r="V133" s="120"/>
-      <c r="W133" s="120" t="s">
+      <c r="R133" s="262"/>
+      <c r="S133" s="260"/>
+      <c r="T133" s="263" t="s">
+        <v>20</v>
+      </c>
+      <c r="U133" s="260"/>
+      <c r="V133" s="260"/>
+      <c r="W133" s="260" t="s">
         <v>41</v>
       </c>
-      <c r="X133" s="120"/>
-      <c r="Y133" s="120"/>
+      <c r="X133" s="260"/>
+      <c r="Y133" s="260"/>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" s="57">
@@ -22393,59 +22503,59 @@
       </c>
       <c r="Y140" s="114"/>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A141" s="57">
+    <row r="141" spans="1:25" s="258" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="251">
         <v>190523</v>
       </c>
-      <c r="B141" s="33" t="s">
+      <c r="B141" s="252" t="s">
         <v>162</v>
       </c>
-      <c r="C141" s="53" t="s">
+      <c r="C141" s="253" t="s">
         <v>484</v>
       </c>
-      <c r="D141" s="54" t="s">
+      <c r="D141" s="254" t="s">
         <v>486</v>
       </c>
-      <c r="E141" s="47" t="s">
+      <c r="E141" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="F141" s="47" t="s">
+      <c r="F141" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="G141" s="33">
-        <v>20</v>
-      </c>
-      <c r="H141" s="33">
-        <v>20</v>
-      </c>
-      <c r="I141" s="33"/>
-      <c r="J141" s="33"/>
-      <c r="K141" s="33"/>
-      <c r="L141" s="33"/>
-      <c r="M141" s="33"/>
-      <c r="N141" s="48">
+      <c r="G141" s="252">
+        <v>20</v>
+      </c>
+      <c r="H141" s="252">
+        <v>20</v>
+      </c>
+      <c r="I141" s="252"/>
+      <c r="J141" s="252"/>
+      <c r="K141" s="252"/>
+      <c r="L141" s="252"/>
+      <c r="M141" s="252"/>
+      <c r="N141" s="252">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O141" s="33">
-        <v>20</v>
-      </c>
-      <c r="P141" s="33"/>
-      <c r="Q141" s="55" t="s">
+      <c r="O141" s="252">
+        <v>20</v>
+      </c>
+      <c r="P141" s="252"/>
+      <c r="Q141" s="252" t="s">
         <v>41</v>
       </c>
-      <c r="R141" s="63"/>
-      <c r="S141" s="33"/>
-      <c r="T141" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="U141" s="33"/>
-      <c r="V141" s="33"/>
-      <c r="W141" s="55" t="s">
+      <c r="R141" s="256"/>
+      <c r="S141" s="252"/>
+      <c r="T141" s="257" t="s">
+        <v>20</v>
+      </c>
+      <c r="U141" s="252"/>
+      <c r="V141" s="252"/>
+      <c r="W141" s="252" t="s">
         <v>41</v>
       </c>
-      <c r="X141" s="33"/>
-      <c r="Y141" s="33"/>
+      <c r="X141" s="252"/>
+      <c r="Y141" s="252"/>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" s="57">
@@ -22513,59 +22623,59 @@
       </c>
       <c r="Y142" s="33"/>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A143" s="57">
+    <row r="143" spans="1:25" s="258" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="251">
         <v>190523</v>
       </c>
-      <c r="B143" s="33" t="s">
+      <c r="B143" s="252" t="s">
         <v>163</v>
       </c>
-      <c r="C143" s="53" t="s">
+      <c r="C143" s="253" t="s">
         <v>484</v>
       </c>
-      <c r="D143" s="54" t="s">
+      <c r="D143" s="254" t="s">
         <v>486</v>
       </c>
-      <c r="E143" s="47" t="s">
+      <c r="E143" s="255" t="s">
         <v>8</v>
       </c>
-      <c r="F143" s="47" t="s">
+      <c r="F143" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="G143" s="33">
-        <v>20</v>
-      </c>
-      <c r="H143" s="33">
-        <v>20</v>
-      </c>
-      <c r="I143" s="33"/>
-      <c r="J143" s="33"/>
-      <c r="K143" s="33"/>
-      <c r="L143" s="33"/>
-      <c r="M143" s="33"/>
-      <c r="N143" s="48">
+      <c r="G143" s="252">
+        <v>20</v>
+      </c>
+      <c r="H143" s="252">
+        <v>20</v>
+      </c>
+      <c r="I143" s="252"/>
+      <c r="J143" s="252"/>
+      <c r="K143" s="252"/>
+      <c r="L143" s="252"/>
+      <c r="M143" s="252"/>
+      <c r="N143" s="252">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O143" s="33">
-        <v>20</v>
-      </c>
-      <c r="P143" s="33"/>
-      <c r="Q143" s="55" t="s">
+      <c r="O143" s="252">
+        <v>20</v>
+      </c>
+      <c r="P143" s="252"/>
+      <c r="Q143" s="252" t="s">
         <v>41</v>
       </c>
-      <c r="R143" s="63"/>
-      <c r="S143" s="33"/>
-      <c r="T143" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="U143" s="33"/>
-      <c r="V143" s="33"/>
-      <c r="W143" s="55" t="s">
+      <c r="R143" s="256"/>
+      <c r="S143" s="252"/>
+      <c r="T143" s="257" t="s">
+        <v>20</v>
+      </c>
+      <c r="U143" s="252"/>
+      <c r="V143" s="252"/>
+      <c r="W143" s="252" t="s">
         <v>41</v>
       </c>
-      <c r="X143" s="33"/>
-      <c r="Y143" s="33"/>
+      <c r="X143" s="252"/>
+      <c r="Y143" s="252"/>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" s="57">
@@ -27585,73 +27695,73 @@
       <c r="X228" s="120"/>
       <c r="Y228" s="120"/>
     </row>
-    <row r="229" spans="1:25" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="56">
+    <row r="229" spans="1:25" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="93">
         <v>191028</v>
       </c>
-      <c r="B229" s="48" t="s">
+      <c r="B229" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="C229" s="45" t="s">
+      <c r="C229" s="216" t="s">
         <v>483</v>
       </c>
-      <c r="D229" s="120" t="s">
+      <c r="D229" s="265" t="s">
         <v>492</v>
       </c>
-      <c r="E229" s="65" t="s">
+      <c r="E229" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="F229" s="47" t="s">
+      <c r="F229" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="G229" s="48">
+      <c r="G229" s="94">
         <v>25</v>
       </c>
-      <c r="H229" s="48">
+      <c r="H229" s="94">
         <v>25</v>
       </c>
-      <c r="I229" s="48">
+      <c r="I229" s="94">
         <v>30</v>
       </c>
-      <c r="J229" s="48" t="s">
+      <c r="J229" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="K229" s="48">
+      <c r="K229" s="94">
         <v>750</v>
       </c>
-      <c r="L229" s="48">
+      <c r="L229" s="94">
         <v>125</v>
       </c>
-      <c r="M229" s="48">
+      <c r="M229" s="94">
         <v>5</v>
       </c>
-      <c r="N229" s="48">
+      <c r="N229" s="94">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="O229" s="48">
+      <c r="O229" s="94">
         <v>100</v>
       </c>
-      <c r="P229" s="48">
+      <c r="P229" s="94">
         <v>3</v>
       </c>
-      <c r="Q229" s="48" t="s">
+      <c r="Q229" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="R229" s="146"/>
-      <c r="S229" s="48"/>
-      <c r="T229" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="U229" s="33" t="s">
+      <c r="R229" s="98"/>
+      <c r="S229" s="94"/>
+      <c r="T229" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="U229" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="V229" s="48">
+      <c r="V229" s="94">
         <v>30100</v>
       </c>
-      <c r="W229" s="48"/>
-      <c r="X229" s="48"/>
-      <c r="Y229" s="48"/>
+      <c r="W229" s="94"/>
+      <c r="X229" s="94"/>
+      <c r="Y229" s="94"/>
     </row>
     <row r="230" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="119">
@@ -27711,7 +27821,7 @@
       <c r="X230" s="120"/>
       <c r="Y230" s="120"/>
     </row>
-    <row r="231" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="56">
         <v>191028</v>
       </c>
@@ -37742,111 +37852,113 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A405" s="21">
+    <row r="405" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="215">
         <v>201120</v>
       </c>
-      <c r="B405" s="48" t="s">
+      <c r="B405" s="94" t="s">
         <v>507</v>
       </c>
-      <c r="C405" s="45" t="s">
+      <c r="C405" s="216" t="s">
         <v>483</v>
       </c>
-      <c r="D405" s="48" t="s">
+      <c r="D405" s="94" t="s">
         <v>455</v>
       </c>
-      <c r="E405" s="65" t="s">
+      <c r="E405" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="F405" s="47" t="s">
+      <c r="F405" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="G405" s="48">
-        <v>20</v>
-      </c>
-      <c r="H405" s="48">
-        <v>20</v>
-      </c>
-      <c r="I405" s="48">
+      <c r="G405" s="94">
+        <v>20</v>
+      </c>
+      <c r="H405" s="94">
+        <v>20</v>
+      </c>
+      <c r="I405" s="94">
         <v>30</v>
       </c>
-      <c r="K405" s="48">
+      <c r="K405" s="94">
         <v>600</v>
       </c>
-      <c r="L405" s="48">
+      <c r="L405" s="94">
         <v>100</v>
       </c>
-      <c r="M405" s="48">
+      <c r="M405" s="94">
         <v>3</v>
       </c>
-      <c r="N405" s="48">
-        <v>20</v>
-      </c>
-      <c r="O405" s="48">
+      <c r="N405" s="94">
+        <v>20</v>
+      </c>
+      <c r="O405" s="94">
         <v>80</v>
       </c>
-      <c r="P405" s="232">
-        <v>20</v>
-      </c>
-      <c r="Q405" s="48" t="s">
+      <c r="P405" s="94">
+        <v>20</v>
+      </c>
+      <c r="Q405" s="94" t="s">
         <v>255</v>
       </c>
-      <c r="T405" s="250"/>
-      <c r="V405" s="48">
+      <c r="R405" s="217"/>
+      <c r="T405" s="94"/>
+      <c r="V405" s="94">
         <v>24080</v>
       </c>
     </row>
-    <row r="406" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A406" s="21">
+    <row r="406" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="215">
         <v>201120</v>
       </c>
-      <c r="B406" s="48" t="s">
+      <c r="B406" s="94" t="s">
         <v>508</v>
       </c>
-      <c r="C406" s="45" t="s">
+      <c r="C406" s="216" t="s">
         <v>483</v>
       </c>
-      <c r="D406" s="48" t="s">
+      <c r="D406" s="94" t="s">
         <v>455</v>
       </c>
-      <c r="E406" s="65" t="s">
+      <c r="E406" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="F406" s="47" t="s">
+      <c r="F406" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="G406" s="48">
-        <v>20</v>
-      </c>
-      <c r="H406" s="48">
-        <v>20</v>
-      </c>
-      <c r="I406" s="48">
+      <c r="G406" s="94">
+        <v>20</v>
+      </c>
+      <c r="H406" s="94">
+        <v>20</v>
+      </c>
+      <c r="I406" s="94">
         <v>30</v>
       </c>
-      <c r="K406" s="48">
+      <c r="K406" s="94">
         <v>600</v>
       </c>
-      <c r="L406" s="48">
+      <c r="L406" s="94">
         <v>100</v>
       </c>
-      <c r="M406" s="48">
+      <c r="M406" s="94">
         <v>3</v>
       </c>
-      <c r="N406" s="48">
-        <v>20</v>
-      </c>
-      <c r="O406" s="48">
+      <c r="N406" s="94">
+        <v>20</v>
+      </c>
+      <c r="O406" s="94">
         <v>80</v>
       </c>
-      <c r="P406" s="232">
-        <v>20</v>
-      </c>
-      <c r="Q406" s="48" t="s">
+      <c r="P406" s="94">
+        <v>20</v>
+      </c>
+      <c r="Q406" s="94" t="s">
         <v>255</v>
       </c>
-      <c r="T406" s="250"/>
-      <c r="V406" s="48">
+      <c r="R406" s="217"/>
+      <c r="T406" s="94"/>
+      <c r="V406" s="94">
         <v>24080</v>
       </c>
     </row>
@@ -37958,5569 +38070,5827 @@
         <v>24080</v>
       </c>
     </row>
+    <row r="409" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="266">
+        <v>201130</v>
+      </c>
+      <c r="B409" s="48" t="s">
+        <v>511</v>
+      </c>
+      <c r="C409" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="D409" s="48" t="s">
+        <v>455</v>
+      </c>
+      <c r="E409" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F409" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G409" s="48">
+        <v>20</v>
+      </c>
+      <c r="H409" s="48">
+        <v>20</v>
+      </c>
+      <c r="I409" s="48">
+        <v>30</v>
+      </c>
+      <c r="K409" s="48">
+        <v>600</v>
+      </c>
+      <c r="L409" s="48">
+        <v>100</v>
+      </c>
+      <c r="M409" s="48">
+        <v>3</v>
+      </c>
+      <c r="N409" s="48">
+        <v>20</v>
+      </c>
+      <c r="O409" s="48">
+        <v>80</v>
+      </c>
+      <c r="P409" s="48">
+        <v>20</v>
+      </c>
+      <c r="Q409" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="R409" s="267"/>
+      <c r="T409" s="48"/>
+      <c r="V409" s="48">
+        <v>24080</v>
+      </c>
+    </row>
+    <row r="410" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="266">
+        <v>201130</v>
+      </c>
+      <c r="B410" s="48" t="s">
+        <v>512</v>
+      </c>
+      <c r="C410" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="D410" s="48" t="s">
+        <v>455</v>
+      </c>
+      <c r="E410" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F410" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G410" s="48">
+        <v>20</v>
+      </c>
+      <c r="H410" s="48">
+        <v>20</v>
+      </c>
+      <c r="I410" s="48">
+        <v>30</v>
+      </c>
+      <c r="K410" s="48">
+        <v>600</v>
+      </c>
+      <c r="L410" s="48">
+        <v>100</v>
+      </c>
+      <c r="M410" s="48">
+        <v>3</v>
+      </c>
+      <c r="N410" s="48">
+        <v>20</v>
+      </c>
+      <c r="O410" s="48">
+        <v>80</v>
+      </c>
+      <c r="P410" s="48">
+        <v>20</v>
+      </c>
+      <c r="Q410" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="R410" s="267"/>
+      <c r="T410" s="48"/>
+      <c r="V410" s="48">
+        <v>24080</v>
+      </c>
+    </row>
+    <row r="411" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A411" s="266">
+        <v>201130</v>
+      </c>
+      <c r="B411" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="C411" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="D411" s="48" t="s">
+        <v>455</v>
+      </c>
+      <c r="E411" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F411" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G411" s="48">
+        <v>20</v>
+      </c>
+      <c r="H411" s="48">
+        <v>20</v>
+      </c>
+      <c r="I411" s="48">
+        <v>30</v>
+      </c>
+      <c r="K411" s="48">
+        <v>600</v>
+      </c>
+      <c r="L411" s="48">
+        <v>100</v>
+      </c>
+      <c r="M411" s="48">
+        <v>3</v>
+      </c>
+      <c r="N411" s="48">
+        <v>20</v>
+      </c>
+      <c r="O411" s="48">
+        <v>80</v>
+      </c>
+      <c r="P411" s="232">
+        <v>20</v>
+      </c>
+      <c r="Q411" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="T411" s="250"/>
+      <c r="V411" s="48">
+        <v>24080</v>
+      </c>
+    </row>
+    <row r="412" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A412" s="266">
+        <v>201130</v>
+      </c>
+      <c r="B412" s="48" t="s">
+        <v>514</v>
+      </c>
+      <c r="C412" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="D412" s="48" t="s">
+        <v>455</v>
+      </c>
+      <c r="E412" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F412" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G412" s="48">
+        <v>20</v>
+      </c>
+      <c r="H412" s="48">
+        <v>20</v>
+      </c>
+      <c r="I412" s="48">
+        <v>30</v>
+      </c>
+      <c r="K412" s="48">
+        <v>600</v>
+      </c>
+      <c r="L412" s="48">
+        <v>100</v>
+      </c>
+      <c r="M412" s="48">
+        <v>3</v>
+      </c>
+      <c r="N412" s="48">
+        <v>20</v>
+      </c>
+      <c r="O412" s="48">
+        <v>80</v>
+      </c>
+      <c r="P412" s="232">
+        <v>20</v>
+      </c>
+      <c r="Q412" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="T412" s="250"/>
+      <c r="V412" s="48">
+        <v>24080</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B2 E4 A1:G1 D2:F2 R1:T2 R3:S3 U2 E3:F3 E7 F4:F5 S4:S7 R4:R12 R14:R15 T3:T16 D3:D27 V1:X1 K1:P1 Z1:AE1">
-    <cfRule type="expression" dxfId="1119" priority="1319" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1127" priority="1327" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="expression" dxfId="1118" priority="1314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1126" priority="1322" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="1117" priority="1313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1125" priority="1321" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="1116" priority="1310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1124" priority="1318" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="expression" dxfId="1115" priority="1308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1123" priority="1316" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="1114" priority="1306" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1122" priority="1314" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="1113" priority="1305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1121" priority="1313" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="1112" priority="1303" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1120" priority="1311" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="1111" priority="1302" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1119" priority="1310" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10 F12 F14 F16">
-    <cfRule type="expression" dxfId="1110" priority="1300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1118" priority="1308" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="1109" priority="1299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1117" priority="1307" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11 F13 F15">
-    <cfRule type="expression" dxfId="1108" priority="1297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1116" priority="1305" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E22 E26">
-    <cfRule type="expression" dxfId="1107" priority="1296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1115" priority="1304" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4">
-    <cfRule type="expression" dxfId="1106" priority="1294" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1114" priority="1302" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
-    <cfRule type="expression" dxfId="1105" priority="1293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1113" priority="1301" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="expression" dxfId="1104" priority="1292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1112" priority="1300" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="expression" dxfId="1103" priority="1291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1111" priority="1299" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="1102" priority="1284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1110" priority="1292" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15">
-    <cfRule type="expression" dxfId="1101" priority="1281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1109" priority="1289" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="1100" priority="1285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1108" priority="1293" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="expression" dxfId="1099" priority="1283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1107" priority="1291" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13">
-    <cfRule type="expression" dxfId="1098" priority="1282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1106" priority="1290" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="1097" priority="1280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1105" priority="1288" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F22">
-    <cfRule type="expression" dxfId="1096" priority="1279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1104" priority="1287" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T27 T29">
-    <cfRule type="expression" dxfId="1095" priority="1276" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1103" priority="1284" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17:U27">
-    <cfRule type="expression" dxfId="1094" priority="1275" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1102" priority="1283" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17 R19 R21">
-    <cfRule type="expression" dxfId="1093" priority="1272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1101" priority="1280" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18 R20">
-    <cfRule type="expression" dxfId="1092" priority="1271" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1100" priority="1279" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23 E27">
-    <cfRule type="expression" dxfId="1091" priority="1268" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1099" priority="1276" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="1090" priority="1267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1098" priority="1275" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="1089" priority="1265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1097" priority="1273" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="1088" priority="1264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1096" priority="1272" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
+    <cfRule type="expression" dxfId="1095" priority="1270" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:F27">
+    <cfRule type="expression" dxfId="1094" priority="1269" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:D29">
+    <cfRule type="expression" dxfId="1093" priority="1268" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E29">
+    <cfRule type="expression" dxfId="1092" priority="1267" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:F29">
+    <cfRule type="expression" dxfId="1091" priority="1266" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="expression" dxfId="1090" priority="1265" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="expression" dxfId="1089" priority="1264" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="1088" priority="1263" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
     <cfRule type="expression" dxfId="1087" priority="1262" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F27">
+  <conditionalFormatting sqref="T30">
     <cfRule type="expression" dxfId="1086" priority="1261" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D29">
+  <conditionalFormatting sqref="T31">
     <cfRule type="expression" dxfId="1085" priority="1260" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="1084" priority="1259" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F29">
+  <conditionalFormatting sqref="E31">
     <cfRule type="expression" dxfId="1083" priority="1258" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T28">
+  <conditionalFormatting sqref="F31">
     <cfRule type="expression" dxfId="1082" priority="1257" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D32">
     <cfRule type="expression" dxfId="1081" priority="1256" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E32">
     <cfRule type="expression" dxfId="1080" priority="1255" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="F32">
     <cfRule type="expression" dxfId="1079" priority="1254" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T30">
+  <conditionalFormatting sqref="T32">
     <cfRule type="expression" dxfId="1078" priority="1253" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T31">
+  <conditionalFormatting sqref="D38:D41">
     <cfRule type="expression" dxfId="1077" priority="1252" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="E38">
     <cfRule type="expression" dxfId="1076" priority="1251" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="T38:T41">
     <cfRule type="expression" dxfId="1075" priority="1250" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+  <conditionalFormatting sqref="U38:U41">
     <cfRule type="expression" dxfId="1074" priority="1249" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
+  <conditionalFormatting sqref="E39:E41">
     <cfRule type="expression" dxfId="1073" priority="1248" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="F38:F41">
     <cfRule type="expression" dxfId="1072" priority="1247" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+  <conditionalFormatting sqref="T34">
     <cfRule type="expression" dxfId="1071" priority="1246" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T32">
+  <conditionalFormatting sqref="D34">
     <cfRule type="expression" dxfId="1070" priority="1245" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D41">
+  <conditionalFormatting sqref="E34">
     <cfRule type="expression" dxfId="1069" priority="1244" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
+  <conditionalFormatting sqref="F34">
     <cfRule type="expression" dxfId="1068" priority="1243" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T38:T41">
+  <conditionalFormatting sqref="T35">
     <cfRule type="expression" dxfId="1067" priority="1242" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U38:U41">
+  <conditionalFormatting sqref="D35">
     <cfRule type="expression" dxfId="1066" priority="1241" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E41">
+  <conditionalFormatting sqref="E35">
     <cfRule type="expression" dxfId="1065" priority="1240" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F41">
+  <conditionalFormatting sqref="F35">
     <cfRule type="expression" dxfId="1064" priority="1239" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T34">
+  <conditionalFormatting sqref="T36">
     <cfRule type="expression" dxfId="1063" priority="1238" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D36">
     <cfRule type="expression" dxfId="1062" priority="1237" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
+  <conditionalFormatting sqref="E36">
     <cfRule type="expression" dxfId="1061" priority="1236" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+  <conditionalFormatting sqref="F36">
     <cfRule type="expression" dxfId="1060" priority="1235" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T35">
+  <conditionalFormatting sqref="T37">
     <cfRule type="expression" dxfId="1059" priority="1234" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D37">
     <cfRule type="expression" dxfId="1058" priority="1233" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
+  <conditionalFormatting sqref="E37">
     <cfRule type="expression" dxfId="1057" priority="1232" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+  <conditionalFormatting sqref="F37">
     <cfRule type="expression" dxfId="1056" priority="1231" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T36">
+  <conditionalFormatting sqref="D33">
     <cfRule type="expression" dxfId="1055" priority="1230" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="E33">
     <cfRule type="expression" dxfId="1054" priority="1229" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+  <conditionalFormatting sqref="F33">
     <cfRule type="expression" dxfId="1053" priority="1228" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+  <conditionalFormatting sqref="T33">
     <cfRule type="expression" dxfId="1052" priority="1227" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T37">
+  <conditionalFormatting sqref="T44">
     <cfRule type="expression" dxfId="1051" priority="1226" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D44">
     <cfRule type="expression" dxfId="1050" priority="1225" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
+  <conditionalFormatting sqref="E44">
     <cfRule type="expression" dxfId="1049" priority="1224" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="F44">
     <cfRule type="expression" dxfId="1048" priority="1223" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="T45">
     <cfRule type="expression" dxfId="1047" priority="1222" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
+  <conditionalFormatting sqref="D45">
     <cfRule type="expression" dxfId="1046" priority="1221" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+  <conditionalFormatting sqref="E45">
     <cfRule type="expression" dxfId="1045" priority="1220" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T33">
+  <conditionalFormatting sqref="F45">
     <cfRule type="expression" dxfId="1044" priority="1219" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T44">
+  <conditionalFormatting sqref="R42 T42 D42">
     <cfRule type="expression" dxfId="1043" priority="1218" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="F42">
     <cfRule type="expression" dxfId="1042" priority="1217" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E42">
     <cfRule type="expression" dxfId="1041" priority="1216" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
+  <conditionalFormatting sqref="U42">
     <cfRule type="expression" dxfId="1040" priority="1215" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T45">
+  <conditionalFormatting sqref="R43 T43 D43">
     <cfRule type="expression" dxfId="1039" priority="1214" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="F43">
     <cfRule type="expression" dxfId="1038" priority="1213" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="E43">
     <cfRule type="expression" dxfId="1037" priority="1212" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+  <conditionalFormatting sqref="U43">
     <cfRule type="expression" dxfId="1036" priority="1211" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R42 T42 D42">
+  <conditionalFormatting sqref="D46">
     <cfRule type="expression" dxfId="1035" priority="1210" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
+  <conditionalFormatting sqref="E46">
     <cfRule type="expression" dxfId="1034" priority="1209" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="F46">
     <cfRule type="expression" dxfId="1033" priority="1208" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U42">
-    <cfRule type="expression" dxfId="1032" priority="1207" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R43 T43 D43">
-    <cfRule type="expression" dxfId="1031" priority="1206" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="expression" dxfId="1030" priority="1205" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="1029" priority="1204" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U43">
-    <cfRule type="expression" dxfId="1028" priority="1203" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="1027" priority="1202" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="1026" priority="1201" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="1025" priority="1200" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U46:U47">
-    <cfRule type="expression" dxfId="1024" priority="1194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1032" priority="1202" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
+    <cfRule type="expression" dxfId="1031" priority="1207" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="1030" priority="1206" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="expression" dxfId="1029" priority="1205" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T46">
+    <cfRule type="expression" dxfId="1028" priority="1204" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T47">
+    <cfRule type="expression" dxfId="1027" priority="1203" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U59">
+    <cfRule type="expression" dxfId="1026" priority="1132" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="expression" dxfId="1025" priority="1201" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="1024" priority="1200" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
     <cfRule type="expression" dxfId="1023" priority="1199" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="1022" priority="1198" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="1021" priority="1197" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T46">
+  <conditionalFormatting sqref="U48">
+    <cfRule type="expression" dxfId="1022" priority="1197" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T48">
+    <cfRule type="expression" dxfId="1021" priority="1198" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
     <cfRule type="expression" dxfId="1020" priority="1196" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T47">
+  <conditionalFormatting sqref="E49">
     <cfRule type="expression" dxfId="1019" priority="1195" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U59">
-    <cfRule type="expression" dxfId="1018" priority="1124" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="1017" priority="1193" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="1016" priority="1192" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
+  <conditionalFormatting sqref="F49">
+    <cfRule type="expression" dxfId="1018" priority="1194" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U49">
+    <cfRule type="expression" dxfId="1017" priority="1192" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T49">
+    <cfRule type="expression" dxfId="1016" priority="1193" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
     <cfRule type="expression" dxfId="1015" priority="1191" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U48">
-    <cfRule type="expression" dxfId="1014" priority="1189" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T48">
-    <cfRule type="expression" dxfId="1013" priority="1190" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="1012" priority="1188" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="1011" priority="1187" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="1014" priority="1190" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="expression" dxfId="1013" priority="1189" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U50">
+    <cfRule type="expression" dxfId="1012" priority="1187" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T50">
+    <cfRule type="expression" dxfId="1011" priority="1188" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
     <cfRule type="expression" dxfId="1010" priority="1186" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U49">
-    <cfRule type="expression" dxfId="1009" priority="1184" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T49">
-    <cfRule type="expression" dxfId="1008" priority="1185" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="1007" priority="1183" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="1006" priority="1182" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
+  <conditionalFormatting sqref="E51">
+    <cfRule type="expression" dxfId="1009" priority="1185" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="expression" dxfId="1008" priority="1184" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U51">
+    <cfRule type="expression" dxfId="1007" priority="1182" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T51">
+    <cfRule type="expression" dxfId="1006" priority="1183" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
     <cfRule type="expression" dxfId="1005" priority="1181" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U50">
-    <cfRule type="expression" dxfId="1004" priority="1179" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T50">
-    <cfRule type="expression" dxfId="1003" priority="1180" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="1002" priority="1178" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="1001" priority="1177" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="1004" priority="1180" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="expression" dxfId="1003" priority="1179" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U52">
+    <cfRule type="expression" dxfId="1002" priority="1177" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T52">
+    <cfRule type="expression" dxfId="1001" priority="1178" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
     <cfRule type="expression" dxfId="1000" priority="1176" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U51">
-    <cfRule type="expression" dxfId="999" priority="1174" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T51">
-    <cfRule type="expression" dxfId="998" priority="1175" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="997" priority="1173" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="996" priority="1172" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="expression" dxfId="995" priority="1171" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U52">
-    <cfRule type="expression" dxfId="994" priority="1169" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T52">
-    <cfRule type="expression" dxfId="993" priority="1170" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="992" priority="1168" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="991" priority="1167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="999" priority="1175" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="expression" dxfId="990" priority="1166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="998" priority="1174" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U53">
-    <cfRule type="expression" dxfId="989" priority="1164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="997" priority="1172" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T53">
-    <cfRule type="expression" dxfId="988" priority="1165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="996" priority="1173" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="987" priority="1153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="995" priority="1161" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="986" priority="1152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="994" priority="1160" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
+    <cfRule type="expression" dxfId="993" priority="1159" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U54">
+    <cfRule type="expression" dxfId="992" priority="1157" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T54">
+    <cfRule type="expression" dxfId="991" priority="1158" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="expression" dxfId="990" priority="1156" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="989" priority="1155" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="expression" dxfId="988" priority="1154" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U55">
+    <cfRule type="expression" dxfId="987" priority="1152" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T55">
+    <cfRule type="expression" dxfId="986" priority="1153" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
     <cfRule type="expression" dxfId="985" priority="1151" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U54">
-    <cfRule type="expression" dxfId="984" priority="1149" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T54">
-    <cfRule type="expression" dxfId="983" priority="1150" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="982" priority="1148" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="981" priority="1147" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="984" priority="1150" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="expression" dxfId="983" priority="1149" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U56">
+    <cfRule type="expression" dxfId="982" priority="1147" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T56">
+    <cfRule type="expression" dxfId="981" priority="1148" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
     <cfRule type="expression" dxfId="980" priority="1146" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U55">
-    <cfRule type="expression" dxfId="979" priority="1144" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T55">
-    <cfRule type="expression" dxfId="978" priority="1145" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="977" priority="1143" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="976" priority="1142" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="979" priority="1145" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="expression" dxfId="978" priority="1144" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U57">
+    <cfRule type="expression" dxfId="977" priority="1142" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T57">
+    <cfRule type="expression" dxfId="976" priority="1143" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
     <cfRule type="expression" dxfId="975" priority="1141" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U56">
-    <cfRule type="expression" dxfId="974" priority="1139" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T56">
-    <cfRule type="expression" dxfId="973" priority="1140" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="972" priority="1138" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="971" priority="1137" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="974" priority="1140" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" dxfId="973" priority="1139" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U58">
+    <cfRule type="expression" dxfId="972" priority="1137" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T58">
+    <cfRule type="expression" dxfId="971" priority="1138" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
     <cfRule type="expression" dxfId="970" priority="1136" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U57">
-    <cfRule type="expression" dxfId="969" priority="1134" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T57">
-    <cfRule type="expression" dxfId="968" priority="1135" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="969" priority="1135" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="expression" dxfId="968" priority="1134" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T59">
     <cfRule type="expression" dxfId="967" priority="1133" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="966" priority="1132" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" dxfId="965" priority="1131" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U58">
-    <cfRule type="expression" dxfId="964" priority="1129" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T58">
-    <cfRule type="expression" dxfId="963" priority="1130" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="962" priority="1128" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="961" priority="1127" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="expression" dxfId="960" priority="1126" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T59">
-    <cfRule type="expression" dxfId="959" priority="1125" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="958" priority="1122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="966" priority="1130" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="957" priority="1121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="965" priority="1129" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
+    <cfRule type="expression" dxfId="964" priority="1128" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U60">
+    <cfRule type="expression" dxfId="963" priority="1126" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T60">
+    <cfRule type="expression" dxfId="962" priority="1127" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="expression" dxfId="961" priority="1125" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="960" priority="1124" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="expression" dxfId="959" priority="1123" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U61">
+    <cfRule type="expression" dxfId="958" priority="1121" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T61">
+    <cfRule type="expression" dxfId="957" priority="1122" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
     <cfRule type="expression" dxfId="956" priority="1120" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U60">
-    <cfRule type="expression" dxfId="955" priority="1118" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T60">
-    <cfRule type="expression" dxfId="954" priority="1119" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="953" priority="1117" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="952" priority="1116" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="955" priority="1119" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="expression" dxfId="954" priority="1118" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U62">
+    <cfRule type="expression" dxfId="953" priority="1116" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T62">
+    <cfRule type="expression" dxfId="952" priority="1117" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63">
     <cfRule type="expression" dxfId="951" priority="1115" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U61">
-    <cfRule type="expression" dxfId="950" priority="1113" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T61">
-    <cfRule type="expression" dxfId="949" priority="1114" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="948" priority="1112" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="947" priority="1111" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="expression" dxfId="946" priority="1110" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U62">
-    <cfRule type="expression" dxfId="945" priority="1108" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T62">
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="950" priority="1114" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
+    <cfRule type="expression" dxfId="949" priority="1113" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U63">
+    <cfRule type="expression" dxfId="948" priority="1111" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T63">
+    <cfRule type="expression" dxfId="947" priority="1112" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U65">
+    <cfRule type="expression" dxfId="946" priority="1101" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="expression" dxfId="945" priority="1110" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
     <cfRule type="expression" dxfId="944" priority="1109" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="943" priority="1107" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
+  <conditionalFormatting sqref="F64">
+    <cfRule type="expression" dxfId="943" priority="1108" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U64">
     <cfRule type="expression" dxfId="942" priority="1106" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="expression" dxfId="941" priority="1105" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U63">
-    <cfRule type="expression" dxfId="940" priority="1103" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T63">
+  <conditionalFormatting sqref="T64">
+    <cfRule type="expression" dxfId="941" priority="1107" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="expression" dxfId="940" priority="1105" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
     <cfRule type="expression" dxfId="939" priority="1104" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U65">
-    <cfRule type="expression" dxfId="938" priority="1093" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
+  <conditionalFormatting sqref="F65">
+    <cfRule type="expression" dxfId="938" priority="1103" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T65">
     <cfRule type="expression" dxfId="937" priority="1102" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="936" priority="1101" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
+  <conditionalFormatting sqref="U67">
+    <cfRule type="expression" dxfId="936" priority="1091" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
     <cfRule type="expression" dxfId="935" priority="1100" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U64">
-    <cfRule type="expression" dxfId="934" priority="1098" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T64">
-    <cfRule type="expression" dxfId="933" priority="1099" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="932" priority="1097" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="931" priority="1096" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F65">
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="934" priority="1099" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="expression" dxfId="933" priority="1098" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U66">
+    <cfRule type="expression" dxfId="932" priority="1096" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T66">
+    <cfRule type="expression" dxfId="931" priority="1097" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
     <cfRule type="expression" dxfId="930" priority="1095" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T65">
+  <conditionalFormatting sqref="E67">
     <cfRule type="expression" dxfId="929" priority="1094" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U67">
-    <cfRule type="expression" dxfId="928" priority="1083" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
+  <conditionalFormatting sqref="F67">
+    <cfRule type="expression" dxfId="928" priority="1093" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T67">
     <cfRule type="expression" dxfId="927" priority="1092" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="926" priority="1091" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="expression" dxfId="925" priority="1090" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U66">
+  <conditionalFormatting sqref="D68">
+    <cfRule type="expression" dxfId="926" priority="1090" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" dxfId="925" priority="1089" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68">
     <cfRule type="expression" dxfId="924" priority="1088" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T66">
-    <cfRule type="expression" dxfId="923" priority="1089" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="922" priority="1087" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" dxfId="921" priority="1086" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="expression" dxfId="920" priority="1085" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T67">
-    <cfRule type="expression" dxfId="919" priority="1084" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="918" priority="1082" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="expression" dxfId="917" priority="1081" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="expression" dxfId="916" priority="1080" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U68">
-    <cfRule type="expression" dxfId="915" priority="1078" stopIfTrue="1">
+    <cfRule type="expression" dxfId="923" priority="1086" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="expression" dxfId="914" priority="1077" stopIfTrue="1">
+    <cfRule type="expression" dxfId="922" priority="1085" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="913" priority="1076" stopIfTrue="1">
+    <cfRule type="expression" dxfId="921" priority="1084" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="expression" dxfId="912" priority="1075" stopIfTrue="1">
+    <cfRule type="expression" dxfId="920" priority="1083" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U69">
-    <cfRule type="expression" dxfId="911" priority="1073" stopIfTrue="1">
+    <cfRule type="expression" dxfId="919" priority="1081" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="expression" dxfId="910" priority="1072" stopIfTrue="1">
+    <cfRule type="expression" dxfId="918" priority="1080" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="909" priority="1071" stopIfTrue="1">
+    <cfRule type="expression" dxfId="917" priority="1079" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="expression" dxfId="908" priority="1070" stopIfTrue="1">
+    <cfRule type="expression" dxfId="916" priority="1078" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U70">
-    <cfRule type="expression" dxfId="907" priority="1068" stopIfTrue="1">
+    <cfRule type="expression" dxfId="915" priority="1076" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="expression" dxfId="906" priority="1067" stopIfTrue="1">
+    <cfRule type="expression" dxfId="914" priority="1075" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="905" priority="1066" stopIfTrue="1">
+    <cfRule type="expression" dxfId="913" priority="1074" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="expression" dxfId="904" priority="1065" stopIfTrue="1">
+    <cfRule type="expression" dxfId="912" priority="1073" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U71">
-    <cfRule type="expression" dxfId="903" priority="1061" stopIfTrue="1">
+    <cfRule type="expression" dxfId="911" priority="1069" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="expression" dxfId="902" priority="1060" stopIfTrue="1">
+    <cfRule type="expression" dxfId="910" priority="1068" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="901" priority="1059" stopIfTrue="1">
+    <cfRule type="expression" dxfId="909" priority="1067" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72">
-    <cfRule type="expression" dxfId="900" priority="1058" stopIfTrue="1">
+    <cfRule type="expression" dxfId="908" priority="1066" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U72">
-    <cfRule type="expression" dxfId="899" priority="1056" stopIfTrue="1">
+    <cfRule type="expression" dxfId="907" priority="1064" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="expression" dxfId="898" priority="1050" stopIfTrue="1">
+    <cfRule type="expression" dxfId="906" priority="1058" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="897" priority="1049" stopIfTrue="1">
+    <cfRule type="expression" dxfId="905" priority="1057" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="expression" dxfId="896" priority="1048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="904" priority="1056" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U73">
-    <cfRule type="expression" dxfId="895" priority="1046" stopIfTrue="1">
+    <cfRule type="expression" dxfId="903" priority="1054" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="expression" dxfId="894" priority="1045" stopIfTrue="1">
+    <cfRule type="expression" dxfId="902" priority="1053" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="893" priority="1044" stopIfTrue="1">
+    <cfRule type="expression" dxfId="901" priority="1052" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="expression" dxfId="892" priority="1043" stopIfTrue="1">
+    <cfRule type="expression" dxfId="900" priority="1051" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U74">
-    <cfRule type="expression" dxfId="891" priority="1041" stopIfTrue="1">
+    <cfRule type="expression" dxfId="899" priority="1049" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="expression" dxfId="890" priority="1040" stopIfTrue="1">
+    <cfRule type="expression" dxfId="898" priority="1048" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="889" priority="1039" stopIfTrue="1">
+    <cfRule type="expression" dxfId="897" priority="1047" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="expression" dxfId="888" priority="1038" stopIfTrue="1">
+    <cfRule type="expression" dxfId="896" priority="1046" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U75">
-    <cfRule type="expression" dxfId="887" priority="1036" stopIfTrue="1">
+    <cfRule type="expression" dxfId="895" priority="1044" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76">
-    <cfRule type="expression" dxfId="886" priority="1035" stopIfTrue="1">
+    <cfRule type="expression" dxfId="894" priority="1043" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="885" priority="1034" stopIfTrue="1">
+    <cfRule type="expression" dxfId="893" priority="1042" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="expression" dxfId="884" priority="1033" stopIfTrue="1">
+    <cfRule type="expression" dxfId="892" priority="1041" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U76">
-    <cfRule type="expression" dxfId="883" priority="1031" stopIfTrue="1">
+    <cfRule type="expression" dxfId="891" priority="1039" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="expression" dxfId="882" priority="1030" stopIfTrue="1">
+    <cfRule type="expression" dxfId="890" priority="1038" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="881" priority="1029" stopIfTrue="1">
+    <cfRule type="expression" dxfId="889" priority="1037" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="expression" dxfId="880" priority="1028" stopIfTrue="1">
+    <cfRule type="expression" dxfId="888" priority="1036" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U77">
-    <cfRule type="expression" dxfId="879" priority="1026" stopIfTrue="1">
+    <cfRule type="expression" dxfId="887" priority="1034" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D78">
-    <cfRule type="expression" dxfId="878" priority="1025" stopIfTrue="1">
+    <cfRule type="expression" dxfId="886" priority="1033" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="877" priority="1024" stopIfTrue="1">
+    <cfRule type="expression" dxfId="885" priority="1032" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="expression" dxfId="876" priority="1023" stopIfTrue="1">
+    <cfRule type="expression" dxfId="884" priority="1031" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U78">
-    <cfRule type="expression" dxfId="875" priority="1021" stopIfTrue="1">
+    <cfRule type="expression" dxfId="883" priority="1029" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="expression" dxfId="874" priority="1020" stopIfTrue="1">
+    <cfRule type="expression" dxfId="882" priority="1028" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="873" priority="1019" stopIfTrue="1">
+    <cfRule type="expression" dxfId="881" priority="1027" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="expression" dxfId="872" priority="1018" stopIfTrue="1">
+    <cfRule type="expression" dxfId="880" priority="1026" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U79">
-    <cfRule type="expression" dxfId="871" priority="1016" stopIfTrue="1">
+    <cfRule type="expression" dxfId="879" priority="1024" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80">
-    <cfRule type="expression" dxfId="870" priority="1015" stopIfTrue="1">
+    <cfRule type="expression" dxfId="878" priority="1023" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="869" priority="1014" stopIfTrue="1">
+    <cfRule type="expression" dxfId="877" priority="1022" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="expression" dxfId="868" priority="1013" stopIfTrue="1">
+    <cfRule type="expression" dxfId="876" priority="1021" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U80">
-    <cfRule type="expression" dxfId="867" priority="1011" stopIfTrue="1">
+    <cfRule type="expression" dxfId="875" priority="1019" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="expression" dxfId="866" priority="1010" stopIfTrue="1">
+    <cfRule type="expression" dxfId="874" priority="1018" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="expression" dxfId="865" priority="1009" stopIfTrue="1">
+    <cfRule type="expression" dxfId="873" priority="1017" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81">
-    <cfRule type="expression" dxfId="864" priority="1008" stopIfTrue="1">
+    <cfRule type="expression" dxfId="872" priority="1016" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U81">
-    <cfRule type="expression" dxfId="863" priority="1006" stopIfTrue="1">
+    <cfRule type="expression" dxfId="871" priority="1014" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82">
-    <cfRule type="expression" dxfId="862" priority="1005" stopIfTrue="1">
+    <cfRule type="expression" dxfId="870" priority="1013" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="expression" dxfId="861" priority="1004" stopIfTrue="1">
+    <cfRule type="expression" dxfId="869" priority="1012" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82">
-    <cfRule type="expression" dxfId="860" priority="1003" stopIfTrue="1">
+    <cfRule type="expression" dxfId="868" priority="1011" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U82">
-    <cfRule type="expression" dxfId="859" priority="1001" stopIfTrue="1">
+    <cfRule type="expression" dxfId="867" priority="1009" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
+    <cfRule type="expression" dxfId="866" priority="1008" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="expression" dxfId="865" priority="1007" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83">
+    <cfRule type="expression" dxfId="864" priority="1006" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U83">
+    <cfRule type="expression" dxfId="863" priority="1004" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="expression" dxfId="862" priority="1003" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="expression" dxfId="861" priority="1002" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84">
+    <cfRule type="expression" dxfId="860" priority="1001" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U84">
+    <cfRule type="expression" dxfId="859" priority="999" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T68:T84">
     <cfRule type="expression" dxfId="858" priority="1000" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="expression" dxfId="857" priority="999" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83">
-    <cfRule type="expression" dxfId="856" priority="998" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U83">
+  <conditionalFormatting sqref="D85">
+    <cfRule type="expression" dxfId="857" priority="998" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" dxfId="856" priority="997" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
     <cfRule type="expression" dxfId="855" priority="996" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="expression" dxfId="854" priority="995" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="expression" dxfId="853" priority="994" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84">
+  <conditionalFormatting sqref="U85">
+    <cfRule type="expression" dxfId="854" priority="994" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T85">
+    <cfRule type="expression" dxfId="853" priority="995" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86">
     <cfRule type="expression" dxfId="852" priority="993" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U84">
-    <cfRule type="expression" dxfId="851" priority="991" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T68:T84">
-    <cfRule type="expression" dxfId="850" priority="992" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="expression" dxfId="849" priority="990" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="expression" dxfId="848" priority="989" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" dxfId="851" priority="992" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86">
+    <cfRule type="expression" dxfId="850" priority="991" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U86">
+    <cfRule type="expression" dxfId="849" priority="989" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T86">
+    <cfRule type="expression" dxfId="848" priority="990" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
     <cfRule type="expression" dxfId="847" priority="988" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U85">
-    <cfRule type="expression" dxfId="846" priority="986" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T85">
-    <cfRule type="expression" dxfId="845" priority="987" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="expression" dxfId="844" priority="985" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="expression" dxfId="843" priority="984" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="846" priority="987" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87">
+    <cfRule type="expression" dxfId="845" priority="986" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U87:U88">
+    <cfRule type="expression" dxfId="844" priority="984" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T87:T88">
+    <cfRule type="expression" dxfId="843" priority="985" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
     <cfRule type="expression" dxfId="842" priority="983" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U86">
-    <cfRule type="expression" dxfId="841" priority="981" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T86">
-    <cfRule type="expression" dxfId="840" priority="982" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
+  <conditionalFormatting sqref="E88">
+    <cfRule type="expression" dxfId="841" priority="982" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F88:F89">
+    <cfRule type="expression" dxfId="840" priority="981" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D89">
     <cfRule type="expression" dxfId="839" priority="980" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="F90:F91">
     <cfRule type="expression" dxfId="838" priority="979" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
+  <conditionalFormatting sqref="D90:D91">
     <cfRule type="expression" dxfId="837" priority="978" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U87:U88">
-    <cfRule type="expression" dxfId="836" priority="976" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T87:T88">
-    <cfRule type="expression" dxfId="835" priority="977" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
+  <conditionalFormatting sqref="F92">
+    <cfRule type="expression" dxfId="836" priority="977" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D92">
+    <cfRule type="expression" dxfId="835" priority="976" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F93">
     <cfRule type="expression" dxfId="834" priority="975" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
+  <conditionalFormatting sqref="D93">
     <cfRule type="expression" dxfId="833" priority="974" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:F89">
+  <conditionalFormatting sqref="D94">
     <cfRule type="expression" dxfId="832" priority="973" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
+  <conditionalFormatting sqref="E94">
     <cfRule type="expression" dxfId="831" priority="972" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:F91">
+  <conditionalFormatting sqref="F94">
     <cfRule type="expression" dxfId="830" priority="971" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D90:D91">
-    <cfRule type="expression" dxfId="829" priority="970" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92">
-    <cfRule type="expression" dxfId="828" priority="969" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D92">
+  <conditionalFormatting sqref="U94">
+    <cfRule type="expression" dxfId="829" priority="969" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T94">
+    <cfRule type="expression" dxfId="828" priority="970" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D95">
     <cfRule type="expression" dxfId="827" priority="968" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F93">
+  <conditionalFormatting sqref="E95">
     <cfRule type="expression" dxfId="826" priority="967" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
+  <conditionalFormatting sqref="F95">
     <cfRule type="expression" dxfId="825" priority="966" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
-    <cfRule type="expression" dxfId="824" priority="965" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="expression" dxfId="823" priority="964" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F94">
+  <conditionalFormatting sqref="U95">
+    <cfRule type="expression" dxfId="824" priority="964" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T95">
+    <cfRule type="expression" dxfId="823" priority="965" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96">
     <cfRule type="expression" dxfId="822" priority="963" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U94">
-    <cfRule type="expression" dxfId="821" priority="961" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T94">
-    <cfRule type="expression" dxfId="820" priority="962" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D95">
-    <cfRule type="expression" dxfId="819" priority="960" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="expression" dxfId="818" priority="959" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
+  <conditionalFormatting sqref="E96">
+    <cfRule type="expression" dxfId="821" priority="962" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96">
+    <cfRule type="expression" dxfId="820" priority="961" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U96">
+    <cfRule type="expression" dxfId="819" priority="959" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T96">
+    <cfRule type="expression" dxfId="818" priority="960" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
     <cfRule type="expression" dxfId="817" priority="958" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U95">
-    <cfRule type="expression" dxfId="816" priority="956" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T95">
-    <cfRule type="expression" dxfId="815" priority="957" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96">
-    <cfRule type="expression" dxfId="814" priority="955" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="expression" dxfId="813" priority="954" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
+  <conditionalFormatting sqref="E97">
+    <cfRule type="expression" dxfId="816" priority="957" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97">
+    <cfRule type="expression" dxfId="815" priority="956" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U97">
+    <cfRule type="expression" dxfId="814" priority="954" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T97">
+    <cfRule type="expression" dxfId="813" priority="955" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D98">
     <cfRule type="expression" dxfId="812" priority="953" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U96">
-    <cfRule type="expression" dxfId="811" priority="951" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T96">
-    <cfRule type="expression" dxfId="810" priority="952" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="expression" dxfId="809" priority="950" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="expression" dxfId="808" priority="949" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" dxfId="811" priority="952" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98">
+    <cfRule type="expression" dxfId="810" priority="951" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U98">
+    <cfRule type="expression" dxfId="809" priority="949" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T98">
+    <cfRule type="expression" dxfId="808" priority="950" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99">
     <cfRule type="expression" dxfId="807" priority="948" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U97">
-    <cfRule type="expression" dxfId="806" priority="946" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T97">
-    <cfRule type="expression" dxfId="805" priority="947" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D98">
-    <cfRule type="expression" dxfId="804" priority="945" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="803" priority="944" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
+  <conditionalFormatting sqref="E99">
+    <cfRule type="expression" dxfId="806" priority="947" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F99">
+    <cfRule type="expression" dxfId="805" priority="946" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U99">
+    <cfRule type="expression" dxfId="804" priority="944" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T99">
+    <cfRule type="expression" dxfId="803" priority="945" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100">
     <cfRule type="expression" dxfId="802" priority="943" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U98">
-    <cfRule type="expression" dxfId="801" priority="941" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T98">
-    <cfRule type="expression" dxfId="800" priority="942" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99">
-    <cfRule type="expression" dxfId="799" priority="940" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="798" priority="939" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F99">
+  <conditionalFormatting sqref="E100">
+    <cfRule type="expression" dxfId="801" priority="942" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F100">
+    <cfRule type="expression" dxfId="800" priority="941" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U100">
+    <cfRule type="expression" dxfId="799" priority="939" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T100">
+    <cfRule type="expression" dxfId="798" priority="940" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D101">
     <cfRule type="expression" dxfId="797" priority="938" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U99">
-    <cfRule type="expression" dxfId="796" priority="936" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T99">
-    <cfRule type="expression" dxfId="795" priority="937" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D100">
-    <cfRule type="expression" dxfId="794" priority="935" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="expression" dxfId="793" priority="934" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F100">
-    <cfRule type="expression" dxfId="792" priority="933" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U100">
-    <cfRule type="expression" dxfId="791" priority="931" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T100">
-    <cfRule type="expression" dxfId="790" priority="932" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
-    <cfRule type="expression" dxfId="789" priority="930" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="788" priority="929" stopIfTrue="1">
+    <cfRule type="expression" dxfId="796" priority="937" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101">
-    <cfRule type="expression" dxfId="787" priority="928" stopIfTrue="1">
+    <cfRule type="expression" dxfId="795" priority="936" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="expression" dxfId="786" priority="925" stopIfTrue="1">
+    <cfRule type="expression" dxfId="794" priority="933" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="785" priority="924" stopIfTrue="1">
+    <cfRule type="expression" dxfId="793" priority="932" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102">
-    <cfRule type="expression" dxfId="784" priority="923" stopIfTrue="1">
+    <cfRule type="expression" dxfId="792" priority="931" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="expression" dxfId="783" priority="920" stopIfTrue="1">
+    <cfRule type="expression" dxfId="791" priority="928" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="expression" dxfId="782" priority="919" stopIfTrue="1">
+    <cfRule type="expression" dxfId="790" priority="927" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103">
-    <cfRule type="expression" dxfId="781" priority="918" stopIfTrue="1">
+    <cfRule type="expression" dxfId="789" priority="926" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U101">
+    <cfRule type="expression" dxfId="788" priority="923" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U102">
+    <cfRule type="expression" dxfId="787" priority="922" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U103">
+    <cfRule type="expression" dxfId="786" priority="921" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104">
+    <cfRule type="expression" dxfId="785" priority="920" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="expression" dxfId="784" priority="919" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F104">
+    <cfRule type="expression" dxfId="783" priority="918" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U104">
+    <cfRule type="expression" dxfId="782" priority="916" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T104">
+    <cfRule type="expression" dxfId="781" priority="917" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D105">
     <cfRule type="expression" dxfId="780" priority="915" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U102">
+  <conditionalFormatting sqref="E105">
     <cfRule type="expression" dxfId="779" priority="914" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U103">
+  <conditionalFormatting sqref="F105">
     <cfRule type="expression" dxfId="778" priority="913" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D104">
-    <cfRule type="expression" dxfId="777" priority="912" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="expression" dxfId="776" priority="911" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F104">
+  <conditionalFormatting sqref="U105">
+    <cfRule type="expression" dxfId="777" priority="911" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T105">
+    <cfRule type="expression" dxfId="776" priority="912" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106">
     <cfRule type="expression" dxfId="775" priority="910" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U104">
-    <cfRule type="expression" dxfId="774" priority="908" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T104">
-    <cfRule type="expression" dxfId="773" priority="909" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D105">
-    <cfRule type="expression" dxfId="772" priority="907" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="expression" dxfId="771" priority="906" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F105">
+  <conditionalFormatting sqref="E106">
+    <cfRule type="expression" dxfId="774" priority="909" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F106">
+    <cfRule type="expression" dxfId="773" priority="908" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U106">
+    <cfRule type="expression" dxfId="772" priority="906" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T106">
+    <cfRule type="expression" dxfId="771" priority="907" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D107">
     <cfRule type="expression" dxfId="770" priority="905" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U105">
-    <cfRule type="expression" dxfId="769" priority="903" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T105">
-    <cfRule type="expression" dxfId="768" priority="904" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D106">
+  <conditionalFormatting sqref="E107">
+    <cfRule type="expression" dxfId="769" priority="904" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="expression" dxfId="768" priority="903" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T107">
     <cfRule type="expression" dxfId="767" priority="902" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
+  <conditionalFormatting sqref="U107">
     <cfRule type="expression" dxfId="766" priority="901" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106">
+  <conditionalFormatting sqref="D108">
     <cfRule type="expression" dxfId="765" priority="900" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U106">
-    <cfRule type="expression" dxfId="764" priority="898" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T106">
-    <cfRule type="expression" dxfId="763" priority="899" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D107">
+  <conditionalFormatting sqref="E108">
+    <cfRule type="expression" dxfId="764" priority="899" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F108">
+    <cfRule type="expression" dxfId="763" priority="898" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T108">
     <cfRule type="expression" dxfId="762" priority="897" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
+  <conditionalFormatting sqref="U108">
     <cfRule type="expression" dxfId="761" priority="896" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
+  <conditionalFormatting sqref="T101">
     <cfRule type="expression" dxfId="760" priority="895" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T107">
+  <conditionalFormatting sqref="T102">
     <cfRule type="expression" dxfId="759" priority="894" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U107">
+  <conditionalFormatting sqref="T103">
     <cfRule type="expression" dxfId="758" priority="893" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D108">
+  <conditionalFormatting sqref="D109:D119">
     <cfRule type="expression" dxfId="757" priority="892" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
+  <conditionalFormatting sqref="E109">
     <cfRule type="expression" dxfId="756" priority="891" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108">
+  <conditionalFormatting sqref="F109">
     <cfRule type="expression" dxfId="755" priority="890" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T108">
+  <conditionalFormatting sqref="T109">
     <cfRule type="expression" dxfId="754" priority="889" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U108">
+  <conditionalFormatting sqref="U109">
     <cfRule type="expression" dxfId="753" priority="888" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T101">
-    <cfRule type="expression" dxfId="752" priority="887" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T102">
-    <cfRule type="expression" dxfId="751" priority="886" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T103">
-    <cfRule type="expression" dxfId="750" priority="885" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D109:D119">
-    <cfRule type="expression" dxfId="749" priority="884" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="expression" dxfId="748" priority="883" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F109">
-    <cfRule type="expression" dxfId="747" priority="882" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T109">
-    <cfRule type="expression" dxfId="746" priority="881" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U109">
-    <cfRule type="expression" dxfId="745" priority="880" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="expression" dxfId="744" priority="878" stopIfTrue="1">
+    <cfRule type="expression" dxfId="752" priority="886" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="expression" dxfId="743" priority="877" stopIfTrue="1">
+    <cfRule type="expression" dxfId="751" priority="885" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T110">
-    <cfRule type="expression" dxfId="742" priority="876" stopIfTrue="1">
+    <cfRule type="expression" dxfId="750" priority="884" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U110">
-    <cfRule type="expression" dxfId="741" priority="875" stopIfTrue="1">
+    <cfRule type="expression" dxfId="749" priority="883" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="expression" dxfId="740" priority="873" stopIfTrue="1">
+    <cfRule type="expression" dxfId="748" priority="881" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111">
-    <cfRule type="expression" dxfId="739" priority="872" stopIfTrue="1">
+    <cfRule type="expression" dxfId="747" priority="880" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T111">
-    <cfRule type="expression" dxfId="738" priority="871" stopIfTrue="1">
+    <cfRule type="expression" dxfId="746" priority="879" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U111">
-    <cfRule type="expression" dxfId="737" priority="870" stopIfTrue="1">
+    <cfRule type="expression" dxfId="745" priority="878" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112:E115">
-    <cfRule type="expression" dxfId="736" priority="868" stopIfTrue="1">
+    <cfRule type="expression" dxfId="744" priority="876" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="expression" dxfId="735" priority="867" stopIfTrue="1">
+    <cfRule type="expression" dxfId="743" priority="875" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T112">
-    <cfRule type="expression" dxfId="734" priority="866" stopIfTrue="1">
+    <cfRule type="expression" dxfId="742" priority="874" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U112">
-    <cfRule type="expression" dxfId="733" priority="865" stopIfTrue="1">
+    <cfRule type="expression" dxfId="741" priority="873" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F113">
-    <cfRule type="expression" dxfId="732" priority="862" stopIfTrue="1">
+    <cfRule type="expression" dxfId="740" priority="870" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T113">
-    <cfRule type="expression" dxfId="731" priority="861" stopIfTrue="1">
+    <cfRule type="expression" dxfId="739" priority="869" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U113">
-    <cfRule type="expression" dxfId="730" priority="860" stopIfTrue="1">
+    <cfRule type="expression" dxfId="738" priority="868" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114">
-    <cfRule type="expression" dxfId="729" priority="857" stopIfTrue="1">
+    <cfRule type="expression" dxfId="737" priority="865" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T114">
-    <cfRule type="expression" dxfId="728" priority="856" stopIfTrue="1">
+    <cfRule type="expression" dxfId="736" priority="864" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U114">
-    <cfRule type="expression" dxfId="727" priority="855" stopIfTrue="1">
+    <cfRule type="expression" dxfId="735" priority="863" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F115">
-    <cfRule type="expression" dxfId="726" priority="852" stopIfTrue="1">
+    <cfRule type="expression" dxfId="734" priority="860" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T115">
-    <cfRule type="expression" dxfId="725" priority="851" stopIfTrue="1">
+    <cfRule type="expression" dxfId="733" priority="859" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U115">
-    <cfRule type="expression" dxfId="724" priority="850" stopIfTrue="1">
+    <cfRule type="expression" dxfId="732" priority="858" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F116">
-    <cfRule type="expression" dxfId="723" priority="849" stopIfTrue="1">
+    <cfRule type="expression" dxfId="731" priority="857" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F117">
-    <cfRule type="expression" dxfId="722" priority="846" stopIfTrue="1">
+    <cfRule type="expression" dxfId="730" priority="854" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118">
-    <cfRule type="expression" dxfId="721" priority="843" stopIfTrue="1">
+    <cfRule type="expression" dxfId="729" priority="851" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="expression" dxfId="720" priority="840" stopIfTrue="1">
+    <cfRule type="expression" dxfId="728" priority="848" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="expression" dxfId="719" priority="829" stopIfTrue="1">
+    <cfRule type="expression" dxfId="727" priority="837" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="expression" dxfId="718" priority="828" stopIfTrue="1">
+    <cfRule type="expression" dxfId="726" priority="836" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T120">
-    <cfRule type="expression" dxfId="717" priority="827" stopIfTrue="1">
+    <cfRule type="expression" dxfId="725" priority="835" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="expression" dxfId="716" priority="825" stopIfTrue="1">
+    <cfRule type="expression" dxfId="724" priority="833" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F121">
-    <cfRule type="expression" dxfId="715" priority="824" stopIfTrue="1">
+    <cfRule type="expression" dxfId="723" priority="832" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T121">
-    <cfRule type="expression" dxfId="714" priority="823" stopIfTrue="1">
+    <cfRule type="expression" dxfId="722" priority="831" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D120:D124">
-    <cfRule type="expression" dxfId="713" priority="822" stopIfTrue="1">
+    <cfRule type="expression" dxfId="721" priority="830" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="expression" dxfId="712" priority="821" stopIfTrue="1">
+    <cfRule type="expression" dxfId="720" priority="829" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F122">
-    <cfRule type="expression" dxfId="711" priority="820" stopIfTrue="1">
+    <cfRule type="expression" dxfId="719" priority="828" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T122">
-    <cfRule type="expression" dxfId="710" priority="819" stopIfTrue="1">
+    <cfRule type="expression" dxfId="718" priority="827" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="expression" dxfId="709" priority="817" stopIfTrue="1">
+    <cfRule type="expression" dxfId="717" priority="825" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F123">
-    <cfRule type="expression" dxfId="708" priority="816" stopIfTrue="1">
+    <cfRule type="expression" dxfId="716" priority="824" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T123">
-    <cfRule type="expression" dxfId="707" priority="815" stopIfTrue="1">
+    <cfRule type="expression" dxfId="715" priority="823" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="expression" dxfId="706" priority="813" stopIfTrue="1">
+    <cfRule type="expression" dxfId="714" priority="821" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F124:F127">
-    <cfRule type="expression" dxfId="705" priority="812" stopIfTrue="1">
+    <cfRule type="expression" dxfId="713" priority="820" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T124">
-    <cfRule type="expression" dxfId="704" priority="811" stopIfTrue="1">
+    <cfRule type="expression" dxfId="712" priority="819" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D125">
-    <cfRule type="expression" dxfId="703" priority="810" stopIfTrue="1">
+    <cfRule type="expression" dxfId="711" priority="818" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="expression" dxfId="702" priority="809" stopIfTrue="1">
+    <cfRule type="expression" dxfId="710" priority="817" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T125">
-    <cfRule type="expression" dxfId="701" priority="807" stopIfTrue="1">
+    <cfRule type="expression" dxfId="709" priority="815" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D126">
-    <cfRule type="expression" dxfId="700" priority="806" stopIfTrue="1">
+    <cfRule type="expression" dxfId="708" priority="814" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="expression" dxfId="699" priority="805" stopIfTrue="1">
+    <cfRule type="expression" dxfId="707" priority="813" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T126">
-    <cfRule type="expression" dxfId="698" priority="803" stopIfTrue="1">
+    <cfRule type="expression" dxfId="706" priority="811" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D127:D139">
-    <cfRule type="expression" dxfId="697" priority="802" stopIfTrue="1">
+    <cfRule type="expression" dxfId="705" priority="810" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="expression" dxfId="696" priority="801" stopIfTrue="1">
+    <cfRule type="expression" dxfId="704" priority="809" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U126">
-    <cfRule type="expression" dxfId="695" priority="796" stopIfTrue="1">
+    <cfRule type="expression" dxfId="703" priority="804" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T127">
-    <cfRule type="expression" dxfId="694" priority="799" stopIfTrue="1">
+    <cfRule type="expression" dxfId="702" priority="807" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U124">
-    <cfRule type="expression" dxfId="693" priority="798" stopIfTrue="1">
+    <cfRule type="expression" dxfId="701" priority="806" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U125">
-    <cfRule type="expression" dxfId="692" priority="797" stopIfTrue="1">
+    <cfRule type="expression" dxfId="700" priority="805" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U127">
-    <cfRule type="expression" dxfId="691" priority="795" stopIfTrue="1">
+    <cfRule type="expression" dxfId="699" priority="803" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F128">
-    <cfRule type="expression" dxfId="690" priority="794" stopIfTrue="1">
+    <cfRule type="expression" dxfId="698" priority="802" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="expression" dxfId="689" priority="792" stopIfTrue="1">
+    <cfRule type="expression" dxfId="697" priority="800" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T128">
-    <cfRule type="expression" dxfId="688" priority="791" stopIfTrue="1">
+    <cfRule type="expression" dxfId="696" priority="799" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U128">
-    <cfRule type="expression" dxfId="687" priority="790" stopIfTrue="1">
+    <cfRule type="expression" dxfId="695" priority="798" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129">
-    <cfRule type="expression" dxfId="686" priority="788" stopIfTrue="1">
+    <cfRule type="expression" dxfId="694" priority="796" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F129">
-    <cfRule type="expression" dxfId="685" priority="787" stopIfTrue="1">
+    <cfRule type="expression" dxfId="693" priority="795" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T129">
-    <cfRule type="expression" dxfId="684" priority="786" stopIfTrue="1">
+    <cfRule type="expression" dxfId="692" priority="794" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F130">
-    <cfRule type="expression" dxfId="683" priority="785" stopIfTrue="1">
+    <cfRule type="expression" dxfId="691" priority="793" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="expression" dxfId="682" priority="783" stopIfTrue="1">
+    <cfRule type="expression" dxfId="690" priority="791" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T130">
-    <cfRule type="expression" dxfId="681" priority="782" stopIfTrue="1">
+    <cfRule type="expression" dxfId="689" priority="790" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U130">
-    <cfRule type="expression" dxfId="680" priority="781" stopIfTrue="1">
+    <cfRule type="expression" dxfId="688" priority="789" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E131">
-    <cfRule type="expression" dxfId="679" priority="779" stopIfTrue="1">
+    <cfRule type="expression" dxfId="687" priority="787" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F131">
-    <cfRule type="expression" dxfId="678" priority="778" stopIfTrue="1">
+    <cfRule type="expression" dxfId="686" priority="786" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T131">
-    <cfRule type="expression" dxfId="677" priority="777" stopIfTrue="1">
+    <cfRule type="expression" dxfId="685" priority="785" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F132">
-    <cfRule type="expression" dxfId="676" priority="776" stopIfTrue="1">
+    <cfRule type="expression" dxfId="684" priority="784" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132">
-    <cfRule type="expression" dxfId="675" priority="774" stopIfTrue="1">
+    <cfRule type="expression" dxfId="683" priority="782" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T132">
-    <cfRule type="expression" dxfId="674" priority="773" stopIfTrue="1">
+    <cfRule type="expression" dxfId="682" priority="781" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U132">
-    <cfRule type="expression" dxfId="673" priority="772" stopIfTrue="1">
+    <cfRule type="expression" dxfId="681" priority="780" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="expression" dxfId="672" priority="770" stopIfTrue="1">
+    <cfRule type="expression" dxfId="680" priority="778" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F133">
-    <cfRule type="expression" dxfId="671" priority="769" stopIfTrue="1">
+    <cfRule type="expression" dxfId="679" priority="777" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T133">
-    <cfRule type="expression" dxfId="670" priority="768" stopIfTrue="1">
+    <cfRule type="expression" dxfId="678" priority="776" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134">
-    <cfRule type="expression" dxfId="669" priority="767" stopIfTrue="1">
+    <cfRule type="expression" dxfId="677" priority="775" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="expression" dxfId="668" priority="765" stopIfTrue="1">
+    <cfRule type="expression" dxfId="676" priority="773" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T134">
-    <cfRule type="expression" dxfId="667" priority="764" stopIfTrue="1">
+    <cfRule type="expression" dxfId="675" priority="772" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U134">
-    <cfRule type="expression" dxfId="666" priority="763" stopIfTrue="1">
+    <cfRule type="expression" dxfId="674" priority="771" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="expression" dxfId="665" priority="761" stopIfTrue="1">
+    <cfRule type="expression" dxfId="673" priority="769" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135">
-    <cfRule type="expression" dxfId="664" priority="760" stopIfTrue="1">
+    <cfRule type="expression" dxfId="672" priority="768" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T135">
-    <cfRule type="expression" dxfId="663" priority="759" stopIfTrue="1">
+    <cfRule type="expression" dxfId="671" priority="767" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F136">
-    <cfRule type="expression" dxfId="662" priority="758" stopIfTrue="1">
+    <cfRule type="expression" dxfId="670" priority="766" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="expression" dxfId="661" priority="756" stopIfTrue="1">
+    <cfRule type="expression" dxfId="669" priority="764" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T136">
-    <cfRule type="expression" dxfId="660" priority="755" stopIfTrue="1">
+    <cfRule type="expression" dxfId="668" priority="763" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U136">
-    <cfRule type="expression" dxfId="659" priority="754" stopIfTrue="1">
+    <cfRule type="expression" dxfId="667" priority="762" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="expression" dxfId="658" priority="752" stopIfTrue="1">
+    <cfRule type="expression" dxfId="666" priority="760" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137">
-    <cfRule type="expression" dxfId="657" priority="751" stopIfTrue="1">
+    <cfRule type="expression" dxfId="665" priority="759" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T137">
-    <cfRule type="expression" dxfId="656" priority="750" stopIfTrue="1">
+    <cfRule type="expression" dxfId="664" priority="758" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F138">
-    <cfRule type="expression" dxfId="655" priority="749" stopIfTrue="1">
+    <cfRule type="expression" dxfId="663" priority="757" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
-    <cfRule type="expression" dxfId="654" priority="747" stopIfTrue="1">
+    <cfRule type="expression" dxfId="662" priority="755" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T138">
-    <cfRule type="expression" dxfId="653" priority="746" stopIfTrue="1">
+    <cfRule type="expression" dxfId="661" priority="754" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U138">
-    <cfRule type="expression" dxfId="652" priority="745" stopIfTrue="1">
+    <cfRule type="expression" dxfId="660" priority="753" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="expression" dxfId="651" priority="743" stopIfTrue="1">
+    <cfRule type="expression" dxfId="659" priority="751" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F139">
-    <cfRule type="expression" dxfId="650" priority="742" stopIfTrue="1">
+    <cfRule type="expression" dxfId="658" priority="750" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T139">
-    <cfRule type="expression" dxfId="649" priority="741" stopIfTrue="1">
+    <cfRule type="expression" dxfId="657" priority="749" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F140">
-    <cfRule type="expression" dxfId="648" priority="740" stopIfTrue="1">
+    <cfRule type="expression" dxfId="656" priority="748" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140">
-    <cfRule type="expression" dxfId="647" priority="738" stopIfTrue="1">
+    <cfRule type="expression" dxfId="655" priority="746" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T140">
-    <cfRule type="expression" dxfId="646" priority="737" stopIfTrue="1">
+    <cfRule type="expression" dxfId="654" priority="745" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U140">
-    <cfRule type="expression" dxfId="645" priority="736" stopIfTrue="1">
+    <cfRule type="expression" dxfId="653" priority="744" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D140:D151">
-    <cfRule type="expression" dxfId="644" priority="735" stopIfTrue="1">
+    <cfRule type="expression" dxfId="652" priority="743" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="expression" dxfId="643" priority="734" stopIfTrue="1">
+    <cfRule type="expression" dxfId="651" priority="742" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="expression" dxfId="642" priority="733" stopIfTrue="1">
+    <cfRule type="expression" dxfId="650" priority="741" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T141">
-    <cfRule type="expression" dxfId="641" priority="732" stopIfTrue="1">
+    <cfRule type="expression" dxfId="649" priority="740" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="expression" dxfId="640" priority="731" stopIfTrue="1">
+    <cfRule type="expression" dxfId="648" priority="739" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142">
-    <cfRule type="expression" dxfId="639" priority="729" stopIfTrue="1">
+    <cfRule type="expression" dxfId="647" priority="737" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T142">
-    <cfRule type="expression" dxfId="638" priority="728" stopIfTrue="1">
+    <cfRule type="expression" dxfId="646" priority="736" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U142">
-    <cfRule type="expression" dxfId="637" priority="727" stopIfTrue="1">
+    <cfRule type="expression" dxfId="645" priority="735" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143">
-    <cfRule type="expression" dxfId="636" priority="725" stopIfTrue="1">
+    <cfRule type="expression" dxfId="644" priority="733" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="expression" dxfId="635" priority="724" stopIfTrue="1">
+    <cfRule type="expression" dxfId="643" priority="732" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T143">
-    <cfRule type="expression" dxfId="634" priority="723" stopIfTrue="1">
+    <cfRule type="expression" dxfId="642" priority="731" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144">
-    <cfRule type="expression" dxfId="633" priority="722" stopIfTrue="1">
+    <cfRule type="expression" dxfId="641" priority="730" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E144">
-    <cfRule type="expression" dxfId="632" priority="720" stopIfTrue="1">
+    <cfRule type="expression" dxfId="640" priority="728" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T144">
-    <cfRule type="expression" dxfId="631" priority="719" stopIfTrue="1">
+    <cfRule type="expression" dxfId="639" priority="727" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U144">
-    <cfRule type="expression" dxfId="630" priority="718" stopIfTrue="1">
+    <cfRule type="expression" dxfId="638" priority="726" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145">
-    <cfRule type="expression" dxfId="629" priority="716" stopIfTrue="1">
+    <cfRule type="expression" dxfId="637" priority="724" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F145">
-    <cfRule type="expression" dxfId="628" priority="715" stopIfTrue="1">
+    <cfRule type="expression" dxfId="636" priority="723" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T145">
-    <cfRule type="expression" dxfId="627" priority="714" stopIfTrue="1">
+    <cfRule type="expression" dxfId="635" priority="722" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F146">
-    <cfRule type="expression" dxfId="626" priority="713" stopIfTrue="1">
+    <cfRule type="expression" dxfId="634" priority="721" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E146">
-    <cfRule type="expression" dxfId="625" priority="711" stopIfTrue="1">
+    <cfRule type="expression" dxfId="633" priority="719" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T146">
-    <cfRule type="expression" dxfId="624" priority="710" stopIfTrue="1">
+    <cfRule type="expression" dxfId="632" priority="718" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U146">
-    <cfRule type="expression" dxfId="623" priority="709" stopIfTrue="1">
+    <cfRule type="expression" dxfId="631" priority="717" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E147">
-    <cfRule type="expression" dxfId="622" priority="707" stopIfTrue="1">
+    <cfRule type="expression" dxfId="630" priority="715" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147">
-    <cfRule type="expression" dxfId="621" priority="706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="629" priority="714" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T147">
-    <cfRule type="expression" dxfId="620" priority="705" stopIfTrue="1">
+    <cfRule type="expression" dxfId="628" priority="713" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="expression" dxfId="619" priority="704" stopIfTrue="1">
+    <cfRule type="expression" dxfId="627" priority="712" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E148">
-    <cfRule type="expression" dxfId="618" priority="702" stopIfTrue="1">
+    <cfRule type="expression" dxfId="626" priority="710" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T148">
-    <cfRule type="expression" dxfId="617" priority="701" stopIfTrue="1">
+    <cfRule type="expression" dxfId="625" priority="709" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U148">
-    <cfRule type="expression" dxfId="616" priority="700" stopIfTrue="1">
+    <cfRule type="expression" dxfId="624" priority="708" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F149">
-    <cfRule type="expression" dxfId="615" priority="695" stopIfTrue="1">
+    <cfRule type="expression" dxfId="623" priority="703" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149">
-    <cfRule type="expression" dxfId="614" priority="693" stopIfTrue="1">
+    <cfRule type="expression" dxfId="622" priority="701" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T149">
-    <cfRule type="expression" dxfId="613" priority="692" stopIfTrue="1">
+    <cfRule type="expression" dxfId="621" priority="700" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U149">
-    <cfRule type="expression" dxfId="612" priority="691" stopIfTrue="1">
+    <cfRule type="expression" dxfId="620" priority="699" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F150">
-    <cfRule type="expression" dxfId="611" priority="686" stopIfTrue="1">
+    <cfRule type="expression" dxfId="619" priority="694" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E150">
-    <cfRule type="expression" dxfId="610" priority="684" stopIfTrue="1">
+    <cfRule type="expression" dxfId="618" priority="692" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T150">
-    <cfRule type="expression" dxfId="609" priority="683" stopIfTrue="1">
+    <cfRule type="expression" dxfId="617" priority="691" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U150">
-    <cfRule type="expression" dxfId="608" priority="682" stopIfTrue="1">
+    <cfRule type="expression" dxfId="616" priority="690" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
+    <cfRule type="expression" dxfId="615" priority="688" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F151">
+    <cfRule type="expression" dxfId="614" priority="687" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T151">
+    <cfRule type="expression" dxfId="613" priority="686" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F152">
+    <cfRule type="expression" dxfId="612" priority="685" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D152">
+    <cfRule type="expression" dxfId="611" priority="684" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="expression" dxfId="610" priority="683" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T152">
+    <cfRule type="expression" dxfId="609" priority="682" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U152">
+    <cfRule type="expression" dxfId="608" priority="681" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D153">
     <cfRule type="expression" dxfId="607" priority="680" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F151">
+  <conditionalFormatting sqref="E153">
     <cfRule type="expression" dxfId="606" priority="679" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T151">
+  <conditionalFormatting sqref="F153">
     <cfRule type="expression" dxfId="605" priority="678" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F152">
+  <conditionalFormatting sqref="T153">
     <cfRule type="expression" dxfId="604" priority="677" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D152">
+  <conditionalFormatting sqref="F154">
     <cfRule type="expression" dxfId="603" priority="676" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
+  <conditionalFormatting sqref="D154">
     <cfRule type="expression" dxfId="602" priority="675" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T152">
+  <conditionalFormatting sqref="E154">
     <cfRule type="expression" dxfId="601" priority="674" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U152">
+  <conditionalFormatting sqref="T154">
     <cfRule type="expression" dxfId="600" priority="673" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D153">
+  <conditionalFormatting sqref="U154">
     <cfRule type="expression" dxfId="599" priority="672" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E153">
+  <conditionalFormatting sqref="D155">
     <cfRule type="expression" dxfId="598" priority="671" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F153">
+  <conditionalFormatting sqref="E155">
     <cfRule type="expression" dxfId="597" priority="670" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T153">
+  <conditionalFormatting sqref="F155">
     <cfRule type="expression" dxfId="596" priority="669" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F154">
+  <conditionalFormatting sqref="T155">
     <cfRule type="expression" dxfId="595" priority="668" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D154">
+  <conditionalFormatting sqref="F156">
     <cfRule type="expression" dxfId="594" priority="667" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
+  <conditionalFormatting sqref="D156">
     <cfRule type="expression" dxfId="593" priority="666" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T154">
+  <conditionalFormatting sqref="E156">
     <cfRule type="expression" dxfId="592" priority="665" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U154">
+  <conditionalFormatting sqref="T156">
     <cfRule type="expression" dxfId="591" priority="664" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D155">
+  <conditionalFormatting sqref="U156">
     <cfRule type="expression" dxfId="590" priority="663" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
+  <conditionalFormatting sqref="D157">
     <cfRule type="expression" dxfId="589" priority="662" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F155">
+  <conditionalFormatting sqref="E157">
     <cfRule type="expression" dxfId="588" priority="661" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T155">
+  <conditionalFormatting sqref="F157">
     <cfRule type="expression" dxfId="587" priority="660" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F156">
+  <conditionalFormatting sqref="T157">
     <cfRule type="expression" dxfId="586" priority="659" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D156">
+  <conditionalFormatting sqref="F158">
     <cfRule type="expression" dxfId="585" priority="658" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
+  <conditionalFormatting sqref="D158">
     <cfRule type="expression" dxfId="584" priority="657" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T156">
+  <conditionalFormatting sqref="E158">
     <cfRule type="expression" dxfId="583" priority="656" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U156">
+  <conditionalFormatting sqref="T158">
     <cfRule type="expression" dxfId="582" priority="655" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D157">
+  <conditionalFormatting sqref="U158">
     <cfRule type="expression" dxfId="581" priority="654" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E157">
+  <conditionalFormatting sqref="D159">
     <cfRule type="expression" dxfId="580" priority="653" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F157">
+  <conditionalFormatting sqref="E159">
     <cfRule type="expression" dxfId="579" priority="652" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T157">
+  <conditionalFormatting sqref="F159">
     <cfRule type="expression" dxfId="578" priority="651" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F158">
+  <conditionalFormatting sqref="T159">
     <cfRule type="expression" dxfId="577" priority="650" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D158">
+  <conditionalFormatting sqref="F160">
     <cfRule type="expression" dxfId="576" priority="649" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
+  <conditionalFormatting sqref="D160">
     <cfRule type="expression" dxfId="575" priority="648" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T158">
+  <conditionalFormatting sqref="E160">
     <cfRule type="expression" dxfId="574" priority="647" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U158">
+  <conditionalFormatting sqref="T160">
     <cfRule type="expression" dxfId="573" priority="646" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D159">
+  <conditionalFormatting sqref="U160">
     <cfRule type="expression" dxfId="572" priority="645" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
+  <conditionalFormatting sqref="D161">
     <cfRule type="expression" dxfId="571" priority="644" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F159">
+  <conditionalFormatting sqref="E161">
     <cfRule type="expression" dxfId="570" priority="643" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T159">
+  <conditionalFormatting sqref="F161">
     <cfRule type="expression" dxfId="569" priority="642" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F160">
+  <conditionalFormatting sqref="T161">
     <cfRule type="expression" dxfId="568" priority="641" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D160">
+  <conditionalFormatting sqref="F162">
     <cfRule type="expression" dxfId="567" priority="640" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
+  <conditionalFormatting sqref="E163">
     <cfRule type="expression" dxfId="566" priority="639" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T160">
+  <conditionalFormatting sqref="F163">
     <cfRule type="expression" dxfId="565" priority="638" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U160">
+  <conditionalFormatting sqref="F164">
     <cfRule type="expression" dxfId="564" priority="637" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D161">
+  <conditionalFormatting sqref="E164">
     <cfRule type="expression" dxfId="563" priority="636" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E161">
+  <conditionalFormatting sqref="T163">
     <cfRule type="expression" dxfId="562" priority="635" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F161">
+  <conditionalFormatting sqref="T164">
     <cfRule type="expression" dxfId="561" priority="634" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T161">
+  <conditionalFormatting sqref="U163">
     <cfRule type="expression" dxfId="560" priority="633" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F162">
+  <conditionalFormatting sqref="E165">
     <cfRule type="expression" dxfId="559" priority="632" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E163">
+  <conditionalFormatting sqref="F165">
     <cfRule type="expression" dxfId="558" priority="631" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F163">
+  <conditionalFormatting sqref="T165:T166">
     <cfRule type="expression" dxfId="557" priority="630" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F164">
+  <conditionalFormatting sqref="E166">
     <cfRule type="expression" dxfId="556" priority="629" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
+  <conditionalFormatting sqref="F166">
     <cfRule type="expression" dxfId="555" priority="628" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T163">
+  <conditionalFormatting sqref="F167">
     <cfRule type="expression" dxfId="554" priority="627" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T164">
-    <cfRule type="expression" dxfId="553" priority="626" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U163">
+  <conditionalFormatting sqref="F170">
+    <cfRule type="expression" dxfId="553" priority="614" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E167">
     <cfRule type="expression" dxfId="552" priority="625" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E165">
+  <conditionalFormatting sqref="T167">
     <cfRule type="expression" dxfId="551" priority="624" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F165">
+  <conditionalFormatting sqref="U167">
     <cfRule type="expression" dxfId="550" priority="623" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T165:T166">
+  <conditionalFormatting sqref="T168">
     <cfRule type="expression" dxfId="549" priority="622" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E166">
+  <conditionalFormatting sqref="E168">
     <cfRule type="expression" dxfId="548" priority="621" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F166">
+  <conditionalFormatting sqref="F168">
     <cfRule type="expression" dxfId="547" priority="620" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F167">
+  <conditionalFormatting sqref="T169">
     <cfRule type="expression" dxfId="546" priority="619" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F170">
-    <cfRule type="expression" dxfId="545" priority="606" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E167">
+  <conditionalFormatting sqref="E169">
+    <cfRule type="expression" dxfId="545" priority="618" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F169">
     <cfRule type="expression" dxfId="544" priority="617" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T167">
+  <conditionalFormatting sqref="T170">
     <cfRule type="expression" dxfId="543" priority="616" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U167">
+  <conditionalFormatting sqref="E170">
     <cfRule type="expression" dxfId="542" priority="615" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T168">
-    <cfRule type="expression" dxfId="541" priority="614" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
-    <cfRule type="expression" dxfId="540" priority="613" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F168">
-    <cfRule type="expression" dxfId="539" priority="612" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T169">
+  <conditionalFormatting sqref="T171">
+    <cfRule type="expression" dxfId="541" priority="613" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E171">
+    <cfRule type="expression" dxfId="540" priority="612" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F176">
+    <cfRule type="expression" dxfId="539" priority="596" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F171">
     <cfRule type="expression" dxfId="538" priority="611" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E169">
+  <conditionalFormatting sqref="H1:J1">
     <cfRule type="expression" dxfId="537" priority="610" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F169">
-    <cfRule type="expression" dxfId="536" priority="609" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T170">
-    <cfRule type="expression" dxfId="535" priority="608" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E170">
-    <cfRule type="expression" dxfId="534" priority="607" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T171">
-    <cfRule type="expression" dxfId="533" priority="605" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E171">
-    <cfRule type="expression" dxfId="532" priority="604" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F176">
-    <cfRule type="expression" dxfId="531" priority="588" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F171">
-    <cfRule type="expression" dxfId="530" priority="603" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:J1">
+  <conditionalFormatting sqref="U176">
+    <cfRule type="expression" dxfId="536" priority="593" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F173">
+    <cfRule type="expression" dxfId="535" priority="603" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T172">
+    <cfRule type="expression" dxfId="534" priority="608" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E172">
+    <cfRule type="expression" dxfId="533" priority="607" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F172">
+    <cfRule type="expression" dxfId="532" priority="606" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T173">
+    <cfRule type="expression" dxfId="531" priority="605" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E173">
+    <cfRule type="expression" dxfId="530" priority="604" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T174">
     <cfRule type="expression" dxfId="529" priority="602" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U176">
-    <cfRule type="expression" dxfId="528" priority="585" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F173">
-    <cfRule type="expression" dxfId="527" priority="595" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T172">
-    <cfRule type="expression" dxfId="526" priority="600" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E172">
-    <cfRule type="expression" dxfId="525" priority="599" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="expression" dxfId="524" priority="598" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T173">
-    <cfRule type="expression" dxfId="523" priority="597" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E173">
-    <cfRule type="expression" dxfId="522" priority="596" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T174">
-    <cfRule type="expression" dxfId="521" priority="594" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E174">
-    <cfRule type="expression" dxfId="520" priority="593" stopIfTrue="1">
+    <cfRule type="expression" dxfId="528" priority="601" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F174">
-    <cfRule type="expression" dxfId="519" priority="592" stopIfTrue="1">
+    <cfRule type="expression" dxfId="527" priority="600" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T175">
-    <cfRule type="expression" dxfId="518" priority="591" stopIfTrue="1">
+    <cfRule type="expression" dxfId="526" priority="599" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E175">
-    <cfRule type="expression" dxfId="517" priority="590" stopIfTrue="1">
+    <cfRule type="expression" dxfId="525" priority="598" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F175">
-    <cfRule type="expression" dxfId="516" priority="589" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="597" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="expression" dxfId="515" priority="587" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="595" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T176">
-    <cfRule type="expression" dxfId="514" priority="586" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="594" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T177">
+    <cfRule type="expression" dxfId="521" priority="592" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E177">
+    <cfRule type="expression" dxfId="520" priority="591" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F177">
+    <cfRule type="expression" dxfId="519" priority="590" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T178">
+    <cfRule type="expression" dxfId="518" priority="589" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E178">
+    <cfRule type="expression" dxfId="517" priority="588" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F178">
+    <cfRule type="expression" dxfId="516" priority="587" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T179">
+    <cfRule type="expression" dxfId="515" priority="586" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E179">
+    <cfRule type="expression" dxfId="514" priority="585" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F179">
     <cfRule type="expression" dxfId="513" priority="584" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E177">
+  <conditionalFormatting sqref="T180">
     <cfRule type="expression" dxfId="512" priority="583" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F177">
+  <conditionalFormatting sqref="E180">
     <cfRule type="expression" dxfId="511" priority="582" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T178">
+  <conditionalFormatting sqref="F180">
     <cfRule type="expression" dxfId="510" priority="581" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E178">
-    <cfRule type="expression" dxfId="509" priority="580" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F178">
+  <conditionalFormatting sqref="U181">
+    <cfRule type="expression" dxfId="509" priority="576" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E181">
     <cfRule type="expression" dxfId="508" priority="579" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T179">
+  <conditionalFormatting sqref="F181">
     <cfRule type="expression" dxfId="507" priority="578" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E179">
+  <conditionalFormatting sqref="T181">
     <cfRule type="expression" dxfId="506" priority="577" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F179">
-    <cfRule type="expression" dxfId="505" priority="576" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T180">
+  <conditionalFormatting sqref="U182">
+    <cfRule type="expression" dxfId="505" priority="572" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E182">
     <cfRule type="expression" dxfId="504" priority="575" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E180">
+  <conditionalFormatting sqref="F182">
     <cfRule type="expression" dxfId="503" priority="574" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F180">
+  <conditionalFormatting sqref="T182">
     <cfRule type="expression" dxfId="502" priority="573" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U181">
+  <conditionalFormatting sqref="U183">
     <cfRule type="expression" dxfId="501" priority="568" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E181">
+  <conditionalFormatting sqref="E183">
     <cfRule type="expression" dxfId="500" priority="571" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F181">
+  <conditionalFormatting sqref="F183">
     <cfRule type="expression" dxfId="499" priority="570" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T181">
+  <conditionalFormatting sqref="T183">
     <cfRule type="expression" dxfId="498" priority="569" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U182">
+  <conditionalFormatting sqref="U184">
     <cfRule type="expression" dxfId="497" priority="564" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E182">
+  <conditionalFormatting sqref="E184">
     <cfRule type="expression" dxfId="496" priority="567" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F182">
+  <conditionalFormatting sqref="F184">
     <cfRule type="expression" dxfId="495" priority="566" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T182">
+  <conditionalFormatting sqref="T184">
     <cfRule type="expression" dxfId="494" priority="565" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U183">
+  <conditionalFormatting sqref="U185">
     <cfRule type="expression" dxfId="493" priority="560" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E183">
+  <conditionalFormatting sqref="E185">
     <cfRule type="expression" dxfId="492" priority="563" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F183">
+  <conditionalFormatting sqref="F185">
     <cfRule type="expression" dxfId="491" priority="562" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T183">
+  <conditionalFormatting sqref="T185">
     <cfRule type="expression" dxfId="490" priority="561" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U184">
+  <conditionalFormatting sqref="U186">
     <cfRule type="expression" dxfId="489" priority="556" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E184">
+  <conditionalFormatting sqref="E186">
     <cfRule type="expression" dxfId="488" priority="559" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F184">
+  <conditionalFormatting sqref="F186">
     <cfRule type="expression" dxfId="487" priority="558" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T184">
+  <conditionalFormatting sqref="T186">
     <cfRule type="expression" dxfId="486" priority="557" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U185">
+  <conditionalFormatting sqref="U187">
     <cfRule type="expression" dxfId="485" priority="552" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E185">
+  <conditionalFormatting sqref="E187">
     <cfRule type="expression" dxfId="484" priority="555" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F185">
+  <conditionalFormatting sqref="F187">
     <cfRule type="expression" dxfId="483" priority="554" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T185">
+  <conditionalFormatting sqref="T187">
     <cfRule type="expression" dxfId="482" priority="553" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U186">
+  <conditionalFormatting sqref="U188">
     <cfRule type="expression" dxfId="481" priority="548" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E186">
+  <conditionalFormatting sqref="E188">
     <cfRule type="expression" dxfId="480" priority="551" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F186">
+  <conditionalFormatting sqref="F188">
     <cfRule type="expression" dxfId="479" priority="550" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T186">
+  <conditionalFormatting sqref="T188">
     <cfRule type="expression" dxfId="478" priority="549" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U187">
+  <conditionalFormatting sqref="F190">
     <cfRule type="expression" dxfId="477" priority="544" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E187">
-    <cfRule type="expression" dxfId="476" priority="547" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F187">
-    <cfRule type="expression" dxfId="475" priority="546" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T187">
-    <cfRule type="expression" dxfId="474" priority="545" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U188">
-    <cfRule type="expression" dxfId="473" priority="540" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E188">
+  <conditionalFormatting sqref="U190">
+    <cfRule type="expression" dxfId="476" priority="541" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T189">
+    <cfRule type="expression" dxfId="475" priority="547" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E189">
+    <cfRule type="expression" dxfId="474" priority="546" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F189">
+    <cfRule type="expression" dxfId="473" priority="545" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E190">
     <cfRule type="expression" dxfId="472" priority="543" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F188">
+  <conditionalFormatting sqref="T190">
     <cfRule type="expression" dxfId="471" priority="542" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T188">
-    <cfRule type="expression" dxfId="470" priority="541" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F190">
-    <cfRule type="expression" dxfId="469" priority="536" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U190">
-    <cfRule type="expression" dxfId="468" priority="533" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T189">
-    <cfRule type="expression" dxfId="467" priority="539" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E189">
-    <cfRule type="expression" dxfId="466" priority="538" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F189">
-    <cfRule type="expression" dxfId="465" priority="537" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E190">
-    <cfRule type="expression" dxfId="464" priority="535" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T190">
-    <cfRule type="expression" dxfId="463" priority="534" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T191">
-    <cfRule type="expression" dxfId="462" priority="532" stopIfTrue="1">
+    <cfRule type="expression" dxfId="470" priority="540" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E191">
-    <cfRule type="expression" dxfId="461" priority="531" stopIfTrue="1">
+    <cfRule type="expression" dxfId="469" priority="539" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191">
-    <cfRule type="expression" dxfId="460" priority="530" stopIfTrue="1">
+    <cfRule type="expression" dxfId="468" priority="538" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T192">
+    <cfRule type="expression" dxfId="467" priority="512" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E192">
+    <cfRule type="expression" dxfId="466" priority="511" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F192">
+    <cfRule type="expression" dxfId="465" priority="510" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T193">
+    <cfRule type="expression" dxfId="464" priority="509" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E193">
+    <cfRule type="expression" dxfId="463" priority="508" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F193">
+    <cfRule type="expression" dxfId="462" priority="507" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T194">
+    <cfRule type="expression" dxfId="461" priority="506" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E194">
+    <cfRule type="expression" dxfId="460" priority="505" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F194">
     <cfRule type="expression" dxfId="459" priority="504" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E192">
-    <cfRule type="expression" dxfId="458" priority="503" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F192">
-    <cfRule type="expression" dxfId="457" priority="502" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T193">
-    <cfRule type="expression" dxfId="456" priority="501" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E193">
-    <cfRule type="expression" dxfId="455" priority="500" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F193">
+  <conditionalFormatting sqref="U195">
+    <cfRule type="expression" dxfId="458" priority="500" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E195">
+    <cfRule type="expression" dxfId="457" priority="503" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F195">
+    <cfRule type="expression" dxfId="456" priority="502" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T195">
+    <cfRule type="expression" dxfId="455" priority="501" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T196">
     <cfRule type="expression" dxfId="454" priority="499" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T194">
+  <conditionalFormatting sqref="E196">
     <cfRule type="expression" dxfId="453" priority="498" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E194">
+  <conditionalFormatting sqref="F196">
     <cfRule type="expression" dxfId="452" priority="497" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F194">
+  <conditionalFormatting sqref="T197">
     <cfRule type="expression" dxfId="451" priority="496" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U195">
-    <cfRule type="expression" dxfId="450" priority="492" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E195">
-    <cfRule type="expression" dxfId="449" priority="495" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F195">
-    <cfRule type="expression" dxfId="448" priority="494" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T195">
-    <cfRule type="expression" dxfId="447" priority="493" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T196">
+  <conditionalFormatting sqref="E197">
+    <cfRule type="expression" dxfId="450" priority="495" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F197">
+    <cfRule type="expression" dxfId="449" priority="494" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T198">
+    <cfRule type="expression" dxfId="448" priority="493" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E198">
+    <cfRule type="expression" dxfId="447" priority="492" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F198">
     <cfRule type="expression" dxfId="446" priority="491" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E196">
+  <conditionalFormatting sqref="T199">
     <cfRule type="expression" dxfId="445" priority="490" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F196">
+  <conditionalFormatting sqref="E199">
     <cfRule type="expression" dxfId="444" priority="489" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T197">
+  <conditionalFormatting sqref="F199">
     <cfRule type="expression" dxfId="443" priority="488" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E197">
-    <cfRule type="expression" dxfId="442" priority="487" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F197">
-    <cfRule type="expression" dxfId="441" priority="486" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T198">
-    <cfRule type="expression" dxfId="440" priority="485" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E198">
-    <cfRule type="expression" dxfId="439" priority="484" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F198">
-    <cfRule type="expression" dxfId="438" priority="483" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T199">
-    <cfRule type="expression" dxfId="437" priority="482" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E199">
-    <cfRule type="expression" dxfId="436" priority="481" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F199">
-    <cfRule type="expression" dxfId="435" priority="480" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U200">
+    <cfRule type="expression" dxfId="442" priority="480" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E200">
+    <cfRule type="expression" dxfId="441" priority="483" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F200">
+    <cfRule type="expression" dxfId="440" priority="482" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T200">
+    <cfRule type="expression" dxfId="439" priority="481" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U201">
+    <cfRule type="expression" dxfId="438" priority="476" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E201">
+    <cfRule type="expression" dxfId="437" priority="479" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F201">
+    <cfRule type="expression" dxfId="436" priority="478" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T201:T205">
+    <cfRule type="expression" dxfId="435" priority="477" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U202">
     <cfRule type="expression" dxfId="434" priority="472" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E200">
+  <conditionalFormatting sqref="E202">
     <cfRule type="expression" dxfId="433" priority="475" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F200">
+  <conditionalFormatting sqref="F202">
     <cfRule type="expression" dxfId="432" priority="474" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T200">
-    <cfRule type="expression" dxfId="431" priority="473" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U201">
+  <conditionalFormatting sqref="E213">
+    <cfRule type="expression" dxfId="431" priority="437" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U203">
     <cfRule type="expression" dxfId="430" priority="468" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E201">
+  <conditionalFormatting sqref="E203">
     <cfRule type="expression" dxfId="429" priority="471" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F201">
+  <conditionalFormatting sqref="F203">
     <cfRule type="expression" dxfId="428" priority="470" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T201:T205">
-    <cfRule type="expression" dxfId="427" priority="469" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U202">
+  <conditionalFormatting sqref="T215">
+    <cfRule type="expression" dxfId="427" priority="433" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U204">
     <cfRule type="expression" dxfId="426" priority="464" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E202">
+  <conditionalFormatting sqref="E204">
     <cfRule type="expression" dxfId="425" priority="467" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F202">
+  <conditionalFormatting sqref="F204">
     <cfRule type="expression" dxfId="424" priority="466" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E213">
+  <conditionalFormatting sqref="E216">
     <cfRule type="expression" dxfId="423" priority="429" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U203">
+  <conditionalFormatting sqref="U205">
     <cfRule type="expression" dxfId="422" priority="460" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E203">
+  <conditionalFormatting sqref="E205">
     <cfRule type="expression" dxfId="421" priority="463" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F203">
+  <conditionalFormatting sqref="F205">
     <cfRule type="expression" dxfId="420" priority="462" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T215">
-    <cfRule type="expression" dxfId="419" priority="425" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U204">
-    <cfRule type="expression" dxfId="418" priority="456" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E204">
-    <cfRule type="expression" dxfId="417" priority="459" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F204">
-    <cfRule type="expression" dxfId="416" priority="458" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E216">
-    <cfRule type="expression" dxfId="415" priority="421" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U205">
-    <cfRule type="expression" dxfId="414" priority="452" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E205">
-    <cfRule type="expression" dxfId="413" priority="455" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F205">
-    <cfRule type="expression" dxfId="412" priority="454" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T206">
+    <cfRule type="expression" dxfId="419" priority="459" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E206">
+    <cfRule type="expression" dxfId="418" priority="458" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F206">
+    <cfRule type="expression" dxfId="417" priority="457" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T207">
+    <cfRule type="expression" dxfId="416" priority="456" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E207">
+    <cfRule type="expression" dxfId="415" priority="455" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F207">
+    <cfRule type="expression" dxfId="414" priority="454" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T208">
+    <cfRule type="expression" dxfId="413" priority="453" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E208">
+    <cfRule type="expression" dxfId="412" priority="452" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F208:F209">
     <cfRule type="expression" dxfId="411" priority="451" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E206">
+  <conditionalFormatting sqref="T209">
     <cfRule type="expression" dxfId="410" priority="450" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F206">
+  <conditionalFormatting sqref="E209">
     <cfRule type="expression" dxfId="409" priority="449" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T207">
-    <cfRule type="expression" dxfId="408" priority="448" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E207">
-    <cfRule type="expression" dxfId="407" priority="447" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F207">
-    <cfRule type="expression" dxfId="406" priority="446" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T208">
-    <cfRule type="expression" dxfId="405" priority="445" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E208">
-    <cfRule type="expression" dxfId="404" priority="444" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F208:F209">
-    <cfRule type="expression" dxfId="403" priority="443" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T209">
-    <cfRule type="expression" dxfId="402" priority="442" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E209">
-    <cfRule type="expression" dxfId="401" priority="441" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T210">
+    <cfRule type="expression" dxfId="408" priority="447" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E210">
+    <cfRule type="expression" dxfId="407" priority="446" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F210">
+    <cfRule type="expression" dxfId="406" priority="445" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T211">
+    <cfRule type="expression" dxfId="405" priority="444" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E211">
+    <cfRule type="expression" dxfId="404" priority="443" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F211">
+    <cfRule type="expression" dxfId="403" priority="442" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T212">
+    <cfRule type="expression" dxfId="402" priority="441" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E212">
+    <cfRule type="expression" dxfId="401" priority="440" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F212:F213">
     <cfRule type="expression" dxfId="400" priority="439" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E210">
+  <conditionalFormatting sqref="T213">
     <cfRule type="expression" dxfId="399" priority="438" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F210">
-    <cfRule type="expression" dxfId="398" priority="437" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T211">
-    <cfRule type="expression" dxfId="397" priority="436" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E211">
-    <cfRule type="expression" dxfId="396" priority="435" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F211">
-    <cfRule type="expression" dxfId="395" priority="434" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T212">
-    <cfRule type="expression" dxfId="394" priority="433" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E212">
-    <cfRule type="expression" dxfId="393" priority="432" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F212:F213">
-    <cfRule type="expression" dxfId="392" priority="431" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T213">
-    <cfRule type="expression" dxfId="391" priority="430" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T214">
-    <cfRule type="expression" dxfId="390" priority="428" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="436" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E214">
-    <cfRule type="expression" dxfId="389" priority="427" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="435" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F214">
-    <cfRule type="expression" dxfId="388" priority="426" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="434" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E215">
-    <cfRule type="expression" dxfId="387" priority="424" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="432" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F215">
-    <cfRule type="expression" dxfId="386" priority="423" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="431" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T216">
-    <cfRule type="expression" dxfId="385" priority="422" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="430" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F216:F217">
-    <cfRule type="expression" dxfId="384" priority="420" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="428" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T217">
-    <cfRule type="expression" dxfId="383" priority="419" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="427" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E217">
-    <cfRule type="expression" dxfId="382" priority="418" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="426" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E221">
+    <cfRule type="expression" dxfId="389" priority="423" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F221">
+    <cfRule type="expression" dxfId="388" priority="422" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E222">
+    <cfRule type="expression" dxfId="387" priority="421" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F222">
+    <cfRule type="expression" dxfId="386" priority="420" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E223">
+    <cfRule type="expression" dxfId="385" priority="419" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F223">
+    <cfRule type="expression" dxfId="384" priority="418" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E220">
+    <cfRule type="expression" dxfId="383" priority="417" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F220">
+    <cfRule type="expression" dxfId="382" priority="416" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E218">
     <cfRule type="expression" dxfId="381" priority="415" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F221">
+  <conditionalFormatting sqref="F218">
     <cfRule type="expression" dxfId="380" priority="414" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E222">
+  <conditionalFormatting sqref="E219">
     <cfRule type="expression" dxfId="379" priority="413" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F222">
+  <conditionalFormatting sqref="F219">
     <cfRule type="expression" dxfId="378" priority="412" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E223">
+  <conditionalFormatting sqref="E224">
     <cfRule type="expression" dxfId="377" priority="411" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F223">
+  <conditionalFormatting sqref="F224">
     <cfRule type="expression" dxfId="376" priority="410" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E220">
+  <conditionalFormatting sqref="E225">
     <cfRule type="expression" dxfId="375" priority="409" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F220">
+  <conditionalFormatting sqref="F225">
     <cfRule type="expression" dxfId="374" priority="408" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E218">
+  <conditionalFormatting sqref="E226:E227">
     <cfRule type="expression" dxfId="373" priority="407" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F218">
+  <conditionalFormatting sqref="F226">
     <cfRule type="expression" dxfId="372" priority="406" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E219">
+  <conditionalFormatting sqref="F227">
     <cfRule type="expression" dxfId="371" priority="405" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F219">
-    <cfRule type="expression" dxfId="370" priority="404" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E224">
-    <cfRule type="expression" dxfId="369" priority="403" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F224">
-    <cfRule type="expression" dxfId="368" priority="402" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E225">
-    <cfRule type="expression" dxfId="367" priority="401" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F225">
-    <cfRule type="expression" dxfId="366" priority="400" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E226:E227">
-    <cfRule type="expression" dxfId="365" priority="399" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F226">
-    <cfRule type="expression" dxfId="364" priority="398" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F227">
+  <conditionalFormatting sqref="U234">
+    <cfRule type="expression" dxfId="370" priority="382" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U228">
+    <cfRule type="expression" dxfId="369" priority="401" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E228">
+    <cfRule type="expression" dxfId="368" priority="403" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F228">
+    <cfRule type="expression" dxfId="367" priority="402" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E237">
+    <cfRule type="expression" dxfId="366" priority="376" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E229">
+    <cfRule type="expression" dxfId="365" priority="400" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F229">
+    <cfRule type="expression" dxfId="364" priority="399" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T230:T231">
     <cfRule type="expression" dxfId="363" priority="397" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U234">
-    <cfRule type="expression" dxfId="362" priority="374" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U228">
-    <cfRule type="expression" dxfId="361" priority="393" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E228">
+  <conditionalFormatting sqref="U230">
+    <cfRule type="expression" dxfId="362" priority="394" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E230">
+    <cfRule type="expression" dxfId="361" priority="396" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F230">
     <cfRule type="expression" dxfId="360" priority="395" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F228">
-    <cfRule type="expression" dxfId="359" priority="394" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E237">
-    <cfRule type="expression" dxfId="358" priority="368" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E229">
+  <conditionalFormatting sqref="F241">
+    <cfRule type="expression" dxfId="359" priority="369" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E231">
+    <cfRule type="expression" dxfId="358" priority="393" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F231">
     <cfRule type="expression" dxfId="357" priority="392" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F229">
-    <cfRule type="expression" dxfId="356" priority="391" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T230:T231">
-    <cfRule type="expression" dxfId="355" priority="389" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U230">
-    <cfRule type="expression" dxfId="354" priority="386" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E230">
-    <cfRule type="expression" dxfId="353" priority="388" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F230">
-    <cfRule type="expression" dxfId="352" priority="387" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F241">
-    <cfRule type="expression" dxfId="351" priority="361" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E231">
-    <cfRule type="expression" dxfId="350" priority="385" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F231">
-    <cfRule type="expression" dxfId="349" priority="384" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U232">
-    <cfRule type="expression" dxfId="348" priority="380" stopIfTrue="1">
+    <cfRule type="expression" dxfId="356" priority="388" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E232">
-    <cfRule type="expression" dxfId="347" priority="382" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="390" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F232">
-    <cfRule type="expression" dxfId="346" priority="381" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="389" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E233">
+    <cfRule type="expression" dxfId="353" priority="387" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F233">
+    <cfRule type="expression" dxfId="352" priority="386" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T234:T235">
+    <cfRule type="expression" dxfId="351" priority="385" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E234">
+    <cfRule type="expression" dxfId="350" priority="384" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F234">
+    <cfRule type="expression" dxfId="349" priority="383" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E235">
+    <cfRule type="expression" dxfId="348" priority="381" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F235">
+    <cfRule type="expression" dxfId="347" priority="380" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U236">
+    <cfRule type="expression" dxfId="346" priority="377" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E236">
     <cfRule type="expression" dxfId="345" priority="379" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F233">
+  <conditionalFormatting sqref="F236">
     <cfRule type="expression" dxfId="344" priority="378" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T234:T235">
-    <cfRule type="expression" dxfId="343" priority="377" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E234">
-    <cfRule type="expression" dxfId="342" priority="376" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F234">
-    <cfRule type="expression" dxfId="341" priority="375" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E235">
+  <conditionalFormatting sqref="F237">
+    <cfRule type="expression" dxfId="343" priority="375" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T240:T241">
+    <cfRule type="expression" dxfId="342" priority="374" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U240">
+    <cfRule type="expression" dxfId="341" priority="371" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E240">
     <cfRule type="expression" dxfId="340" priority="373" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F235">
+  <conditionalFormatting sqref="F240">
     <cfRule type="expression" dxfId="339" priority="372" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U236">
-    <cfRule type="expression" dxfId="338" priority="369" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E236">
-    <cfRule type="expression" dxfId="337" priority="371" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F236">
-    <cfRule type="expression" dxfId="336" priority="370" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F237">
-    <cfRule type="expression" dxfId="335" priority="367" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T240:T241">
-    <cfRule type="expression" dxfId="334" priority="366" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U240">
-    <cfRule type="expression" dxfId="333" priority="363" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E240">
-    <cfRule type="expression" dxfId="332" priority="365" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F240">
-    <cfRule type="expression" dxfId="331" priority="364" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E241 E243 E245">
-    <cfRule type="expression" dxfId="330" priority="362" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="370" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E238">
-    <cfRule type="expression" dxfId="329" priority="360" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="368" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F238">
-    <cfRule type="expression" dxfId="328" priority="359" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="367" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E239">
-    <cfRule type="expression" dxfId="327" priority="358" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="366" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F239">
-    <cfRule type="expression" dxfId="326" priority="357" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="365" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F242:F243">
-    <cfRule type="expression" dxfId="325" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="362" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F245">
-    <cfRule type="expression" dxfId="324" priority="348" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="356" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E242 E244 E246">
-    <cfRule type="expression" dxfId="323" priority="355" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="363" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F244">
-    <cfRule type="expression" dxfId="322" priority="351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="359" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="expression" dxfId="321" priority="345" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="353" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F251">
-    <cfRule type="expression" dxfId="320" priority="329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="337" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E249">
-    <cfRule type="expression" dxfId="319" priority="326" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="334" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E247">
-    <cfRule type="expression" dxfId="318" priority="338" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="346" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F247">
-    <cfRule type="expression" dxfId="317" priority="336" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="344" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E248">
-    <cfRule type="expression" dxfId="316" priority="335" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="343" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F248">
-    <cfRule type="expression" dxfId="315" priority="333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="341" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E250">
+    <cfRule type="expression" dxfId="322" priority="336" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E251">
+    <cfRule type="expression" dxfId="321" priority="339" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F250">
+    <cfRule type="expression" dxfId="320" priority="335" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F249">
+    <cfRule type="expression" dxfId="319" priority="333" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E252">
+    <cfRule type="expression" dxfId="318" priority="332" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F252">
+    <cfRule type="expression" dxfId="317" priority="331" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E253">
+    <cfRule type="expression" dxfId="316" priority="330" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F253">
+    <cfRule type="expression" dxfId="315" priority="329" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E254">
     <cfRule type="expression" dxfId="314" priority="328" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E251">
-    <cfRule type="expression" dxfId="313" priority="331" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F250">
-    <cfRule type="expression" dxfId="312" priority="327" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F249">
+  <conditionalFormatting sqref="F254">
+    <cfRule type="expression" dxfId="313" priority="327" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E255">
+    <cfRule type="expression" dxfId="312" priority="326" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F255">
     <cfRule type="expression" dxfId="311" priority="325" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E252">
+  <conditionalFormatting sqref="E256">
     <cfRule type="expression" dxfId="310" priority="324" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F252">
+  <conditionalFormatting sqref="F256">
     <cfRule type="expression" dxfId="309" priority="323" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E253">
+  <conditionalFormatting sqref="E257">
     <cfRule type="expression" dxfId="308" priority="322" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F253">
+  <conditionalFormatting sqref="F257">
     <cfRule type="expression" dxfId="307" priority="321" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E254">
+  <conditionalFormatting sqref="E258">
     <cfRule type="expression" dxfId="306" priority="320" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F254">
+  <conditionalFormatting sqref="F258">
     <cfRule type="expression" dxfId="305" priority="319" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E255">
+  <conditionalFormatting sqref="E259">
     <cfRule type="expression" dxfId="304" priority="318" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F255">
+  <conditionalFormatting sqref="F259">
     <cfRule type="expression" dxfId="303" priority="317" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E256">
+  <conditionalFormatting sqref="E260">
     <cfRule type="expression" dxfId="302" priority="316" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F256">
+  <conditionalFormatting sqref="F260">
     <cfRule type="expression" dxfId="301" priority="315" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E257">
+  <conditionalFormatting sqref="E261">
     <cfRule type="expression" dxfId="300" priority="314" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F257">
+  <conditionalFormatting sqref="F261">
     <cfRule type="expression" dxfId="299" priority="313" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E258">
+  <conditionalFormatting sqref="E262">
     <cfRule type="expression" dxfId="298" priority="312" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F258">
+  <conditionalFormatting sqref="F262">
     <cfRule type="expression" dxfId="297" priority="311" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E259">
+  <conditionalFormatting sqref="E263">
     <cfRule type="expression" dxfId="296" priority="310" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F259">
+  <conditionalFormatting sqref="F263">
     <cfRule type="expression" dxfId="295" priority="309" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E260">
+  <conditionalFormatting sqref="E264">
     <cfRule type="expression" dxfId="294" priority="308" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F260">
+  <conditionalFormatting sqref="F264">
     <cfRule type="expression" dxfId="293" priority="307" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E261">
+  <conditionalFormatting sqref="E265">
     <cfRule type="expression" dxfId="292" priority="306" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F261">
+  <conditionalFormatting sqref="F265">
     <cfRule type="expression" dxfId="291" priority="305" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E262">
+  <conditionalFormatting sqref="E266">
     <cfRule type="expression" dxfId="290" priority="304" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F262">
+  <conditionalFormatting sqref="F266">
     <cfRule type="expression" dxfId="289" priority="303" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E263">
+  <conditionalFormatting sqref="E267">
     <cfRule type="expression" dxfId="288" priority="302" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263">
+  <conditionalFormatting sqref="F267">
     <cfRule type="expression" dxfId="287" priority="301" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E264">
+  <conditionalFormatting sqref="E268">
     <cfRule type="expression" dxfId="286" priority="300" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F264">
+  <conditionalFormatting sqref="F268">
     <cfRule type="expression" dxfId="285" priority="299" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E265">
+  <conditionalFormatting sqref="E269">
     <cfRule type="expression" dxfId="284" priority="298" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265">
+  <conditionalFormatting sqref="F269">
     <cfRule type="expression" dxfId="283" priority="297" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E266">
+  <conditionalFormatting sqref="E270">
     <cfRule type="expression" dxfId="282" priority="296" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F266">
+  <conditionalFormatting sqref="F270">
     <cfRule type="expression" dxfId="281" priority="295" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E267">
+  <conditionalFormatting sqref="E271">
     <cfRule type="expression" dxfId="280" priority="294" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F267">
+  <conditionalFormatting sqref="F271">
     <cfRule type="expression" dxfId="279" priority="293" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E268">
+  <conditionalFormatting sqref="E272">
     <cfRule type="expression" dxfId="278" priority="292" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F268">
+  <conditionalFormatting sqref="F272">
     <cfRule type="expression" dxfId="277" priority="291" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E269">
+  <conditionalFormatting sqref="E273">
     <cfRule type="expression" dxfId="276" priority="290" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F269">
+  <conditionalFormatting sqref="F273">
     <cfRule type="expression" dxfId="275" priority="289" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E270">
+  <conditionalFormatting sqref="E274:E276">
     <cfRule type="expression" dxfId="274" priority="288" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F270">
+  <conditionalFormatting sqref="F274:F276">
     <cfRule type="expression" dxfId="273" priority="287" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E271">
+  <conditionalFormatting sqref="E277">
     <cfRule type="expression" dxfId="272" priority="286" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F271">
+  <conditionalFormatting sqref="F277">
     <cfRule type="expression" dxfId="271" priority="285" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E272">
+  <conditionalFormatting sqref="E278">
     <cfRule type="expression" dxfId="270" priority="284" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F272">
+  <conditionalFormatting sqref="F278">
     <cfRule type="expression" dxfId="269" priority="283" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E273">
+  <conditionalFormatting sqref="E279">
     <cfRule type="expression" dxfId="268" priority="282" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F273">
+  <conditionalFormatting sqref="F279">
     <cfRule type="expression" dxfId="267" priority="281" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E274:E276">
+  <conditionalFormatting sqref="E280">
     <cfRule type="expression" dxfId="266" priority="280" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F274:F276">
+  <conditionalFormatting sqref="F280">
     <cfRule type="expression" dxfId="265" priority="279" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E277">
+  <conditionalFormatting sqref="E281">
     <cfRule type="expression" dxfId="264" priority="278" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F277">
+  <conditionalFormatting sqref="F281">
     <cfRule type="expression" dxfId="263" priority="277" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E278">
+  <conditionalFormatting sqref="E283">
     <cfRule type="expression" dxfId="262" priority="276" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F278">
+  <conditionalFormatting sqref="F283">
     <cfRule type="expression" dxfId="261" priority="275" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E279">
+  <conditionalFormatting sqref="E284">
     <cfRule type="expression" dxfId="260" priority="274" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F279">
+  <conditionalFormatting sqref="F284">
     <cfRule type="expression" dxfId="259" priority="273" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E280">
+  <conditionalFormatting sqref="E285">
     <cfRule type="expression" dxfId="258" priority="272" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F280">
+  <conditionalFormatting sqref="F285">
     <cfRule type="expression" dxfId="257" priority="271" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E281">
+  <conditionalFormatting sqref="E286">
     <cfRule type="expression" dxfId="256" priority="270" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F281">
+  <conditionalFormatting sqref="F286">
     <cfRule type="expression" dxfId="255" priority="269" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E283">
+  <conditionalFormatting sqref="E287">
     <cfRule type="expression" dxfId="254" priority="268" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F283">
+  <conditionalFormatting sqref="F287">
     <cfRule type="expression" dxfId="253" priority="267" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E284">
+  <conditionalFormatting sqref="E288">
     <cfRule type="expression" dxfId="252" priority="266" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F284">
+  <conditionalFormatting sqref="F288">
     <cfRule type="expression" dxfId="251" priority="265" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E285">
+  <conditionalFormatting sqref="E289">
     <cfRule type="expression" dxfId="250" priority="264" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F285">
+  <conditionalFormatting sqref="F289">
     <cfRule type="expression" dxfId="249" priority="263" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E286">
+  <conditionalFormatting sqref="E290">
     <cfRule type="expression" dxfId="248" priority="262" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F286">
+  <conditionalFormatting sqref="F290">
     <cfRule type="expression" dxfId="247" priority="261" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E287">
+  <conditionalFormatting sqref="E291">
     <cfRule type="expression" dxfId="246" priority="260" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F287">
+  <conditionalFormatting sqref="F291">
     <cfRule type="expression" dxfId="245" priority="259" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E288">
+  <conditionalFormatting sqref="E292">
     <cfRule type="expression" dxfId="244" priority="258" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F288">
+  <conditionalFormatting sqref="F292">
     <cfRule type="expression" dxfId="243" priority="257" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E289">
+  <conditionalFormatting sqref="E293">
     <cfRule type="expression" dxfId="242" priority="256" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F289">
+  <conditionalFormatting sqref="F293">
     <cfRule type="expression" dxfId="241" priority="255" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E290">
+  <conditionalFormatting sqref="E294">
     <cfRule type="expression" dxfId="240" priority="254" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F290">
+  <conditionalFormatting sqref="F294">
     <cfRule type="expression" dxfId="239" priority="253" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E291">
+  <conditionalFormatting sqref="E295:E296">
     <cfRule type="expression" dxfId="238" priority="252" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F291">
+  <conditionalFormatting sqref="F295:F296">
     <cfRule type="expression" dxfId="237" priority="251" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E292">
+  <conditionalFormatting sqref="E297">
     <cfRule type="expression" dxfId="236" priority="250" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F292">
+  <conditionalFormatting sqref="F297">
     <cfRule type="expression" dxfId="235" priority="249" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E293">
+  <conditionalFormatting sqref="E298">
     <cfRule type="expression" dxfId="234" priority="248" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F293">
+  <conditionalFormatting sqref="F298">
     <cfRule type="expression" dxfId="233" priority="247" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E294">
+  <conditionalFormatting sqref="E299">
     <cfRule type="expression" dxfId="232" priority="246" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F294">
+  <conditionalFormatting sqref="F299">
     <cfRule type="expression" dxfId="231" priority="245" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E295:E296">
+  <conditionalFormatting sqref="E300">
     <cfRule type="expression" dxfId="230" priority="244" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F295:F296">
+  <conditionalFormatting sqref="F300">
     <cfRule type="expression" dxfId="229" priority="243" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E297">
+  <conditionalFormatting sqref="E301">
     <cfRule type="expression" dxfId="228" priority="242" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F297">
+  <conditionalFormatting sqref="F301">
     <cfRule type="expression" dxfId="227" priority="241" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E298">
+  <conditionalFormatting sqref="E302">
     <cfRule type="expression" dxfId="226" priority="240" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F298">
+  <conditionalFormatting sqref="F302">
     <cfRule type="expression" dxfId="225" priority="239" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E299">
+  <conditionalFormatting sqref="E303">
     <cfRule type="expression" dxfId="224" priority="238" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F299">
+  <conditionalFormatting sqref="F303">
     <cfRule type="expression" dxfId="223" priority="237" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E300">
-    <cfRule type="expression" dxfId="222" priority="236" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F300">
-    <cfRule type="expression" dxfId="221" priority="235" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E301">
-    <cfRule type="expression" dxfId="220" priority="234" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F301">
-    <cfRule type="expression" dxfId="219" priority="233" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E302">
-    <cfRule type="expression" dxfId="218" priority="232" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F302">
-    <cfRule type="expression" dxfId="217" priority="231" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E303">
-    <cfRule type="expression" dxfId="216" priority="230" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F303">
-    <cfRule type="expression" dxfId="215" priority="229" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E304">
+    <cfRule type="expression" dxfId="222" priority="234" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F304">
+    <cfRule type="expression" dxfId="221" priority="233" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E305">
+    <cfRule type="expression" dxfId="220" priority="232" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F305">
+    <cfRule type="expression" dxfId="219" priority="231" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E306">
+    <cfRule type="expression" dxfId="218" priority="230" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F306">
+    <cfRule type="expression" dxfId="217" priority="229" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E307">
+    <cfRule type="expression" dxfId="216" priority="228" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F307">
+    <cfRule type="expression" dxfId="215" priority="227" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E308">
     <cfRule type="expression" dxfId="214" priority="226" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F304">
+  <conditionalFormatting sqref="F308">
     <cfRule type="expression" dxfId="213" priority="225" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E305">
+  <conditionalFormatting sqref="E309">
     <cfRule type="expression" dxfId="212" priority="224" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F305">
+  <conditionalFormatting sqref="F309">
     <cfRule type="expression" dxfId="211" priority="223" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E306">
+  <conditionalFormatting sqref="E310">
     <cfRule type="expression" dxfId="210" priority="222" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F306">
+  <conditionalFormatting sqref="F310">
     <cfRule type="expression" dxfId="209" priority="221" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E307">
+  <conditionalFormatting sqref="E311">
     <cfRule type="expression" dxfId="208" priority="220" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F307">
+  <conditionalFormatting sqref="F311">
     <cfRule type="expression" dxfId="207" priority="219" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E308">
+  <conditionalFormatting sqref="E312">
     <cfRule type="expression" dxfId="206" priority="218" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F308">
+  <conditionalFormatting sqref="F312">
     <cfRule type="expression" dxfId="205" priority="217" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E309">
+  <conditionalFormatting sqref="E313">
     <cfRule type="expression" dxfId="204" priority="216" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F309">
+  <conditionalFormatting sqref="F313">
     <cfRule type="expression" dxfId="203" priority="215" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E310">
+  <conditionalFormatting sqref="E314">
     <cfRule type="expression" dxfId="202" priority="214" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F310">
+  <conditionalFormatting sqref="F314">
     <cfRule type="expression" dxfId="201" priority="213" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E311">
+  <conditionalFormatting sqref="E315">
     <cfRule type="expression" dxfId="200" priority="212" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F311">
+  <conditionalFormatting sqref="F315">
     <cfRule type="expression" dxfId="199" priority="211" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E312">
+  <conditionalFormatting sqref="E316">
     <cfRule type="expression" dxfId="198" priority="210" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F312">
+  <conditionalFormatting sqref="F316">
     <cfRule type="expression" dxfId="197" priority="209" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E313">
+  <conditionalFormatting sqref="E317">
     <cfRule type="expression" dxfId="196" priority="208" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F313">
+  <conditionalFormatting sqref="F317">
     <cfRule type="expression" dxfId="195" priority="207" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E314">
+  <conditionalFormatting sqref="E318">
     <cfRule type="expression" dxfId="194" priority="206" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F314">
+  <conditionalFormatting sqref="F318">
     <cfRule type="expression" dxfId="193" priority="205" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E315">
-    <cfRule type="expression" dxfId="192" priority="204" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F315">
-    <cfRule type="expression" dxfId="191" priority="203" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E316">
-    <cfRule type="expression" dxfId="190" priority="202" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F316">
-    <cfRule type="expression" dxfId="189" priority="201" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E317">
-    <cfRule type="expression" dxfId="188" priority="200" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F317">
-    <cfRule type="expression" dxfId="187" priority="199" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E318">
-    <cfRule type="expression" dxfId="186" priority="198" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F318">
-    <cfRule type="expression" dxfId="185" priority="197" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F319">
+    <cfRule type="expression" dxfId="192" priority="202" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F320">
+    <cfRule type="expression" dxfId="191" priority="201" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E321">
+    <cfRule type="expression" dxfId="190" priority="200" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F321">
+    <cfRule type="expression" dxfId="189" priority="199" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E322">
+    <cfRule type="expression" dxfId="188" priority="198" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F322">
+    <cfRule type="expression" dxfId="187" priority="197" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E323">
+    <cfRule type="expression" dxfId="186" priority="196" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F323">
+    <cfRule type="expression" dxfId="185" priority="195" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E324">
     <cfRule type="expression" dxfId="184" priority="194" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F320">
+  <conditionalFormatting sqref="F324">
     <cfRule type="expression" dxfId="183" priority="193" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E321">
+  <conditionalFormatting sqref="E325">
     <cfRule type="expression" dxfId="182" priority="192" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F321">
+  <conditionalFormatting sqref="F325">
     <cfRule type="expression" dxfId="181" priority="191" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E322">
+  <conditionalFormatting sqref="E326">
     <cfRule type="expression" dxfId="180" priority="190" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F322">
+  <conditionalFormatting sqref="F326">
     <cfRule type="expression" dxfId="179" priority="189" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E323">
+  <conditionalFormatting sqref="E327">
     <cfRule type="expression" dxfId="178" priority="188" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F323">
+  <conditionalFormatting sqref="F327">
     <cfRule type="expression" dxfId="177" priority="187" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E324">
+  <conditionalFormatting sqref="E328">
     <cfRule type="expression" dxfId="176" priority="186" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F324">
+  <conditionalFormatting sqref="F328">
     <cfRule type="expression" dxfId="175" priority="185" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E325">
+  <conditionalFormatting sqref="E329">
     <cfRule type="expression" dxfId="174" priority="184" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F325">
+  <conditionalFormatting sqref="F329">
     <cfRule type="expression" dxfId="173" priority="183" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E326">
+  <conditionalFormatting sqref="E330">
     <cfRule type="expression" dxfId="172" priority="182" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F326">
+  <conditionalFormatting sqref="F330">
     <cfRule type="expression" dxfId="171" priority="181" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E327">
+  <conditionalFormatting sqref="E331">
     <cfRule type="expression" dxfId="170" priority="180" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F327">
+  <conditionalFormatting sqref="F331">
     <cfRule type="expression" dxfId="169" priority="179" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E328">
+  <conditionalFormatting sqref="E332">
     <cfRule type="expression" dxfId="168" priority="178" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F328">
+  <conditionalFormatting sqref="F332">
     <cfRule type="expression" dxfId="167" priority="177" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E329">
+  <conditionalFormatting sqref="E333">
     <cfRule type="expression" dxfId="166" priority="176" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F329">
+  <conditionalFormatting sqref="F333">
     <cfRule type="expression" dxfId="165" priority="175" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E330">
+  <conditionalFormatting sqref="E334">
     <cfRule type="expression" dxfId="164" priority="174" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F330">
+  <conditionalFormatting sqref="F334">
     <cfRule type="expression" dxfId="163" priority="173" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E331">
+  <conditionalFormatting sqref="E336">
     <cfRule type="expression" dxfId="162" priority="172" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F331">
+  <conditionalFormatting sqref="F336">
     <cfRule type="expression" dxfId="161" priority="171" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E332">
+  <conditionalFormatting sqref="E337">
     <cfRule type="expression" dxfId="160" priority="170" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F332">
+  <conditionalFormatting sqref="F337">
     <cfRule type="expression" dxfId="159" priority="169" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E333">
+  <conditionalFormatting sqref="E338">
     <cfRule type="expression" dxfId="158" priority="168" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F333">
+  <conditionalFormatting sqref="F338">
     <cfRule type="expression" dxfId="157" priority="167" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E334">
+  <conditionalFormatting sqref="E339">
     <cfRule type="expression" dxfId="156" priority="166" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F334">
+  <conditionalFormatting sqref="F339">
     <cfRule type="expression" dxfId="155" priority="165" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E336">
+  <conditionalFormatting sqref="E340">
     <cfRule type="expression" dxfId="154" priority="164" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F336">
+  <conditionalFormatting sqref="F340">
     <cfRule type="expression" dxfId="153" priority="163" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E337">
+  <conditionalFormatting sqref="E341">
     <cfRule type="expression" dxfId="152" priority="162" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F337">
+  <conditionalFormatting sqref="F341">
     <cfRule type="expression" dxfId="151" priority="161" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E338">
+  <conditionalFormatting sqref="E342">
     <cfRule type="expression" dxfId="150" priority="160" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F338">
+  <conditionalFormatting sqref="F342">
     <cfRule type="expression" dxfId="149" priority="159" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E339">
+  <conditionalFormatting sqref="E343">
     <cfRule type="expression" dxfId="148" priority="158" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F339">
+  <conditionalFormatting sqref="F343">
     <cfRule type="expression" dxfId="147" priority="157" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E340">
+  <conditionalFormatting sqref="E335">
     <cfRule type="expression" dxfId="146" priority="156" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F340">
+  <conditionalFormatting sqref="F335">
     <cfRule type="expression" dxfId="145" priority="155" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E341">
-    <cfRule type="expression" dxfId="144" priority="154" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F341">
-    <cfRule type="expression" dxfId="143" priority="153" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E342">
-    <cfRule type="expression" dxfId="142" priority="152" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F342">
-    <cfRule type="expression" dxfId="141" priority="151" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E343">
-    <cfRule type="expression" dxfId="140" priority="150" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F343">
-    <cfRule type="expression" dxfId="139" priority="149" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E335">
-    <cfRule type="expression" dxfId="138" priority="148" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F335">
-    <cfRule type="expression" dxfId="137" priority="147" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E345">
+    <cfRule type="expression" dxfId="144" priority="150" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F345">
+    <cfRule type="expression" dxfId="143" priority="149" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E346">
+    <cfRule type="expression" dxfId="142" priority="148" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F346">
+    <cfRule type="expression" dxfId="141" priority="147" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E347">
+    <cfRule type="expression" dxfId="140" priority="146" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F347">
+    <cfRule type="expression" dxfId="139" priority="145" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E348">
+    <cfRule type="expression" dxfId="138" priority="144" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F348">
+    <cfRule type="expression" dxfId="137" priority="143" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E349">
     <cfRule type="expression" dxfId="136" priority="142" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F345">
+  <conditionalFormatting sqref="F349">
     <cfRule type="expression" dxfId="135" priority="141" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E346">
+  <conditionalFormatting sqref="E350">
     <cfRule type="expression" dxfId="134" priority="140" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F346">
+  <conditionalFormatting sqref="F350">
     <cfRule type="expression" dxfId="133" priority="139" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E347">
+  <conditionalFormatting sqref="E351">
     <cfRule type="expression" dxfId="132" priority="138" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F347">
+  <conditionalFormatting sqref="F351">
     <cfRule type="expression" dxfId="131" priority="137" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E348">
+  <conditionalFormatting sqref="E116:E119">
     <cfRule type="expression" dxfId="130" priority="136" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F348">
+  <conditionalFormatting sqref="E352">
     <cfRule type="expression" dxfId="129" priority="135" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E349">
+  <conditionalFormatting sqref="F352">
     <cfRule type="expression" dxfId="128" priority="134" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F349">
+  <conditionalFormatting sqref="E353">
     <cfRule type="expression" dxfId="127" priority="133" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E350">
+  <conditionalFormatting sqref="F353">
     <cfRule type="expression" dxfId="126" priority="132" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F350">
+  <conditionalFormatting sqref="E354">
     <cfRule type="expression" dxfId="125" priority="131" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E351">
+  <conditionalFormatting sqref="F354">
     <cfRule type="expression" dxfId="124" priority="130" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F351">
+  <conditionalFormatting sqref="E355">
     <cfRule type="expression" dxfId="123" priority="129" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E116:E119">
+  <conditionalFormatting sqref="F355">
     <cfRule type="expression" dxfId="122" priority="128" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E352">
+  <conditionalFormatting sqref="E356">
     <cfRule type="expression" dxfId="121" priority="127" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F352">
+  <conditionalFormatting sqref="F356">
     <cfRule type="expression" dxfId="120" priority="126" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E353">
+  <conditionalFormatting sqref="E357">
     <cfRule type="expression" dxfId="119" priority="125" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F353">
+  <conditionalFormatting sqref="F357">
     <cfRule type="expression" dxfId="118" priority="124" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E354">
+  <conditionalFormatting sqref="E358">
     <cfRule type="expression" dxfId="117" priority="123" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F354">
+  <conditionalFormatting sqref="F358">
     <cfRule type="expression" dxfId="116" priority="122" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E355">
+  <conditionalFormatting sqref="E359">
     <cfRule type="expression" dxfId="115" priority="121" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F355">
+  <conditionalFormatting sqref="F359">
     <cfRule type="expression" dxfId="114" priority="120" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E356">
+  <conditionalFormatting sqref="E360">
     <cfRule type="expression" dxfId="113" priority="119" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F356">
+  <conditionalFormatting sqref="F360">
     <cfRule type="expression" dxfId="112" priority="118" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E357">
+  <conditionalFormatting sqref="E361">
     <cfRule type="expression" dxfId="111" priority="117" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F357">
+  <conditionalFormatting sqref="F361">
     <cfRule type="expression" dxfId="110" priority="116" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E358">
+  <conditionalFormatting sqref="E362">
     <cfRule type="expression" dxfId="109" priority="115" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F358">
+  <conditionalFormatting sqref="F362">
     <cfRule type="expression" dxfId="108" priority="114" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E359">
+  <conditionalFormatting sqref="E363">
     <cfRule type="expression" dxfId="107" priority="113" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F359">
+  <conditionalFormatting sqref="F363">
     <cfRule type="expression" dxfId="106" priority="112" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E360">
+  <conditionalFormatting sqref="E364">
     <cfRule type="expression" dxfId="105" priority="111" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F360">
+  <conditionalFormatting sqref="F364">
     <cfRule type="expression" dxfId="104" priority="110" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E361">
+  <conditionalFormatting sqref="E365">
     <cfRule type="expression" dxfId="103" priority="109" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F361">
+  <conditionalFormatting sqref="F365">
     <cfRule type="expression" dxfId="102" priority="108" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E362">
+  <conditionalFormatting sqref="E366">
     <cfRule type="expression" dxfId="101" priority="107" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F362">
+  <conditionalFormatting sqref="F366">
     <cfRule type="expression" dxfId="100" priority="106" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E363">
+  <conditionalFormatting sqref="E367">
     <cfRule type="expression" dxfId="99" priority="105" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F363">
+  <conditionalFormatting sqref="F367">
     <cfRule type="expression" dxfId="98" priority="104" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E364">
+  <conditionalFormatting sqref="E368">
     <cfRule type="expression" dxfId="97" priority="103" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F364">
+  <conditionalFormatting sqref="F368">
     <cfRule type="expression" dxfId="96" priority="102" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E365">
+  <conditionalFormatting sqref="E369">
     <cfRule type="expression" dxfId="95" priority="101" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F365">
+  <conditionalFormatting sqref="F369">
     <cfRule type="expression" dxfId="94" priority="100" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E366">
+  <conditionalFormatting sqref="E370">
     <cfRule type="expression" dxfId="93" priority="99" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F366">
+  <conditionalFormatting sqref="F370">
     <cfRule type="expression" dxfId="92" priority="98" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E367">
+  <conditionalFormatting sqref="E371">
     <cfRule type="expression" dxfId="91" priority="97" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F367">
+  <conditionalFormatting sqref="F371">
     <cfRule type="expression" dxfId="90" priority="96" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E368">
+  <conditionalFormatting sqref="E372">
     <cfRule type="expression" dxfId="89" priority="95" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F368">
+  <conditionalFormatting sqref="F372">
     <cfRule type="expression" dxfId="88" priority="94" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E369">
+  <conditionalFormatting sqref="E373">
     <cfRule type="expression" dxfId="87" priority="93" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F369">
+  <conditionalFormatting sqref="F373">
     <cfRule type="expression" dxfId="86" priority="92" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E370">
+  <conditionalFormatting sqref="E374">
     <cfRule type="expression" dxfId="85" priority="91" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F370">
+  <conditionalFormatting sqref="F374">
     <cfRule type="expression" dxfId="84" priority="90" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E371">
+  <conditionalFormatting sqref="E375">
     <cfRule type="expression" dxfId="83" priority="89" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F371">
+  <conditionalFormatting sqref="F375">
     <cfRule type="expression" dxfId="82" priority="88" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E372">
+  <conditionalFormatting sqref="E376">
     <cfRule type="expression" dxfId="81" priority="87" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F372">
+  <conditionalFormatting sqref="F376">
     <cfRule type="expression" dxfId="80" priority="86" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E373">
+  <conditionalFormatting sqref="E377">
     <cfRule type="expression" dxfId="79" priority="85" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F373">
+  <conditionalFormatting sqref="F377">
     <cfRule type="expression" dxfId="78" priority="84" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E374">
+  <conditionalFormatting sqref="E378">
     <cfRule type="expression" dxfId="77" priority="83" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F374">
+  <conditionalFormatting sqref="F378">
     <cfRule type="expression" dxfId="76" priority="82" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E375">
+  <conditionalFormatting sqref="E379">
     <cfRule type="expression" dxfId="75" priority="81" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F375">
+  <conditionalFormatting sqref="F379">
     <cfRule type="expression" dxfId="74" priority="80" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E376">
+  <conditionalFormatting sqref="E380">
     <cfRule type="expression" dxfId="73" priority="79" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F376">
+  <conditionalFormatting sqref="F380">
     <cfRule type="expression" dxfId="72" priority="78" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E377">
-    <cfRule type="expression" dxfId="71" priority="77" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F377">
-    <cfRule type="expression" dxfId="70" priority="76" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E378">
-    <cfRule type="expression" dxfId="69" priority="75" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F378">
-    <cfRule type="expression" dxfId="68" priority="74" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E379">
-    <cfRule type="expression" dxfId="67" priority="73" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F379">
-    <cfRule type="expression" dxfId="66" priority="72" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E380">
-    <cfRule type="expression" dxfId="65" priority="71" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F380">
-    <cfRule type="expression" dxfId="64" priority="70" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E381">
-    <cfRule type="expression" dxfId="63" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="73" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F381">
-    <cfRule type="expression" dxfId="62" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="72" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E382">
-    <cfRule type="expression" dxfId="61" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F382">
-    <cfRule type="expression" dxfId="60" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="70" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E383">
-    <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F383">
-    <cfRule type="expression" dxfId="58" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E384">
-    <cfRule type="expression" dxfId="57" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F384">
-    <cfRule type="expression" dxfId="56" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E385">
+    <cfRule type="expression" dxfId="63" priority="57" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F385">
+    <cfRule type="expression" dxfId="62" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E386">
+    <cfRule type="expression" dxfId="61" priority="55" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F386">
+    <cfRule type="expression" dxfId="60" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E387">
+    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F387">
+    <cfRule type="expression" dxfId="58" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E388">
+    <cfRule type="expression" dxfId="57" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F388">
+    <cfRule type="expression" dxfId="56" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E389">
     <cfRule type="expression" dxfId="55" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F385">
+  <conditionalFormatting sqref="F389">
     <cfRule type="expression" dxfId="54" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E386">
+  <conditionalFormatting sqref="E390">
     <cfRule type="expression" dxfId="53" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F386">
+  <conditionalFormatting sqref="F390">
     <cfRule type="expression" dxfId="52" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E387">
+  <conditionalFormatting sqref="E391">
     <cfRule type="expression" dxfId="51" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F387">
+  <conditionalFormatting sqref="F391">
     <cfRule type="expression" dxfId="50" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E388">
+  <conditionalFormatting sqref="T392">
     <cfRule type="expression" dxfId="49" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F388">
+  <conditionalFormatting sqref="E392">
     <cfRule type="expression" dxfId="48" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E389">
+  <conditionalFormatting sqref="F392">
     <cfRule type="expression" dxfId="47" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F389">
+  <conditionalFormatting sqref="E393">
     <cfRule type="expression" dxfId="46" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E390">
+  <conditionalFormatting sqref="F393">
     <cfRule type="expression" dxfId="45" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F390">
+  <conditionalFormatting sqref="E394">
     <cfRule type="expression" dxfId="44" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E391">
+  <conditionalFormatting sqref="F394">
     <cfRule type="expression" dxfId="43" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F391">
+  <conditionalFormatting sqref="E395">
     <cfRule type="expression" dxfId="42" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T392">
+  <conditionalFormatting sqref="F395">
     <cfRule type="expression" dxfId="41" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E392">
+  <conditionalFormatting sqref="E396">
     <cfRule type="expression" dxfId="40" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F392">
+  <conditionalFormatting sqref="F396">
     <cfRule type="expression" dxfId="39" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E393">
+  <conditionalFormatting sqref="E401">
     <cfRule type="expression" dxfId="38" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F393">
+  <conditionalFormatting sqref="F401">
     <cfRule type="expression" dxfId="37" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E394">
+  <conditionalFormatting sqref="E402">
     <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F394">
+  <conditionalFormatting sqref="F402">
     <cfRule type="expression" dxfId="35" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E395">
+  <conditionalFormatting sqref="E403">
     <cfRule type="expression" dxfId="34" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F395">
+  <conditionalFormatting sqref="F403">
     <cfRule type="expression" dxfId="33" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E396">
+  <conditionalFormatting sqref="E404">
     <cfRule type="expression" dxfId="32" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F396">
+  <conditionalFormatting sqref="F404">
     <cfRule type="expression" dxfId="31" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E401">
+  <conditionalFormatting sqref="E397">
     <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F401">
+  <conditionalFormatting sqref="F397">
     <cfRule type="expression" dxfId="29" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E402">
+  <conditionalFormatting sqref="E398">
     <cfRule type="expression" dxfId="28" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F402">
+  <conditionalFormatting sqref="F398">
     <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E403">
+  <conditionalFormatting sqref="E399">
     <cfRule type="expression" dxfId="26" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F403">
+  <conditionalFormatting sqref="F399">
     <cfRule type="expression" dxfId="25" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E404">
+  <conditionalFormatting sqref="E400">
     <cfRule type="expression" dxfId="24" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F404">
+  <conditionalFormatting sqref="F400">
     <cfRule type="expression" dxfId="23" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E397">
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F397">
-    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E398">
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F398">
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E399">
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F399">
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E400">
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F400">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E405">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F405">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E406">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F406">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E407">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F407">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E408">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F408">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E409">
+    <cfRule type="expression" dxfId="14" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F409">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E410">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F410">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E411">
+    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F411">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E412">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F412">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43822,9 +44192,13 @@
     <hyperlink ref="C406" r:id="rId295" display="\\10.39.168.135\RawData_EastOIS2\"/>
     <hyperlink ref="C407" r:id="rId296" display="\\10.39.168.135\RawData_EastOIS2\"/>
     <hyperlink ref="C408" r:id="rId297" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C409" r:id="rId298" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C410" r:id="rId299" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C411" r:id="rId300" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C412" r:id="rId301" display="\\10.39.168.135\RawData_EastOIS2\"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId298"/>
+  <pageSetup orientation="portrait" r:id="rId302"/>
 </worksheet>
 </file>
 
@@ -44329,37 +44703,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:L1 N1:P1 R1">
-    <cfRule type="expression" dxfId="22" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="expression" dxfId="21" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="20" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2">
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44393,7 +44767,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="251" t="s">
+      <c r="A2" s="268" t="s">
         <v>125</v>
       </c>
       <c r="B2" t="s">
@@ -44404,7 +44778,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="251"/>
+      <c r="A3" s="268"/>
       <c r="B3" t="s">
         <v>127</v>
       </c>
@@ -44413,7 +44787,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="251"/>
+      <c r="A4" s="268"/>
       <c r="B4" t="s">
         <v>128</v>
       </c>
@@ -44422,7 +44796,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="251"/>
+      <c r="A5" s="268"/>
       <c r="B5" t="s">
         <v>129</v>
       </c>
@@ -44431,7 +44805,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="252" t="s">
+      <c r="A6" s="269" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -44442,7 +44816,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="252"/>
+      <c r="A7" s="269"/>
       <c r="B7" t="s">
         <v>131</v>
       </c>
@@ -44451,7 +44825,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="252"/>
+      <c r="A8" s="269"/>
       <c r="B8" t="s">
         <v>132</v>
       </c>
@@ -44460,7 +44834,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="253" t="s">
+      <c r="A9" s="270" t="s">
         <v>136</v>
       </c>
       <c r="B9">
@@ -44471,7 +44845,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="253"/>
+      <c r="A10" s="270"/>
       <c r="B10">
         <v>2141</v>
       </c>
@@ -44480,7 +44854,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="253" t="s">
+      <c r="A11" s="270" t="s">
         <v>138</v>
       </c>
       <c r="B11">
@@ -44491,7 +44865,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="253"/>
+      <c r="A12" s="270"/>
       <c r="B12">
         <v>2143</v>
       </c>
@@ -44500,7 +44874,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="253"/>
+      <c r="A13" s="270"/>
       <c r="B13">
         <v>2144</v>
       </c>
@@ -44509,7 +44883,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="253"/>
+      <c r="A14" s="270"/>
       <c r="B14">
         <v>2145</v>
       </c>
@@ -44518,7 +44892,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="253"/>
+      <c r="A15" s="270"/>
       <c r="B15">
         <v>2146</v>
       </c>
@@ -44614,19 +44988,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="271" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
+      <c r="B1" s="271"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
       <c r="E1" s="186"/>
-      <c r="H1" s="254" t="s">
+      <c r="H1" s="271" t="s">
         <v>322</v>
       </c>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
+      <c r="I1" s="271"/>
+      <c r="J1" s="271"/>
+      <c r="K1" s="271"/>
       <c r="L1" s="186"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -44636,22 +45010,22 @@
       <c r="B2" s="186" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="254" t="s">
+      <c r="C2" s="271" t="s">
         <v>342</v>
       </c>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
       <c r="H2" s="186" t="s">
         <v>328</v>
       </c>
       <c r="I2" s="186" t="s">
         <v>329</v>
       </c>
-      <c r="J2" s="254" t="s">
+      <c r="J2" s="271" t="s">
         <v>342</v>
       </c>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
+      <c r="K2" s="271"/>
+      <c r="L2" s="271"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="186" t="s">
@@ -44912,19 +45286,19 @@
       <c r="L12" s="186"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="254" t="s">
+      <c r="A14" s="271" t="s">
         <v>320</v>
       </c>
-      <c r="B14" s="254"/>
-      <c r="C14" s="254"/>
-      <c r="D14" s="254"/>
+      <c r="B14" s="271"/>
+      <c r="C14" s="271"/>
+      <c r="D14" s="271"/>
       <c r="E14" s="186"/>
-      <c r="H14" s="254" t="s">
+      <c r="H14" s="271" t="s">
         <v>323</v>
       </c>
-      <c r="I14" s="254"/>
-      <c r="J14" s="254"/>
-      <c r="K14" s="254"/>
+      <c r="I14" s="271"/>
+      <c r="J14" s="271"/>
+      <c r="K14" s="271"/>
       <c r="L14" s="186"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -44934,22 +45308,22 @@
       <c r="B15" s="186" t="s">
         <v>329</v>
       </c>
-      <c r="C15" s="254" t="s">
+      <c r="C15" s="271" t="s">
         <v>342</v>
       </c>
-      <c r="D15" s="254"/>
-      <c r="E15" s="254"/>
+      <c r="D15" s="271"/>
+      <c r="E15" s="271"/>
       <c r="H15" s="186" t="s">
         <v>328</v>
       </c>
       <c r="I15" s="186" t="s">
         <v>329</v>
       </c>
-      <c r="J15" s="254" t="s">
+      <c r="J15" s="271" t="s">
         <v>342</v>
       </c>
-      <c r="K15" s="254"/>
-      <c r="L15" s="254"/>
+      <c r="K15" s="271"/>
+      <c r="L15" s="271"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="186" t="s">
@@ -45316,19 +45690,19 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="254" t="s">
+      <c r="A16" s="271" t="s">
         <v>348</v>
       </c>
-      <c r="B16" s="254"/>
-      <c r="C16" s="254"/>
-      <c r="D16" s="254"/>
+      <c r="B16" s="271"/>
+      <c r="C16" s="271"/>
+      <c r="D16" s="271"/>
       <c r="E16" s="186"/>
-      <c r="G16" s="254" t="s">
+      <c r="G16" s="271" t="s">
         <v>352</v>
       </c>
-      <c r="H16" s="254"/>
-      <c r="I16" s="254"/>
-      <c r="J16" s="254"/>
+      <c r="H16" s="271"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="271"/>
       <c r="K16" s="186"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -45338,22 +45712,22 @@
       <c r="B17" s="186" t="s">
         <v>329</v>
       </c>
-      <c r="C17" s="254" t="s">
+      <c r="C17" s="271" t="s">
         <v>342</v>
       </c>
-      <c r="D17" s="254"/>
-      <c r="E17" s="254"/>
+      <c r="D17" s="271"/>
+      <c r="E17" s="271"/>
       <c r="G17" s="186" t="s">
         <v>328</v>
       </c>
       <c r="H17" s="186" t="s">
         <v>329</v>
       </c>
-      <c r="I17" s="254" t="s">
+      <c r="I17" s="271" t="s">
         <v>342</v>
       </c>
-      <c r="J17" s="254"/>
-      <c r="K17" s="254"/>
+      <c r="J17" s="271"/>
+      <c r="K17" s="271"/>
       <c r="M17" t="s">
         <v>349</v>
       </c>
@@ -45671,12 +46045,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="254" t="s">
+      <c r="A31" s="271" t="s">
         <v>355</v>
       </c>
-      <c r="B31" s="254"/>
-      <c r="C31" s="254"/>
-      <c r="D31" s="254"/>
+      <c r="B31" s="271"/>
+      <c r="C31" s="271"/>
+      <c r="D31" s="271"/>
       <c r="E31" s="186"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -45686,11 +46060,11 @@
       <c r="B32" s="186" t="s">
         <v>329</v>
       </c>
-      <c r="C32" s="254" t="s">
+      <c r="C32" s="271" t="s">
         <v>342</v>
       </c>
-      <c r="D32" s="254"/>
-      <c r="E32" s="254"/>
+      <c r="D32" s="271"/>
+      <c r="E32" s="271"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="186" t="s">
@@ -45888,13 +46262,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="272" t="s">
         <v>365</v>
       </c>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
       <c r="F1" s="204"/>
       <c r="G1" s="190">
         <v>200302</v>
@@ -45908,12 +46282,12 @@
         <v>329</v>
       </c>
       <c r="C2" s="202"/>
-      <c r="D2" s="255" t="s">
+      <c r="D2" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="190" t="s">
@@ -46122,13 +46496,13 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="255" t="s">
+      <c r="A15" s="272" t="s">
         <v>364</v>
       </c>
-      <c r="B15" s="255"/>
-      <c r="C15" s="255"/>
-      <c r="D15" s="255"/>
-      <c r="E15" s="255"/>
+      <c r="B15" s="272"/>
+      <c r="C15" s="272"/>
+      <c r="D15" s="272"/>
+      <c r="E15" s="272"/>
       <c r="F15" s="204"/>
       <c r="G15" s="190">
         <v>200303</v>
@@ -46142,12 +46516,12 @@
         <v>329</v>
       </c>
       <c r="C16" s="202"/>
-      <c r="D16" s="255" t="s">
+      <c r="D16" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="E16" s="255"/>
-      <c r="F16" s="255"/>
-      <c r="G16" s="255"/>
+      <c r="E16" s="272"/>
+      <c r="F16" s="272"/>
+      <c r="G16" s="272"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="190" t="s">
@@ -46355,13 +46729,13 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="255" t="s">
+      <c r="A29" s="272" t="s">
         <v>363</v>
       </c>
-      <c r="B29" s="255"/>
-      <c r="C29" s="255"/>
-      <c r="D29" s="255"/>
-      <c r="E29" s="255"/>
+      <c r="B29" s="272"/>
+      <c r="C29" s="272"/>
+      <c r="D29" s="272"/>
+      <c r="E29" s="272"/>
       <c r="F29" s="204"/>
       <c r="G29" s="190">
         <v>200305</v>
@@ -46375,12 +46749,12 @@
         <v>329</v>
       </c>
       <c r="C30" s="202"/>
-      <c r="D30" s="255" t="s">
+      <c r="D30" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="E30" s="255"/>
-      <c r="F30" s="255"/>
-      <c r="G30" s="255"/>
+      <c r="E30" s="272"/>
+      <c r="F30" s="272"/>
+      <c r="G30" s="272"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="190" t="s">
@@ -46609,13 +46983,13 @@
       <c r="G41" s="198"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="255" t="s">
+      <c r="A43" s="272" t="s">
         <v>362</v>
       </c>
-      <c r="B43" s="255"/>
-      <c r="C43" s="255"/>
-      <c r="D43" s="255"/>
-      <c r="E43" s="255"/>
+      <c r="B43" s="272"/>
+      <c r="C43" s="272"/>
+      <c r="D43" s="272"/>
+      <c r="E43" s="272"/>
       <c r="F43" s="204"/>
       <c r="G43" s="190">
         <v>200306</v>
@@ -46629,12 +47003,12 @@
         <v>329</v>
       </c>
       <c r="C44" s="202"/>
-      <c r="D44" s="255" t="s">
+      <c r="D44" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="E44" s="255"/>
-      <c r="F44" s="255"/>
-      <c r="G44" s="255"/>
+      <c r="E44" s="272"/>
+      <c r="F44" s="272"/>
+      <c r="G44" s="272"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="190" t="s">
@@ -46869,13 +47243,13 @@
       <c r="G55" s="196"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="255" t="s">
+      <c r="A57" s="272" t="s">
         <v>366</v>
       </c>
-      <c r="B57" s="255"/>
-      <c r="C57" s="255"/>
-      <c r="D57" s="255"/>
-      <c r="E57" s="255"/>
+      <c r="B57" s="272"/>
+      <c r="C57" s="272"/>
+      <c r="D57" s="272"/>
+      <c r="E57" s="272"/>
       <c r="F57" s="204"/>
       <c r="G57" s="190">
         <v>200309</v>
@@ -46889,12 +47263,12 @@
         <v>329</v>
       </c>
       <c r="C58" s="202"/>
-      <c r="D58" s="255" t="s">
+      <c r="D58" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="E58" s="255"/>
-      <c r="F58" s="255"/>
-      <c r="G58" s="255"/>
+      <c r="E58" s="272"/>
+      <c r="F58" s="272"/>
+      <c r="G58" s="272"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="190" t="s">
@@ -47131,13 +47505,13 @@
       <c r="G69" s="196"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="255" t="s">
+      <c r="A71" s="272" t="s">
         <v>371</v>
       </c>
-      <c r="B71" s="255"/>
-      <c r="C71" s="255"/>
-      <c r="D71" s="255"/>
-      <c r="E71" s="255"/>
+      <c r="B71" s="272"/>
+      <c r="C71" s="272"/>
+      <c r="D71" s="272"/>
+      <c r="E71" s="272"/>
       <c r="F71" s="204"/>
       <c r="G71" s="190">
         <v>200312</v>
@@ -47151,12 +47525,12 @@
         <v>329</v>
       </c>
       <c r="C72" s="202"/>
-      <c r="D72" s="255" t="s">
+      <c r="D72" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="E72" s="255"/>
-      <c r="F72" s="255"/>
-      <c r="G72" s="255"/>
+      <c r="E72" s="272"/>
+      <c r="F72" s="272"/>
+      <c r="G72" s="272"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="190" t="s">

--- a/DataBase_Xiaodan.xlsx
+++ b/DataBase_Xiaodan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Sheet7" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -13871,10 +13870,10 @@
   <dimension ref="A1:AE412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C193" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A237" sqref="A237:XFD237"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataBase_Xiaodan.xlsx
+++ b/DataBase_Xiaodan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3642" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3642" uniqueCount="516">
   <si>
     <t>Date</t>
   </si>
@@ -1569,6 +1569,9 @@
   </si>
   <si>
     <t>A48M343-V-opto3</t>
+  </si>
+  <si>
+    <t>\\10.23.92.191\RawData_East3410\</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1872,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2582,6 +2585,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -13870,38 +13876,38 @@
   <dimension ref="A1:AE412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="62.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="62.44140625" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="4" max="4" width="54.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="10" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="38.33203125" customWidth="1"/>
     <col min="12" max="12" width="40" customWidth="1"/>
-    <col min="13" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="24.85546875" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" style="32" customWidth="1"/>
-    <col min="19" max="20" width="16.7109375" customWidth="1"/>
-    <col min="21" max="21" width="25.7109375" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" customWidth="1"/>
+    <col min="13" max="14" width="18.44140625" customWidth="1"/>
+    <col min="15" max="15" width="24.88671875" customWidth="1"/>
+    <col min="16" max="16" width="18.44140625" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" style="32" customWidth="1"/>
+    <col min="19" max="20" width="16.6640625" customWidth="1"/>
+    <col min="21" max="21" width="25.6640625" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" customWidth="1"/>
     <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" customWidth="1"/>
+    <col min="26" max="26" width="16.6640625" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" customWidth="1"/>
+    <col min="29" max="29" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -13996,7 +14002,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>6</v>
       </c>
@@ -14060,7 +14066,7 @@
       <c r="X2" s="48"/>
       <c r="Y2" s="48"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
         <v>6</v>
       </c>
@@ -14122,7 +14128,7 @@
       <c r="X3" s="33"/>
       <c r="Y3" s="33"/>
     </row>
-    <row r="4" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="56">
         <v>181101</v>
       </c>
@@ -14186,7 +14192,7 @@
       <c r="X4" s="48"/>
       <c r="Y4" s="48"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="57">
         <v>181101</v>
       </c>
@@ -14248,7 +14254,7 @@
       <c r="X5" s="33"/>
       <c r="Y5" s="33"/>
     </row>
-    <row r="6" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58">
         <v>181126</v>
       </c>
@@ -14310,7 +14316,7 @@
       <c r="X6" s="55"/>
       <c r="Y6" s="55"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="57">
         <v>181127</v>
       </c>
@@ -14374,7 +14380,7 @@
       <c r="X7" s="33"/>
       <c r="Y7" s="33"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="57">
         <v>181127</v>
       </c>
@@ -14436,7 +14442,7 @@
       <c r="X8" s="33"/>
       <c r="Y8" s="33"/>
     </row>
-    <row r="9" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="58">
         <v>181127</v>
       </c>
@@ -14500,7 +14506,7 @@
       <c r="X9" s="55"/>
       <c r="Y9" s="55"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="57">
         <v>181127</v>
       </c>
@@ -14564,7 +14570,7 @@
       <c r="X10" s="33"/>
       <c r="Y10" s="33"/>
     </row>
-    <row r="11" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58">
         <v>181127</v>
       </c>
@@ -14630,7 +14636,7 @@
       <c r="X11" s="55"/>
       <c r="Y11" s="55"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="57">
         <v>181203</v>
       </c>
@@ -14692,7 +14698,7 @@
       <c r="X12" s="33"/>
       <c r="Y12" s="33"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="57">
         <v>181203</v>
       </c>
@@ -14756,7 +14762,7 @@
       <c r="X13" s="33"/>
       <c r="Y13" s="33"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="57">
         <v>181203</v>
       </c>
@@ -14818,7 +14824,7 @@
       <c r="X14" s="33"/>
       <c r="Y14" s="33"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="57">
         <v>181203</v>
       </c>
@@ -14882,7 +14888,7 @@
       <c r="X15" s="33"/>
       <c r="Y15" s="33"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="57">
         <v>181203</v>
       </c>
@@ -14942,7 +14948,7 @@
       <c r="X16" s="33"/>
       <c r="Y16" s="33"/>
     </row>
-    <row r="17" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58">
         <v>181217</v>
       </c>
@@ -15006,7 +15012,7 @@
       <c r="X17" s="55"/>
       <c r="Y17" s="55"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="57">
         <v>181217</v>
       </c>
@@ -15070,7 +15076,7 @@
       <c r="X18" s="33"/>
       <c r="Y18" s="33"/>
     </row>
-    <row r="19" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58">
         <v>181218</v>
       </c>
@@ -15134,7 +15140,7 @@
       <c r="X19" s="55"/>
       <c r="Y19" s="55"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="57">
         <v>181218</v>
       </c>
@@ -15198,7 +15204,7 @@
       <c r="X20" s="33"/>
       <c r="Y20" s="33"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="57">
         <v>181218</v>
       </c>
@@ -15262,7 +15268,7 @@
       <c r="X21" s="33"/>
       <c r="Y21" s="33"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="57">
         <v>190102</v>
       </c>
@@ -15326,7 +15332,7 @@
       <c r="X22" s="33"/>
       <c r="Y22" s="33"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="57">
         <v>190102</v>
       </c>
@@ -15390,7 +15396,7 @@
       <c r="X23" s="33"/>
       <c r="Y23" s="33"/>
     </row>
-    <row r="24" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="66">
         <v>190102</v>
       </c>
@@ -15456,7 +15462,7 @@
       <c r="X24" s="67"/>
       <c r="Y24" s="67"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="57">
         <v>190102</v>
       </c>
@@ -15520,7 +15526,7 @@
       <c r="X25" s="33"/>
       <c r="Y25" s="33"/>
     </row>
-    <row r="26" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="73">
         <v>190104</v>
       </c>
@@ -15578,7 +15584,7 @@
       <c r="X26" s="74"/>
       <c r="Y26" s="74"/>
     </row>
-    <row r="27" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="73">
         <v>190104</v>
       </c>
@@ -15636,7 +15642,7 @@
       <c r="X27" s="74"/>
       <c r="Y27" s="74"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="57">
         <v>190109</v>
       </c>
@@ -15690,7 +15696,7 @@
       <c r="X28" s="33"/>
       <c r="Y28" s="33"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="57">
         <v>190109</v>
       </c>
@@ -15742,7 +15748,7 @@
       <c r="X29" s="33"/>
       <c r="Y29" s="33"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="57">
         <v>190109</v>
       </c>
@@ -15796,7 +15802,7 @@
       <c r="X30" s="33"/>
       <c r="Y30" s="33"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="57">
         <v>190109</v>
       </c>
@@ -15848,7 +15854,7 @@
       <c r="X31" s="33"/>
       <c r="Y31" s="33"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="57">
         <v>190109</v>
       </c>
@@ -15902,7 +15908,7 @@
       <c r="X32" s="33"/>
       <c r="Y32" s="33"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="57">
         <v>190111</v>
       </c>
@@ -15956,7 +15962,7 @@
       <c r="X33" s="33"/>
       <c r="Y33" s="33"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="57">
         <v>190111</v>
       </c>
@@ -16008,7 +16014,7 @@
       <c r="X34" s="33"/>
       <c r="Y34" s="33"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="57">
         <v>190111</v>
       </c>
@@ -16060,7 +16066,7 @@
       <c r="X35" s="33"/>
       <c r="Y35" s="33"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="57">
         <v>190111</v>
       </c>
@@ -16112,7 +16118,7 @@
       <c r="X36" s="33"/>
       <c r="Y36" s="33"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="57">
         <v>190111</v>
       </c>
@@ -16164,7 +16170,7 @@
       <c r="X37" s="33"/>
       <c r="Y37" s="33"/>
     </row>
-    <row r="38" spans="1:25" s="249" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" s="249" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="242">
         <v>190115</v>
       </c>
@@ -16228,7 +16234,7 @@
       <c r="X38" s="243"/>
       <c r="Y38" s="243"/>
     </row>
-    <row r="39" spans="1:25" s="249" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" s="249" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="242">
         <v>190115</v>
       </c>
@@ -16292,7 +16298,7 @@
       <c r="X39" s="243"/>
       <c r="Y39" s="243"/>
     </row>
-    <row r="40" spans="1:25" s="249" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" s="249" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="242">
         <v>190117</v>
       </c>
@@ -16356,7 +16362,7 @@
       <c r="X40" s="243"/>
       <c r="Y40" s="243"/>
     </row>
-    <row r="41" spans="1:25" s="249" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" s="249" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="242">
         <v>190117</v>
       </c>
@@ -16420,7 +16426,7 @@
       <c r="X41" s="243"/>
       <c r="Y41" s="243"/>
     </row>
-    <row r="42" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="57">
         <v>190130</v>
       </c>
@@ -16482,7 +16488,7 @@
       <c r="X42" s="55"/>
       <c r="Y42" s="55"/>
     </row>
-    <row r="43" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="57">
         <v>190130</v>
       </c>
@@ -16544,7 +16550,7 @@
       <c r="X43" s="55"/>
       <c r="Y43" s="55"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="57">
         <v>190130</v>
       </c>
@@ -16596,7 +16602,7 @@
       <c r="X44" s="33"/>
       <c r="Y44" s="33"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="57">
         <v>190130</v>
       </c>
@@ -16648,7 +16654,7 @@
       <c r="X45" s="33"/>
       <c r="Y45" s="33"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="57">
         <v>190215</v>
       </c>
@@ -16706,7 +16712,7 @@
       <c r="X46" s="33"/>
       <c r="Y46" s="33"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="57">
         <v>190215</v>
       </c>
@@ -16770,7 +16776,7 @@
       <c r="X47" s="33"/>
       <c r="Y47" s="33"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="57">
         <v>190217</v>
       </c>
@@ -16834,7 +16840,7 @@
       <c r="X48" s="33"/>
       <c r="Y48" s="33"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="57">
         <v>190217</v>
       </c>
@@ -16892,7 +16898,7 @@
       <c r="X49" s="33"/>
       <c r="Y49" s="33"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="57">
         <v>190217</v>
       </c>
@@ -16956,7 +16962,7 @@
       <c r="X50" s="33"/>
       <c r="Y50" s="33"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="57">
         <v>190217</v>
       </c>
@@ -17014,7 +17020,7 @@
       <c r="X51" s="33"/>
       <c r="Y51" s="33"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="57">
         <v>190218</v>
       </c>
@@ -17078,7 +17084,7 @@
       <c r="X52" s="33"/>
       <c r="Y52" s="33"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="57">
         <v>190218</v>
       </c>
@@ -17136,7 +17142,7 @@
       <c r="X53" s="33"/>
       <c r="Y53" s="33"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="57">
         <v>190218</v>
       </c>
@@ -17200,7 +17206,7 @@
       <c r="X54" s="33"/>
       <c r="Y54" s="33"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="57">
         <v>190218</v>
       </c>
@@ -17258,7 +17264,7 @@
       <c r="X55" s="33"/>
       <c r="Y55" s="33"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="57">
         <v>190218</v>
       </c>
@@ -17322,7 +17328,7 @@
       <c r="X56" s="33"/>
       <c r="Y56" s="33"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="57">
         <v>190218</v>
       </c>
@@ -17380,7 +17386,7 @@
       <c r="X57" s="33"/>
       <c r="Y57" s="33"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="57">
         <v>190218</v>
       </c>
@@ -17444,7 +17450,7 @@
       <c r="X58" s="33"/>
       <c r="Y58" s="33"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="57">
         <v>190218</v>
       </c>
@@ -17502,7 +17508,7 @@
       <c r="X59" s="33"/>
       <c r="Y59" s="33"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="57">
         <v>190213</v>
       </c>
@@ -17566,7 +17572,7 @@
       <c r="X60" s="33"/>
       <c r="Y60" s="33"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="57">
         <v>190213</v>
       </c>
@@ -17624,7 +17630,7 @@
       <c r="X61" s="33"/>
       <c r="Y61" s="33"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="57">
         <v>190213</v>
       </c>
@@ -17688,7 +17694,7 @@
       <c r="X62" s="33"/>
       <c r="Y62" s="33"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="57">
         <v>190213</v>
       </c>
@@ -17746,7 +17752,7 @@
       <c r="X63" s="33"/>
       <c r="Y63" s="33"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="57">
         <v>190213</v>
       </c>
@@ -17810,7 +17816,7 @@
       <c r="X64" s="33"/>
       <c r="Y64" s="33"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="57">
         <v>190213</v>
       </c>
@@ -17868,7 +17874,7 @@
       <c r="X65" s="33"/>
       <c r="Y65" s="33"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="57">
         <v>190208</v>
       </c>
@@ -17932,7 +17938,7 @@
       <c r="X66" s="33"/>
       <c r="Y66" s="33"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="57">
         <v>190208</v>
       </c>
@@ -17990,7 +17996,7 @@
       <c r="X67" s="33"/>
       <c r="Y67" s="33"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="57">
         <v>190228</v>
       </c>
@@ -18054,7 +18060,7 @@
       <c r="X68" s="33"/>
       <c r="Y68" s="33"/>
     </row>
-    <row r="69" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="66">
         <v>190228</v>
       </c>
@@ -18120,7 +18126,7 @@
       <c r="X69" s="67"/>
       <c r="Y69" s="67"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="57">
         <v>190228</v>
       </c>
@@ -18184,7 +18190,7 @@
       <c r="X70" s="33"/>
       <c r="Y70" s="33"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="57">
         <v>190228</v>
       </c>
@@ -18242,7 +18248,7 @@
       <c r="X71" s="33"/>
       <c r="Y71" s="33"/>
     </row>
-    <row r="72" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="66">
         <v>190304</v>
       </c>
@@ -18308,7 +18314,7 @@
       <c r="X72" s="67"/>
       <c r="Y72" s="67"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="57">
         <v>190304</v>
       </c>
@@ -18366,7 +18372,7 @@
       <c r="X73" s="33"/>
       <c r="Y73" s="33"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="57">
         <v>190304</v>
       </c>
@@ -18430,7 +18436,7 @@
       <c r="X74" s="33"/>
       <c r="Y74" s="33"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="57">
         <v>190304</v>
       </c>
@@ -18488,7 +18494,7 @@
       <c r="X75" s="33"/>
       <c r="Y75" s="33"/>
     </row>
-    <row r="76" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="66">
         <v>190304</v>
       </c>
@@ -18554,7 +18560,7 @@
       <c r="X76" s="67"/>
       <c r="Y76" s="67"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="57">
         <v>190304</v>
       </c>
@@ -18612,7 +18618,7 @@
       <c r="X77" s="33"/>
       <c r="Y77" s="33"/>
     </row>
-    <row r="78" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="66">
         <v>190304</v>
       </c>
@@ -18678,7 +18684,7 @@
       <c r="X78" s="67"/>
       <c r="Y78" s="67"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="57">
         <v>190304</v>
       </c>
@@ -18736,7 +18742,7 @@
       <c r="X79" s="33"/>
       <c r="Y79" s="33"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="57">
         <v>190304</v>
       </c>
@@ -18800,7 +18806,7 @@
       <c r="X80" s="33"/>
       <c r="Y80" s="33"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="57">
         <v>190304</v>
       </c>
@@ -18858,7 +18864,7 @@
       <c r="X81" s="33"/>
       <c r="Y81" s="33"/>
     </row>
-    <row r="82" spans="1:25" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="80">
         <v>190305</v>
       </c>
@@ -18924,7 +18930,7 @@
       <c r="X82" s="81"/>
       <c r="Y82" s="81"/>
     </row>
-    <row r="83" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="87">
         <v>190305</v>
       </c>
@@ -18990,7 +18996,7 @@
       <c r="X83" s="88"/>
       <c r="Y83" s="88"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="57">
         <v>190308</v>
       </c>
@@ -19054,7 +19060,7 @@
       <c r="X84" s="33"/>
       <c r="Y84" s="33"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="57">
         <v>190308</v>
       </c>
@@ -19118,7 +19124,7 @@
       <c r="X85" s="33"/>
       <c r="Y85" s="33"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="57">
         <v>190311</v>
       </c>
@@ -19182,7 +19188,7 @@
       <c r="X86" s="33"/>
       <c r="Y86" s="33"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="57">
         <v>190311</v>
       </c>
@@ -19246,7 +19252,7 @@
       <c r="X87" s="33"/>
       <c r="Y87" s="33"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="57">
         <v>190312</v>
       </c>
@@ -19310,7 +19316,7 @@
       <c r="X88" s="33"/>
       <c r="Y88" s="33"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="57">
         <v>190227</v>
       </c>
@@ -19368,7 +19374,7 @@
       <c r="X89" s="33"/>
       <c r="Y89" s="33"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="57">
         <v>181004</v>
       </c>
@@ -19426,7 +19432,7 @@
       <c r="X90" s="33"/>
       <c r="Y90" s="33"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="57">
         <v>190321</v>
       </c>
@@ -19484,7 +19490,7 @@
       <c r="X91" s="33"/>
       <c r="Y91" s="33"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="57">
         <v>190321</v>
       </c>
@@ -19542,7 +19548,7 @@
       <c r="X92" s="33"/>
       <c r="Y92" s="33"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="57">
         <v>190321</v>
       </c>
@@ -19600,7 +19606,7 @@
       <c r="X93" s="33"/>
       <c r="Y93" s="33"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="57">
         <v>190326</v>
       </c>
@@ -19666,7 +19672,7 @@
       <c r="X94" s="33"/>
       <c r="Y94" s="33"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="57">
         <v>190326</v>
       </c>
@@ -19730,7 +19736,7 @@
       <c r="X95" s="33"/>
       <c r="Y95" s="33"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="57">
         <v>190326</v>
       </c>
@@ -19796,7 +19802,7 @@
       <c r="X96" s="33"/>
       <c r="Y96" s="33"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="57">
         <v>190326</v>
       </c>
@@ -19860,7 +19866,7 @@
       <c r="X97" s="33"/>
       <c r="Y97" s="33"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="57">
         <v>190326</v>
       </c>
@@ -19926,7 +19932,7 @@
       <c r="X98" s="33"/>
       <c r="Y98" s="33"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="57">
         <v>190326</v>
       </c>
@@ -19990,7 +19996,7 @@
       <c r="X99" s="33"/>
       <c r="Y99" s="33"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="57">
         <v>190403</v>
       </c>
@@ -20054,7 +20060,7 @@
       <c r="X100" s="33"/>
       <c r="Y100" s="33"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="57">
         <v>190403</v>
       </c>
@@ -20118,7 +20124,7 @@
       <c r="X101" s="33"/>
       <c r="Y101" s="33"/>
     </row>
-    <row r="102" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="93">
         <v>190403</v>
       </c>
@@ -20182,7 +20188,7 @@
       <c r="X102" s="94"/>
       <c r="Y102" s="94"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="57">
         <v>190403</v>
       </c>
@@ -20246,7 +20252,7 @@
       <c r="X103" s="33"/>
       <c r="Y103" s="33"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" s="57">
         <v>190405</v>
       </c>
@@ -20310,7 +20316,7 @@
       <c r="X104" s="33"/>
       <c r="Y104" s="33"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="57">
         <v>190405</v>
       </c>
@@ -20374,7 +20380,7 @@
       <c r="X105" s="33"/>
       <c r="Y105" s="33"/>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="57">
         <v>190408</v>
       </c>
@@ -20438,7 +20444,7 @@
       <c r="X106" s="33"/>
       <c r="Y106" s="33"/>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" s="57">
         <v>190408</v>
       </c>
@@ -20502,7 +20508,7 @@
       <c r="X107" s="33"/>
       <c r="Y107" s="33"/>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" s="57">
         <v>190408</v>
       </c>
@@ -20566,7 +20572,7 @@
       <c r="X108" s="33"/>
       <c r="Y108" s="33"/>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="57">
         <v>190412</v>
       </c>
@@ -20630,7 +20636,7 @@
       <c r="X109" s="33"/>
       <c r="Y109" s="33"/>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="57">
         <v>190412</v>
       </c>
@@ -20696,7 +20702,7 @@
       <c r="X110" s="33"/>
       <c r="Y110" s="33"/>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="57">
         <v>190411</v>
       </c>
@@ -20762,7 +20768,7 @@
       <c r="X111" s="33"/>
       <c r="Y111" s="33"/>
     </row>
-    <row r="112" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="100">
         <v>190419</v>
       </c>
@@ -20828,7 +20834,7 @@
       <c r="X112" s="101"/>
       <c r="Y112" s="101"/>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" s="57">
         <v>190419</v>
       </c>
@@ -20894,7 +20900,7 @@
       <c r="X113" s="33"/>
       <c r="Y113" s="33"/>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="57">
         <v>190419</v>
       </c>
@@ -20960,7 +20966,7 @@
       <c r="X114" s="33"/>
       <c r="Y114" s="33"/>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" s="57">
         <v>190419</v>
       </c>
@@ -21026,7 +21032,7 @@
       <c r="X115" s="33"/>
       <c r="Y115" s="33"/>
     </row>
-    <row r="116" spans="1:25" s="227" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" s="227" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="223">
         <v>190424</v>
       </c>
@@ -21080,7 +21086,7 @@
       <c r="X116" s="224"/>
       <c r="Y116" s="224"/>
     </row>
-    <row r="117" spans="1:25" s="227" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" s="227" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="223">
         <v>190426</v>
       </c>
@@ -21134,7 +21140,7 @@
       <c r="X117" s="224"/>
       <c r="Y117" s="224"/>
     </row>
-    <row r="118" spans="1:25" s="227" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" s="227" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="223">
         <v>190426</v>
       </c>
@@ -21188,7 +21194,7 @@
       <c r="X118" s="224"/>
       <c r="Y118" s="224"/>
     </row>
-    <row r="119" spans="1:25" s="227" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" s="227" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="223">
         <v>190502</v>
       </c>
@@ -21242,7 +21248,7 @@
       <c r="X119" s="224"/>
       <c r="Y119" s="224"/>
     </row>
-    <row r="120" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="119">
         <v>190506</v>
       </c>
@@ -21294,7 +21300,7 @@
       <c r="X120" s="120"/>
       <c r="Y120" s="120"/>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" s="57">
         <v>190506</v>
       </c>
@@ -21346,7 +21352,7 @@
       <c r="X121" s="33"/>
       <c r="Y121" s="33"/>
     </row>
-    <row r="122" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="119">
         <v>190506</v>
       </c>
@@ -21398,7 +21404,7 @@
       <c r="X122" s="120"/>
       <c r="Y122" s="120"/>
     </row>
-    <row r="123" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="119">
         <v>190506</v>
       </c>
@@ -21450,7 +21456,7 @@
       <c r="X123" s="120"/>
       <c r="Y123" s="120"/>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" s="57">
         <v>190506</v>
       </c>
@@ -21516,7 +21522,7 @@
       </c>
       <c r="Y124" s="33"/>
     </row>
-    <row r="125" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="106">
         <v>190506</v>
       </c>
@@ -21582,7 +21588,7 @@
       </c>
       <c r="Y125" s="107"/>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" s="57">
         <v>190506</v>
       </c>
@@ -21648,7 +21654,7 @@
       </c>
       <c r="Y126" s="33"/>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" s="57">
         <v>190506</v>
       </c>
@@ -21714,7 +21720,7 @@
       </c>
       <c r="Y127" s="33"/>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" s="57">
         <v>190513</v>
       </c>
@@ -21780,7 +21786,7 @@
       </c>
       <c r="Y128" s="33"/>
     </row>
-    <row r="129" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="93">
         <v>190513</v>
       </c>
@@ -21834,7 +21840,7 @@
       <c r="X129" s="94"/>
       <c r="Y129" s="94"/>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="57">
         <v>190513</v>
       </c>
@@ -21900,7 +21906,7 @@
       </c>
       <c r="Y130" s="33"/>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="57">
         <v>190513</v>
       </c>
@@ -21954,7 +21960,7 @@
       <c r="X131" s="33"/>
       <c r="Y131" s="33"/>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" s="57">
         <v>190513</v>
       </c>
@@ -22020,15 +22026,15 @@
       </c>
       <c r="Y132" s="33"/>
     </row>
-    <row r="133" spans="1:25" s="264" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25" s="264" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="259">
         <v>190513</v>
       </c>
       <c r="B133" s="260" t="s">
         <v>157</v>
       </c>
-      <c r="C133" s="260" t="s">
-        <v>484</v>
+      <c r="C133" s="253" t="s">
+        <v>515</v>
       </c>
       <c r="D133" s="261" t="s">
         <v>486</v>
@@ -22074,15 +22080,15 @@
       <c r="X133" s="260"/>
       <c r="Y133" s="260"/>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" s="57">
         <v>190513</v>
       </c>
       <c r="B134" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C134" s="53" t="s">
-        <v>484</v>
+      <c r="C134" s="273" t="s">
+        <v>515</v>
       </c>
       <c r="D134" s="54" t="s">
         <v>486</v>
@@ -22140,15 +22146,15 @@
       </c>
       <c r="Y134" s="33"/>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" s="57">
         <v>190513</v>
       </c>
       <c r="B135" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C135" s="53" t="s">
-        <v>484</v>
+      <c r="C135" s="273" t="s">
+        <v>515</v>
       </c>
       <c r="D135" s="54" t="s">
         <v>486</v>
@@ -22194,15 +22200,15 @@
       <c r="X135" s="33"/>
       <c r="Y135" s="33"/>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" s="57">
         <v>190515</v>
       </c>
       <c r="B136" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C136" s="53" t="s">
-        <v>484</v>
+      <c r="C136" s="273" t="s">
+        <v>515</v>
       </c>
       <c r="D136" s="54" t="s">
         <v>486</v>
@@ -22260,15 +22266,15 @@
       </c>
       <c r="Y136" s="33"/>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="57">
         <v>190515</v>
       </c>
       <c r="B137" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C137" s="53" t="s">
-        <v>484</v>
+      <c r="C137" s="273" t="s">
+        <v>515</v>
       </c>
       <c r="D137" s="54" t="s">
         <v>486</v>
@@ -22314,15 +22320,15 @@
       <c r="X137" s="33"/>
       <c r="Y137" s="33"/>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" s="57">
         <v>190522</v>
       </c>
       <c r="B138" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="C138" s="53" t="s">
-        <v>484</v>
+      <c r="C138" s="273" t="s">
+        <v>515</v>
       </c>
       <c r="D138" s="54" t="s">
         <v>486</v>
@@ -22380,15 +22386,15 @@
       </c>
       <c r="Y138" s="33"/>
     </row>
-    <row r="139" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="119">
         <v>190522</v>
       </c>
       <c r="B139" s="120" t="s">
         <v>161</v>
       </c>
-      <c r="C139" s="120" t="s">
-        <v>484</v>
+      <c r="C139" s="273" t="s">
+        <v>515</v>
       </c>
       <c r="D139" s="122" t="s">
         <v>486</v>
@@ -22434,7 +22440,7 @@
       <c r="X139" s="120"/>
       <c r="Y139" s="120"/>
     </row>
-    <row r="140" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="113">
         <v>190523</v>
       </c>
@@ -22502,7 +22508,7 @@
       </c>
       <c r="Y140" s="114"/>
     </row>
-    <row r="141" spans="1:25" s="258" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25" s="258" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="251">
         <v>190523</v>
       </c>
@@ -22556,7 +22562,7 @@
       <c r="X141" s="252"/>
       <c r="Y141" s="252"/>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" s="57">
         <v>190523</v>
       </c>
@@ -22622,7 +22628,7 @@
       </c>
       <c r="Y142" s="33"/>
     </row>
-    <row r="143" spans="1:25" s="258" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" s="258" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="251">
         <v>190523</v>
       </c>
@@ -22676,7 +22682,7 @@
       <c r="X143" s="252"/>
       <c r="Y143" s="252"/>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" s="57">
         <v>190523</v>
       </c>
@@ -22684,7 +22690,7 @@
         <v>164</v>
       </c>
       <c r="C144" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D144" s="54" t="s">
         <v>486</v>
@@ -22742,7 +22748,7 @@
       </c>
       <c r="Y144" s="33"/>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" s="57">
         <v>190523</v>
       </c>
@@ -22750,7 +22756,7 @@
         <v>164</v>
       </c>
       <c r="C145" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D145" s="54" t="s">
         <v>486</v>
@@ -22796,7 +22802,7 @@
       <c r="X145" s="33"/>
       <c r="Y145" s="33"/>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" s="57">
         <v>190523</v>
       </c>
@@ -22804,7 +22810,7 @@
         <v>165</v>
       </c>
       <c r="C146" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D146" s="54" t="s">
         <v>486</v>
@@ -22862,7 +22868,7 @@
       </c>
       <c r="Y146" s="33"/>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147" s="57">
         <v>190523</v>
       </c>
@@ -22870,7 +22876,7 @@
         <v>165</v>
       </c>
       <c r="C147" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D147" s="54" t="s">
         <v>486</v>
@@ -22916,7 +22922,7 @@
       <c r="X147" s="33"/>
       <c r="Y147" s="33"/>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" s="57">
         <v>190527</v>
       </c>
@@ -22924,7 +22930,7 @@
         <v>162</v>
       </c>
       <c r="C148" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D148" s="54" t="s">
         <v>486</v>
@@ -22982,7 +22988,7 @@
       </c>
       <c r="Y148" s="33"/>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149" s="57">
         <v>190527</v>
       </c>
@@ -22990,7 +22996,7 @@
         <v>163</v>
       </c>
       <c r="C149" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D149" s="54" t="s">
         <v>486</v>
@@ -23007,7 +23013,9 @@
       <c r="H149" s="33">
         <v>20</v>
       </c>
-      <c r="I149" s="33"/>
+      <c r="I149" s="33">
+        <v>30</v>
+      </c>
       <c r="J149" s="33"/>
       <c r="K149" s="33">
         <v>600</v>
@@ -23048,7 +23056,7 @@
       </c>
       <c r="Y149" s="33"/>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150" s="57">
         <v>190527</v>
       </c>
@@ -23056,7 +23064,7 @@
         <v>164</v>
       </c>
       <c r="C150" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D150" s="54" t="s">
         <v>486</v>
@@ -23114,7 +23122,7 @@
       </c>
       <c r="Y150" s="33"/>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" s="57">
         <v>190527</v>
       </c>
@@ -23122,7 +23130,7 @@
         <v>164</v>
       </c>
       <c r="C151" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D151" s="54" t="s">
         <v>486</v>
@@ -23168,7 +23176,7 @@
       <c r="X151" s="33"/>
       <c r="Y151" s="33"/>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A152" s="57">
         <v>190527</v>
       </c>
@@ -23176,7 +23184,7 @@
         <v>165</v>
       </c>
       <c r="C152" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D152" s="54" t="s">
         <v>42</v>
@@ -23234,7 +23242,7 @@
       </c>
       <c r="Y152" s="33"/>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A153" s="57">
         <v>190527</v>
       </c>
@@ -23242,7 +23250,7 @@
         <v>165</v>
       </c>
       <c r="C153" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D153" s="54" t="s">
         <v>42</v>
@@ -23288,7 +23296,7 @@
       <c r="X153" s="33"/>
       <c r="Y153" s="33"/>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A154" s="57">
         <v>190527</v>
       </c>
@@ -23296,7 +23304,7 @@
         <v>166</v>
       </c>
       <c r="C154" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D154" s="54" t="s">
         <v>42</v>
@@ -23354,7 +23362,7 @@
       </c>
       <c r="Y154" s="33"/>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A155" s="57">
         <v>190527</v>
       </c>
@@ -23362,7 +23370,7 @@
         <v>166</v>
       </c>
       <c r="C155" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D155" s="54" t="s">
         <v>42</v>
@@ -23408,7 +23416,7 @@
       <c r="X155" s="33"/>
       <c r="Y155" s="33"/>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" s="57">
         <v>190527</v>
       </c>
@@ -23416,7 +23424,7 @@
         <v>167</v>
       </c>
       <c r="C156" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D156" s="54" t="s">
         <v>42</v>
@@ -23474,7 +23482,7 @@
       </c>
       <c r="Y156" s="33"/>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" s="57">
         <v>190527</v>
       </c>
@@ -23482,7 +23490,7 @@
         <v>167</v>
       </c>
       <c r="C157" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D157" s="54" t="s">
         <v>42</v>
@@ -23528,7 +23536,7 @@
       <c r="X157" s="33"/>
       <c r="Y157" s="33"/>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" s="57">
         <v>190527</v>
       </c>
@@ -23536,7 +23544,7 @@
         <v>168</v>
       </c>
       <c r="C158" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D158" s="54" t="s">
         <v>42</v>
@@ -23594,7 +23602,7 @@
       </c>
       <c r="Y158" s="33"/>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" s="57">
         <v>190527</v>
       </c>
@@ -23602,7 +23610,7 @@
         <v>168</v>
       </c>
       <c r="C159" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D159" s="54" t="s">
         <v>42</v>
@@ -23648,7 +23656,7 @@
       <c r="X159" s="33"/>
       <c r="Y159" s="33"/>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A160" s="57">
         <v>190527</v>
       </c>
@@ -23656,7 +23664,7 @@
         <v>169</v>
       </c>
       <c r="C160" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D160" s="54" t="s">
         <v>42</v>
@@ -23714,7 +23722,7 @@
       </c>
       <c r="Y160" s="33"/>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" s="57">
         <v>190527</v>
       </c>
@@ -23722,7 +23730,7 @@
         <v>169</v>
       </c>
       <c r="C161" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D161" s="54" t="s">
         <v>42</v>
@@ -23768,7 +23776,7 @@
       <c r="X161" s="33"/>
       <c r="Y161" s="33"/>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" s="57">
         <v>171211</v>
       </c>
@@ -23776,7 +23784,7 @@
         <v>170</v>
       </c>
       <c r="C162" s="53" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="D162" s="33" t="s">
         <v>202</v>
@@ -23820,7 +23828,7 @@
       <c r="X162" s="33"/>
       <c r="Y162" s="33"/>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" s="57">
         <v>190610</v>
       </c>
@@ -23884,7 +23892,7 @@
       <c r="X163" s="33"/>
       <c r="Y163" s="33"/>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" s="57">
         <v>190610</v>
       </c>
@@ -23938,7 +23946,7 @@
       <c r="X164" s="33"/>
       <c r="Y164" s="33"/>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" s="57">
         <v>190618</v>
       </c>
@@ -23990,7 +23998,7 @@
       <c r="X165" s="33"/>
       <c r="Y165" s="33"/>
     </row>
-    <row r="166" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="57">
         <v>190624</v>
       </c>
@@ -24044,7 +24052,7 @@
       <c r="X166" s="33"/>
       <c r="Y166" s="33"/>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" s="57">
         <v>190624</v>
       </c>
@@ -24114,7 +24122,7 @@
       </c>
       <c r="Y167" s="33"/>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" s="57">
         <v>190624</v>
       </c>
@@ -24168,7 +24176,7 @@
       <c r="X168" s="33"/>
       <c r="Y168" s="33"/>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" s="57">
         <v>190624</v>
       </c>
@@ -24222,7 +24230,7 @@
       <c r="X169" s="33"/>
       <c r="Y169" s="33"/>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" s="57">
         <v>190624</v>
       </c>
@@ -24276,7 +24284,7 @@
       <c r="X170" s="33"/>
       <c r="Y170" s="33"/>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" s="57">
         <v>190624</v>
       </c>
@@ -24330,7 +24338,7 @@
       <c r="X171" s="33"/>
       <c r="Y171" s="33"/>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172" s="57">
         <v>190626</v>
       </c>
@@ -24384,7 +24392,7 @@
       <c r="X172" s="33"/>
       <c r="Y172" s="33"/>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" s="57">
         <v>190626</v>
       </c>
@@ -24438,7 +24446,7 @@
       <c r="X173" s="33"/>
       <c r="Y173" s="33"/>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" s="57">
         <v>190626</v>
       </c>
@@ -24492,7 +24500,7 @@
       <c r="X174" s="33"/>
       <c r="Y174" s="33"/>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" s="57">
         <v>190627</v>
       </c>
@@ -24546,7 +24554,7 @@
       <c r="X175" s="33"/>
       <c r="Y175" s="33"/>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176" s="57">
         <v>190627</v>
       </c>
@@ -24612,7 +24620,7 @@
       </c>
       <c r="Y176" s="33"/>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177" s="57">
         <v>190628</v>
       </c>
@@ -24666,7 +24674,7 @@
       <c r="X177" s="33"/>
       <c r="Y177" s="33"/>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A178" s="57">
         <v>190628</v>
       </c>
@@ -24720,7 +24728,7 @@
       <c r="X178" s="33"/>
       <c r="Y178" s="33"/>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179" s="57">
         <v>190628</v>
       </c>
@@ -24776,7 +24784,7 @@
       <c r="X179" s="33"/>
       <c r="Y179" s="33"/>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180" s="57">
         <v>190628</v>
       </c>
@@ -24832,7 +24840,7 @@
       <c r="X180" s="33"/>
       <c r="Y180" s="33"/>
     </row>
-    <row r="181" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="119">
         <v>190627</v>
       </c>
@@ -24890,7 +24898,7 @@
       <c r="X181" s="120"/>
       <c r="Y181" s="120"/>
     </row>
-    <row r="182" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="87">
         <v>190627</v>
       </c>
@@ -24956,7 +24964,7 @@
       <c r="X182" s="88"/>
       <c r="Y182" s="88"/>
     </row>
-    <row r="183" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="119">
         <v>190627</v>
       </c>
@@ -25014,7 +25022,7 @@
       <c r="X183" s="120"/>
       <c r="Y183" s="120"/>
     </row>
-    <row r="184" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="87">
         <v>190627</v>
       </c>
@@ -25080,7 +25088,7 @@
       <c r="X184" s="88"/>
       <c r="Y184" s="88"/>
     </row>
-    <row r="185" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="119">
         <v>190701</v>
       </c>
@@ -25138,7 +25146,7 @@
       <c r="X185" s="120"/>
       <c r="Y185" s="120"/>
     </row>
-    <row r="186" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="87">
         <v>190701</v>
       </c>
@@ -25204,7 +25212,7 @@
       <c r="X186" s="88"/>
       <c r="Y186" s="88"/>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A187" s="57">
         <v>190701</v>
       </c>
@@ -25258,7 +25266,7 @@
       <c r="X187" s="33"/>
       <c r="Y187" s="33"/>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A188" s="57">
         <v>190701</v>
       </c>
@@ -25324,7 +25332,7 @@
       <c r="X188" s="33"/>
       <c r="Y188" s="33"/>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A189" s="57">
         <v>190705</v>
       </c>
@@ -25378,7 +25386,7 @@
       <c r="X189" s="33"/>
       <c r="Y189" s="33"/>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A190" s="57">
         <v>190705</v>
       </c>
@@ -25448,7 +25456,7 @@
       </c>
       <c r="Y190" s="33"/>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A191" s="57">
         <v>190705</v>
       </c>
@@ -25502,7 +25510,7 @@
       <c r="X191" s="33"/>
       <c r="Y191" s="33"/>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A192" s="57">
         <v>190705</v>
       </c>
@@ -25556,7 +25564,7 @@
       <c r="X192" s="33"/>
       <c r="Y192" s="33"/>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A193" s="57">
         <v>190705</v>
       </c>
@@ -25610,7 +25618,7 @@
       <c r="X193" s="33"/>
       <c r="Y193" s="33"/>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A194" s="57">
         <v>190705</v>
       </c>
@@ -25664,7 +25672,7 @@
       <c r="X194" s="33"/>
       <c r="Y194" s="33"/>
     </row>
-    <row r="195" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="119">
         <v>190707</v>
       </c>
@@ -25722,7 +25730,7 @@
       <c r="X195" s="120"/>
       <c r="Y195" s="120"/>
     </row>
-    <row r="196" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="128">
         <v>190708</v>
       </c>
@@ -25776,7 +25784,7 @@
       <c r="X196" s="129"/>
       <c r="Y196" s="129"/>
     </row>
-    <row r="197" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="128">
         <v>190708</v>
       </c>
@@ -25830,7 +25838,7 @@
       <c r="X197" s="129"/>
       <c r="Y197" s="129"/>
     </row>
-    <row r="198" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="134">
         <v>190708</v>
       </c>
@@ -25886,7 +25894,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="199" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="140">
         <v>190708</v>
       </c>
@@ -25940,7 +25948,7 @@
       <c r="X199" s="141"/>
       <c r="Y199" s="141"/>
     </row>
-    <row r="200" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="66">
         <v>190709</v>
       </c>
@@ -25994,7 +26002,7 @@
       <c r="X200" s="67"/>
       <c r="Y200" s="67"/>
     </row>
-    <row r="201" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="66">
         <v>190709</v>
       </c>
@@ -26060,7 +26068,7 @@
       <c r="X201" s="67"/>
       <c r="Y201" s="67"/>
     </row>
-    <row r="202" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="119">
         <v>190710</v>
       </c>
@@ -26118,7 +26126,7 @@
       <c r="X202" s="120"/>
       <c r="Y202" s="120"/>
     </row>
-    <row r="203" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="56">
         <v>190710</v>
       </c>
@@ -26184,7 +26192,7 @@
       <c r="X203" s="48"/>
       <c r="Y203" s="48"/>
     </row>
-    <row r="204" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="119">
         <v>190710</v>
       </c>
@@ -26242,7 +26250,7 @@
       <c r="X204" s="120"/>
       <c r="Y204" s="120"/>
     </row>
-    <row r="205" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="58">
         <v>190710</v>
       </c>
@@ -26253,7 +26261,7 @@
         <v>483</v>
       </c>
       <c r="D205" s="55" t="s">
-        <v>203</v>
+        <v>492</v>
       </c>
       <c r="E205" s="147" t="s">
         <v>45</v>
@@ -26308,7 +26316,7 @@
       <c r="X205" s="55"/>
       <c r="Y205" s="55"/>
     </row>
-    <row r="206" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="149">
         <v>190710</v>
       </c>
@@ -26364,7 +26372,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="207" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="155">
         <v>190710</v>
       </c>
@@ -26418,7 +26426,7 @@
       <c r="X207" s="156"/>
       <c r="Y207" s="156"/>
     </row>
-    <row r="208" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="155">
         <v>190710</v>
       </c>
@@ -26472,7 +26480,7 @@
       <c r="X208" s="156"/>
       <c r="Y208" s="156"/>
     </row>
-    <row r="209" spans="1:25" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="149">
         <v>190710</v>
       </c>
@@ -26528,7 +26536,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="210" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="161">
         <v>190712</v>
       </c>
@@ -26584,7 +26592,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="211" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="167">
         <v>190712</v>
       </c>
@@ -26638,7 +26646,7 @@
       <c r="X211" s="168"/>
       <c r="Y211" s="168"/>
     </row>
-    <row r="212" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="167">
         <v>190712</v>
       </c>
@@ -26694,7 +26702,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="213" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="167">
         <v>190712</v>
       </c>
@@ -26750,7 +26758,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="214" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="173">
         <v>190719</v>
       </c>
@@ -26804,7 +26812,7 @@
       <c r="X214" s="174"/>
       <c r="Y214" s="174"/>
     </row>
-    <row r="215" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="173">
         <v>190719</v>
       </c>
@@ -26858,7 +26866,7 @@
       <c r="X215" s="174"/>
       <c r="Y215" s="174"/>
     </row>
-    <row r="216" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="173">
         <v>190719</v>
       </c>
@@ -26912,7 +26920,7 @@
       <c r="X216" s="174"/>
       <c r="Y216" s="174"/>
     </row>
-    <row r="217" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="173">
         <v>190719</v>
       </c>
@@ -26966,7 +26974,7 @@
       <c r="X217" s="174"/>
       <c r="Y217" s="174"/>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A218" s="57">
         <v>190927</v>
       </c>
@@ -27033,7 +27041,7 @@
       <c r="X218" s="33"/>
       <c r="Y218" s="33"/>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A219" s="57">
         <v>190927</v>
       </c>
@@ -27100,7 +27108,7 @@
       <c r="X219" s="33"/>
       <c r="Y219" s="33"/>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A220" s="57">
         <v>190930</v>
       </c>
@@ -27167,7 +27175,7 @@
       <c r="X220" s="33"/>
       <c r="Y220" s="33"/>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A221" s="57">
         <v>190930</v>
       </c>
@@ -27234,7 +27242,7 @@
       <c r="X221" s="33"/>
       <c r="Y221" s="33"/>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A222" s="57">
         <v>190930</v>
       </c>
@@ -27301,7 +27309,7 @@
       <c r="X222" s="33"/>
       <c r="Y222" s="33"/>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A223" s="57">
         <v>190930</v>
       </c>
@@ -27368,7 +27376,7 @@
       <c r="X223" s="33"/>
       <c r="Y223" s="33"/>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A224" s="57">
         <v>191002</v>
       </c>
@@ -27435,7 +27443,7 @@
       <c r="X224" s="33"/>
       <c r="Y224" s="33"/>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A225" s="57">
         <v>191002</v>
       </c>
@@ -27502,7 +27510,7 @@
       <c r="X225" s="33"/>
       <c r="Y225" s="33"/>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A226" s="57">
         <v>191002</v>
       </c>
@@ -27569,7 +27577,7 @@
       <c r="X226" s="33"/>
       <c r="Y226" s="33"/>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A227" s="57">
         <v>191014</v>
       </c>
@@ -27636,7 +27644,7 @@
       <c r="X227" s="33"/>
       <c r="Y227" s="33"/>
     </row>
-    <row r="228" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="119">
         <v>191028</v>
       </c>
@@ -27694,7 +27702,7 @@
       <c r="X228" s="120"/>
       <c r="Y228" s="120"/>
     </row>
-    <row r="229" spans="1:25" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="93">
         <v>191028</v>
       </c>
@@ -27762,7 +27770,7 @@
       <c r="X229" s="94"/>
       <c r="Y229" s="94"/>
     </row>
-    <row r="230" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="119">
         <v>191028</v>
       </c>
@@ -27820,7 +27828,7 @@
       <c r="X230" s="120"/>
       <c r="Y230" s="120"/>
     </row>
-    <row r="231" spans="1:25" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:25" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="56">
         <v>191028</v>
       </c>
@@ -27890,7 +27898,7 @@
       <c r="X231" s="48"/>
       <c r="Y231" s="48"/>
     </row>
-    <row r="232" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="119">
         <v>191028</v>
       </c>
@@ -27948,7 +27956,7 @@
       <c r="X232" s="120"/>
       <c r="Y232" s="120"/>
     </row>
-    <row r="233" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="56">
         <v>191028</v>
       </c>
@@ -28016,7 +28024,7 @@
       <c r="X233" s="48"/>
       <c r="Y233" s="48"/>
     </row>
-    <row r="234" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="119">
         <v>191028</v>
       </c>
@@ -28074,7 +28082,7 @@
       <c r="X234" s="120"/>
       <c r="Y234" s="120"/>
     </row>
-    <row r="235" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="56">
         <v>191028</v>
       </c>
@@ -28142,7 +28150,7 @@
       <c r="X235" s="48"/>
       <c r="Y235" s="48"/>
     </row>
-    <row r="236" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="119">
         <v>191030</v>
       </c>
@@ -28200,7 +28208,7 @@
       <c r="X236" s="120"/>
       <c r="Y236" s="120"/>
     </row>
-    <row r="237" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="56">
         <v>191030</v>
       </c>
@@ -28268,7 +28276,7 @@
       <c r="X237" s="48"/>
       <c r="Y237" s="48"/>
     </row>
-    <row r="238" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="56">
         <v>191030</v>
       </c>
@@ -28337,7 +28345,7 @@
       <c r="X238" s="48"/>
       <c r="Y238" s="48"/>
     </row>
-    <row r="239" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="56">
         <v>191030</v>
       </c>
@@ -28405,7 +28413,7 @@
       <c r="X239" s="48"/>
       <c r="Y239" s="48"/>
     </row>
-    <row r="240" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="119">
         <v>191030</v>
       </c>
@@ -28463,7 +28471,7 @@
       <c r="X240" s="120"/>
       <c r="Y240" s="120"/>
     </row>
-    <row r="241" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="56">
         <v>191030</v>
       </c>
@@ -28474,7 +28482,7 @@
         <v>483</v>
       </c>
       <c r="D241" s="48" t="s">
-        <v>272</v>
+        <v>491</v>
       </c>
       <c r="E241" s="65" t="s">
         <v>45</v>
@@ -28531,7 +28539,7 @@
       <c r="X241" s="48"/>
       <c r="Y241" s="48"/>
     </row>
-    <row r="242" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="56">
         <v>191121</v>
       </c>
@@ -28594,7 +28602,7 @@
       <c r="X242" s="48"/>
       <c r="Y242" s="48"/>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A243" s="57">
         <v>191126</v>
       </c>
@@ -28659,7 +28667,7 @@
       <c r="X243" s="33"/>
       <c r="Y243" s="33"/>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A244" s="57">
         <v>191126</v>
       </c>
@@ -28724,7 +28732,7 @@
       <c r="X244" s="33"/>
       <c r="Y244" s="33"/>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A245" s="57">
         <v>191126</v>
       </c>
@@ -28789,7 +28797,7 @@
       <c r="X245" s="33"/>
       <c r="Y245" s="33"/>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A246" s="57">
         <v>191126</v>
       </c>
@@ -28854,7 +28862,7 @@
       <c r="X246" s="33"/>
       <c r="Y246" s="33"/>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A247" s="57">
         <v>191126</v>
       </c>
@@ -28919,7 +28927,7 @@
       <c r="X247" s="33"/>
       <c r="Y247" s="33"/>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A248" s="57">
         <v>191126</v>
       </c>
@@ -28984,7 +28992,7 @@
       <c r="X248" s="33"/>
       <c r="Y248" s="33"/>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A249" s="57">
         <v>191126</v>
       </c>
@@ -29049,7 +29057,7 @@
       <c r="X249" s="33"/>
       <c r="Y249" s="33"/>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A250" s="57">
         <v>191126</v>
       </c>
@@ -29114,7 +29122,7 @@
       <c r="X250" s="33"/>
       <c r="Y250" s="33"/>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A251" s="57">
         <v>191126</v>
       </c>
@@ -29179,7 +29187,7 @@
       <c r="X251" s="33"/>
       <c r="Y251" s="33"/>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A252" s="57">
         <v>191203</v>
       </c>
@@ -29244,7 +29252,7 @@
       <c r="X252" s="33"/>
       <c r="Y252" s="33"/>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A253" s="57">
         <v>191204</v>
       </c>
@@ -29309,7 +29317,7 @@
       <c r="X253" s="33"/>
       <c r="Y253" s="33"/>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A254" s="57">
         <v>191204</v>
       </c>
@@ -29374,7 +29382,7 @@
       <c r="X254" s="33"/>
       <c r="Y254" s="33"/>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A255" s="57">
         <v>191204</v>
       </c>
@@ -29439,7 +29447,7 @@
       <c r="X255" s="33"/>
       <c r="Y255" s="33"/>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A256" s="57">
         <v>191204</v>
       </c>
@@ -29504,7 +29512,7 @@
       <c r="X256" s="33"/>
       <c r="Y256" s="33"/>
     </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A257" s="21">
         <v>191204</v>
       </c>
@@ -29563,7 +29571,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A258" s="21">
         <v>191204</v>
       </c>
@@ -29625,7 +29633,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A259" s="21">
         <v>191205</v>
       </c>
@@ -29687,7 +29695,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A260" s="21">
         <v>191209</v>
       </c>
@@ -29749,7 +29757,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A261" s="21">
         <v>191209</v>
       </c>
@@ -29808,7 +29816,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A262" s="21">
         <v>191209</v>
       </c>
@@ -29870,7 +29878,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A263" s="21">
         <v>191209</v>
       </c>
@@ -29932,7 +29940,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A264" s="21">
         <v>191209</v>
       </c>
@@ -29994,7 +30002,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A265" s="21">
         <v>191209</v>
       </c>
@@ -30053,7 +30061,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A266" s="21">
         <v>191209</v>
       </c>
@@ -30115,7 +30123,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A267" s="21">
         <v>191209</v>
       </c>
@@ -30174,7 +30182,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A268" s="21">
         <v>191210</v>
       </c>
@@ -30236,7 +30244,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A269" s="21">
         <v>191210</v>
       </c>
@@ -30298,7 +30306,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A270" s="21">
         <v>191210</v>
       </c>
@@ -30360,7 +30368,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A271" s="21">
         <v>191210</v>
       </c>
@@ -30422,7 +30430,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A272" s="21">
         <v>191210</v>
       </c>
@@ -30484,7 +30492,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A273" s="21">
         <v>191210</v>
       </c>
@@ -30546,7 +30554,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="274" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="21">
         <v>191212</v>
       </c>
@@ -30608,7 +30616,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A275" s="21">
         <v>200102</v>
       </c>
@@ -30670,7 +30678,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A276" s="21">
         <v>200102</v>
       </c>
@@ -30732,7 +30740,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A277" s="21">
         <v>200106</v>
       </c>
@@ -30794,7 +30802,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A278" s="21">
         <v>200106</v>
       </c>
@@ -30856,7 +30864,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A279" s="21">
         <v>200106</v>
       </c>
@@ -30918,7 +30926,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A280" s="21">
         <v>200106</v>
       </c>
@@ -30980,7 +30988,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A281" s="21">
         <v>200106</v>
       </c>
@@ -31042,7 +31050,7 @@
         <v>18060</v>
       </c>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A282" s="21">
         <v>200106</v>
       </c>
@@ -31050,7 +31058,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A283" s="57">
         <v>200108</v>
       </c>
@@ -31115,7 +31123,7 @@
       <c r="X283" s="180"/>
       <c r="Y283" s="180"/>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A284" s="57">
         <v>200108</v>
       </c>
@@ -31180,7 +31188,7 @@
       <c r="X284" s="180"/>
       <c r="Y284" s="180"/>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A285" s="57">
         <v>200108</v>
       </c>
@@ -31245,7 +31253,7 @@
       <c r="X285" s="180"/>
       <c r="Y285" s="180"/>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A286" s="57">
         <v>200108</v>
       </c>
@@ -31310,7 +31318,7 @@
       <c r="X286" s="180"/>
       <c r="Y286" s="180"/>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A287" s="57">
         <v>200108</v>
       </c>
@@ -31375,7 +31383,7 @@
       <c r="X287" s="180"/>
       <c r="Y287" s="180"/>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A288" s="57">
         <v>200108</v>
       </c>
@@ -31440,7 +31448,7 @@
       <c r="X288" s="180"/>
       <c r="Y288" s="180"/>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A289" s="57">
         <v>200121</v>
       </c>
@@ -31505,7 +31513,7 @@
       <c r="X289" s="182"/>
       <c r="Y289" s="182"/>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A290" s="57">
         <v>200121</v>
       </c>
@@ -31570,7 +31578,7 @@
       <c r="X290" s="182"/>
       <c r="Y290" s="182"/>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A291" s="57">
         <v>200122</v>
       </c>
@@ -31635,7 +31643,7 @@
       <c r="X291" s="182"/>
       <c r="Y291" s="182"/>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A292" s="57">
         <v>200124</v>
       </c>
@@ -31700,7 +31708,7 @@
       <c r="X292" s="183"/>
       <c r="Y292" s="183"/>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A293" s="57">
         <v>200124</v>
       </c>
@@ -31765,7 +31773,7 @@
       <c r="X293" s="183"/>
       <c r="Y293" s="183"/>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A294" s="21">
         <v>200206</v>
       </c>
@@ -31821,7 +31829,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A295" s="21">
         <v>200206</v>
       </c>
@@ -31877,7 +31885,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="296" spans="1:25" s="213" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:25" s="213" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="208">
         <v>200212</v>
       </c>
@@ -31934,7 +31942,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A297" s="21">
         <v>200213</v>
       </c>
@@ -31990,7 +31998,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A298" s="21">
         <v>200213</v>
       </c>
@@ -32046,7 +32054,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A299" s="21">
         <v>200213</v>
       </c>
@@ -32102,7 +32110,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A300" s="21">
         <v>200213</v>
       </c>
@@ -32158,7 +32166,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A301" s="21">
         <v>200213</v>
       </c>
@@ -32214,7 +32222,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A302" s="21">
         <v>200213</v>
       </c>
@@ -32270,7 +32278,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A303" s="21">
         <v>200213</v>
       </c>
@@ -32326,7 +32334,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A304" s="21">
         <v>200214</v>
       </c>
@@ -32382,7 +32390,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="305" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A305" s="21">
         <v>200214</v>
       </c>
@@ -32438,7 +32446,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="306" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A306" s="21">
         <v>200214</v>
       </c>
@@ -32494,7 +32502,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="307" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A307" s="21">
         <v>200214</v>
       </c>
@@ -32550,7 +32558,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="308" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A308" s="21">
         <v>200217</v>
       </c>
@@ -32606,7 +32614,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="309" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A309" s="21">
         <v>200217</v>
       </c>
@@ -32662,7 +32670,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="310" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A310" s="21">
         <v>200217</v>
       </c>
@@ -32718,7 +32726,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="311" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A311" s="21">
         <v>200217</v>
       </c>
@@ -32774,7 +32782,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="312" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A312" s="21">
         <v>200220</v>
       </c>
@@ -32830,7 +32838,7 @@
         <v>48080</v>
       </c>
     </row>
-    <row r="313" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A313" s="21">
         <v>200220</v>
       </c>
@@ -32886,7 +32894,7 @@
         <v>48080</v>
       </c>
     </row>
-    <row r="314" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A314" s="21">
         <v>200220</v>
       </c>
@@ -32942,7 +32950,7 @@
         <v>48080</v>
       </c>
     </row>
-    <row r="315" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A315" s="21">
         <v>200220</v>
       </c>
@@ -32998,7 +33006,7 @@
         <v>48080</v>
       </c>
     </row>
-    <row r="316" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="21">
         <v>200220</v>
       </c>
@@ -33044,7 +33052,7 @@
         <v>48080</v>
       </c>
     </row>
-    <row r="317" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="21">
         <v>200220</v>
       </c>
@@ -33090,7 +33098,7 @@
         <v>48080</v>
       </c>
     </row>
-    <row r="318" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="21">
         <v>200220</v>
       </c>
@@ -33146,7 +33154,7 @@
         <v>48080</v>
       </c>
     </row>
-    <row r="319" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A319" s="21">
         <v>200117</v>
       </c>
@@ -33169,7 +33177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="320" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A320" s="21">
         <v>200117</v>
       </c>
@@ -33192,7 +33200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A321" s="21">
         <v>200302</v>
       </c>
@@ -33246,7 +33254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A322" s="21">
         <v>200303</v>
       </c>
@@ -33292,7 +33300,7 @@
         <v>48080</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A323" s="21">
         <v>200305</v>
       </c>
@@ -33344,7 +33352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A324" s="21">
         <v>200306</v>
       </c>
@@ -33390,7 +33398,7 @@
         <v>48080</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A325" s="21">
         <v>200309</v>
       </c>
@@ -33442,7 +33450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A326" s="21">
         <v>200312</v>
       </c>
@@ -33488,7 +33496,7 @@
         <v>48080</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A327" s="21">
         <v>200313</v>
       </c>
@@ -33534,7 +33542,7 @@
         <v>48080</v>
       </c>
     </row>
-    <row r="328" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="215">
         <v>200313</v>
       </c>
@@ -33581,7 +33589,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A329" s="21">
         <v>200318</v>
       </c>
@@ -33637,7 +33645,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A330" s="21">
         <v>200318</v>
       </c>
@@ -33693,7 +33701,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A331" s="21">
         <v>200318</v>
       </c>
@@ -33749,7 +33757,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A332" s="21">
         <v>200318</v>
       </c>
@@ -33805,7 +33813,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A333" s="21">
         <v>200318</v>
       </c>
@@ -33861,7 +33869,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A334" s="21">
         <v>200318</v>
       </c>
@@ -33917,7 +33925,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A335" s="21">
         <v>200320</v>
       </c>
@@ -33973,7 +33981,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A336" s="21">
         <v>200319</v>
       </c>
@@ -34030,7 +34038,7 @@
         <v>23720</v>
       </c>
     </row>
-    <row r="337" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A337" s="21">
         <v>200319</v>
       </c>
@@ -34086,7 +34094,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="338" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A338" s="21">
         <v>200319</v>
       </c>
@@ -34142,7 +34150,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="339" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A339" s="21">
         <v>200319</v>
       </c>
@@ -34198,7 +34206,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="340" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A340" s="21">
         <v>200319</v>
       </c>
@@ -34254,7 +34262,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A341" s="21">
         <v>200320</v>
       </c>
@@ -34310,7 +34318,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="342" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A342" s="21">
         <v>200320</v>
       </c>
@@ -34366,7 +34374,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A343" s="21">
         <v>200320</v>
       </c>
@@ -34422,7 +34430,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="345" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A345" s="21">
         <v>200320</v>
       </c>
@@ -34478,7 +34486,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="346" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A346" s="21">
         <v>200320</v>
       </c>
@@ -34534,7 +34542,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A347" s="21">
         <v>200529</v>
       </c>
@@ -34583,7 +34591,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="348" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A348" s="21">
         <v>200612</v>
       </c>
@@ -34632,7 +34640,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="349" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A349" s="21">
         <v>200612</v>
       </c>
@@ -34678,7 +34686,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="350" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A350" s="21">
         <v>200612</v>
       </c>
@@ -34734,7 +34742,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="351" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A351" s="21">
         <v>200612</v>
       </c>
@@ -34790,7 +34798,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="352" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A352" s="21">
         <v>200817</v>
       </c>
@@ -34856,7 +34864,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="353" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A353" s="21">
         <v>200817</v>
       </c>
@@ -34922,7 +34930,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="354" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A354" s="21">
         <v>200817</v>
       </c>
@@ -34988,7 +34996,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="355" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A355" s="21">
         <v>200817</v>
       </c>
@@ -35054,7 +35062,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="356" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A356" s="21">
         <v>200818</v>
       </c>
@@ -35120,7 +35128,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="357" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A357" s="21">
         <v>200819</v>
       </c>
@@ -35186,7 +35194,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="358" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A358" s="21">
         <v>200820</v>
       </c>
@@ -35252,7 +35260,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="359" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A359" s="21">
         <v>200820</v>
       </c>
@@ -35318,7 +35326,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="360" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A360" s="21">
         <v>200821</v>
       </c>
@@ -35384,7 +35392,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="361" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A361" s="21">
         <v>200821</v>
       </c>
@@ -35450,7 +35458,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="362" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A362" s="21">
         <v>200824</v>
       </c>
@@ -35516,7 +35524,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="363" spans="1:30" s="236" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:30" s="236" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="231">
         <v>200910</v>
       </c>
@@ -35574,7 +35582,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="364" spans="1:30" s="236" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:30" s="236" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="231">
         <v>200910</v>
       </c>
@@ -35629,7 +35637,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="365" spans="1:30" s="236" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:30" s="236" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="231">
         <v>200910</v>
       </c>
@@ -35684,7 +35692,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="366" spans="1:30" s="236" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:30" s="236" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="231">
         <v>200910</v>
       </c>
@@ -35739,7 +35747,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="367" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A367" s="21">
         <v>200915</v>
       </c>
@@ -35793,7 +35801,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="368" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A368" s="21">
         <v>200915</v>
       </c>
@@ -35847,7 +35855,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="369" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A369" s="21">
         <v>200915</v>
       </c>
@@ -35901,7 +35909,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="370" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A370" s="21">
         <v>200915</v>
       </c>
@@ -35955,7 +35963,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="371" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A371" s="21">
         <v>200916</v>
       </c>
@@ -36009,7 +36017,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="372" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A372" s="21">
         <v>200916</v>
       </c>
@@ -36063,7 +36071,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="373" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A373" s="21">
         <v>200916</v>
       </c>
@@ -36117,7 +36125,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="374" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A374" s="21">
         <v>200916</v>
       </c>
@@ -36171,7 +36179,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="375" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A375" s="21">
         <v>200916</v>
       </c>
@@ -36225,7 +36233,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="376" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A376" s="21">
         <v>200916</v>
       </c>
@@ -36279,7 +36287,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="377" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A377" s="21">
         <v>200916</v>
       </c>
@@ -36333,7 +36341,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="378" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A378" s="21">
         <v>200916</v>
       </c>
@@ -36387,7 +36395,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="379" spans="1:30" s="236" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:30" s="236" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A379" s="231">
         <v>200917</v>
       </c>
@@ -36447,7 +36455,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="380" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A380" s="21">
         <v>200917</v>
       </c>
@@ -36503,7 +36511,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="381" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A381" s="21">
         <v>200917</v>
       </c>
@@ -36559,7 +36567,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="382" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A382" s="21">
         <v>200917</v>
       </c>
@@ -36615,7 +36623,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="383" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A383" s="21">
         <v>200917</v>
       </c>
@@ -36671,7 +36679,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="384" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A384" s="21">
         <v>200917</v>
       </c>
@@ -36727,7 +36735,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="385" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A385" s="21">
         <v>200919</v>
       </c>
@@ -36783,7 +36791,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="386" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A386" s="21">
         <v>200919</v>
       </c>
@@ -36839,7 +36847,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="387" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A387" s="21">
         <v>200919</v>
       </c>
@@ -36895,7 +36903,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="388" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A388" s="21">
         <v>200919</v>
       </c>
@@ -36951,7 +36959,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="389" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A389" s="21">
         <v>200919</v>
       </c>
@@ -37007,7 +37015,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="390" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A390" s="21">
         <v>200919</v>
       </c>
@@ -37063,7 +37071,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="391" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A391" s="21">
         <v>200921</v>
       </c>
@@ -37119,7 +37127,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="392" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A392" s="21">
         <v>200316</v>
       </c>
@@ -37171,7 +37179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="393" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A393" s="21">
         <v>201115</v>
       </c>
@@ -37233,7 +37241,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="394" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A394" s="21">
         <v>201115</v>
       </c>
@@ -37295,7 +37303,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="395" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A395" s="21">
         <v>201115</v>
       </c>
@@ -37357,7 +37365,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="396" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A396" s="21">
         <v>201115</v>
       </c>
@@ -37419,7 +37427,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="397" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A397" s="21">
         <v>201118</v>
       </c>
@@ -37473,7 +37481,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="398" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A398" s="21">
         <v>201118</v>
       </c>
@@ -37527,7 +37535,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="399" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A399" s="21">
         <v>201118</v>
       </c>
@@ -37581,7 +37589,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="400" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A400" s="21">
         <v>201118</v>
       </c>
@@ -37635,7 +37643,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="401" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A401" s="21">
         <v>201119</v>
       </c>
@@ -37689,7 +37697,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="402" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A402" s="21">
         <v>201119</v>
       </c>
@@ -37743,7 +37751,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A403" s="21">
         <v>201119</v>
       </c>
@@ -37797,7 +37805,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="404" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A404" s="21">
         <v>201119</v>
       </c>
@@ -37851,7 +37859,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="405" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A405" s="215">
         <v>201120</v>
       </c>
@@ -37906,7 +37914,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="406" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="215">
         <v>201120</v>
       </c>
@@ -37961,7 +37969,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A407" s="21">
         <v>201120</v>
       </c>
@@ -38015,7 +38023,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="408" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A408" s="21">
         <v>201120</v>
       </c>
@@ -38069,7 +38077,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="409" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A409" s="266">
         <v>201130</v>
       </c>
@@ -38124,7 +38132,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="410" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A410" s="266">
         <v>201130</v>
       </c>
@@ -38179,7 +38187,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="411" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A411" s="266">
         <v>201130</v>
       </c>
@@ -38233,7 +38241,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="412" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A412" s="266">
         <v>201130</v>
       </c>
@@ -43941,263 +43949,248 @@
     <hyperlink ref="C130" r:id="rId45" display="\\10.39.168.176\RawData_East3410\"/>
     <hyperlink ref="C131" r:id="rId46" display="\\10.39.168.176\RawData_East3410\"/>
     <hyperlink ref="C132" r:id="rId47" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C133" r:id="rId48" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C134" r:id="rId49" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C135" r:id="rId50" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C136" r:id="rId51" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C137" r:id="rId52" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C138" r:id="rId53" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C139" r:id="rId54" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C140" r:id="rId55" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C141" r:id="rId56" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C142" r:id="rId57" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C143" r:id="rId58" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C144" r:id="rId59" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C145" r:id="rId60" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C146" r:id="rId61" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C147" r:id="rId62" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C148" r:id="rId63" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C149" r:id="rId64" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C150" r:id="rId65" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C151" r:id="rId66" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C152" r:id="rId67" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C153" r:id="rId68" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C154" r:id="rId69" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C155" r:id="rId70" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C156" r:id="rId71" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C157" r:id="rId72" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C158" r:id="rId73" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C159" r:id="rId74" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C160" r:id="rId75" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C161" r:id="rId76" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C162" r:id="rId77" display="\\10.39.168.52\RawData_East3410\"/>
-    <hyperlink ref="C166" r:id="rId78" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C167" r:id="rId79" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C168" r:id="rId80" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C169" r:id="rId81" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C170" r:id="rId82" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C171" r:id="rId83" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C172" r:id="rId84" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C173" r:id="rId85" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C174" r:id="rId86" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C175" r:id="rId87" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C176" r:id="rId88" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C177" r:id="rId89" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C178" r:id="rId90" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C179" r:id="rId91" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C180" r:id="rId92" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C189" r:id="rId93" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C190" r:id="rId94" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C191" r:id="rId95" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C192" r:id="rId96" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C193" r:id="rId97" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C194" r:id="rId98" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C196" r:id="rId99" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C197" r:id="rId100" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C198" r:id="rId101" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C199" r:id="rId102" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C206" r:id="rId103" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C207" r:id="rId104" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C208" r:id="rId105" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C209" r:id="rId106" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C210" r:id="rId107" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C211" r:id="rId108" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C212" r:id="rId109" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C213" r:id="rId110" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C214" r:id="rId111" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C215" r:id="rId112" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C216" r:id="rId113" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C217" r:id="rId114" display="\\10.39.168.176\RawData_East3410\"/>
-    <hyperlink ref="C224" r:id="rId115" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C225:C226" r:id="rId116" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C218:C223" r:id="rId117" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C228" r:id="rId118" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C229" r:id="rId119" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C230" r:id="rId120" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C231" r:id="rId121" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C232" r:id="rId122" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C233" r:id="rId123" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C234" r:id="rId124" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C235" r:id="rId125" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C236" r:id="rId126" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C237" r:id="rId127" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C240" r:id="rId128" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C241" r:id="rId129" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C238" r:id="rId130" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C239" r:id="rId131" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C242" r:id="rId132" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C243" r:id="rId133" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C244" r:id="rId134" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C245" r:id="rId135" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C246" r:id="rId136" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C247" r:id="rId137" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C248" r:id="rId138" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C251" r:id="rId139" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C250" r:id="rId140" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C249" r:id="rId141" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C252" r:id="rId142" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C253" r:id="rId143" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C254" r:id="rId144" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C255" r:id="rId145" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C256" r:id="rId146" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C257" r:id="rId147" display="\\10.39.168.52\RawData_East3410\"/>
-    <hyperlink ref="C258" r:id="rId148" display="\\10.39.168.52\RawData_East3410\"/>
-    <hyperlink ref="C259" r:id="rId149" display="\\10.39.168.52\RawData_East3410\"/>
-    <hyperlink ref="C260" r:id="rId150" display="\\10.39.168.52\RawData_East3410\"/>
-    <hyperlink ref="C261" r:id="rId151" display="\\10.39.168.52\RawData_East3410\"/>
-    <hyperlink ref="C264" r:id="rId152" display="\\10.39.168.52\RawData_East3410\"/>
-    <hyperlink ref="C265" r:id="rId153" display="\\10.39.168.52\RawData_East3410\"/>
-    <hyperlink ref="C266" r:id="rId154" display="\\10.39.168.52\RawData_East3410\"/>
-    <hyperlink ref="C267" r:id="rId155" display="\\10.39.168.52\RawData_East3410\"/>
-    <hyperlink ref="C262" r:id="rId156" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C263" r:id="rId157" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C268" r:id="rId158" display="\\10.39.168.52\RawData_East3410\"/>
-    <hyperlink ref="C269" r:id="rId159" display="\\10.39.168.52\RawData_East3410\"/>
-    <hyperlink ref="C270" r:id="rId160" display="\\10.39.168.52\RawData_East3410\"/>
-    <hyperlink ref="C271" r:id="rId161" display="\\10.39.168.52\RawData_East3410\"/>
-    <hyperlink ref="C272" r:id="rId162" display="\\10.39.168.52\RawData_East3410\"/>
-    <hyperlink ref="C273" r:id="rId163" display="\\10.39.168.52\RawData_East3410\"/>
-    <hyperlink ref="C274" r:id="rId164" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C112" r:id="rId165" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C113:C115" r:id="rId166" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C109" r:id="rId167" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C110" r:id="rId168" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C275:C276" r:id="rId169" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C277" r:id="rId170" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C278" r:id="rId171" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C279" r:id="rId172" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C280" r:id="rId173" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C281" r:id="rId174" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C283" r:id="rId175" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C284" r:id="rId176" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C285" r:id="rId177" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C286" r:id="rId178" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C287" r:id="rId179" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C288" r:id="rId180" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C289" r:id="rId181" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C290" r:id="rId182" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C291" r:id="rId183" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C292" r:id="rId184" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C293" r:id="rId185" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C294" r:id="rId186" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C295" r:id="rId187" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C296" r:id="rId188" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C297" r:id="rId189" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C298" r:id="rId190" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C299" r:id="rId191" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C300" r:id="rId192" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C301" r:id="rId193" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C302" r:id="rId194" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C303" r:id="rId195" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C304" r:id="rId196" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C305" r:id="rId197" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C306" r:id="rId198" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C307" r:id="rId199" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C308" r:id="rId200" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C309" r:id="rId201" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C310" r:id="rId202" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C311" r:id="rId203" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C312" r:id="rId204" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C313" r:id="rId205" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C314" r:id="rId206" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C315" r:id="rId207" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C316" r:id="rId208" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C317" r:id="rId209" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C318" r:id="rId210" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C321" r:id="rId211" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C322" r:id="rId212" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C323" r:id="rId213" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C324" r:id="rId214" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C325" r:id="rId215" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C326" r:id="rId216" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C327" r:id="rId217" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C328" r:id="rId218" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C329" r:id="rId219" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C330" r:id="rId220" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C331" r:id="rId221" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C332" r:id="rId222" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C333" r:id="rId223" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C334" r:id="rId224" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C336" r:id="rId225" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C337" r:id="rId226" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C338" r:id="rId227" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C339" r:id="rId228" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C340" r:id="rId229" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C341" r:id="rId230" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C342" r:id="rId231" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C343" r:id="rId232" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C335" r:id="rId233" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C345" r:id="rId234" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C346" r:id="rId235" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C181" r:id="rId236" display="\\10.39.168.33\RawData_EastOIS2\"/>
-    <hyperlink ref="C347" r:id="rId237" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C348" r:id="rId238" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C349" r:id="rId239" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C350" r:id="rId240" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C351" r:id="rId241" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C352" r:id="rId242" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C353" r:id="rId243" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C354" r:id="rId244" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C355" r:id="rId245" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C356" r:id="rId246" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C357" r:id="rId247" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C358" r:id="rId248" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C359" r:id="rId249" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C360" r:id="rId250" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C361" r:id="rId251" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C362" r:id="rId252" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C363" r:id="rId253" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C364" r:id="rId254" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C365" r:id="rId255" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C366" r:id="rId256" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C367" r:id="rId257" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C368" r:id="rId258" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C369" r:id="rId259" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C370" r:id="rId260" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C371" r:id="rId261" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C372" r:id="rId262" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C373" r:id="rId263" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C374" r:id="rId264" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C375" r:id="rId265" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C376" r:id="rId266" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C377" r:id="rId267" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C378" r:id="rId268" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C379" r:id="rId269"/>
-    <hyperlink ref="C380" r:id="rId270" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C381" r:id="rId271" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C382" r:id="rId272" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C383" r:id="rId273" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C384" r:id="rId274" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C385" r:id="rId275" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C386" r:id="rId276" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C387" r:id="rId277" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C388" r:id="rId278" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C389" r:id="rId279" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C390" r:id="rId280" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C391" r:id="rId281" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C393" r:id="rId282" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C394" r:id="rId283" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C395" r:id="rId284" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C396" r:id="rId285"/>
-    <hyperlink ref="C401" r:id="rId286" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C402" r:id="rId287" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C403" r:id="rId288" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C404" r:id="rId289" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C397" r:id="rId290" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C398" r:id="rId291" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C399" r:id="rId292" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C400" r:id="rId293" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C405" r:id="rId294" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C406" r:id="rId295" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C407" r:id="rId296" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C408" r:id="rId297" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C409" r:id="rId298" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C410" r:id="rId299" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C411" r:id="rId300" display="\\10.39.168.135\RawData_EastOIS2\"/>
-    <hyperlink ref="C412" r:id="rId301" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C140" r:id="rId48" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C141" r:id="rId49" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C142" r:id="rId50" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C143" r:id="rId51" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C149" r:id="rId52"/>
+    <hyperlink ref="C166" r:id="rId53" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C167" r:id="rId54" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C168" r:id="rId55" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C169" r:id="rId56" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C170" r:id="rId57" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C171" r:id="rId58" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C172" r:id="rId59" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C173" r:id="rId60" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C174" r:id="rId61" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C175" r:id="rId62" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C176" r:id="rId63" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C177" r:id="rId64" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C178" r:id="rId65" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C179" r:id="rId66" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C180" r:id="rId67" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C189" r:id="rId68" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C190" r:id="rId69" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C191" r:id="rId70" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C192" r:id="rId71" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C193" r:id="rId72" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C194" r:id="rId73" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C196" r:id="rId74" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C197" r:id="rId75" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C198" r:id="rId76" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C199" r:id="rId77" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C206" r:id="rId78" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C207" r:id="rId79" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C208" r:id="rId80" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C209" r:id="rId81" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C210" r:id="rId82" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C211" r:id="rId83" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C212" r:id="rId84" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C213" r:id="rId85" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C214" r:id="rId86" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C215" r:id="rId87" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C216" r:id="rId88" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C217" r:id="rId89" display="\\10.39.168.176\RawData_East3410\"/>
+    <hyperlink ref="C224" r:id="rId90" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C225:C226" r:id="rId91" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C218:C223" r:id="rId92" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C228" r:id="rId93" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C229" r:id="rId94" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C230" r:id="rId95" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C231" r:id="rId96" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C232" r:id="rId97" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C233" r:id="rId98" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C234" r:id="rId99" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C235" r:id="rId100" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C236" r:id="rId101" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C237" r:id="rId102" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C240" r:id="rId103" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C241" r:id="rId104" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C238" r:id="rId105" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C239" r:id="rId106" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C242" r:id="rId107" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C243" r:id="rId108" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C244" r:id="rId109" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C245" r:id="rId110" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C246" r:id="rId111" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C247" r:id="rId112" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C248" r:id="rId113" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C251" r:id="rId114" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C250" r:id="rId115" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C249" r:id="rId116" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C252" r:id="rId117" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C253" r:id="rId118" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C254" r:id="rId119" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C255" r:id="rId120" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C256" r:id="rId121" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C257" r:id="rId122" display="\\10.39.168.52\RawData_East3410\"/>
+    <hyperlink ref="C258" r:id="rId123" display="\\10.39.168.52\RawData_East3410\"/>
+    <hyperlink ref="C259" r:id="rId124" display="\\10.39.168.52\RawData_East3410\"/>
+    <hyperlink ref="C260" r:id="rId125" display="\\10.39.168.52\RawData_East3410\"/>
+    <hyperlink ref="C261" r:id="rId126" display="\\10.39.168.52\RawData_East3410\"/>
+    <hyperlink ref="C264" r:id="rId127" display="\\10.39.168.52\RawData_East3410\"/>
+    <hyperlink ref="C265" r:id="rId128" display="\\10.39.168.52\RawData_East3410\"/>
+    <hyperlink ref="C266" r:id="rId129" display="\\10.39.168.52\RawData_East3410\"/>
+    <hyperlink ref="C267" r:id="rId130" display="\\10.39.168.52\RawData_East3410\"/>
+    <hyperlink ref="C262" r:id="rId131" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C263" r:id="rId132" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C268" r:id="rId133" display="\\10.39.168.52\RawData_East3410\"/>
+    <hyperlink ref="C269" r:id="rId134" display="\\10.39.168.52\RawData_East3410\"/>
+    <hyperlink ref="C270" r:id="rId135" display="\\10.39.168.52\RawData_East3410\"/>
+    <hyperlink ref="C271" r:id="rId136" display="\\10.39.168.52\RawData_East3410\"/>
+    <hyperlink ref="C272" r:id="rId137" display="\\10.39.168.52\RawData_East3410\"/>
+    <hyperlink ref="C273" r:id="rId138" display="\\10.39.168.52\RawData_East3410\"/>
+    <hyperlink ref="C274" r:id="rId139" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C112" r:id="rId140" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C113:C115" r:id="rId141" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C109" r:id="rId142" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C110" r:id="rId143" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C275:C276" r:id="rId144" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C277" r:id="rId145" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C278" r:id="rId146" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C279" r:id="rId147" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C280" r:id="rId148" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C281" r:id="rId149" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C283" r:id="rId150" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C284" r:id="rId151" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C285" r:id="rId152" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C286" r:id="rId153" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C287" r:id="rId154" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C288" r:id="rId155" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C289" r:id="rId156" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C290" r:id="rId157" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C291" r:id="rId158" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C292" r:id="rId159" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C293" r:id="rId160" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C294" r:id="rId161" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C295" r:id="rId162" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C296" r:id="rId163" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C297" r:id="rId164" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C298" r:id="rId165" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C299" r:id="rId166" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C300" r:id="rId167" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C301" r:id="rId168" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C302" r:id="rId169" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C303" r:id="rId170" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C304" r:id="rId171" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C305" r:id="rId172" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C306" r:id="rId173" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C307" r:id="rId174" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C308" r:id="rId175" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C309" r:id="rId176" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C310" r:id="rId177" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C311" r:id="rId178" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C312" r:id="rId179" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C313" r:id="rId180" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C314" r:id="rId181" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C315" r:id="rId182" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C316" r:id="rId183" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C317" r:id="rId184" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C318" r:id="rId185" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C321" r:id="rId186" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C322" r:id="rId187" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C323" r:id="rId188" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C324" r:id="rId189" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C325" r:id="rId190" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C326" r:id="rId191" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C327" r:id="rId192" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C328" r:id="rId193" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C329" r:id="rId194" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C330" r:id="rId195" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C331" r:id="rId196" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C332" r:id="rId197" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C333" r:id="rId198" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C334" r:id="rId199" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C336" r:id="rId200" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C337" r:id="rId201" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C338" r:id="rId202" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C339" r:id="rId203" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C340" r:id="rId204" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C341" r:id="rId205" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C342" r:id="rId206" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C343" r:id="rId207" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C335" r:id="rId208" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C345" r:id="rId209" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C346" r:id="rId210" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C181" r:id="rId211" display="\\10.39.168.33\RawData_EastOIS2\"/>
+    <hyperlink ref="C347" r:id="rId212" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C348" r:id="rId213" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C349" r:id="rId214" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C350" r:id="rId215" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C351" r:id="rId216" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C352" r:id="rId217" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C353" r:id="rId218" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C354" r:id="rId219" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C355" r:id="rId220" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C356" r:id="rId221" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C357" r:id="rId222" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C358" r:id="rId223" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C359" r:id="rId224" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C360" r:id="rId225" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C361" r:id="rId226" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C362" r:id="rId227" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C363" r:id="rId228" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C364" r:id="rId229" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C365" r:id="rId230" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C366" r:id="rId231" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C367" r:id="rId232" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C368" r:id="rId233" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C369" r:id="rId234" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C370" r:id="rId235" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C371" r:id="rId236" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C372" r:id="rId237" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C373" r:id="rId238" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C374" r:id="rId239" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C375" r:id="rId240" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C376" r:id="rId241" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C377" r:id="rId242" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C378" r:id="rId243" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C379" r:id="rId244"/>
+    <hyperlink ref="C380" r:id="rId245" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C381" r:id="rId246" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C382" r:id="rId247" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C383" r:id="rId248" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C384" r:id="rId249" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C385" r:id="rId250" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C386" r:id="rId251" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C387" r:id="rId252" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C388" r:id="rId253" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C389" r:id="rId254" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C390" r:id="rId255" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C391" r:id="rId256" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C393" r:id="rId257" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C394" r:id="rId258" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C395" r:id="rId259" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C396" r:id="rId260"/>
+    <hyperlink ref="C401" r:id="rId261" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C402" r:id="rId262" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C403" r:id="rId263" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C404" r:id="rId264" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C397" r:id="rId265" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C398" r:id="rId266" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C399" r:id="rId267" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C400" r:id="rId268" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C405" r:id="rId269" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C406" r:id="rId270" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C407" r:id="rId271" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C408" r:id="rId272" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C409" r:id="rId273" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C410" r:id="rId274" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C411" r:id="rId275" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C412" r:id="rId276" display="\\10.39.168.135\RawData_EastOIS2\"/>
+    <hyperlink ref="C218" r:id="rId277"/>
+    <hyperlink ref="C144:C148" r:id="rId278" display="\\10.23.92.191\RawData_East3410\"/>
+    <hyperlink ref="C155" r:id="rId279"/>
+    <hyperlink ref="C161" r:id="rId280"/>
+    <hyperlink ref="A1" r:id="rId281" display="\\10.23.92.191\RawData_East3410\"/>
+    <hyperlink ref="C150:C154" r:id="rId282" display="\\10.23.92.191\RawData_East3410\"/>
+    <hyperlink ref="C156:C160" r:id="rId283" display="\\10.23.92.191\RawData_East3410\"/>
+    <hyperlink ref="C162" r:id="rId284"/>
+    <hyperlink ref="C133" r:id="rId285"/>
+    <hyperlink ref="C134:C139" r:id="rId286" display="\\10.23.92.191\RawData_East3410\"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId302"/>
+  <pageSetup orientation="portrait" r:id="rId287"/>
 </worksheet>
 </file>
 
@@ -44209,12 +44202,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>420</v>
       </c>
@@ -44222,7 +44215,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>419</v>
       </c>
@@ -44233,7 +44226,7 @@
         <v>18.8963</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>418</v>
       </c>
@@ -44244,7 +44237,7 @@
         <v>0.2389</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>417</v>
       </c>
@@ -44255,7 +44248,7 @@
         <v>0.77129999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>422</v>
       </c>
@@ -44269,7 +44262,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>423</v>
       </c>
@@ -44280,7 +44273,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>424</v>
       </c>
@@ -44294,7 +44287,7 @@
         <v>0.1154</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>425</v>
       </c>
@@ -44305,7 +44298,7 @@
         <v>17.443200000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>426</v>
       </c>
@@ -44316,7 +44309,7 @@
         <v>0.10440000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>427</v>
       </c>
@@ -44330,17 +44323,17 @@
         <v>429</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J15">
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F18">
         <v>0.189</v>
       </c>
@@ -44348,22 +44341,22 @@
         <v>430</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.3">
       <c r="J20">
         <v>0.39290000000000003</v>
       </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F23">
         <v>0.10440000000000001</v>
       </c>
     </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
         <v>433</v>
       </c>
@@ -44382,72 +44375,72 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.1154</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.39290000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.1154</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.39290000000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>422</v>
       </c>
@@ -44458,7 +44451,7 @@
         <v>1.83E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>423</v>
       </c>
@@ -44469,7 +44462,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>424</v>
       </c>
@@ -44480,7 +44473,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>425</v>
       </c>
@@ -44491,7 +44484,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>426</v>
       </c>
@@ -44502,7 +44495,7 @@
         <v>1.8494E-4</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>427</v>
       </c>
@@ -44526,12 +44519,12 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>148</v>
       </c>
@@ -44545,32 +44538,32 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="221" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="221" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="221" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="221" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="221" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="221" t="s">
         <v>412</v>
       </c>
@@ -44589,12 +44582,12 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -44650,7 +44643,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>190102</v>
       </c>
@@ -44748,13 +44741,13 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -44765,7 +44758,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="268" t="s">
         <v>125</v>
       </c>
@@ -44776,7 +44769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="268"/>
       <c r="B3" t="s">
         <v>127</v>
@@ -44785,7 +44778,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="268"/>
       <c r="B4" t="s">
         <v>128</v>
@@ -44794,7 +44787,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="268"/>
       <c r="B5" t="s">
         <v>129</v>
@@ -44803,7 +44796,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="269" t="s">
         <v>134</v>
       </c>
@@ -44814,7 +44807,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="269"/>
       <c r="B7" t="s">
         <v>131</v>
@@ -44823,7 +44816,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="269"/>
       <c r="B8" t="s">
         <v>132</v>
@@ -44832,7 +44825,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="270" t="s">
         <v>136</v>
       </c>
@@ -44843,7 +44836,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="270"/>
       <c r="B10">
         <v>2141</v>
@@ -44852,7 +44845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="270" t="s">
         <v>138</v>
       </c>
@@ -44863,7 +44856,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="270"/>
       <c r="B12">
         <v>2143</v>
@@ -44872,7 +44865,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="270"/>
       <c r="B13">
         <v>2144</v>
@@ -44881,7 +44874,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="270"/>
       <c r="B14">
         <v>2145</v>
@@ -44890,7 +44883,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="270"/>
       <c r="B15">
         <v>2146</v>
@@ -44899,7 +44892,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>141</v>
       </c>
@@ -44907,7 +44900,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -44915,7 +44908,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -44942,19 +44935,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>153</v>
       </c>
@@ -44978,15 +44971,15 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="271" t="s">
         <v>321</v>
       </c>
@@ -45002,7 +44995,7 @@
       <c r="K1" s="271"/>
       <c r="L1" s="186"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="186" t="s">
         <v>328</v>
       </c>
@@ -45026,7 +45019,7 @@
       <c r="K2" s="271"/>
       <c r="L2" s="271"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="186" t="s">
         <v>332</v>
       </c>
@@ -45058,7 +45051,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="186" t="s">
         <v>333</v>
       </c>
@@ -45084,7 +45077,7 @@
       </c>
       <c r="L4" s="186"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="186" t="s">
         <v>334</v>
       </c>
@@ -45110,7 +45103,7 @@
       </c>
       <c r="L5" s="186"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="186" t="s">
         <v>335</v>
       </c>
@@ -45130,7 +45123,7 @@
       <c r="K6" s="186"/>
       <c r="L6" s="186"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="186" t="s">
         <v>336</v>
       </c>
@@ -45156,7 +45149,7 @@
       </c>
       <c r="L7" s="186"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="186" t="s">
         <v>337</v>
       </c>
@@ -45180,7 +45173,7 @@
       <c r="K8" s="186"/>
       <c r="L8" s="186"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="186" t="s">
         <v>338</v>
       </c>
@@ -45204,7 +45197,7 @@
       <c r="K9" s="186"/>
       <c r="L9" s="186"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="186" t="s">
         <v>339</v>
       </c>
@@ -45228,7 +45221,7 @@
       <c r="K10" s="186"/>
       <c r="L10" s="186"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="186" t="s">
         <v>340</v>
       </c>
@@ -45254,7 +45247,7 @@
       </c>
       <c r="L11" s="186"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="186" t="s">
         <v>341</v>
       </c>
@@ -45284,7 +45277,7 @@
       </c>
       <c r="L12" s="186"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="271" t="s">
         <v>320</v>
       </c>
@@ -45300,7 +45293,7 @@
       <c r="K14" s="271"/>
       <c r="L14" s="186"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="186" t="s">
         <v>328</v>
       </c>
@@ -45324,7 +45317,7 @@
       <c r="K15" s="271"/>
       <c r="L15" s="271"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="186" t="s">
         <v>332</v>
       </c>
@@ -45356,7 +45349,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="186" t="s">
         <v>333</v>
       </c>
@@ -45384,7 +45377,7 @@
       </c>
       <c r="L17" s="186"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="186" t="s">
         <v>334</v>
       </c>
@@ -45412,7 +45405,7 @@
       </c>
       <c r="L18" s="186"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="186" t="s">
         <v>335</v>
       </c>
@@ -45432,7 +45425,7 @@
       <c r="K19" s="186"/>
       <c r="L19" s="186"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="186" t="s">
         <v>336</v>
       </c>
@@ -45460,7 +45453,7 @@
       </c>
       <c r="L20" s="186"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="186" t="s">
         <v>337</v>
       </c>
@@ -45488,7 +45481,7 @@
       </c>
       <c r="L21" s="186"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="186" t="s">
         <v>338</v>
       </c>
@@ -45516,7 +45509,7 @@
       </c>
       <c r="L22" s="186"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="186" t="s">
         <v>339</v>
       </c>
@@ -45544,7 +45537,7 @@
       </c>
       <c r="L23" s="186"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="186" t="s">
         <v>340</v>
       </c>
@@ -45572,7 +45565,7 @@
       </c>
       <c r="L24" s="186"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="186" t="s">
         <v>341</v>
       </c>
@@ -45623,17 +45616,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>243</v>
       </c>
@@ -45641,7 +45634,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>245</v>
       </c>
@@ -45652,43 +45645,43 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-1.82E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>AVERAGE(A8:A13)</f>
         <v>2.1466666666666665E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="271" t="s">
         <v>348</v>
       </c>
@@ -45704,7 +45697,7 @@
       <c r="J16" s="271"/>
       <c r="K16" s="186"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="186" t="s">
         <v>328</v>
       </c>
@@ -45731,7 +45724,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="186" t="s">
         <v>332</v>
       </c>
@@ -45769,7 +45762,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="186" t="s">
         <v>333</v>
       </c>
@@ -45801,7 +45794,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="186" t="s">
         <v>334</v>
       </c>
@@ -45833,7 +45826,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="186" t="s">
         <v>335</v>
       </c>
@@ -45853,7 +45846,7 @@
       <c r="J21" s="186"/>
       <c r="K21" s="186"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="186" t="s">
         <v>336</v>
       </c>
@@ -45883,7 +45876,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="186" t="s">
         <v>337</v>
       </c>
@@ -45915,7 +45908,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="186" t="s">
         <v>338</v>
       </c>
@@ -45947,7 +45940,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="186" t="s">
         <v>339</v>
       </c>
@@ -45979,7 +45972,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="186" t="s">
         <v>340</v>
       </c>
@@ -46011,7 +46004,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="186" t="s">
         <v>341</v>
       </c>
@@ -46043,7 +46036,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="271" t="s">
         <v>355</v>
       </c>
@@ -46052,7 +46045,7 @@
       <c r="D31" s="271"/>
       <c r="E31" s="186"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="186" t="s">
         <v>328</v>
       </c>
@@ -46065,7 +46058,7 @@
       <c r="D32" s="271"/>
       <c r="E32" s="271"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="186" t="s">
         <v>332</v>
       </c>
@@ -46082,7 +46075,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="186" t="s">
         <v>333</v>
       </c>
@@ -46099,7 +46092,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="186" t="s">
         <v>334</v>
       </c>
@@ -46116,7 +46109,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="186" t="s">
         <v>335</v>
       </c>
@@ -46127,7 +46120,7 @@
       <c r="D36" s="186"/>
       <c r="E36" s="186"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="186" t="s">
         <v>336</v>
       </c>
@@ -46144,7 +46137,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="186" t="s">
         <v>337</v>
       </c>
@@ -46161,7 +46154,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="186" t="s">
         <v>338</v>
       </c>
@@ -46178,7 +46171,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="186" t="s">
         <v>339</v>
       </c>
@@ -46193,7 +46186,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="186" t="s">
         <v>340</v>
       </c>
@@ -46210,7 +46203,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="186" t="s">
         <v>341</v>
       </c>
@@ -46249,18 +46242,18 @@
       <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="272" t="s">
         <v>365</v>
       </c>
@@ -46273,7 +46266,7 @@
         <v>200302</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="190" t="s">
         <v>328</v>
       </c>
@@ -46288,7 +46281,7 @@
       <c r="F2" s="272"/>
       <c r="G2" s="272"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="190" t="s">
         <v>332</v>
       </c>
@@ -46307,7 +46300,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="190" t="s">
         <v>333</v>
       </c>
@@ -46328,7 +46321,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="190" t="s">
         <v>334</v>
       </c>
@@ -46352,7 +46345,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="190" t="s">
         <v>335</v>
       </c>
@@ -46362,7 +46355,7 @@
       <c r="C6" s="203"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="190" t="s">
         <v>336</v>
       </c>
@@ -46384,7 +46377,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="190" t="s">
         <v>337</v>
       </c>
@@ -46406,7 +46399,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="190" t="s">
         <v>338</v>
       </c>
@@ -46428,7 +46421,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="190" t="s">
         <v>339</v>
       </c>
@@ -46450,7 +46443,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="190" t="s">
         <v>340</v>
       </c>
@@ -46472,7 +46465,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="190" t="s">
         <v>341</v>
       </c>
@@ -46494,7 +46487,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="272" t="s">
         <v>364</v>
       </c>
@@ -46507,7 +46500,7 @@
         <v>200303</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="190" t="s">
         <v>328</v>
       </c>
@@ -46522,7 +46515,7 @@
       <c r="F16" s="272"/>
       <c r="G16" s="272"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="190" t="s">
         <v>332</v>
       </c>
@@ -46541,7 +46534,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="190" t="s">
         <v>333</v>
       </c>
@@ -46564,7 +46557,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="190" t="s">
         <v>334</v>
       </c>
@@ -46585,7 +46578,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="190" t="s">
         <v>335</v>
       </c>
@@ -46595,7 +46588,7 @@
       <c r="C20" s="203"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="190" t="s">
         <v>336</v>
       </c>
@@ -46617,7 +46610,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="190" t="s">
         <v>337</v>
       </c>
@@ -46639,7 +46632,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="190" t="s">
         <v>338</v>
       </c>
@@ -46661,7 +46654,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="190" t="s">
         <v>339</v>
       </c>
@@ -46683,7 +46676,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="190" t="s">
         <v>340</v>
       </c>
@@ -46705,7 +46698,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="190" t="s">
         <v>341</v>
       </c>
@@ -46727,7 +46720,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="272" t="s">
         <v>363</v>
       </c>
@@ -46740,7 +46733,7 @@
         <v>200305</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="190" t="s">
         <v>328</v>
       </c>
@@ -46755,7 +46748,7 @@
       <c r="F30" s="272"/>
       <c r="G30" s="272"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="190" t="s">
         <v>332</v>
       </c>
@@ -46774,7 +46767,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="190" t="s">
         <v>333</v>
       </c>
@@ -46797,7 +46790,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="190" t="s">
         <v>334</v>
       </c>
@@ -46818,7 +46811,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="190" t="s">
         <v>335</v>
       </c>
@@ -46828,7 +46821,7 @@
       <c r="C34" s="203"/>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="190" t="s">
         <v>336</v>
       </c>
@@ -46850,7 +46843,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="190" t="s">
         <v>337</v>
       </c>
@@ -46875,7 +46868,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="190" t="s">
         <v>338</v>
       </c>
@@ -46897,7 +46890,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="190" t="s">
         <v>339</v>
       </c>
@@ -46922,7 +46915,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="190" t="s">
         <v>340</v>
       </c>
@@ -46947,7 +46940,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="190" t="s">
         <v>341</v>
       </c>
@@ -46972,7 +46965,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="194"/>
       <c r="B41" s="195"/>
       <c r="C41" s="203"/>
@@ -46981,7 +46974,7 @@
       <c r="F41" s="203"/>
       <c r="G41" s="198"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="272" t="s">
         <v>362</v>
       </c>
@@ -46994,7 +46987,7 @@
         <v>200306</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="190" t="s">
         <v>328</v>
       </c>
@@ -47009,7 +47002,7 @@
       <c r="F44" s="272"/>
       <c r="G44" s="272"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="190" t="s">
         <v>332</v>
       </c>
@@ -47028,7 +47021,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="190" t="s">
         <v>333</v>
       </c>
@@ -47049,7 +47042,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="190" t="s">
         <v>334</v>
       </c>
@@ -47070,7 +47063,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="190" t="s">
         <v>335</v>
       </c>
@@ -47082,7 +47075,7 @@
       <c r="F48" s="202"/>
       <c r="G48" s="193"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="190" t="s">
         <v>336</v>
       </c>
@@ -47107,7 +47100,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="190" t="s">
         <v>337</v>
       </c>
@@ -47132,7 +47125,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="190" t="s">
         <v>338</v>
       </c>
@@ -47157,7 +47150,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="190" t="s">
         <v>339</v>
       </c>
@@ -47182,7 +47175,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="190" t="s">
         <v>340</v>
       </c>
@@ -47207,7 +47200,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="190" t="s">
         <v>341</v>
       </c>
@@ -47232,7 +47225,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="194"/>
       <c r="B55" s="195"/>
       <c r="C55" s="203"/>
@@ -47241,7 +47234,7 @@
       <c r="F55" s="203"/>
       <c r="G55" s="196"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="272" t="s">
         <v>366</v>
       </c>
@@ -47254,7 +47247,7 @@
         <v>200309</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="190" t="s">
         <v>328</v>
       </c>
@@ -47269,7 +47262,7 @@
       <c r="F58" s="272"/>
       <c r="G58" s="272"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="190" t="s">
         <v>332</v>
       </c>
@@ -47288,7 +47281,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="190" t="s">
         <v>333</v>
       </c>
@@ -47311,7 +47304,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="190" t="s">
         <v>334</v>
       </c>
@@ -47334,7 +47327,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="190" t="s">
         <v>335</v>
       </c>
@@ -47344,7 +47337,7 @@
       <c r="C62" s="203"/>
       <c r="G62" s="193"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="190" t="s">
         <v>336</v>
       </c>
@@ -47369,7 +47362,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="190" t="s">
         <v>337</v>
       </c>
@@ -47394,7 +47387,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="190" t="s">
         <v>338</v>
       </c>
@@ -47419,7 +47412,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="190" t="s">
         <v>339</v>
       </c>
@@ -47444,7 +47437,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="190" t="s">
         <v>340</v>
       </c>
@@ -47469,7 +47462,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="190" t="s">
         <v>341</v>
       </c>
@@ -47494,7 +47487,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="194"/>
       <c r="B69" s="195"/>
       <c r="C69" s="203"/>
@@ -47503,7 +47496,7 @@
       <c r="F69" s="203"/>
       <c r="G69" s="196"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="272" t="s">
         <v>371</v>
       </c>
@@ -47516,7 +47509,7 @@
         <v>200312</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="190" t="s">
         <v>328</v>
       </c>
@@ -47531,7 +47524,7 @@
       <c r="F72" s="272"/>
       <c r="G72" s="272"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="190" t="s">
         <v>332</v>
       </c>
@@ -47550,7 +47543,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="190" t="s">
         <v>333</v>
       </c>
@@ -47573,7 +47566,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="190" t="s">
         <v>334</v>
       </c>
@@ -47596,7 +47589,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="190" t="s">
         <v>335</v>
       </c>
@@ -47605,7 +47598,7 @@
       </c>
       <c r="C76" s="203"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="190" t="s">
         <v>336</v>
       </c>
@@ -47630,7 +47623,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="190" t="s">
         <v>337</v>
       </c>
@@ -47655,7 +47648,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="190" t="s">
         <v>338</v>
       </c>
@@ -47680,7 +47673,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="190" t="s">
         <v>339</v>
       </c>
@@ -47705,7 +47698,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="190" t="s">
         <v>340</v>
       </c>
@@ -47730,7 +47723,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="190" t="s">
         <v>341</v>
       </c>
@@ -47755,7 +47748,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E85" s="32"/>
     </row>
   </sheetData>
@@ -47786,9 +47779,9 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>388</v>
       </c>
@@ -47799,7 +47792,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>312</v>
       </c>
@@ -47814,7 +47807,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>322</v>
       </c>
@@ -47829,7 +47822,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>323</v>
       </c>
@@ -47847,7 +47840,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>320</v>
       </c>
@@ -47862,7 +47855,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>321</v>
       </c>
@@ -47877,7 +47870,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>351</v>
       </c>
@@ -47892,7 +47885,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>315</v>
       </c>
@@ -47907,7 +47900,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>317</v>
       </c>
@@ -47922,7 +47915,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>318</v>
       </c>
@@ -47940,7 +47933,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>319</v>
       </c>
@@ -47955,7 +47948,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -47970,7 +47963,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>325</v>
       </c>
@@ -47985,7 +47978,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>326</v>
       </c>
@@ -48000,7 +47993,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>327</v>
       </c>
@@ -48015,7 +48008,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>313</v>
       </c>

--- a/DataBase_Xiaodan.xlsx
+++ b/DataBase_Xiaodan.xlsx
@@ -2869,6 +2869,8 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="13" fillId="14" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2884,8 +2886,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="13" fillId="14" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -15636,10 +15636,10 @@
   <dimension ref="A1:AF513"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T494" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z228" sqref="Z228:Z241"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26660,7 +26660,7 @@
       <c r="W181" s="119"/>
       <c r="X181" s="119"/>
       <c r="Y181" s="119"/>
-      <c r="Z181" s="300">
+      <c r="Z181" s="295">
         <v>43416</v>
       </c>
       <c r="AF181" s="31" t="s">
@@ -26732,7 +26732,7 @@
       <c r="W182" s="88"/>
       <c r="X182" s="88"/>
       <c r="Y182" s="88"/>
-      <c r="Z182" s="300">
+      <c r="Z182" s="295">
         <v>43416</v>
       </c>
       <c r="AF182" s="31" t="s">
@@ -26796,7 +26796,7 @@
       <c r="W183" s="119"/>
       <c r="X183" s="119"/>
       <c r="Y183" s="119"/>
-      <c r="Z183" s="300">
+      <c r="Z183" s="295">
         <v>43416</v>
       </c>
       <c r="AF183" s="31" t="s">
@@ -26868,7 +26868,7 @@
       <c r="W184" s="88"/>
       <c r="X184" s="88"/>
       <c r="Y184" s="88"/>
-      <c r="Z184" s="300">
+      <c r="Z184" s="295">
         <v>43416</v>
       </c>
       <c r="AF184" s="31" t="s">
@@ -26932,7 +26932,7 @@
       <c r="W185" s="119"/>
       <c r="X185" s="119"/>
       <c r="Y185" s="119"/>
-      <c r="Z185" s="300">
+      <c r="Z185" s="295">
         <v>43416</v>
       </c>
       <c r="AF185" s="31" t="s">
@@ -27004,7 +27004,7 @@
       <c r="W186" s="88"/>
       <c r="X186" s="88"/>
       <c r="Y186" s="88"/>
-      <c r="Z186" s="300">
+      <c r="Z186" s="295">
         <v>43416</v>
       </c>
       <c r="AF186" s="31" t="s">
@@ -27064,7 +27064,7 @@
       <c r="W187" s="33"/>
       <c r="X187" s="33"/>
       <c r="Y187" s="33"/>
-      <c r="Z187" s="300">
+      <c r="Z187" s="295">
         <v>43416</v>
       </c>
       <c r="AF187" s="31" t="s">
@@ -27136,7 +27136,7 @@
       <c r="W188" s="285"/>
       <c r="X188" s="285"/>
       <c r="Y188" s="285"/>
-      <c r="Z188" s="300">
+      <c r="Z188" s="295">
         <v>43416</v>
       </c>
       <c r="AF188" s="31" t="s">
@@ -29512,7 +29512,7 @@
       <c r="W228" s="119"/>
       <c r="X228" s="119"/>
       <c r="Y228" s="119"/>
-      <c r="Z228" s="300">
+      <c r="Z228" s="295">
         <v>43548</v>
       </c>
       <c r="AF228" s="31" t="s">
@@ -29586,7 +29586,7 @@
       <c r="W229" s="94"/>
       <c r="X229" s="94"/>
       <c r="Y229" s="94"/>
-      <c r="Z229" s="300">
+      <c r="Z229" s="295">
         <v>43549</v>
       </c>
       <c r="AF229" s="31" t="s">
@@ -29650,7 +29650,7 @@
       <c r="W230" s="119"/>
       <c r="X230" s="119"/>
       <c r="Y230" s="119"/>
-      <c r="Z230" s="300">
+      <c r="Z230" s="295">
         <v>43550</v>
       </c>
       <c r="AF230" s="31" t="s">
@@ -29726,7 +29726,7 @@
       <c r="W231" s="113"/>
       <c r="X231" s="113"/>
       <c r="Y231" s="113"/>
-      <c r="Z231" s="300">
+      <c r="Z231" s="295">
         <v>43551</v>
       </c>
       <c r="AF231" s="31" t="s">
@@ -29790,7 +29790,7 @@
       <c r="W232" s="119"/>
       <c r="X232" s="119"/>
       <c r="Y232" s="119"/>
-      <c r="Z232" s="300">
+      <c r="Z232" s="295">
         <v>43552</v>
       </c>
       <c r="AF232" s="31" t="s">
@@ -29864,7 +29864,7 @@
       <c r="W233" s="48"/>
       <c r="X233" s="48"/>
       <c r="Y233" s="48"/>
-      <c r="Z233" s="300">
+      <c r="Z233" s="295">
         <v>43553</v>
       </c>
       <c r="AF233" s="31" t="s">
@@ -29928,7 +29928,7 @@
       <c r="W234" s="119"/>
       <c r="X234" s="119"/>
       <c r="Y234" s="119"/>
-      <c r="Z234" s="300">
+      <c r="Z234" s="295">
         <v>43554</v>
       </c>
       <c r="AF234" s="31" t="s">
@@ -30002,7 +30002,7 @@
       <c r="W235" s="113"/>
       <c r="X235" s="113"/>
       <c r="Y235" s="113"/>
-      <c r="Z235" s="300">
+      <c r="Z235" s="295">
         <v>43555</v>
       </c>
       <c r="AF235" s="31" t="s">
@@ -30066,7 +30066,7 @@
       <c r="W236" s="119"/>
       <c r="X236" s="119"/>
       <c r="Y236" s="119"/>
-      <c r="Z236" s="300">
+      <c r="Z236" s="295">
         <v>43556</v>
       </c>
       <c r="AF236" s="31" t="s">
@@ -30140,7 +30140,7 @@
       <c r="W237" s="48"/>
       <c r="X237" s="48"/>
       <c r="Y237" s="48"/>
-      <c r="Z237" s="300">
+      <c r="Z237" s="295">
         <v>43557</v>
       </c>
       <c r="AF237" s="31" t="s">
@@ -30215,7 +30215,7 @@
       </c>
       <c r="X238" s="48"/>
       <c r="Y238" s="48"/>
-      <c r="Z238" s="300">
+      <c r="Z238" s="295">
         <v>43558</v>
       </c>
       <c r="AF238" s="31" t="s">
@@ -30289,7 +30289,7 @@
       <c r="W239" s="48"/>
       <c r="X239" s="48"/>
       <c r="Y239" s="48"/>
-      <c r="Z239" s="300">
+      <c r="Z239" s="295">
         <v>43559</v>
       </c>
       <c r="AF239" s="31" t="s">
@@ -30353,7 +30353,7 @@
       <c r="W240" s="119"/>
       <c r="X240" s="119"/>
       <c r="Y240" s="119"/>
-      <c r="Z240" s="300">
+      <c r="Z240" s="295">
         <v>43560</v>
       </c>
       <c r="AF240" s="31" t="s">
@@ -30427,7 +30427,7 @@
       <c r="W241" s="113"/>
       <c r="X241" s="113"/>
       <c r="Y241" s="113"/>
-      <c r="Z241" s="300">
+      <c r="Z241" s="295">
         <v>43561</v>
       </c>
       <c r="AF241" s="31" t="s">
@@ -35148,7 +35148,7 @@
       <c r="Y321" s="14">
         <v>3</v>
       </c>
-      <c r="Z321" s="299">
+      <c r="Z321" s="294">
         <v>43692</v>
       </c>
       <c r="AF321" t="s">
@@ -35200,7 +35200,7 @@
       <c r="V322" s="48">
         <v>48080</v>
       </c>
-      <c r="Z322" s="299">
+      <c r="Z322" s="294">
         <v>43692</v>
       </c>
       <c r="AF322" t="s">
@@ -35258,7 +35258,7 @@
       <c r="Y323">
         <v>7</v>
       </c>
-      <c r="Z323" s="299">
+      <c r="Z323" s="294">
         <v>43692</v>
       </c>
       <c r="AF323" t="s">
@@ -35310,7 +35310,7 @@
       <c r="V324" s="48">
         <v>48080</v>
       </c>
-      <c r="Z324" s="299">
+      <c r="Z324" s="294">
         <v>43568</v>
       </c>
       <c r="AF324" t="s">
@@ -35368,7 +35368,7 @@
       <c r="Y325">
         <v>8</v>
       </c>
-      <c r="Z325" s="299">
+      <c r="Z325" s="294">
         <v>43568</v>
       </c>
       <c r="AF325" t="s">
@@ -35420,7 +35420,7 @@
       <c r="V326" s="48">
         <v>48080</v>
       </c>
-      <c r="Z326" s="299">
+      <c r="Z326" s="294">
         <v>43692</v>
       </c>
       <c r="AF326" t="s">
@@ -35472,7 +35472,7 @@
       <c r="V327" s="48">
         <v>48080</v>
       </c>
-      <c r="Z327" s="299">
+      <c r="Z327" s="294">
         <v>43568</v>
       </c>
       <c r="AF327" t="s">
@@ -35525,7 +35525,7 @@
       <c r="V328" s="94">
         <v>24080</v>
       </c>
-      <c r="Z328" s="299">
+      <c r="Z328" s="294">
         <v>43568</v>
       </c>
       <c r="AF328" s="17" t="s">
@@ -53598,7 +53598,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="294" t="s">
+      <c r="A2" s="296" t="s">
         <v>125</v>
       </c>
       <c r="B2" t="s">
@@ -53609,7 +53609,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="294"/>
+      <c r="A3" s="296"/>
       <c r="B3" t="s">
         <v>127</v>
       </c>
@@ -53618,7 +53618,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="294"/>
+      <c r="A4" s="296"/>
       <c r="B4" t="s">
         <v>128</v>
       </c>
@@ -53627,7 +53627,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="294"/>
+      <c r="A5" s="296"/>
       <c r="B5" t="s">
         <v>129</v>
       </c>
@@ -53636,7 +53636,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="295" t="s">
+      <c r="A6" s="297" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -53647,7 +53647,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="295"/>
+      <c r="A7" s="297"/>
       <c r="B7" t="s">
         <v>131</v>
       </c>
@@ -53656,7 +53656,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="295"/>
+      <c r="A8" s="297"/>
       <c r="B8" t="s">
         <v>132</v>
       </c>
@@ -53665,7 +53665,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="296" t="s">
+      <c r="A9" s="298" t="s">
         <v>136</v>
       </c>
       <c r="B9">
@@ -53676,7 +53676,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="296"/>
+      <c r="A10" s="298"/>
       <c r="B10">
         <v>2141</v>
       </c>
@@ -53685,7 +53685,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="296" t="s">
+      <c r="A11" s="298" t="s">
         <v>138</v>
       </c>
       <c r="B11">
@@ -53696,7 +53696,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="296"/>
+      <c r="A12" s="298"/>
       <c r="B12">
         <v>2143</v>
       </c>
@@ -53705,7 +53705,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="296"/>
+      <c r="A13" s="298"/>
       <c r="B13">
         <v>2144</v>
       </c>
@@ -53714,7 +53714,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="296"/>
+      <c r="A14" s="298"/>
       <c r="B14">
         <v>2145</v>
       </c>
@@ -53723,7 +53723,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="296"/>
+      <c r="A15" s="298"/>
       <c r="B15">
         <v>2146</v>
       </c>
@@ -53819,19 +53819,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="299" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
+      <c r="B1" s="299"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
       <c r="E1" s="183"/>
-      <c r="H1" s="297" t="s">
+      <c r="H1" s="299" t="s">
         <v>320</v>
       </c>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
+      <c r="I1" s="299"/>
+      <c r="J1" s="299"/>
+      <c r="K1" s="299"/>
       <c r="L1" s="183"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -53841,22 +53841,22 @@
       <c r="B2" s="183" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="297" t="s">
+      <c r="C2" s="299" t="s">
         <v>340</v>
       </c>
-      <c r="D2" s="297"/>
-      <c r="E2" s="297"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
       <c r="H2" s="183" t="s">
         <v>326</v>
       </c>
       <c r="I2" s="183" t="s">
         <v>327</v>
       </c>
-      <c r="J2" s="297" t="s">
+      <c r="J2" s="299" t="s">
         <v>340</v>
       </c>
-      <c r="K2" s="297"/>
-      <c r="L2" s="297"/>
+      <c r="K2" s="299"/>
+      <c r="L2" s="299"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="183" t="s">
@@ -54117,19 +54117,19 @@
       <c r="L12" s="183"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="297" t="s">
+      <c r="A14" s="299" t="s">
         <v>318</v>
       </c>
-      <c r="B14" s="297"/>
-      <c r="C14" s="297"/>
-      <c r="D14" s="297"/>
+      <c r="B14" s="299"/>
+      <c r="C14" s="299"/>
+      <c r="D14" s="299"/>
       <c r="E14" s="183"/>
-      <c r="H14" s="297" t="s">
+      <c r="H14" s="299" t="s">
         <v>321</v>
       </c>
-      <c r="I14" s="297"/>
-      <c r="J14" s="297"/>
-      <c r="K14" s="297"/>
+      <c r="I14" s="299"/>
+      <c r="J14" s="299"/>
+      <c r="K14" s="299"/>
       <c r="L14" s="183"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -54139,22 +54139,22 @@
       <c r="B15" s="183" t="s">
         <v>327</v>
       </c>
-      <c r="C15" s="297" t="s">
+      <c r="C15" s="299" t="s">
         <v>340</v>
       </c>
-      <c r="D15" s="297"/>
-      <c r="E15" s="297"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="299"/>
       <c r="H15" s="183" t="s">
         <v>326</v>
       </c>
       <c r="I15" s="183" t="s">
         <v>327</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="299" t="s">
         <v>340</v>
       </c>
-      <c r="K15" s="297"/>
-      <c r="L15" s="297"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="183" t="s">
@@ -54521,19 +54521,19 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="297" t="s">
+      <c r="A16" s="299" t="s">
         <v>346</v>
       </c>
-      <c r="B16" s="297"/>
-      <c r="C16" s="297"/>
-      <c r="D16" s="297"/>
+      <c r="B16" s="299"/>
+      <c r="C16" s="299"/>
+      <c r="D16" s="299"/>
       <c r="E16" s="183"/>
-      <c r="G16" s="297" t="s">
+      <c r="G16" s="299" t="s">
         <v>350</v>
       </c>
-      <c r="H16" s="297"/>
-      <c r="I16" s="297"/>
-      <c r="J16" s="297"/>
+      <c r="H16" s="299"/>
+      <c r="I16" s="299"/>
+      <c r="J16" s="299"/>
       <c r="K16" s="183"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -54543,22 +54543,22 @@
       <c r="B17" s="183" t="s">
         <v>327</v>
       </c>
-      <c r="C17" s="297" t="s">
+      <c r="C17" s="299" t="s">
         <v>340</v>
       </c>
-      <c r="D17" s="297"/>
-      <c r="E17" s="297"/>
+      <c r="D17" s="299"/>
+      <c r="E17" s="299"/>
       <c r="G17" s="183" t="s">
         <v>326</v>
       </c>
       <c r="H17" s="183" t="s">
         <v>327</v>
       </c>
-      <c r="I17" s="297" t="s">
+      <c r="I17" s="299" t="s">
         <v>340</v>
       </c>
-      <c r="J17" s="297"/>
-      <c r="K17" s="297"/>
+      <c r="J17" s="299"/>
+      <c r="K17" s="299"/>
       <c r="M17" t="s">
         <v>347</v>
       </c>
@@ -54876,12 +54876,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="297" t="s">
+      <c r="A31" s="299" t="s">
         <v>353</v>
       </c>
-      <c r="B31" s="297"/>
-      <c r="C31" s="297"/>
-      <c r="D31" s="297"/>
+      <c r="B31" s="299"/>
+      <c r="C31" s="299"/>
+      <c r="D31" s="299"/>
       <c r="E31" s="183"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -54891,11 +54891,11 @@
       <c r="B32" s="183" t="s">
         <v>327</v>
       </c>
-      <c r="C32" s="297" t="s">
+      <c r="C32" s="299" t="s">
         <v>340</v>
       </c>
-      <c r="D32" s="297"/>
-      <c r="E32" s="297"/>
+      <c r="D32" s="299"/>
+      <c r="E32" s="299"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="183" t="s">
@@ -55093,13 +55093,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="298" t="s">
+      <c r="A1" s="300" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="298"/>
-      <c r="C1" s="298"/>
-      <c r="D1" s="298"/>
-      <c r="E1" s="298"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
       <c r="F1" s="201"/>
       <c r="G1" s="187">
         <v>200302</v>
@@ -55113,12 +55113,12 @@
         <v>327</v>
       </c>
       <c r="C2" s="199"/>
-      <c r="D2" s="298" t="s">
+      <c r="D2" s="300" t="s">
         <v>340</v>
       </c>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="187" t="s">
@@ -55327,13 +55327,13 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="298" t="s">
+      <c r="A15" s="300" t="s">
         <v>362</v>
       </c>
-      <c r="B15" s="298"/>
-      <c r="C15" s="298"/>
-      <c r="D15" s="298"/>
-      <c r="E15" s="298"/>
+      <c r="B15" s="300"/>
+      <c r="C15" s="300"/>
+      <c r="D15" s="300"/>
+      <c r="E15" s="300"/>
       <c r="F15" s="201"/>
       <c r="G15" s="187">
         <v>200303</v>
@@ -55347,12 +55347,12 @@
         <v>327</v>
       </c>
       <c r="C16" s="199"/>
-      <c r="D16" s="298" t="s">
+      <c r="D16" s="300" t="s">
         <v>340</v>
       </c>
-      <c r="E16" s="298"/>
-      <c r="F16" s="298"/>
-      <c r="G16" s="298"/>
+      <c r="E16" s="300"/>
+      <c r="F16" s="300"/>
+      <c r="G16" s="300"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="187" t="s">
@@ -55560,13 +55560,13 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="298" t="s">
+      <c r="A29" s="300" t="s">
         <v>361</v>
       </c>
-      <c r="B29" s="298"/>
-      <c r="C29" s="298"/>
-      <c r="D29" s="298"/>
-      <c r="E29" s="298"/>
+      <c r="B29" s="300"/>
+      <c r="C29" s="300"/>
+      <c r="D29" s="300"/>
+      <c r="E29" s="300"/>
       <c r="F29" s="201"/>
       <c r="G29" s="187">
         <v>200305</v>
@@ -55580,12 +55580,12 @@
         <v>327</v>
       </c>
       <c r="C30" s="199"/>
-      <c r="D30" s="298" t="s">
+      <c r="D30" s="300" t="s">
         <v>340</v>
       </c>
-      <c r="E30" s="298"/>
-      <c r="F30" s="298"/>
-      <c r="G30" s="298"/>
+      <c r="E30" s="300"/>
+      <c r="F30" s="300"/>
+      <c r="G30" s="300"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="187" t="s">
@@ -55814,13 +55814,13 @@
       <c r="G41" s="195"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="298" t="s">
+      <c r="A43" s="300" t="s">
         <v>360</v>
       </c>
-      <c r="B43" s="298"/>
-      <c r="C43" s="298"/>
-      <c r="D43" s="298"/>
-      <c r="E43" s="298"/>
+      <c r="B43" s="300"/>
+      <c r="C43" s="300"/>
+      <c r="D43" s="300"/>
+      <c r="E43" s="300"/>
       <c r="F43" s="201"/>
       <c r="G43" s="187">
         <v>200306</v>
@@ -55834,12 +55834,12 @@
         <v>327</v>
       </c>
       <c r="C44" s="199"/>
-      <c r="D44" s="298" t="s">
+      <c r="D44" s="300" t="s">
         <v>340</v>
       </c>
-      <c r="E44" s="298"/>
-      <c r="F44" s="298"/>
-      <c r="G44" s="298"/>
+      <c r="E44" s="300"/>
+      <c r="F44" s="300"/>
+      <c r="G44" s="300"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="187" t="s">
@@ -56074,13 +56074,13 @@
       <c r="G55" s="193"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="298" t="s">
+      <c r="A57" s="300" t="s">
         <v>364</v>
       </c>
-      <c r="B57" s="298"/>
-      <c r="C57" s="298"/>
-      <c r="D57" s="298"/>
-      <c r="E57" s="298"/>
+      <c r="B57" s="300"/>
+      <c r="C57" s="300"/>
+      <c r="D57" s="300"/>
+      <c r="E57" s="300"/>
       <c r="F57" s="201"/>
       <c r="G57" s="187">
         <v>200309</v>
@@ -56094,12 +56094,12 @@
         <v>327</v>
       </c>
       <c r="C58" s="199"/>
-      <c r="D58" s="298" t="s">
+      <c r="D58" s="300" t="s">
         <v>340</v>
       </c>
-      <c r="E58" s="298"/>
-      <c r="F58" s="298"/>
-      <c r="G58" s="298"/>
+      <c r="E58" s="300"/>
+      <c r="F58" s="300"/>
+      <c r="G58" s="300"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="187" t="s">
@@ -56336,13 +56336,13 @@
       <c r="G69" s="193"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="298" t="s">
+      <c r="A71" s="300" t="s">
         <v>369</v>
       </c>
-      <c r="B71" s="298"/>
-      <c r="C71" s="298"/>
-      <c r="D71" s="298"/>
-      <c r="E71" s="298"/>
+      <c r="B71" s="300"/>
+      <c r="C71" s="300"/>
+      <c r="D71" s="300"/>
+      <c r="E71" s="300"/>
       <c r="F71" s="201"/>
       <c r="G71" s="187">
         <v>200312</v>
@@ -56356,12 +56356,12 @@
         <v>327</v>
       </c>
       <c r="C72" s="199"/>
-      <c r="D72" s="298" t="s">
+      <c r="D72" s="300" t="s">
         <v>340</v>
       </c>
-      <c r="E72" s="298"/>
-      <c r="F72" s="298"/>
-      <c r="G72" s="298"/>
+      <c r="E72" s="300"/>
+      <c r="F72" s="300"/>
+      <c r="G72" s="300"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="187" t="s">

--- a/DataBase_Xiaodan.xlsx
+++ b/DataBase_Xiaodan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15636,10 +15636,10 @@
   <dimension ref="A1:AF513"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="A241" sqref="A241:XFD241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42052,7 +42052,7 @@
         <v>20</v>
       </c>
       <c r="N443" s="48">
-        <f t="shared" ref="N443" si="11">O443/4</f>
+        <f>O443/4</f>
         <v>20</v>
       </c>
       <c r="O443" s="48">
@@ -42094,7 +42094,7 @@
         <v>20</v>
       </c>
       <c r="N444" s="48">
-        <f t="shared" ref="N444:N447" si="12">O444/4</f>
+        <f>O444/4</f>
         <v>20</v>
       </c>
       <c r="O444" s="48">
@@ -42136,7 +42136,7 @@
         <v>20</v>
       </c>
       <c r="N445" s="48">
-        <f t="shared" si="12"/>
+        <f>O445/4</f>
         <v>20</v>
       </c>
       <c r="O445" s="48">
@@ -42178,7 +42178,7 @@
         <v>20</v>
       </c>
       <c r="N446" s="48">
-        <f t="shared" si="12"/>
+        <f>O446/4</f>
         <v>20</v>
       </c>
       <c r="O446" s="48">
@@ -42220,7 +42220,7 @@
         <v>20</v>
       </c>
       <c r="N447" s="48">
-        <f t="shared" si="12"/>
+        <f>O447/4</f>
         <v>20</v>
       </c>
       <c r="O447" s="48">
@@ -42262,7 +42262,7 @@
         <v>20</v>
       </c>
       <c r="N448" s="48">
-        <f t="shared" ref="N448:N455" si="13">O448/4</f>
+        <f t="shared" ref="N448:N455" si="11">O448/4</f>
         <v>20</v>
       </c>
       <c r="O448" s="48">
@@ -42304,7 +42304,7 @@
         <v>20</v>
       </c>
       <c r="N449" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="O449" s="48">
@@ -42346,7 +42346,7 @@
         <v>20</v>
       </c>
       <c r="N450" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="O450" s="48">
@@ -42388,7 +42388,7 @@
         <v>20</v>
       </c>
       <c r="N451" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="O451" s="48">
@@ -42430,7 +42430,7 @@
         <v>20</v>
       </c>
       <c r="N452" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="O452" s="48">
@@ -42472,7 +42472,7 @@
         <v>20</v>
       </c>
       <c r="N453" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="O453" s="48">
@@ -42514,7 +42514,7 @@
         <v>20</v>
       </c>
       <c r="N454" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="O454" s="48">
@@ -42556,7 +42556,7 @@
         <v>20</v>
       </c>
       <c r="N455" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="O455" s="48">
@@ -42598,7 +42598,7 @@
         <v>20</v>
       </c>
       <c r="N456" s="48">
-        <f t="shared" ref="N456:N458" si="14">O456/4</f>
+        <f>O456/4</f>
         <v>20</v>
       </c>
       <c r="O456" s="48">
@@ -42640,7 +42640,7 @@
         <v>20</v>
       </c>
       <c r="N457" s="48">
-        <f t="shared" si="14"/>
+        <f>O457/4</f>
         <v>20</v>
       </c>
       <c r="O457" s="48">
@@ -42682,7 +42682,7 @@
         <v>20</v>
       </c>
       <c r="N458" s="48">
-        <f t="shared" si="14"/>
+        <f>O458/4</f>
         <v>20</v>
       </c>
       <c r="O458" s="48">
@@ -43303,7 +43303,7 @@
         <v>20</v>
       </c>
       <c r="N468" s="48">
-        <f t="shared" ref="N468:N483" si="15">O468/4</f>
+        <f t="shared" ref="N468:N483" si="12">O468/4</f>
         <v>20</v>
       </c>
       <c r="O468" s="48">
@@ -43345,7 +43345,7 @@
         <v>20</v>
       </c>
       <c r="N469" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="O469" s="48">
@@ -43387,7 +43387,7 @@
         <v>20</v>
       </c>
       <c r="N470" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="O470" s="48">
@@ -43429,7 +43429,7 @@
         <v>20</v>
       </c>
       <c r="N471" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="O471" s="48">
@@ -43471,7 +43471,7 @@
         <v>20</v>
       </c>
       <c r="N472" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="O472" s="48">
@@ -43513,7 +43513,7 @@
         <v>20</v>
       </c>
       <c r="N473" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="O473" s="48">
@@ -43555,7 +43555,7 @@
         <v>20</v>
       </c>
       <c r="N474" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="O474" s="48">
@@ -43597,7 +43597,7 @@
         <v>20</v>
       </c>
       <c r="N475" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="O475" s="48">
@@ -43639,7 +43639,7 @@
         <v>20</v>
       </c>
       <c r="N476" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="O476" s="48">
@@ -43681,7 +43681,7 @@
         <v>20</v>
       </c>
       <c r="N477" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="O477" s="48">
@@ -43723,7 +43723,7 @@
         <v>20</v>
       </c>
       <c r="N478" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="O478" s="48">
@@ -43765,7 +43765,7 @@
         <v>20</v>
       </c>
       <c r="N479" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="O479" s="48">
@@ -43807,7 +43807,7 @@
         <v>20</v>
       </c>
       <c r="N480" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="O480" s="48">
@@ -43849,7 +43849,7 @@
         <v>20</v>
       </c>
       <c r="N481" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="O481" s="48">
@@ -43891,7 +43891,7 @@
         <v>20</v>
       </c>
       <c r="N482" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="O482" s="48">
@@ -43933,7 +43933,7 @@
         <v>20</v>
       </c>
       <c r="N483" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="O483" s="48">
@@ -43975,7 +43975,7 @@
         <v>20</v>
       </c>
       <c r="N484" s="48">
-        <f t="shared" ref="N484:N491" si="16">O484/4</f>
+        <f t="shared" ref="N484:N491" si="13">O484/4</f>
         <v>20</v>
       </c>
       <c r="O484" s="48">
@@ -44017,7 +44017,7 @@
         <v>20</v>
       </c>
       <c r="N485" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="O485" s="48">
@@ -44059,7 +44059,7 @@
         <v>20</v>
       </c>
       <c r="N486" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="O486" s="48">
@@ -44101,7 +44101,7 @@
         <v>20</v>
       </c>
       <c r="N487" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="O487" s="48">
@@ -44143,7 +44143,7 @@
         <v>20</v>
       </c>
       <c r="N488" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="O488" s="48">
@@ -44185,7 +44185,7 @@
         <v>20</v>
       </c>
       <c r="N489" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="O489" s="48">
@@ -44227,7 +44227,7 @@
         <v>20</v>
       </c>
       <c r="N490" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="O490" s="48">
@@ -44269,7 +44269,7 @@
         <v>20</v>
       </c>
       <c r="N491" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="O491" s="48">
@@ -44311,7 +44311,7 @@
         <v>20</v>
       </c>
       <c r="N492" s="48">
-        <f t="shared" ref="N492:N506" si="17">O492/4</f>
+        <f t="shared" ref="N492:N506" si="14">O492/4</f>
         <v>20</v>
       </c>
       <c r="O492" s="48">
@@ -44353,7 +44353,7 @@
         <v>20</v>
       </c>
       <c r="N493" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="O493" s="48">
@@ -44395,7 +44395,7 @@
         <v>20</v>
       </c>
       <c r="N494" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="O494" s="48">
@@ -44437,7 +44437,7 @@
         <v>20</v>
       </c>
       <c r="N495" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="O495" s="48">
@@ -44479,7 +44479,7 @@
         <v>20</v>
       </c>
       <c r="N496" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="O496" s="48">
@@ -44521,7 +44521,7 @@
         <v>20</v>
       </c>
       <c r="N497" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="O497" s="48">
@@ -44563,7 +44563,7 @@
         <v>20</v>
       </c>
       <c r="N498" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="O498" s="48">
@@ -44605,7 +44605,7 @@
         <v>20</v>
       </c>
       <c r="N499" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="O499" s="48">
@@ -44647,7 +44647,7 @@
         <v>20</v>
       </c>
       <c r="N500" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="O500" s="48">
@@ -44689,7 +44689,7 @@
         <v>20</v>
       </c>
       <c r="N501" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="O501" s="48">
@@ -44731,7 +44731,7 @@
         <v>20</v>
       </c>
       <c r="N502" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="O502" s="48">
@@ -44773,7 +44773,7 @@
         <v>20</v>
       </c>
       <c r="N503" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="O503" s="48">
@@ -44815,7 +44815,7 @@
         <v>20</v>
       </c>
       <c r="N504" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="O504" s="48">
@@ -44857,7 +44857,7 @@
         <v>20</v>
       </c>
       <c r="N505" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="O505" s="48">
@@ -44899,7 +44899,7 @@
         <v>20</v>
       </c>
       <c r="N506" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="O506" s="48">
@@ -44941,7 +44941,7 @@
         <v>20</v>
       </c>
       <c r="N507" s="48">
-        <f t="shared" ref="N507:N513" si="18">O507/4</f>
+        <f t="shared" ref="N507:N513" si="15">O507/4</f>
         <v>20</v>
       </c>
       <c r="O507" s="48">
@@ -44983,7 +44983,7 @@
         <v>20</v>
       </c>
       <c r="N508" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="O508" s="48">
@@ -45025,7 +45025,7 @@
         <v>20</v>
       </c>
       <c r="N509" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="O509" s="48">
@@ -45067,7 +45067,7 @@
         <v>20</v>
       </c>
       <c r="N510" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="O510" s="48">
@@ -45109,7 +45109,7 @@
         <v>20</v>
       </c>
       <c r="N511" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="O511" s="48">
@@ -45151,7 +45151,7 @@
         <v>20</v>
       </c>
       <c r="N512" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="O512" s="48">
@@ -45193,7 +45193,7 @@
         <v>20</v>
       </c>
       <c r="N513" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="O513" s="48">
